--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>sym_1</t>
   </si>
@@ -51,115 +51,112 @@
     <t>abs</t>
   </si>
   <si>
-    <t>ADAUSDT</t>
+    <t>FORTHUSDT</t>
+  </si>
+  <si>
+    <t>XNOUSDT</t>
+  </si>
+  <si>
+    <t>EOSUSDT</t>
+  </si>
+  <si>
+    <t>MDTUSDT</t>
+  </si>
+  <si>
+    <t>NEOUSDT</t>
+  </si>
+  <si>
+    <t>USDCUSDT</t>
+  </si>
+  <si>
+    <t>SFPUSDT</t>
+  </si>
+  <si>
+    <t>AKROUSDT</t>
+  </si>
+  <si>
+    <t>FILUSDT</t>
+  </si>
+  <si>
+    <t>CFXUSDT</t>
+  </si>
+  <si>
+    <t>AVAXUSDT</t>
+  </si>
+  <si>
+    <t>LTOUSDT</t>
+  </si>
+  <si>
+    <t>OPUSDT</t>
+  </si>
+  <si>
+    <t>GLMRUSDT</t>
+  </si>
+  <si>
+    <t>HBARUSDT</t>
+  </si>
+  <si>
+    <t>JSTUSDT</t>
+  </si>
+  <si>
+    <t>IDEXUSDT</t>
+  </si>
+  <si>
+    <t>QNTUSDT</t>
+  </si>
+  <si>
+    <t>SNTUSDT</t>
+  </si>
+  <si>
+    <t>MOVRUSDT</t>
+  </si>
+  <si>
+    <t>1000BONKUSDT</t>
   </si>
   <si>
     <t>COMPUSDT</t>
   </si>
   <si>
-    <t>GLMUSDT</t>
+    <t>SCUSDT</t>
+  </si>
+  <si>
+    <t>ICPUSDT</t>
+  </si>
+  <si>
+    <t>ALICEUSDT</t>
+  </si>
+  <si>
+    <t>AGLDUSDT</t>
+  </si>
+  <si>
+    <t>XVGUSDT</t>
+  </si>
+  <si>
+    <t>ASTRUSDT</t>
+  </si>
+  <si>
+    <t>VTHOUSDT</t>
+  </si>
+  <si>
+    <t>1000BTTUSDT</t>
   </si>
   <si>
     <t>IMXUSDT</t>
   </si>
   <si>
-    <t>LDOUSDT</t>
-  </si>
-  <si>
-    <t>SSVUSDT</t>
-  </si>
-  <si>
-    <t>USDCUSDT</t>
-  </si>
-  <si>
-    <t>SFPUSDT</t>
-  </si>
-  <si>
-    <t>LUNA2USDT</t>
-  </si>
-  <si>
-    <t>OPUSDT</t>
-  </si>
-  <si>
-    <t>AVAXUSDT</t>
-  </si>
-  <si>
-    <t>SXPUSDT</t>
-  </si>
-  <si>
-    <t>TUSDT</t>
-  </si>
-  <si>
-    <t>STEEMUSDT</t>
-  </si>
-  <si>
-    <t>LTOUSDT</t>
-  </si>
-  <si>
-    <t>POWRUSDT</t>
-  </si>
-  <si>
-    <t>INJUSDT</t>
-  </si>
-  <si>
-    <t>SNTUSDT</t>
-  </si>
-  <si>
-    <t>NEOUSDT</t>
-  </si>
-  <si>
-    <t>CFXUSDT</t>
-  </si>
-  <si>
-    <t>WIFUSDT</t>
-  </si>
-  <si>
-    <t>SHIB1000USDT</t>
-  </si>
-  <si>
-    <t>NKNUSDT</t>
-  </si>
-  <si>
-    <t>ALICEUSDT</t>
-  </si>
-  <si>
-    <t>AGLDUSDT</t>
-  </si>
-  <si>
-    <t>XVSUSDT</t>
-  </si>
-  <si>
-    <t>SCRTUSDT</t>
-  </si>
-  <si>
-    <t>SNXUSDT</t>
-  </si>
-  <si>
-    <t>DENTUSDT</t>
-  </si>
-  <si>
-    <t>XVGUSDT</t>
-  </si>
-  <si>
-    <t>VETUSDT</t>
+    <t>UMAUSDT</t>
+  </si>
+  <si>
+    <t>TWTUSDT</t>
+  </si>
+  <si>
+    <t>CROUSDT</t>
+  </si>
+  <si>
+    <t>GRTUSDT</t>
   </si>
   <si>
     <t>ALGOUSDT</t>
-  </si>
-  <si>
-    <t>AUDIOUSDT</t>
-  </si>
-  <si>
-    <t>XNOUSDT</t>
-  </si>
-  <si>
-    <t>FLOWUSDT</t>
-  </si>
-  <si>
-    <t>THETAUSDT</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
 </sst>
 </file>
@@ -522,15 +519,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,421 +556,418 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C2">
         <v>0.01</v>
       </c>
       <c r="D2">
-        <v>-3.93</v>
+        <v>-3.95</v>
       </c>
       <c r="E2">
         <v>-3.37</v>
       </c>
       <c r="F2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>2.6332062480688729</v>
+        <v>-2.2664134303404739</v>
       </c>
       <c r="I2">
-        <v>2.6332062480688729</v>
-      </c>
-      <c r="J2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.2664134303404739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-4.3600000000000003</v>
+        <v>-4.1500000000000004</v>
       </c>
       <c r="E3">
         <v>-3.37</v>
       </c>
       <c r="F3">
-        <v>6.23</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>-2.5496758656668468</v>
+        <v>-2.200247010010195</v>
       </c>
       <c r="I3">
-        <v>2.5496758656668468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.200247010010195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-4.32</v>
+      </c>
+      <c r="E4">
+        <v>-3.37</v>
+      </c>
+      <c r="F4">
         <v>0.01</v>
       </c>
-      <c r="D4">
-        <v>-4.01</v>
-      </c>
-      <c r="E4">
-        <v>-3.37</v>
-      </c>
-      <c r="F4">
-        <v>13.27</v>
-      </c>
       <c r="G4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4">
-        <v>-2.5483257887505122</v>
+        <v>2.1635591882869289</v>
       </c>
       <c r="I4">
-        <v>2.5483257887505122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.1635591882869289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-4.54</v>
+        <v>-4.9400000000000004</v>
       </c>
       <c r="E5">
         <v>-3.37</v>
       </c>
       <c r="F5">
-        <v>0.01</v>
+        <v>1.29</v>
       </c>
       <c r="G5">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2.545111473524023</v>
+        <v>2.1623494370582481</v>
       </c>
       <c r="I5">
-        <v>2.545111473524023</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.1623494370582481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0.01</v>
       </c>
       <c r="D6">
+        <v>-3.94</v>
+      </c>
+      <c r="E6">
+        <v>-3.37</v>
+      </c>
+      <c r="F6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6">
+        <v>2.1265922662942729</v>
+      </c>
+      <c r="I6">
+        <v>2.1265922662942729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7">
+        <v>0.01</v>
+      </c>
+      <c r="D7">
         <v>-4</v>
       </c>
-      <c r="E6">
-        <v>-3.37</v>
-      </c>
-      <c r="F6">
-        <v>0.13</v>
-      </c>
-      <c r="G6">
-        <v>28</v>
-      </c>
-      <c r="H6">
-        <v>2.485162799514212</v>
-      </c>
-      <c r="I6">
-        <v>2.485162799514212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>-4.3899999999999997</v>
-      </c>
       <c r="E7">
         <v>-3.37</v>
       </c>
       <c r="F7">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>2.435736107806838</v>
+        <v>-2.124859136616942</v>
       </c>
       <c r="I7">
-        <v>2.435736107806838</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.124859136616942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>-4.6100000000000003</v>
+        <v>-4.55</v>
       </c>
       <c r="E8">
         <v>-3.37</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
+        <v>3.43</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H8">
-        <v>2.401828330230162</v>
+        <v>2.1088135374470802</v>
       </c>
       <c r="I8">
-        <v>2.401828330230162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.1088135374470802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>0.01</v>
       </c>
       <c r="D9">
-        <v>-3.96</v>
+        <v>-4.01</v>
       </c>
       <c r="E9">
         <v>-3.37</v>
       </c>
       <c r="F9">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G9">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>-2.0997998274904468</v>
+      </c>
+      <c r="I9">
+        <v>2.0997998274904468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="H9">
-        <v>2.3923316457075972</v>
-      </c>
-      <c r="I9">
-        <v>2.3923316457075972</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D10">
-        <v>-4.41</v>
+        <v>-3.92</v>
       </c>
       <c r="E10">
         <v>-3.37</v>
       </c>
       <c r="F10">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H10">
-        <v>2.3911405599372979</v>
+        <v>-2.0997998274904468</v>
       </c>
       <c r="I10">
-        <v>2.3911405599372979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.0997998274904468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
-        <v>-4.26</v>
+        <v>-3.99</v>
       </c>
       <c r="E11">
         <v>-3.37</v>
       </c>
       <c r="F11">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>-2.3794028041504758</v>
+        <v>-2.098096151204019</v>
       </c>
       <c r="I11">
-        <v>2.3794028041504758</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.098096151204019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-4.0599999999999996</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="E12">
         <v>-3.37</v>
       </c>
       <c r="F12">
-        <v>7.07</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>-2.3758531136701699</v>
+        <v>-2.0803556741250171</v>
       </c>
       <c r="I12">
-        <v>2.3758531136701699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.0803556741250171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-3.94</v>
+        <v>-4.62</v>
       </c>
       <c r="E13">
         <v>-3.37</v>
       </c>
       <c r="F13">
-        <v>123.73</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>28</v>
       </c>
       <c r="H13">
-        <v>-2.2961150914273052</v>
+        <v>-2.0803556741250171</v>
       </c>
       <c r="I13">
-        <v>2.2961150914273052</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.0803556741250171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>-4.4000000000000004</v>
+        <v>-4.8899999999999997</v>
       </c>
       <c r="E14">
         <v>-3.37</v>
       </c>
       <c r="F14">
-        <v>0.23</v>
+        <v>33.47</v>
       </c>
       <c r="G14">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>2.2813688241601611</v>
+        <v>2.079520723229122</v>
       </c>
       <c r="I14">
-        <v>2.2813688241601611</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.079520723229122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="C15">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-3.94</v>
+        <v>-4.41</v>
       </c>
       <c r="E15">
         <v>-3.37</v>
       </c>
       <c r="F15">
-        <v>11.67</v>
+        <v>2.91</v>
       </c>
       <c r="G15">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>-2.274142866091359</v>
+        <v>2.0759565496888182</v>
       </c>
       <c r="I15">
-        <v>2.274142866091359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2.0759565496888182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>0.01</v>
@@ -985,74 +979,74 @@
         <v>-3.37</v>
       </c>
       <c r="F16">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="G16">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H16">
-        <v>2.258911744711944</v>
+        <v>-2.0678746940765769</v>
       </c>
       <c r="I16">
-        <v>2.258911744711944</v>
+        <v>2.0678746940765769</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D17">
-        <v>-5.08</v>
+        <v>-3.92</v>
       </c>
       <c r="E17">
         <v>-3.37</v>
       </c>
       <c r="F17">
-        <v>9.0500000000000007</v>
+        <v>0.03</v>
       </c>
       <c r="G17">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H17">
-        <v>-2.2219524812151779</v>
+        <v>-2.0526409438187661</v>
       </c>
       <c r="I17">
-        <v>2.2219524812151779</v>
+        <v>2.0526409438187661</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-4.0599999999999996</v>
+        <v>-4.1500000000000004</v>
       </c>
       <c r="E18">
         <v>-3.37</v>
       </c>
       <c r="F18">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="G18">
         <v>26</v>
       </c>
       <c r="H18">
-        <v>-2.2056030766850481</v>
+        <v>2.048095942426559</v>
       </c>
       <c r="I18">
-        <v>2.2056030766850481</v>
+        <v>2.048095942426559</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1060,292 +1054,148 @@
         <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C19">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-4.01</v>
+        <v>-5.33</v>
       </c>
       <c r="E19">
         <v>-3.37</v>
       </c>
       <c r="F19">
-        <v>0.42</v>
+        <v>0.95</v>
       </c>
       <c r="G19">
         <v>26</v>
       </c>
       <c r="H19">
-        <v>2.1915763066032139</v>
+        <v>-2.0423731372753799</v>
       </c>
       <c r="I19">
-        <v>2.1915763066032139</v>
+        <v>2.0423731372753799</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>-4.9000000000000004</v>
+        <v>-4.18</v>
       </c>
       <c r="E20">
         <v>-3.37</v>
       </c>
       <c r="F20">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>2.1908798901024822</v>
+        <v>-2.0405510902557298</v>
       </c>
       <c r="I20">
-        <v>2.1908798901024822</v>
+        <v>2.0405510902557298</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D21">
-        <v>-4.1100000000000003</v>
+        <v>-4.0199999999999996</v>
       </c>
       <c r="E21">
         <v>-3.37</v>
       </c>
       <c r="F21">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H21">
-        <v>-2.1832169157086549</v>
+        <v>-2.0405510902557298</v>
       </c>
       <c r="I21">
-        <v>2.1832169157086549</v>
+        <v>2.0405510902557298</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D22">
-        <v>-4.37</v>
+        <v>-3.99</v>
       </c>
       <c r="E22">
         <v>-3.37</v>
       </c>
       <c r="F22">
-        <v>56.17</v>
+        <v>29.74</v>
       </c>
       <c r="G22">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H22">
-        <v>-2.1504555408784718</v>
+        <v>2.0346561009841388</v>
       </c>
       <c r="I22">
-        <v>2.1504555408784718</v>
+        <v>2.0346561009841388</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>-4.2300000000000004</v>
+        <v>-4.74</v>
       </c>
       <c r="E23">
         <v>-3.37</v>
       </c>
       <c r="F23">
-        <v>4.63</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H23">
-        <v>2.1417325427846099</v>
+        <v>-2.030918277482193</v>
       </c>
       <c r="I23">
-        <v>2.1417325427846099</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>-4.33</v>
-      </c>
-      <c r="E24">
-        <v>-3.37</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>31</v>
-      </c>
-      <c r="H24">
-        <v>-2.078840592869589</v>
-      </c>
-      <c r="I24">
-        <v>2.078840592869589</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>-5.37</v>
-      </c>
-      <c r="E25">
-        <v>-3.37</v>
-      </c>
-      <c r="F25">
-        <v>106.99</v>
-      </c>
-      <c r="G25">
-        <v>34</v>
-      </c>
-      <c r="H25">
-        <v>-2.0748324852139959</v>
-      </c>
-      <c r="I25">
-        <v>2.0748324852139959</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26">
-        <v>0.01</v>
-      </c>
-      <c r="D26">
-        <v>-3.96</v>
-      </c>
-      <c r="E26">
-        <v>-3.37</v>
-      </c>
-      <c r="F26">
-        <v>62.18</v>
-      </c>
-      <c r="G26">
-        <v>34</v>
-      </c>
-      <c r="H26">
-        <v>-2.0286049738449798</v>
-      </c>
-      <c r="I26">
-        <v>2.0286049738449798</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>-4.34</v>
-      </c>
-      <c r="E27">
-        <v>-3.37</v>
-      </c>
-      <c r="F27">
-        <v>32.94</v>
-      </c>
-      <c r="G27">
-        <v>27</v>
-      </c>
-      <c r="H27">
-        <v>2.0237129055249632</v>
-      </c>
-      <c r="I27">
-        <v>2.0237129055249632</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>-4.3499999999999996</v>
-      </c>
-      <c r="E28">
-        <v>-3.37</v>
-      </c>
-      <c r="F28">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="G28">
-        <v>28</v>
-      </c>
-      <c r="H28">
-        <v>-2.014365717855167</v>
-      </c>
-      <c r="I28">
-        <v>2.014365717855167</v>
+        <v>2.030918277482193</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I23"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,793 +483,397 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OPUSDT</t>
+          <t>JOEUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SNTUSDT</t>
+          <t>QTUMUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.48</v>
+        <v>-4.22</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>67.98025725399451</v>
+        <v>0.1352959231396028</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.556878677264258</v>
+        <v>-2.257420745592767</v>
       </c>
       <c r="I2" t="n">
-        <v>2.556878677264258</v>
+        <v>2.257420745592767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LDOUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SSVUSDT</t>
+          <t>MOVRUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.95</v>
+        <v>-5.26</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05054863536545534</v>
+        <v>0.01253667097474743</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>2.135427962722758</v>
+        <v>2.164946672458933</v>
       </c>
       <c r="I3" t="n">
-        <v>2.135427962722758</v>
+        <v>2.164946672458933</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ORDIUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AGLDUSDT</t>
+          <t>CROUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.14</v>
+        <v>-4.18</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>36.09019483397397</v>
+        <v>0.05604254401765164</v>
       </c>
       <c r="G4" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.503583319562161</v>
+        <v>-2.26379222126016</v>
       </c>
       <c r="I4" t="n">
-        <v>2.503583319562161</v>
+        <v>2.26379222126016</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>ALGOUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SNTUSDT</t>
+          <t>OXTUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.27</v>
+        <v>-3.98</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>22.89425402619712</v>
+        <v>1.803184554885416</v>
       </c>
       <c r="G5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.518900202343446</v>
+        <v>2.073953474800047</v>
       </c>
       <c r="I5" t="n">
-        <v>2.518900202343446</v>
+        <v>2.073953474800047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>REQUSDT</t>
+          <t>ALGOUSDT</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.01</v>
+        <v>-4.21</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>445.454980438226</v>
+        <v>0.0364723445329704</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H6" t="n">
-        <v>2.113969745293438</v>
+        <v>-2.030168714763736</v>
       </c>
       <c r="I6" t="n">
-        <v>2.113969745293438</v>
+        <v>2.030168714763736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>RSS3USDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>ETHFIUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.93</v>
+        <v>-4.12</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4473298051882865</v>
+        <v>0.07963860100275201</v>
       </c>
       <c r="G7" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.103275325953019</v>
+        <v>2.12319605115963</v>
       </c>
       <c r="I7" t="n">
-        <v>2.103275325953019</v>
+        <v>2.12319605115963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GLMUSDT</t>
+          <t>LDOUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SNTUSDT</t>
+          <t>RPLUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0.01</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.95</v>
+        <v>-3.94</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>13.42813871679791</v>
+        <v>0.09762647328125194</v>
       </c>
       <c r="G8" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.292573063450996</v>
+        <v>2.595778695088402</v>
       </c>
       <c r="I8" t="n">
-        <v>2.292573063450996</v>
+        <v>2.595778695088402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>ALGOUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CROUSDT</t>
+          <t>VETUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.15</v>
+        <v>-4.46</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0560125052756873</v>
+        <v>5.279716530911609</v>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.201005612858359</v>
+        <v>2.572431727383306</v>
       </c>
       <c r="I9" t="n">
-        <v>2.201005612858359</v>
+        <v>2.572431727383306</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TOKENUSDT</t>
+          <t>XVGUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BICOUSDT</t>
+          <t>ALGOUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.57</v>
+        <v>-3.95</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2279744956726957</v>
+        <v>0.0300414828480076</v>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.0093845662613</v>
+        <v>-2.168451868541477</v>
       </c>
       <c r="I10" t="n">
-        <v>2.0093845662613</v>
+        <v>2.168451868541477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>ALGOUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>STEEMUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.36</v>
+        <v>-5.54</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6521581692596243</v>
+        <v>0.7015052549958074</v>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.255338817399614</v>
+        <v>2.021006604479978</v>
       </c>
       <c r="I11" t="n">
-        <v>2.255338817399614</v>
+        <v>2.021006604479978</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BICOUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FXSUSDT</t>
+          <t>SHIB1000USDT</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0.01</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.08</v>
+        <v>-3.96</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1168808029370006</v>
+        <v>123.8140091872264</v>
       </c>
       <c r="G12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H12" t="n">
-        <v>2.198977133559304</v>
+        <v>-2.025260417727691</v>
       </c>
       <c r="I12" t="n">
-        <v>2.198977133559304</v>
+        <v>2.025260417727691</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>ARKMUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.19</v>
+        <v>-3.92</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>5.22238198722146</v>
+        <v>0.002041848681526166</v>
       </c>
       <c r="G13" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H13" t="n">
-        <v>2.14934558936995</v>
+        <v>-2.078207786499584</v>
       </c>
       <c r="I13" t="n">
-        <v>2.14934558936995</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>FILUSDT</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>RENUSDT</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-3.94</v>
-      </c>
-      <c r="E14" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F14" t="n">
-        <v>92.98253288803977</v>
-      </c>
-      <c r="G14" t="n">
-        <v>28</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2.015404706388769</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.015404706388769</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>1000FLOKIUSDT</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>BNTUSDT</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-4.18</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.2816731829430495</v>
-      </c>
-      <c r="G15" t="n">
-        <v>28</v>
-      </c>
-      <c r="H15" t="n">
-        <v>-2.00824160171884</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.00824160171884</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>COMPUSDT</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>QIUSDT</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-3.98</v>
-      </c>
-      <c r="E16" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3245.952115214673</v>
-      </c>
-      <c r="G16" t="n">
-        <v>27</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.580797994419935</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.580797994419935</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>WIFUSDT</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>SHIB1000USDT</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-3.95</v>
-      </c>
-      <c r="E17" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F17" t="n">
-        <v>123.9015645627518</v>
-      </c>
-      <c r="G17" t="n">
-        <v>27</v>
-      </c>
-      <c r="H17" t="n">
-        <v>-2.065032129463959</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.065032129463959</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>STXUSDT</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>AVAXUSDT</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-4.11</v>
-      </c>
-      <c r="E18" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.06360629430294147</v>
-      </c>
-      <c r="G18" t="n">
-        <v>27</v>
-      </c>
-      <c r="H18" t="n">
-        <v>-2.05271166866331</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.05271166866331</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MINAUSDT</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>SNTUSDT</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-4.06</v>
-      </c>
-      <c r="E19" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F19" t="n">
-        <v>21.5466516201287</v>
-      </c>
-      <c r="G19" t="n">
-        <v>26</v>
-      </c>
-      <c r="H19" t="n">
-        <v>-2.233440543034137</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.233440543034137</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>GMTUSDT</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>OPUSDT</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-3.94</v>
-      </c>
-      <c r="E20" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.08729473254715099</v>
-      </c>
-      <c r="G20" t="n">
-        <v>26</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2.151808879665347</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.151808879665347</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1000FLOKIUSDT</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>KNCUSDT</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-4.39</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.3183923072507167</v>
-      </c>
-      <c r="G21" t="n">
-        <v>26</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-2.120017773118842</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2.120017773118842</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CROUSDT</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>EOSUSDT</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.1583277877218108</v>
-      </c>
-      <c r="G22" t="n">
-        <v>26</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.077423401940737</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2.077423401940737</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>10000000AIDOGEUSDT</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>ARKMUSDT</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D23" t="n">
-        <v>-3.97</v>
-      </c>
-      <c r="E23" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.002045672523352787</v>
-      </c>
-      <c r="G23" t="n">
-        <v>25</v>
-      </c>
-      <c r="H23" t="n">
-        <v>-2.298980623274463</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.298980623274463</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>COMPUSDT</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>XTZUSDT</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-3.98</v>
-      </c>
-      <c r="E24" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F24" t="n">
-        <v>63.57054242195019</v>
-      </c>
-      <c r="G24" t="n">
-        <v>25</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.263043854333647</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.263043854333647</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>BATUSDT</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>COMPUSDT</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-4.27</v>
-      </c>
-      <c r="E25" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.003986122841163898</v>
-      </c>
-      <c r="G25" t="n">
-        <v>25</v>
-      </c>
-      <c r="H25" t="n">
-        <v>-2.106284006509879</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2.106284006509879</v>
+        <v>2.078207786499584</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,401 +479,2638 @@
           <t>abs</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>KSMUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>QTUMUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.22</v>
+        <v>-4.11</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1352959231396028</v>
+        <v>57.3874520924954</v>
       </c>
       <c r="G2" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.257420745592767</v>
+        <v>-2.987740104566285</v>
       </c>
       <c r="I2" t="n">
-        <v>2.257420745592767</v>
+        <v>2.987740104566285</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5102532765349103</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LTOUSDT</t>
+          <t>FIDAUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MOVRUSDT</t>
+          <t>VANRYUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.26</v>
+        <v>-4.74</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01253667097474743</v>
+        <v>3.178586303500584</v>
       </c>
       <c r="G3" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>2.164946672458933</v>
+        <v>-2.80759275580241</v>
       </c>
       <c r="I3" t="n">
-        <v>2.164946672458933</v>
+        <v>2.80759275580241</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4930918081094303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>LQTYUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CROUSDT</t>
+          <t>RENUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.18</v>
+        <v>-4.39</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05604254401765164</v>
+        <v>26.00710170655158</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.26379222126016</v>
+        <v>2.213647075232605</v>
       </c>
       <c r="I4" t="n">
-        <v>2.26379222126016</v>
+        <v>2.213647075232605</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4860565222996232</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALGOUSDT</t>
+          <t>RDNTUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OXTUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.98</v>
+        <v>-4.3</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>1.803184554885416</v>
+        <v>0.2561028859104639</v>
       </c>
       <c r="G5" t="n">
         <v>29</v>
       </c>
       <c r="H5" t="n">
-        <v>2.073953474800047</v>
+        <v>-2.948809478491365</v>
       </c>
       <c r="I5" t="n">
-        <v>2.073953474800047</v>
+        <v>2.948809478491365</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4506895511336424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALGOUSDT</t>
+          <t>KSMUSDT</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.21</v>
+        <v>-5.13</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0364723445329704</v>
+        <v>0.03161209943738381</v>
       </c>
       <c r="G6" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.030168714763736</v>
+        <v>2.541386456328916</v>
       </c>
       <c r="I6" t="n">
-        <v>2.030168714763736</v>
+        <v>2.541386456328916</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4496348931172751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RSS3USDT</t>
+          <t>APTUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ETHFIUSDT</t>
+          <t>BOMEUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.12</v>
+        <v>-5.03</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07963860100275201</v>
+        <v>1119.358360625656</v>
       </c>
       <c r="G7" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
-        <v>2.12319605115963</v>
+        <v>2.256659514650996</v>
       </c>
       <c r="I7" t="n">
-        <v>2.12319605115963</v>
+        <v>2.256659514650996</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.4324458670594583</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LDOUSDT</t>
+          <t>MEMEUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>RPLUSDT</t>
+          <t>PORTALUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.94</v>
+        <v>-5.29</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09762647328125194</v>
+        <v>0.04676951704375686</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H8" t="n">
-        <v>2.595778695088402</v>
+        <v>-2.686330062528515</v>
       </c>
       <c r="I8" t="n">
-        <v>2.595778695088402</v>
+        <v>2.686330062528515</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.409291372805144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ALGOUSDT</t>
+          <t>GMEUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>VETUSDT</t>
+          <t>PENGUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.46</v>
+        <v>-4.2</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>5.279716530911609</v>
+        <v>0.02714234798276843</v>
       </c>
       <c r="G9" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H9" t="n">
-        <v>2.572431727383306</v>
+        <v>2.482296563835537</v>
       </c>
       <c r="I9" t="n">
-        <v>2.572431727383306</v>
+        <v>2.482296563835537</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.4086480733209791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>XVGUSDT</t>
+          <t>API3USDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ALGOUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.95</v>
+        <v>-4.09</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0300414828480076</v>
+        <v>0.08155561428894009</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.168451868541477</v>
+        <v>-2.521170657300052</v>
       </c>
       <c r="I10" t="n">
-        <v>2.168451868541477</v>
+        <v>2.521170657300052</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.4079903602370799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ALGOUSDT</t>
+          <t>IOUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>STEEMUSDT</t>
+          <t>MYRIAUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.54</v>
+        <v>-4.37</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7015052549958074</v>
+        <v>763.0788172488888</v>
       </c>
       <c r="G11" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>2.021006604479978</v>
+        <v>2.050250779245905</v>
       </c>
       <c r="I11" t="n">
-        <v>2.021006604479978</v>
+        <v>2.050250779245905</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.4005039066860543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>MAVIAUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SHIB1000USDT</t>
+          <t>MYRIAUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.96</v>
+        <v>-4.24</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>123.8140091872264</v>
+        <v>590.8578812310152</v>
       </c>
       <c r="G12" t="n">
         <v>26</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.025260417727691</v>
+        <v>2.655338747022864</v>
       </c>
       <c r="I12" t="n">
-        <v>2.025260417727691</v>
+        <v>2.655338747022864</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3854324121273415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>10000000AIDOGEUSDT</t>
+          <t>10000SATSUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ARKMUSDT</t>
+          <t>BLURUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01084796246060278</v>
+      </c>
+      <c r="G13" t="n">
+        <v>36</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.46323375539672</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.46323375539672</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.3674662364608182</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>NTRNUSDT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>XVGUSDT</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-4.54</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F14" t="n">
+        <v>99.46461594391967</v>
+      </c>
+      <c r="G14" t="n">
+        <v>45</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.052025620125723</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.052025620125723</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3659970159584787</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ARUSDT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PENGUSDT</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>0.01</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D15" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F15" t="n">
+        <v>97.62404404423766</v>
+      </c>
+      <c r="G15" t="n">
+        <v>33</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.5175882561866</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.5175882561866</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3572776200943561</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MANAUSDT</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CTSIUSDT</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.355765704286176</v>
+      </c>
+      <c r="G16" t="n">
+        <v>36</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.402631232398674</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.402631232398674</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3429433117274001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FIDAUSDT</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MAVUSDT</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-4.17</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.514210243839076</v>
+      </c>
+      <c r="G17" t="n">
+        <v>39</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-2.244562206724989</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.244562206724989</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.3277372077400497</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AERGOUSDT</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ONGUSDT</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.3390957194134836</v>
+      </c>
+      <c r="G18" t="n">
+        <v>37</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.32301944946131</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.32301944946131</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3264841973546781</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ATAUSDT</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>VOXELUSDT</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-4.43</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5451958035324039</v>
+      </c>
+      <c r="G19" t="n">
+        <v>39</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.221040622364634</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.221040622364634</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3178833999506462</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MTLUSDT</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>POLUSDT</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-4.32</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.844319348955043</v>
+      </c>
+      <c r="G20" t="n">
+        <v>41</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-2.106617477837347</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.106617477837347</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3045349213580039</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1000FLOKIUSDT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>INJUSDT</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.007286428409376241</v>
+      </c>
+      <c r="G21" t="n">
+        <v>25</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-2.750720547259832</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.750720547259832</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.3024518796644967</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>OGUSDT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PYRUSDT</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-5.01</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.484203371121369</v>
+      </c>
+      <c r="G22" t="n">
+        <v>35</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-2.341975140659401</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.341975140659401</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3013356456483282</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CTSIUSDT</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>VETUSDT</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-4.34</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5.806725822011584</v>
+      </c>
+      <c r="G23" t="n">
+        <v>32</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-2.430267221061732</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.430267221061732</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.2882672587248938</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AGIUSDT</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LDOUSDT</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-4.73</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1617997459956398</v>
+      </c>
+      <c r="G24" t="n">
+        <v>26</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-2.668584645713399</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.668584645713399</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.2853418597163897</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GMEUSDT</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MEMEUSDT</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3507916418551442</v>
+      </c>
+      <c r="G25" t="n">
+        <v>25</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.699999248585073</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.699999248585073</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.2816381242151368</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CHZUSDT</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>QUICKUSDT</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D26" t="n">
         <v>-3.92</v>
       </c>
-      <c r="E13" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.002041848681526166</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="E26" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.717374459056289</v>
+      </c>
+      <c r="G26" t="n">
+        <v>30</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.491541784742443</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.491541784742443</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2794217536570738</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ALPACAUSDT</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>UMAUSDT</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.05842187774948328</v>
+      </c>
+      <c r="G27" t="n">
+        <v>27</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-2.601489332614088</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.601489332614088</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.2743759468984577</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BEAMUSDT</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>VTHOUSDT</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.01</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F28" t="n">
+        <v>11.08985659048073</v>
+      </c>
+      <c r="G28" t="n">
+        <v>37</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.171458146613586</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.171458146613586</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.2660276938177505</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>C98USDT</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>KDAUSDT</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.43</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.2260328460014841</v>
+      </c>
+      <c r="G29" t="n">
+        <v>30</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2.453745982893154</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.453745982893154</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.2635998456648874</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>IOTXUSDT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PHAUSDT</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.3743234587982296</v>
+      </c>
+      <c r="G30" t="n">
+        <v>38</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2.113757527371203</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.113757527371203</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.2570321942552526</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FIOUSDT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MEMEUSDT</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-4.38</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.2636199647414</v>
+      </c>
+      <c r="G31" t="n">
+        <v>29</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.453334220997529</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.453334220997529</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.2471277761508126</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FLUXUSDT</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>STPTUSDT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F32" t="n">
+        <v>12.48217414505605</v>
+      </c>
+      <c r="G32" t="n">
+        <v>39</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.042980320531012</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.042980320531012</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.2467327719972995</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MEWUSDT</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SUPERUSDT</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-6.24</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.007217415122706417</v>
+      </c>
+      <c r="G33" t="n">
+        <v>33</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-2.267121163488513</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.267121163488513</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.2367524328958537</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ILVUSDT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>KSMUSDT</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-5.18</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.058618053688615</v>
+      </c>
+      <c r="G34" t="n">
+        <v>36</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.131681907431854</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.131681907431854</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.2313768552110217</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CYBERUSDT</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MAVUSDT</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F35" t="n">
+        <v>20.19775560918466</v>
+      </c>
+      <c r="G35" t="n">
+        <v>38</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-2.036147860925707</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.036147860925707</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2286326762170582</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>KDAUSDT</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>XVGUSDT</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-4.11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F36" t="n">
+        <v>146.330797525098</v>
+      </c>
+      <c r="G36" t="n">
+        <v>32</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.213451822875201</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.213451822875201</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2241415609901297</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NTRNUSDT</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ZROUSDT</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1071863300731008</v>
+      </c>
+      <c r="G37" t="n">
+        <v>35</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.148769890065191</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.148769890065191</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2213943403814123</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>KSMUSDT</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ATAUSDT</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F38" t="n">
+        <v>205.1939027998261</v>
+      </c>
+      <c r="G38" t="n">
+        <v>27</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-2.381048959673365</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.381048959673365</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.2203027220685275</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>FLUXUSDT</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>XLMUSDT</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-3.94</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.325760159166944</v>
+      </c>
+      <c r="G39" t="n">
+        <v>35</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.134290449694648</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.134290449694648</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.2163675280103382</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IDUSDT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>UMAUSDT</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1677381806492652</v>
+      </c>
+      <c r="G40" t="n">
+        <v>26</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-2.469567790431611</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.469567790431611</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.2034344716001983</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>OGUSDT</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>POLUSDT</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-4.66</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F41" t="n">
+        <v>18.43207954703583</v>
+      </c>
+      <c r="G41" t="n">
+        <v>29</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-2.337048126122828</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.337048126122828</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.2021573298318838</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MAVUSDT</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TUSDT</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-4.89</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6.971792438606657</v>
+      </c>
+      <c r="G42" t="n">
+        <v>27</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.415813066311545</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.415813066311545</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.1991932628499329</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BLZUSDT</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GLMUSDT</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.3263502196507855</v>
+      </c>
+      <c r="G43" t="n">
+        <v>34</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.128552101609405</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.128552101609405</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.1964458906911047</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CFXUSDT</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LDOUSDT</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1377367011984252</v>
+      </c>
+      <c r="G44" t="n">
         <v>25</v>
       </c>
-      <c r="H13" t="n">
-        <v>-2.078207786499584</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.078207786499584</v>
+      <c r="H44" t="n">
+        <v>-2.479967630659288</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.479967630659288</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.1910426587185484</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>FLRUSDT</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>POLUSDT</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-4.68</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.04147723428420142</v>
+      </c>
+      <c r="G45" t="n">
+        <v>33</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-2.151197421237451</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.151197421237451</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.1890483543403984</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>DEEPUSDT</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>FBUSDT</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.009765477293207599</v>
+      </c>
+      <c r="G46" t="n">
+        <v>33</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.142873545821484</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.142873545821484</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.1856168692589685</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>FLUXUSDT</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>DASHUSDT</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.02214541013696806</v>
+      </c>
+      <c r="G47" t="n">
+        <v>29</v>
+      </c>
+      <c r="H47" t="n">
+        <v>2.295294854488988</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.295294854488988</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.1816837495292372</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PROMUSDT</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RPLUSDT</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5649473029405382</v>
+      </c>
+      <c r="G48" t="n">
+        <v>27</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-2.365496915015111</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.365496915015111</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.1773401390923909</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ZECUSDT</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>FLUXUSDT</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F49" t="n">
+        <v>75.990347702625</v>
+      </c>
+      <c r="G49" t="n">
+        <v>29</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-2.24612951729628</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.24612951729628</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.1750225505924018</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BLURUSDT</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>YGGUSDT</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-4.46</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.4678714992624472</v>
+      </c>
+      <c r="G50" t="n">
+        <v>25</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-2.433381691386815</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.433381691386815</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.1719284851167179</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>KSMUSDT</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SNXUSDT</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-4.43</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F51" t="n">
+        <v>11.92488249035138</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-2.425892551110537</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.425892551110537</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.170893285617457</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>APTUSDT</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CYBERUSDT</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-4.24</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3.01703054258696</v>
+      </c>
+      <c r="G52" t="n">
+        <v>30</v>
+      </c>
+      <c r="H52" t="n">
+        <v>2.194623100524269</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.194623100524269</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.1574525152484871</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ACEUSDT</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>VANRYUSDT</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F53" t="n">
+        <v>27.76179828432522</v>
+      </c>
+      <c r="G53" t="n">
+        <v>32</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-2.099317894670637</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.099317894670637</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.1559827743437279</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>DGBUSDT</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SUPERUSDT</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-4.61</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.00458863396118036</v>
+      </c>
+      <c r="G54" t="n">
+        <v>33</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-2.043555683736128</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.043555683736128</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.1447401498973149</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CTSIUSDT</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ENJUSDT</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-4.62</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.8749942273201265</v>
+      </c>
+      <c r="G55" t="n">
+        <v>28</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-2.244129178886165</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.244129178886165</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.1441114437736342</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BEAMUSDT</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ROSEUSDT</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.2622427905721429</v>
+      </c>
+      <c r="G56" t="n">
+        <v>26</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2.324731187623086</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.324731187623086</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.1438416245713168</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>KDAUSDT</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>VETUSDT</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-4.27</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F57" t="n">
+        <v>24.81844046768285</v>
+      </c>
+      <c r="G57" t="n">
+        <v>30</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.142607632455425</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.142607632455425</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.1399400968319364</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>PYRUSDT</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>GFTUSDT</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F58" t="n">
+        <v>144.6099882489401</v>
+      </c>
+      <c r="G58" t="n">
+        <v>29</v>
+      </c>
+      <c r="H58" t="n">
+        <v>2.130769445326205</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.130769445326205</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.1398048921430053</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>APTUSDT</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>GRTUSDT</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F59" t="n">
+        <v>61.23155276826029</v>
+      </c>
+      <c r="G59" t="n">
+        <v>27</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.24061799985263</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.24061799985263</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.1367838526673281</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ETHFIUSDT</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MINAUSDT</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.713385260084087</v>
+      </c>
+      <c r="G60" t="n">
+        <v>30</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.142629299933292</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.142629299933292</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.1359994130059217</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MBOXUSDT</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SUPERUSDT</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1185442703066402</v>
+      </c>
+      <c r="G61" t="n">
+        <v>27</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-2.196093621737976</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.196093621737976</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.1075398463814344</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MAVIAUSDT</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>NEARUSDT</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.3131517627846772</v>
+      </c>
+      <c r="G62" t="n">
+        <v>29</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.113311759137154</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.113311759137154</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.1068378016799812</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>APTUSDT</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MANTAUSDT</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-5.42</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F63" t="n">
+        <v>13.81551937812309</v>
+      </c>
+      <c r="G63" t="n">
+        <v>29</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.066104474124326</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.066104474124326</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.08982144085821482</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>HMSTRUSDT</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SUPERUSDT</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.002105993363832783</v>
+      </c>
+      <c r="G64" t="n">
+        <v>25</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-2.218659997797917</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.218659997797917</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.08347324784810795</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>OGUSDT</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>BNTUSDT</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F65" t="n">
+        <v>11.76067307046929</v>
+      </c>
+      <c r="G65" t="n">
+        <v>27</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-2.131509644851097</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.131509644851097</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.08303946409159757</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>GLMUSDT</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ILVUSDT</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.008715831969041968</v>
+      </c>
+      <c r="G66" t="n">
+        <v>28</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-2.081133350272647</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.081133350272647</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.07687322087649608</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>BICOUSDT</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>L3USDT</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-4.33</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F67" t="n">
+        <v>3.790323765351888</v>
+      </c>
+      <c r="G67" t="n">
+        <v>29</v>
+      </c>
+      <c r="H67" t="n">
+        <v>2.031757380145093</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.031757380145093</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.07389412275574417</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MDTUSDT</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ZKUSDT</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-4.32</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.3295759011906152</v>
+      </c>
+      <c r="G68" t="n">
+        <v>29</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-2.015841076708685</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.015841076708685</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.06672517706609879</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>OGUSDT</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ARPAUSDT</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F69" t="n">
+        <v>133.5310117174351</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-2.119596653878181</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.119596653878181</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.06656036479070375</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MTLUSDT</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>OGUSDT</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-4.33</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.1542411118097184</v>
+      </c>
+      <c r="G70" t="n">
+        <v>27</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.088259363996098</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.088259363996098</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.06316537641129484</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ONEUSDT</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>NKNUSDT</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.177037381520675</v>
+      </c>
+      <c r="G71" t="n">
+        <v>28</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.043110588338453</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.043110588338453</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.06125444283334415</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ARBUSDT</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>QUICKUSDT</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-4.01</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F72" t="n">
+        <v>15.01758217459468</v>
+      </c>
+      <c r="G72" t="n">
+        <v>27</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2.03855710741662</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.03855710741662</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.04536534239057627</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MDTUSDT</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>XAIUSDT</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.217945977982002</v>
+      </c>
+      <c r="G73" t="n">
+        <v>25</v>
+      </c>
+      <c r="H73" t="n">
+        <v>-2.075563154351566</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.075563154351566</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.02461810504723123</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>USDEUSDT</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>BICOUSDT</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-4.56</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F74" t="n">
+        <v>4.594300626662311</v>
+      </c>
+      <c r="G74" t="n">
+        <v>25</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-2.018659523607412</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.018659523607412</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.001980481550551592</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,696 +488,696 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>MAVUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CROUSDT</t>
+          <t>VANRYUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.16</v>
+        <v>-3.94</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>125.0475080192556</v>
+        <v>2.100087361123294</v>
       </c>
       <c r="G2" t="n">
         <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.587450580412126</v>
+        <v>-3.630760850461324</v>
       </c>
       <c r="I2" t="n">
-        <v>3.587450580412126</v>
+        <v>3.630760850461324</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6687699576998751</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>SHIB1000USDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CROUSDT</t>
+          <t>SXPUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-4</v>
+        <v>-5.02</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05598137332949502</v>
+        <v>0.06988970533564073</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.988956389370491</v>
+        <v>-3.27808202243306</v>
       </c>
       <c r="I3" t="n">
-        <v>3.988956389370491</v>
+        <v>3.27808202243306</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5000893552148823</v>
+        <v>0.6488387837846834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ONGUSDT</t>
+          <t>CFXUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VRAUSDT</t>
+          <t>SXPUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.08</v>
+        <v>-4.29</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>98.22612877628313</v>
+        <v>0.6433381254941419</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.334424217499311</v>
+        <v>-2.738960200871267</v>
       </c>
       <c r="I4" t="n">
-        <v>3.334424217499311</v>
+        <v>2.738960200871267</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4246813689675897</v>
+        <v>0.6197196250153517</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OXTUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>ARBUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.16</v>
+        <v>-5.99</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08317800022898364</v>
+        <v>1.770044922881702</v>
       </c>
       <c r="G5" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.056806348578466</v>
+        <v>-2.729795440124204</v>
       </c>
       <c r="I5" t="n">
-        <v>2.056806348578466</v>
+        <v>2.729795440124204</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4092328313532034</v>
+        <v>0.4760513901496226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LDOUSDT</t>
+          <t>SKLUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>RPLUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.92</v>
+        <v>-4.73</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09772764680489844</v>
+        <v>0.1646088452945213</v>
       </c>
       <c r="G6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" t="n">
-        <v>3.490517983952744</v>
+        <v>3.013256845126158</v>
       </c>
       <c r="I6" t="n">
-        <v>3.490517983952744</v>
+        <v>3.013256845126158</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3993153095504577</v>
+        <v>0.4728413687368963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ZEUSUSDT</t>
+          <t>QIUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AGIUSDT</t>
+          <t>REQUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.19</v>
+        <v>-4.56</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>1.489939210028542</v>
+        <v>0.1367899123983846</v>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H7" t="n">
-        <v>2.386252850592631</v>
+        <v>2.240179262586926</v>
       </c>
       <c r="I7" t="n">
-        <v>2.386252850592631</v>
+        <v>2.240179262586926</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3531342684707664</v>
+        <v>0.4434137447705122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>AVAXUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SCUSDT</t>
+          <t>SXPUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.07</v>
+        <v>-4.38</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>70.73456967109983</v>
+        <v>106.7604382439258</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
-        <v>2.270136622144594</v>
+        <v>-2.62730226313532</v>
       </c>
       <c r="I8" t="n">
-        <v>2.270136622144594</v>
+        <v>2.62730226313532</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3153918059457111</v>
+        <v>0.4116947223609442</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10000COQUSDT</t>
+          <t>LPTUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DYMUSDT</t>
+          <t>TRUUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0.01</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.99</v>
+        <v>-3.93</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00909239208194814</v>
+        <v>127.7622159393895</v>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H9" t="n">
-        <v>2.484705705632527</v>
+        <v>-2.935847844105981</v>
       </c>
       <c r="I9" t="n">
-        <v>2.484705705632527</v>
+        <v>2.935847844105981</v>
       </c>
       <c r="J9" t="n">
-        <v>0.245684152491155</v>
+        <v>0.395191416821405</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHRUSDT</t>
+          <t>ARBUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RONUSDT</t>
+          <t>HBARUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.21</v>
+        <v>-4.31</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1111779889074548</v>
+        <v>10.20863789305907</v>
       </c>
       <c r="G10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
-        <v>2.172848582598859</v>
+        <v>2.439340678944492</v>
       </c>
       <c r="I10" t="n">
-        <v>2.172848582598859</v>
+        <v>2.439340678944492</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2327545239484699</v>
+        <v>0.336462290705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IOTXUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SXPUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.15</v>
+        <v>-4.14</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1639406540781359</v>
+        <v>0.001184403913015464</v>
       </c>
       <c r="G11" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.330836956785921</v>
+        <v>-2.232355737474345</v>
       </c>
       <c r="I11" t="n">
-        <v>2.330836956785921</v>
+        <v>2.232355737474345</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2148020919057736</v>
+        <v>0.3236156785634838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HFTUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LEVERUSDT</t>
+          <t>SKLUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.96</v>
+        <v>-4.29</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>81.40295148952812</v>
+        <v>11.15063408591765</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.315777048543456</v>
+        <v>-2.602977086503359</v>
       </c>
       <c r="I12" t="n">
-        <v>2.315777048543456</v>
+        <v>2.602977086503359</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1916884213382469</v>
+        <v>0.3086251325666906</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>POWRUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UNIUSDT</t>
+          <t>SCUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.16</v>
+        <v>-4.09</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2273495306666933</v>
+        <v>44.04822675433142</v>
       </c>
       <c r="G13" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.427633275407187</v>
+        <v>2.316424420158999</v>
       </c>
       <c r="I13" t="n">
-        <v>2.427633275407187</v>
+        <v>2.316424420158999</v>
       </c>
       <c r="J13" t="n">
-        <v>0.184486708896258</v>
+        <v>0.2639311966787389</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BALUSDT</t>
+          <t>PYTHUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RONUSDT</t>
+          <t>SXPUSDT</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.38</v>
+        <v>-5.01</v>
       </c>
       <c r="E14" t="n">
         <v>-3.37</v>
       </c>
       <c r="F14" t="n">
-        <v>1.269850836828579</v>
+        <v>1.370376034671136</v>
       </c>
       <c r="G14" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H14" t="n">
-        <v>2.393766631444563</v>
+        <v>-2.171367319724848</v>
       </c>
       <c r="I14" t="n">
-        <v>2.393766631444563</v>
+        <v>2.171367319724848</v>
       </c>
       <c r="J14" t="n">
-        <v>0.179302399783361</v>
+        <v>0.2525381356536966</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10000COQUSDT</t>
+          <t>JOEUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DGBUSDT</t>
+          <t>SCUSDT</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.97</v>
+        <v>-4.14</v>
       </c>
       <c r="E15" t="n">
         <v>-3.37</v>
       </c>
       <c r="F15" t="n">
-        <v>2.221857439907844</v>
+        <v>70.75228387836212</v>
       </c>
       <c r="G15" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>2.552709250748311</v>
+        <v>2.324928197964026</v>
       </c>
       <c r="I15" t="n">
-        <v>2.552709250748311</v>
+        <v>2.324928197964026</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1629812693801631</v>
+        <v>0.2440015369486485</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>VRAUSDT</t>
+          <t>HFTUSDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LSKUSDT</t>
+          <t>LEVERUSDT</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.13</v>
+        <v>-5.14</v>
       </c>
       <c r="E16" t="n">
         <v>-3.37</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003256516132091407</v>
+        <v>81.16712053727872</v>
       </c>
       <c r="G16" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H16" t="n">
-        <v>2.375857275969062</v>
+        <v>-2.264778789712183</v>
       </c>
       <c r="I16" t="n">
-        <v>2.375857275969062</v>
+        <v>2.264778789712183</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1486533127161855</v>
+        <v>0.2432598111951308</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBARUSDT</t>
+          <t>MYRIAUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HFTUSDT</t>
+          <t>WUSDT</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.51</v>
+        <v>-4.22</v>
       </c>
       <c r="E17" t="n">
         <v>-3.37</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3571631540730583</v>
+        <v>0.0100944261503462</v>
       </c>
       <c r="G17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H17" t="n">
-        <v>2.427625511013688</v>
+        <v>-2.576577667741252</v>
       </c>
       <c r="I17" t="n">
-        <v>2.427625511013688</v>
+        <v>2.576577667741252</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1346927611300625</v>
+        <v>0.228058651781125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ALGOUSDT</t>
+          <t>UMAUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OXTUSDT</t>
+          <t>RSRUSDT</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0.01</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.07</v>
+        <v>-3.94</v>
       </c>
       <c r="E18" t="n">
         <v>-3.37</v>
       </c>
       <c r="F18" t="n">
-        <v>1.804609086040959</v>
+        <v>425.2271038166022</v>
       </c>
       <c r="G18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18" t="n">
-        <v>2.125644476228278</v>
+        <v>-2.199265359448759</v>
       </c>
       <c r="I18" t="n">
-        <v>2.125644476228278</v>
+        <v>2.199265359448759</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1259129591665307</v>
+        <v>0.2170377792514351</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ICPUSDT</t>
+          <t>ANKRUSDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ZEUSUSDT</t>
+          <t>ONGUSDT</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.18</v>
+        <v>-5.09</v>
       </c>
       <c r="E19" t="n">
         <v>-3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>29.50599882822682</v>
+        <v>0.08859645344085705</v>
       </c>
       <c r="G19" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.276258366072916</v>
+        <v>2.031920411191143</v>
       </c>
       <c r="I19" t="n">
-        <v>2.276258366072916</v>
+        <v>2.031920411191143</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1256896059793567</v>
+        <v>0.1967239113745282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RENUSDT</t>
+          <t>CROUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RONUSDT</t>
+          <t>EOSUSDT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.22</v>
+        <v>-3.98</v>
       </c>
       <c r="E20" t="n">
         <v>-3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02254012652800142</v>
+        <v>0.1585055007299618</v>
       </c>
       <c r="G20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H20" t="n">
-        <v>2.346175419859802</v>
+        <v>2.472953826320814</v>
       </c>
       <c r="I20" t="n">
-        <v>2.346175419859802</v>
+        <v>2.472953826320814</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1176791148379442</v>
+        <v>0.1865827640291109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10000COQUSDT</t>
+          <t>CROUSDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ONGUSDT</t>
+          <t>NEOUSDT</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1190,271 +1190,667 @@
         <v>-3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>0.04993392046979287</v>
+        <v>0.007975273276585747</v>
       </c>
       <c r="G21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H21" t="n">
-        <v>2.431301555884144</v>
+        <v>2.234697145923109</v>
       </c>
       <c r="I21" t="n">
-        <v>2.431301555884144</v>
+        <v>2.234697145923109</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1099450941422244</v>
+        <v>0.1845528373550455</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ZEUSUSDT</t>
+          <t>FLMUSDT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ICXUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D22" t="n">
-        <v>-5.2</v>
+        <v>-4.01</v>
       </c>
       <c r="E22" t="n">
         <v>-3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>1.868110786005952</v>
+        <v>13.0236618526687</v>
       </c>
       <c r="G22" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H22" t="n">
-        <v>2.131895916143701</v>
+        <v>2.031581935541646</v>
       </c>
       <c r="I22" t="n">
-        <v>2.131895916143701</v>
+        <v>2.031581935541646</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1022792740173339</v>
+        <v>0.1732551017082112</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10000COQUSDT</t>
+          <t>ONGUSDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>VRAUSDT</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.41</v>
+        <v>-4.51</v>
       </c>
       <c r="E23" t="n">
         <v>-3.37</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03126299584041409</v>
+        <v>97.97189906508456</v>
       </c>
       <c r="G23" t="n">
         <v>27</v>
       </c>
       <c r="H23" t="n">
-        <v>2.238558371748888</v>
+        <v>-2.2455177686152</v>
       </c>
       <c r="I23" t="n">
-        <v>2.238558371748888</v>
+        <v>2.2455177686152</v>
       </c>
       <c r="J23" t="n">
-        <v>0.09592068532860083</v>
+        <v>0.1422171714120747</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ZEUSUSDT</t>
+          <t>MANTAUSDT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CKBUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.32</v>
+        <v>-4.02</v>
       </c>
       <c r="E24" t="n">
         <v>-3.37</v>
       </c>
       <c r="F24" t="n">
-        <v>22.77162981417392</v>
+        <v>3.441937650821612</v>
       </c>
       <c r="G24" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H24" t="n">
-        <v>2.17875868826636</v>
+        <v>2.160050897500534</v>
       </c>
       <c r="I24" t="n">
-        <v>2.17875868826636</v>
+        <v>2.160050897500534</v>
       </c>
       <c r="J24" t="n">
-        <v>0.07019319914559441</v>
+        <v>0.1313420223703416</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>BAKEUSDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>TRUUSDT</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.26</v>
+        <v>-4.39</v>
       </c>
       <c r="E25" t="n">
         <v>-3.37</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00159982956118348</v>
+        <v>2.292676316739767</v>
       </c>
       <c r="G25" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.034773134815633</v>
+        <v>-2.303172597057666</v>
       </c>
       <c r="I25" t="n">
-        <v>2.034773134815633</v>
+        <v>2.303172597057666</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0546447393330184</v>
+        <v>0.1186270975455057</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IOTXUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BCHUSDT</t>
+          <t>LINKUSDT</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-3.96</v>
+        <v>-4.65</v>
       </c>
       <c r="E26" t="n">
         <v>-3.37</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0001131891518949001</v>
+        <v>0.01115742813596351</v>
       </c>
       <c r="G26" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.240602156274759</v>
+        <v>-2.048007604098585</v>
       </c>
       <c r="I26" t="n">
-        <v>2.240602156274759</v>
+        <v>2.048007604098585</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04628434971237105</v>
+        <v>0.1098295461215894</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>NKNUSDT</t>
+          <t>RADUSDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ZEUSUSDT</t>
+          <t>SXPUSDT</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.34</v>
+        <v>-4.16</v>
       </c>
       <c r="E27" t="n">
         <v>-3.37</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2692989537809888</v>
+        <v>4.939869933281976</v>
       </c>
       <c r="G27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.011826758070284</v>
+        <v>-2.274851518675602</v>
       </c>
       <c r="I27" t="n">
-        <v>2.011826758070284</v>
+        <v>2.274851518675602</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02543053398272683</v>
+        <v>0.1072914642405742</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ARKMUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PENDLEUSDT</t>
+          <t>RDNTUSDT</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0.01</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.95</v>
+        <v>-4.05</v>
       </c>
       <c r="E28" t="n">
         <v>-3.37</v>
       </c>
       <c r="F28" t="n">
-        <v>0.381586668020015</v>
+        <v>2.620786007105759</v>
       </c>
       <c r="G28" t="n">
         <v>25</v>
       </c>
       <c r="H28" t="n">
-        <v>2.026590956488524</v>
+        <v>-2.245302929650717</v>
       </c>
       <c r="I28" t="n">
-        <v>2.026590956488524</v>
+        <v>2.245302929650717</v>
       </c>
       <c r="J28" t="n">
-        <v>0.003597122771288657</v>
+        <v>0.09546451452681068</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ALGOUSDT</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>AKROUSDT</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F29" t="n">
+        <v>27.35145840793039</v>
+      </c>
+      <c r="G29" t="n">
+        <v>27</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.112490698796007</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.112490698796007</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.08897251516145302</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>SCRTUSDT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SNXUSDT</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1452284942550786</v>
+      </c>
+      <c r="G30" t="n">
+        <v>27</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2.110332177241214</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.110332177241214</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.08810855763498301</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>ACEUSDT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SKLUSDT</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-4.14</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F31" t="n">
+        <v>65.23308544140414</v>
+      </c>
+      <c r="G31" t="n">
+        <v>26</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-2.158982938238994</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.158982938238994</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.08424790042071911</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>STXUSDT</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>XVSUSDT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.2340756738364111</v>
+      </c>
+      <c r="G32" t="n">
+        <v>25</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-2.166890534016959</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.166890534016959</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.06407961627277993</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1000RATSUSDT</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>10000000AIDOGEUSDT</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-5.36</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F33" t="n">
+        <v>32.98023903730398</v>
+      </c>
+      <c r="G33" t="n">
+        <v>26</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.080798137190018</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.080798137190018</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.05295409787711566</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MEMEUSDT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SKLUSDT</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.3302312323670963</v>
+      </c>
+      <c r="G34" t="n">
+        <v>26</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-2.069043834778408</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.069043834778408</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.04824938783409433</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>COREUSDT</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CRVUSDT</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-4.31</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4.10296620292244</v>
+      </c>
+      <c r="G35" t="n">
+        <v>27</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-2.006793273781447</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.006793273781447</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.04666666666666665</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SCAUSDT</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CHZUSDT</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-4.84</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F36" t="n">
+        <v>5.065786035451768</v>
+      </c>
+      <c r="G36" t="n">
+        <v>26</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.024599751768966</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.024599751768966</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.03046045265399754</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>10000COQUSDT</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>HOOKUSDT</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-4.24</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.03131342015360954</v>
+      </c>
+      <c r="G37" t="n">
+        <v>25</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.067002712477143</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.067002712477143</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.02409908652992602</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>GLMUSDT</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>UNIUSDT</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.04663751031257623</v>
+      </c>
+      <c r="G38" t="n">
+        <v>25</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-2.021992673674123</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.021992673674123</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.006083625111800617</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ATAUSDT</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MYRIAUSDT</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-5.35</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F39" t="n">
+        <v>30.029578094875</v>
+      </c>
+      <c r="G39" t="n">
+        <v>25</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.012915243082903</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.012915243082903</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.002450344516164616</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,1369 +488,1621 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAVUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VANRYUSDT</t>
+          <t>COMPUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.94</v>
+        <v>-4.13</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>2.100087361123294</v>
+        <v>0.007966338606583483</v>
       </c>
       <c r="G2" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.630760850461324</v>
+        <v>3.31684823216843</v>
       </c>
       <c r="I2" t="n">
-        <v>3.630760850461324</v>
+        <v>3.31684823216843</v>
       </c>
       <c r="J2" t="n">
-        <v>0.79</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SHIB1000USDT</t>
+          <t>SCAUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SXPUSDT</t>
+          <t>CHZUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.02</v>
+        <v>-4.28</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06988970533564073</v>
+        <v>5.036157589981359</v>
       </c>
       <c r="G3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.27808202243306</v>
+        <v>2.991396967816327</v>
       </c>
       <c r="I3" t="n">
-        <v>3.27808202243306</v>
+        <v>2.991396967816327</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6488387837846834</v>
+        <v>0.5805293398723245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CFXUSDT</t>
+          <t>PYTHUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SXPUSDT</t>
+          <t>1000LUNCUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.29</v>
+        <v>-4.36</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6433381254941419</v>
+        <v>3.996618633563704</v>
       </c>
       <c r="G4" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.738960200871267</v>
+        <v>2.799093015526594</v>
       </c>
       <c r="I4" t="n">
-        <v>2.738960200871267</v>
+        <v>2.799093015526594</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6197196250153517</v>
+        <v>0.5587409188679737</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>HFTUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARBUSDT</t>
+          <t>ARUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.99</v>
+        <v>-4.25</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>1.770044922881702</v>
+        <v>0.007338425815861958</v>
       </c>
       <c r="G5" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.729795440124204</v>
+        <v>-2.845119896389891</v>
       </c>
       <c r="I5" t="n">
-        <v>2.729795440124204</v>
+        <v>2.845119896389891</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4760513901496226</v>
+        <v>0.4894864987886801</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SKLUSDT</t>
+          <t>ACHUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.73</v>
+        <v>-4.11</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1646088452945213</v>
+        <v>0.05911443343235626</v>
       </c>
       <c r="G6" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.013256845126158</v>
+        <v>-2.985281747964392</v>
       </c>
       <c r="I6" t="n">
-        <v>3.013256845126158</v>
+        <v>2.985281747964392</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4728413687368963</v>
+        <v>0.4853880697852888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>QIUSDT</t>
+          <t>JOEUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>REQUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.56</v>
+        <v>-5.66</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1367899123983846</v>
+        <v>0.5930959091675608</v>
       </c>
       <c r="G7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H7" t="n">
-        <v>2.240179262586926</v>
+        <v>2.531899904670978</v>
       </c>
       <c r="I7" t="n">
-        <v>2.240179262586926</v>
+        <v>2.531899904670978</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4434137447705122</v>
+        <v>0.4260882660414894</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AVAXUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SXPUSDT</t>
+          <t>VANRYUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.38</v>
+        <v>-4.4</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>106.7604382439258</v>
+        <v>2.458522841306098</v>
       </c>
       <c r="G8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.62730226313532</v>
+        <v>-2.741460577597452</v>
       </c>
       <c r="I8" t="n">
-        <v>2.62730226313532</v>
+        <v>2.741460577597452</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4116947223609442</v>
+        <v>0.4011809273307154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LPTUSDT</t>
+          <t>AVAXUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRUUSDT</t>
+          <t>POWRUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.93</v>
+        <v>-4.18</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>127.7622159393895</v>
+        <v>121.4414876784079</v>
       </c>
       <c r="G9" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.935847844105981</v>
+        <v>2.412045482616897</v>
       </c>
       <c r="I9" t="n">
-        <v>2.935847844105981</v>
+        <v>2.412045482616897</v>
       </c>
       <c r="J9" t="n">
-        <v>0.395191416821405</v>
+        <v>0.3481634073890647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ARBUSDT</t>
+          <t>COMPUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HBARUSDT</t>
+          <t>FORTHUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.31</v>
+        <v>-4.72</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>10.20863789305907</v>
+        <v>14.7486089569639</v>
       </c>
       <c r="G10" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H10" t="n">
-        <v>2.439340678944492</v>
+        <v>2.618870143845546</v>
       </c>
       <c r="I10" t="n">
-        <v>2.439340678944492</v>
+        <v>2.618870143845546</v>
       </c>
       <c r="J10" t="n">
-        <v>0.336462290705</v>
+        <v>0.3403187808619493</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>MERLUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FILUSDT</t>
+          <t>SCAUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.14</v>
+        <v>-4.11</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001184403913015464</v>
+        <v>0.8014649770533954</v>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.232355737474345</v>
+        <v>-2.368075623624685</v>
       </c>
       <c r="I11" t="n">
-        <v>2.232355737474345</v>
+        <v>2.368075623624685</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3236156785634838</v>
+        <v>0.3263338084856888</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>LPTUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SKLUSDT</t>
+          <t>TRUUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.29</v>
+        <v>-3.93</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>11.15063408591765</v>
+        <v>127.8279371019143</v>
       </c>
       <c r="G12" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.602977086503359</v>
+        <v>-2.600274419775466</v>
       </c>
       <c r="I12" t="n">
-        <v>2.602977086503359</v>
+        <v>2.600274419775466</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3086251325666906</v>
+        <v>0.3126655585788916</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>QIUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SCUSDT</t>
+          <t>REQUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.09</v>
+        <v>-4.91</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>44.04822675433142</v>
+        <v>0.1367564505662528</v>
       </c>
       <c r="G13" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H13" t="n">
-        <v>2.316424420158999</v>
+        <v>2.072085061933902</v>
       </c>
       <c r="I13" t="n">
-        <v>2.316424420158999</v>
+        <v>2.072085061933902</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2639311966787389</v>
+        <v>0.308331530285423</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PYTHUSDT</t>
+          <t>FXSUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SXPUSDT</t>
+          <t>MEMEUSDT</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.01</v>
+        <v>-4.48</v>
       </c>
       <c r="E14" t="n">
         <v>-3.37</v>
       </c>
       <c r="F14" t="n">
-        <v>1.370376034671136</v>
+        <v>167.7720780263766</v>
       </c>
       <c r="G14" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.171367319724848</v>
+        <v>2.623035346845528</v>
       </c>
       <c r="I14" t="n">
-        <v>2.171367319724848</v>
+        <v>2.623035346845528</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2525381356536966</v>
+        <v>0.3055445628498479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>CFXUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SCUSDT</t>
+          <t>SXPUSDT</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.14</v>
+        <v>-4.19</v>
       </c>
       <c r="E15" t="n">
         <v>-3.37</v>
       </c>
       <c r="F15" t="n">
-        <v>70.75228387836212</v>
+        <v>0.6418639193097425</v>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H15" t="n">
-        <v>2.324928197964026</v>
+        <v>-2.095017635447072</v>
       </c>
       <c r="I15" t="n">
-        <v>2.324928197964026</v>
+        <v>2.095017635447072</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2440015369486485</v>
+        <v>0.30129575140929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HFTUSDT</t>
+          <t>FXSUSDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LEVERUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.14</v>
+        <v>-4.04</v>
       </c>
       <c r="E16" t="n">
         <v>-3.37</v>
       </c>
       <c r="F16" t="n">
-        <v>81.16712053727872</v>
+        <v>9.202484700976003</v>
       </c>
       <c r="G16" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.264778789712183</v>
+        <v>2.426392657611909</v>
       </c>
       <c r="I16" t="n">
-        <v>2.264778789712183</v>
+        <v>2.426392657611909</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2432598111951308</v>
+        <v>0.3000231532906109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MYRIAUSDT</t>
+          <t>JOEUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WUSDT</t>
+          <t>QTUMUSDT</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.22</v>
+        <v>-4.3</v>
       </c>
       <c r="E17" t="n">
         <v>-3.37</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0100944261503462</v>
+        <v>0.1354115673679129</v>
       </c>
       <c r="G17" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.576577667741252</v>
+        <v>2.179275746345915</v>
       </c>
       <c r="I17" t="n">
-        <v>2.576577667741252</v>
+        <v>2.179275746345915</v>
       </c>
       <c r="J17" t="n">
-        <v>0.228058651781125</v>
+        <v>0.2878639936471688</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>UMAUSDT</t>
+          <t>ACHUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>RSRUSDT</t>
+          <t>LINKUSDT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.94</v>
+        <v>-4.79</v>
       </c>
       <c r="E18" t="n">
         <v>-3.37</v>
       </c>
       <c r="F18" t="n">
-        <v>425.2271038166022</v>
+        <v>0.001777763695968764</v>
       </c>
       <c r="G18" t="n">
         <v>31</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.199265359448759</v>
+        <v>-2.354761514798537</v>
       </c>
       <c r="I18" t="n">
-        <v>2.199265359448759</v>
+        <v>2.354761514798537</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2170377792514351</v>
+        <v>0.2828816830384274</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ANKRUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ONGUSDT</t>
+          <t>SKLUSDT</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.09</v>
+        <v>-4.26</v>
       </c>
       <c r="E19" t="n">
         <v>-3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08859645344085705</v>
+        <v>11.16718378717588</v>
       </c>
       <c r="G19" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H19" t="n">
-        <v>2.031920411191143</v>
+        <v>-2.460745560022652</v>
       </c>
       <c r="I19" t="n">
-        <v>2.031920411191143</v>
+        <v>2.460745560022652</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1967239113745282</v>
+        <v>0.2802361420846381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CROUSDT</t>
+          <t>PYTHUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EOSUSDT</t>
+          <t>LTCUSDT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.98</v>
+        <v>-4.58</v>
       </c>
       <c r="E20" t="n">
         <v>-3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1585055007299618</v>
+        <v>0.005053775888579375</v>
       </c>
       <c r="G20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H20" t="n">
-        <v>2.472953826320814</v>
+        <v>2.527816401214373</v>
       </c>
       <c r="I20" t="n">
-        <v>2.472953826320814</v>
+        <v>2.527816401214373</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1865827640291109</v>
+        <v>0.2766925188927241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CROUSDT</t>
+          <t>BAKEUSDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>TRUUSDT</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-4</v>
+        <v>-4.4</v>
       </c>
       <c r="E21" t="n">
         <v>-3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>0.007975273276585747</v>
+        <v>2.295390540864202</v>
       </c>
       <c r="G21" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>2.234697145923109</v>
+        <v>-2.555415131461804</v>
       </c>
       <c r="I21" t="n">
-        <v>2.234697145923109</v>
+        <v>2.555415131461804</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1845528373550455</v>
+        <v>0.2719733344352188</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>FLMUSDT</t>
+          <t>KNCUSDT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>LINKUSDT</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.01</v>
+        <v>-4.17</v>
       </c>
       <c r="E22" t="n">
         <v>-3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>13.0236618526687</v>
+        <v>0.04009168368058787</v>
       </c>
       <c r="G22" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H22" t="n">
-        <v>2.031581935541646</v>
+        <v>-2.025961717497452</v>
       </c>
       <c r="I22" t="n">
-        <v>2.031581935541646</v>
+        <v>2.025961717497452</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1732551017082112</v>
+        <v>0.2670117435617401</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ONGUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VRAUSDT</t>
+          <t>RDNTUSDT</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.51</v>
+        <v>-4.17</v>
       </c>
       <c r="E23" t="n">
         <v>-3.37</v>
       </c>
       <c r="F23" t="n">
-        <v>97.97189906508456</v>
+        <v>2.627957702499646</v>
       </c>
       <c r="G23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.2455177686152</v>
+        <v>-2.513853561338478</v>
       </c>
       <c r="I23" t="n">
-        <v>2.2455177686152</v>
+        <v>2.513853561338478</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1422171714120747</v>
+        <v>0.2513393722988508</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MANTAUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>ARBUSDT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.02</v>
+        <v>-5.46</v>
       </c>
       <c r="E24" t="n">
         <v>-3.37</v>
       </c>
       <c r="F24" t="n">
-        <v>3.441937650821612</v>
+        <v>1.763186444900285</v>
       </c>
       <c r="G24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24" t="n">
-        <v>2.160050897500534</v>
+        <v>-2.412123415474208</v>
       </c>
       <c r="I24" t="n">
-        <v>2.160050897500534</v>
+        <v>2.412123415474208</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1313420223703416</v>
+        <v>0.2376757827179046</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BAKEUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TRUUSDT</t>
+          <t>LINKUSDT</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.39</v>
+        <v>-4.42</v>
       </c>
       <c r="E25" t="n">
         <v>-3.37</v>
       </c>
       <c r="F25" t="n">
-        <v>2.292676316739767</v>
+        <v>0.01113807054030064</v>
       </c>
       <c r="G25" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.303172597057666</v>
+        <v>-2.228179453806423</v>
       </c>
       <c r="I25" t="n">
-        <v>2.303172597057666</v>
+        <v>2.228179453806423</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1186270975455057</v>
+        <v>0.2200378240142274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>MYRIAUSDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LINKUSDT</t>
+          <t>WUSDT</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.65</v>
+        <v>-4.43</v>
       </c>
       <c r="E26" t="n">
         <v>-3.37</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01115742813596351</v>
+        <v>0.01007495573331125</v>
       </c>
       <c r="G26" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.048007604098585</v>
+        <v>-2.436443110283474</v>
       </c>
       <c r="I26" t="n">
-        <v>2.048007604098585</v>
+        <v>2.436443110283474</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1098295461215894</v>
+        <v>0.2129076116293552</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RADUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SXPUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.16</v>
+        <v>-4.81</v>
       </c>
       <c r="E27" t="n">
         <v>-3.37</v>
       </c>
       <c r="F27" t="n">
-        <v>4.939869933281976</v>
+        <v>0.2389189148086019</v>
       </c>
       <c r="G27" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.274851518675602</v>
+        <v>-2.139548064042987</v>
       </c>
       <c r="I27" t="n">
-        <v>2.274851518675602</v>
+        <v>2.139548064042987</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1072914642405742</v>
+        <v>0.2128773390228365</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>DODOUSDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>RDNTUSDT</t>
+          <t>XVGUSDT</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.05</v>
+        <v>-4.85</v>
       </c>
       <c r="E28" t="n">
         <v>-3.37</v>
       </c>
       <c r="F28" t="n">
-        <v>2.620786007105759</v>
+        <v>31.58057318732713</v>
       </c>
       <c r="G28" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.245302929650717</v>
+        <v>-2.138674569091808</v>
       </c>
       <c r="I28" t="n">
-        <v>2.245302929650717</v>
+        <v>2.138674569091808</v>
       </c>
       <c r="J28" t="n">
-        <v>0.09546451452681068</v>
+        <v>0.2124436773085304</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ALGOUSDT</t>
+          <t>OXTUSDT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>QIUSDT</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.99</v>
+        <v>-4.13</v>
       </c>
       <c r="E29" t="n">
         <v>-3.37</v>
       </c>
       <c r="F29" t="n">
-        <v>27.35145840793039</v>
+        <v>5.344692807484243</v>
       </c>
       <c r="G29" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H29" t="n">
-        <v>2.112490698796007</v>
+        <v>-2.190315652074439</v>
       </c>
       <c r="I29" t="n">
-        <v>2.112490698796007</v>
+        <v>2.190315652074439</v>
       </c>
       <c r="J29" t="n">
-        <v>0.08897251516145302</v>
+        <v>0.2012396831124664</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SCRTUSDT</t>
+          <t>QIUSDT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>BATUSDT</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.18</v>
+        <v>-4.26</v>
       </c>
       <c r="E30" t="n">
         <v>-3.37</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1452284942550786</v>
+        <v>0.07685048714218094</v>
       </c>
       <c r="G30" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.110332177241214</v>
+        <v>2.227042564523181</v>
       </c>
       <c r="I30" t="n">
-        <v>2.110332177241214</v>
+        <v>2.227042564523181</v>
       </c>
       <c r="J30" t="n">
-        <v>0.08810855763498301</v>
+        <v>0.1826312903535368</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ACEUSDT</t>
+          <t>SHIB1000USDT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SKLUSDT</t>
+          <t>SXPUSDT</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.14</v>
+        <v>-5.04</v>
       </c>
       <c r="E31" t="n">
         <v>-3.37</v>
       </c>
       <c r="F31" t="n">
-        <v>65.23308544140414</v>
+        <v>0.06981182718229891</v>
       </c>
       <c r="G31" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.158982938238994</v>
+        <v>-2.150313655953856</v>
       </c>
       <c r="I31" t="n">
-        <v>2.158982938238994</v>
+        <v>2.150313655953856</v>
       </c>
       <c r="J31" t="n">
-        <v>0.08424790042071911</v>
+        <v>0.1813799985316858</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>ZBCNUSDT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>XVSUSDT</t>
+          <t>JTOUSDT</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-3.91</v>
+        <v>-4.47</v>
       </c>
       <c r="E32" t="n">
         <v>-3.37</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2340756738364111</v>
+        <v>0.0005105852177922801</v>
       </c>
       <c r="G32" t="n">
         <v>25</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.166890534016959</v>
+        <v>-2.368207633694627</v>
       </c>
       <c r="I32" t="n">
-        <v>2.166890534016959</v>
+        <v>2.368207633694627</v>
       </c>
       <c r="J32" t="n">
-        <v>0.06407961627277993</v>
+        <v>0.1790309261212425</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>10000000AIDOGEUSDT</t>
+          <t>MNTUSDT</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-5.36</v>
+        <v>-4.36</v>
       </c>
       <c r="E33" t="n">
         <v>-3.37</v>
       </c>
       <c r="F33" t="n">
-        <v>32.98023903730398</v>
+        <v>5.840581254192453</v>
       </c>
       <c r="G33" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H33" t="n">
-        <v>2.080798137190018</v>
+        <v>-2.097391120872709</v>
       </c>
       <c r="I33" t="n">
-        <v>2.080798137190018</v>
+        <v>2.097391120872709</v>
       </c>
       <c r="J33" t="n">
-        <v>0.05295409787711566</v>
+        <v>0.1735267409823769</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MEMEUSDT</t>
+          <t>PYTHUSDT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SKLUSDT</t>
+          <t>OPUSDT</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E34" t="n">
         <v>-3.37</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3302312323670963</v>
+        <v>0.1926502502723956</v>
       </c>
       <c r="G34" t="n">
         <v>26</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.069043834778408</v>
+        <v>2.284537859396141</v>
       </c>
       <c r="I34" t="n">
-        <v>2.069043834778408</v>
+        <v>2.284537859396141</v>
       </c>
       <c r="J34" t="n">
-        <v>0.04824938783409433</v>
+        <v>0.1559126685267994</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>BANDUSDT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CRVUSDT</t>
+          <t>JTOUSDT</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.31</v>
+        <v>-3.9</v>
       </c>
       <c r="E35" t="n">
         <v>-3.37</v>
       </c>
       <c r="F35" t="n">
-        <v>4.10296620292244</v>
+        <v>0.4623772763227969</v>
       </c>
       <c r="G35" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H35" t="n">
-        <v>-2.006793273781447</v>
+        <v>-2.166804528309172</v>
       </c>
       <c r="I35" t="n">
-        <v>2.006793273781447</v>
+        <v>2.166804528309172</v>
       </c>
       <c r="J35" t="n">
-        <v>0.04666666666666665</v>
+        <v>0.1527250727895513</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SCAUSDT</t>
+          <t>FORTHUSDT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CHZUSDT</t>
+          <t>XNOUSDT</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.84</v>
+        <v>-4.36</v>
       </c>
       <c r="E36" t="n">
         <v>-3.37</v>
       </c>
       <c r="F36" t="n">
-        <v>5.065786035451768</v>
+        <v>3.411232095534148</v>
       </c>
       <c r="G36" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H36" t="n">
-        <v>2.024599751768966</v>
+        <v>-2.082132546370505</v>
       </c>
       <c r="I36" t="n">
-        <v>2.024599751768966</v>
+        <v>2.082132546370505</v>
       </c>
       <c r="J36" t="n">
-        <v>0.03046045265399754</v>
+        <v>0.1475303044661375</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>10000COQUSDT</t>
+          <t>COMPUSDT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>XTZUSDT</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.24</v>
+        <v>-4.38</v>
       </c>
       <c r="E37" t="n">
         <v>-3.37</v>
       </c>
       <c r="F37" t="n">
-        <v>0.03131342015360954</v>
+        <v>63.93420574860568</v>
       </c>
       <c r="G37" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H37" t="n">
-        <v>2.067002712477143</v>
+        <v>2.136472622291297</v>
       </c>
       <c r="I37" t="n">
-        <v>2.067002712477143</v>
+        <v>2.136472622291297</v>
       </c>
       <c r="J37" t="n">
-        <v>0.02409908652992602</v>
+        <v>0.137666272112879</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GLMUSDT</t>
+          <t>MEMEUSDT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>UNIUSDT</t>
+          <t>SKLUSDT</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>0.01</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.95</v>
+        <v>-3.96</v>
       </c>
       <c r="E38" t="n">
         <v>-3.37</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04663751031257623</v>
+        <v>0.3307831296923617</v>
       </c>
       <c r="G38" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.021992673674123</v>
+        <v>-2.148638048387864</v>
       </c>
       <c r="I38" t="n">
-        <v>2.021992673674123</v>
+        <v>2.148638048387864</v>
       </c>
       <c r="J38" t="n">
-        <v>0.006083625111800617</v>
+        <v>0.1252849562069457</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ATAUSDT</t>
+          <t>HFTUSDT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MYRIAUSDT</t>
+          <t>LEVERUSDT</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-5.35</v>
+        <v>-4.79</v>
       </c>
       <c r="E39" t="n">
         <v>-3.37</v>
       </c>
       <c r="F39" t="n">
-        <v>30.029578094875</v>
+        <v>80.94858155659512</v>
       </c>
       <c r="G39" t="n">
+        <v>27</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-2.167022882333734</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.167022882333734</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1159913731679936</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1000RATSUSDT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>STORJUSDT</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-4.02</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.2644564979439213</v>
+      </c>
+      <c r="G40" t="n">
+        <v>27</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.148540105266537</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2.148540105266537</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.1068152780145185</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>JOEUSDT</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SCUSDT</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F41" t="n">
+        <v>70.73909757603148</v>
+      </c>
+      <c r="G41" t="n">
+        <v>30</v>
+      </c>
+      <c r="H41" t="n">
+        <v>2.007597958196707</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.007597958196707</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.09210526315789479</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GRTUSDT</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>HFTUSDT</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9974562046950891</v>
+      </c>
+      <c r="G42" t="n">
+        <v>29</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.023481078491823</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.023481078491823</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.0815696609990559</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>10000LADYSUSDT</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RENUSDT</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-4.05</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.02699992383634908</v>
+      </c>
+      <c r="G43" t="n">
         <v>25</v>
       </c>
-      <c r="H39" t="n">
-        <v>2.012915243082903</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.012915243082903</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.002450344516164616</v>
+      <c r="H43" t="n">
+        <v>-2.134179064829965</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.134179064829965</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.06284338521619802</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SNXUSDT</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SCRTUSDT</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-4.35</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6.873886899238487</v>
+      </c>
+      <c r="G44" t="n">
+        <v>27</v>
+      </c>
+      <c r="H44" t="n">
+        <v>2.021904697128551</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.021904697128551</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.04394493387474814</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>10000COQUSDT</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HOOKUSDT</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0313257473293931</v>
+      </c>
+      <c r="G45" t="n">
+        <v>25</v>
+      </c>
+      <c r="H45" t="n">
+        <v>2.064300338831044</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.064300338831044</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.02815088004565514</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>COMPUSDT</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>QNTUSDT</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.6375575156892503</v>
+      </c>
+      <c r="G46" t="n">
+        <v>25</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2.041972603538868</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.041972603538868</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.01706588871249475</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,1438 +488,1438 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>1000FLOKIUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>SPELLUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.13</v>
+        <v>-4.34</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>0.007966338606583483</v>
+        <v>243.0108713927903</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>3.31684823216843</v>
+        <v>-4.013277411757492</v>
       </c>
       <c r="I2" t="n">
-        <v>3.31684823216843</v>
+        <v>4.013277411757492</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.6904192866740734</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SCAUSDT</t>
+          <t>DUSKUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHZUSDT</t>
+          <t>STGUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.28</v>
+        <v>-4.39</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>5.036157589981359</v>
+        <v>0.6853517786969319</v>
       </c>
       <c r="G3" t="n">
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>2.991396967816327</v>
+        <v>-3.974705008853494</v>
       </c>
       <c r="I3" t="n">
-        <v>2.991396967816327</v>
+        <v>3.974705008853494</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5805293398723245</v>
+        <v>0.6789361769078145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PYTHUSDT</t>
+          <t>STGUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1000LUNCUSDT</t>
+          <t>IOTAUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.36</v>
+        <v>-3.97</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>3.996618633563704</v>
+        <v>2.382000362803653</v>
       </c>
       <c r="G4" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.799093015526594</v>
+        <v>4.186893474827663</v>
       </c>
       <c r="I4" t="n">
-        <v>2.799093015526594</v>
+        <v>4.186893474827663</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5587409188679737</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HFTUSDT</t>
+          <t>CTSIUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ARUSDT</t>
+          <t>SPELLUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.25</v>
+        <v>-4.32</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007338425815861958</v>
+        <v>230.9416831390591</v>
       </c>
       <c r="G5" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.845119896389891</v>
+        <v>-3.456636937151816</v>
       </c>
       <c r="I5" t="n">
-        <v>2.845119896389891</v>
+        <v>3.456636937151816</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4894864987886801</v>
+        <v>0.6352322118265076</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ACHUSDT</t>
+          <t>API3USDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>SPELLUSDT</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.11</v>
+        <v>-5.06</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05911443343235626</v>
+        <v>2882.623215414867</v>
       </c>
       <c r="G6" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.985281747964392</v>
+        <v>-3.553155131669018</v>
       </c>
       <c r="I6" t="n">
-        <v>2.985281747964392</v>
+        <v>3.553155131669018</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4853880697852888</v>
+        <v>0.5902817316006003</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>API3USDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>STGUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.66</v>
+        <v>-4.24</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5930959091675608</v>
+        <v>5.044523901417803</v>
       </c>
       <c r="G7" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H7" t="n">
-        <v>2.531899904670978</v>
+        <v>-3.697077481688166</v>
       </c>
       <c r="I7" t="n">
-        <v>2.531899904670978</v>
+        <v>3.697077481688166</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4260882660414894</v>
+        <v>0.5594435980273107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>RONUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VANRYUSDT</t>
+          <t>STGUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.4</v>
+        <v>-4.08</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>2.458522841306098</v>
+        <v>5.331543161542152</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.741460577597452</v>
+        <v>-3.777862866453108</v>
       </c>
       <c r="I8" t="n">
-        <v>2.741460577597452</v>
+        <v>3.777862866453108</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4011809273307154</v>
+        <v>0.5282304699705942</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AVAXUSDT</t>
+          <t>ADAUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>COMPUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.18</v>
+        <v>-3.92</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>121.4414876784079</v>
+        <v>0.007970467589367349</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H9" t="n">
-        <v>2.412045482616897</v>
+        <v>2.474163129701007</v>
       </c>
       <c r="I9" t="n">
-        <v>2.412045482616897</v>
+        <v>2.474163129701007</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3481634073890647</v>
+        <v>0.4901154952144922</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>AVAXUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>POWRUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.72</v>
+        <v>-4.04</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>14.7486089569639</v>
+        <v>121.5257861627679</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>2.618870143845546</v>
+        <v>2.872575268195136</v>
       </c>
       <c r="I10" t="n">
-        <v>2.618870143845546</v>
+        <v>2.872575268195136</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3403187808619493</v>
+        <v>0.4060922987919232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MERLUSDT</t>
+          <t>JOEUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SCAUSDT</t>
+          <t>QTUMUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.11</v>
+        <v>-4.26</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8014649770533954</v>
+        <v>0.1354210304825134</v>
       </c>
       <c r="G11" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.368075623624685</v>
+        <v>2.61664422431802</v>
       </c>
       <c r="I11" t="n">
-        <v>2.368075623624685</v>
+        <v>2.61664422431802</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3263338084856888</v>
+        <v>0.3851640854425945</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LPTUSDT</t>
+          <t>ZENUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TRUUSDT</t>
+          <t>CVXUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0.01</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.93</v>
+        <v>-4.01</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>127.8279371019143</v>
+        <v>3.47653336574189</v>
       </c>
       <c r="G12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.600274419775466</v>
+        <v>-3.225179311826089</v>
       </c>
       <c r="I12" t="n">
-        <v>2.600274419775466</v>
+        <v>3.225179311826089</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3126655585788916</v>
+        <v>0.363695065225808</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>QIUSDT</t>
+          <t>KNCUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>REQUSDT</t>
+          <t>LINKUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.91</v>
+        <v>-4.1</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1367564505662528</v>
+        <v>0.04003851788817427</v>
       </c>
       <c r="G13" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" t="n">
-        <v>2.072085061933902</v>
+        <v>-2.244482803428212</v>
       </c>
       <c r="I13" t="n">
-        <v>2.072085061933902</v>
+        <v>2.244482803428212</v>
       </c>
       <c r="J13" t="n">
-        <v>0.308331530285423</v>
+        <v>0.3296337711888371</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>FXSUSDT</t>
+          <t>10000LADYSUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEMEUSDT</t>
+          <t>TOKENUSDT</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.48</v>
+        <v>-3.95</v>
       </c>
       <c r="E14" t="n">
         <v>-3.37</v>
       </c>
       <c r="F14" t="n">
-        <v>167.7720780263766</v>
+        <v>0.01629442863058271</v>
       </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="H14" t="n">
-        <v>2.623035346845528</v>
+        <v>-2.30094969976688</v>
       </c>
       <c r="I14" t="n">
-        <v>2.623035346845528</v>
+        <v>2.30094969976688</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3055445628498479</v>
+        <v>0.3280230679262288</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CFXUSDT</t>
+          <t>PYTHUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SXPUSDT</t>
+          <t>1000LUNCUSDT</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.19</v>
+        <v>-3.98</v>
       </c>
       <c r="E15" t="n">
         <v>-3.37</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6418639193097425</v>
+        <v>3.983833367396363</v>
       </c>
       <c r="G15" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.095017635447072</v>
+        <v>2.263767861788461</v>
       </c>
       <c r="I15" t="n">
-        <v>2.095017635447072</v>
+        <v>2.263767861788461</v>
       </c>
       <c r="J15" t="n">
-        <v>0.30129575140929</v>
+        <v>0.3169539331388497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FXSUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.04</v>
+        <v>-4.82</v>
       </c>
       <c r="E16" t="n">
         <v>-3.37</v>
       </c>
       <c r="F16" t="n">
-        <v>9.202484700976003</v>
+        <v>0.2386708873180121</v>
       </c>
       <c r="G16" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H16" t="n">
-        <v>2.426392657611909</v>
+        <v>-2.546332127486517</v>
       </c>
       <c r="I16" t="n">
-        <v>2.426392657611909</v>
+        <v>2.546332127486517</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3000231532906109</v>
+        <v>0.3089688241520306</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>ACHUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>QTUMUSDT</t>
+          <t>LINKUSDT</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.3</v>
+        <v>-4.74</v>
       </c>
       <c r="E17" t="n">
         <v>-3.37</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1354115673679129</v>
+        <v>0.001772492528843748</v>
       </c>
       <c r="G17" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17" t="n">
-        <v>2.179275746345915</v>
+        <v>-2.32263765264665</v>
       </c>
       <c r="I17" t="n">
-        <v>2.179275746345915</v>
+        <v>2.32263765264665</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2878639936471688</v>
+        <v>0.2792164728788648</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ACHUSDT</t>
+          <t>ANKRUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LINKUSDT</t>
+          <t>ONGUSDT</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.79</v>
+        <v>-4.71</v>
       </c>
       <c r="E18" t="n">
         <v>-3.37</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001777763695968764</v>
+        <v>0.08909492659503729</v>
       </c>
       <c r="G18" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.354761514798537</v>
+        <v>2.686435503288784</v>
       </c>
       <c r="I18" t="n">
-        <v>2.354761514798537</v>
+        <v>2.686435503288784</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2828816830384274</v>
+        <v>0.2769937715167862</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>BEAMUSDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SKLUSDT</t>
+          <t>ZEUSUSDT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.26</v>
+        <v>-4.03</v>
       </c>
       <c r="E19" t="n">
         <v>-3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>11.16718378717588</v>
+        <v>0.06092039570749939</v>
       </c>
       <c r="G19" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.460745560022652</v>
+        <v>-2.807979471742634</v>
       </c>
       <c r="I19" t="n">
-        <v>2.460745560022652</v>
+        <v>2.807979471742634</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2802361420846381</v>
+        <v>0.2579145852210191</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PYTHUSDT</t>
+          <t>IOTXUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LTCUSDT</t>
+          <t>BADGERUSDT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.58</v>
+        <v>-3.93</v>
       </c>
       <c r="E20" t="n">
         <v>-3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005053775888579375</v>
+        <v>0.01296046215098582</v>
       </c>
       <c r="G20" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H20" t="n">
-        <v>2.527816401214373</v>
+        <v>-2.351444179171144</v>
       </c>
       <c r="I20" t="n">
-        <v>2.527816401214373</v>
+        <v>2.351444179171144</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2766925188927241</v>
+        <v>0.2509501492927962</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BAKEUSDT</t>
+          <t>CFXUSDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TRUUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.4</v>
+        <v>-4.23</v>
       </c>
       <c r="E21" t="n">
         <v>-3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>2.295390540864202</v>
+        <v>0.09452375400152629</v>
       </c>
       <c r="G21" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.555415131461804</v>
+        <v>2.22713229271927</v>
       </c>
       <c r="I21" t="n">
-        <v>2.555415131461804</v>
+        <v>2.22713229271927</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2719733344352188</v>
+        <v>0.2507842662040115</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KNCUSDT</t>
+          <t>10000LADYSUSDT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LINKUSDT</t>
+          <t>RENUSDT</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.17</v>
+        <v>-4.03</v>
       </c>
       <c r="E22" t="n">
         <v>-3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04009168368058787</v>
+        <v>0.02693241187638273</v>
       </c>
       <c r="G22" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.025961717497452</v>
+        <v>-2.802293524501184</v>
       </c>
       <c r="I22" t="n">
-        <v>2.025961717497452</v>
+        <v>2.802293524501184</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2670117435617401</v>
+        <v>0.2378008105554712</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>JOEUSDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RDNTUSDT</t>
+          <t>SCUSDT</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.17</v>
+        <v>-4.23</v>
       </c>
       <c r="E23" t="n">
         <v>-3.37</v>
       </c>
       <c r="F23" t="n">
-        <v>2.627957702499646</v>
+        <v>70.72595296308248</v>
       </c>
       <c r="G23" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.513853561338478</v>
+        <v>2.449189620817553</v>
       </c>
       <c r="I23" t="n">
-        <v>2.513853561338478</v>
+        <v>2.449189620817553</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2513393722988508</v>
+        <v>0.2247860765230063</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ARBUSDT</t>
+          <t>XVSUSDT</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.46</v>
+        <v>-4.2</v>
       </c>
       <c r="E24" t="n">
         <v>-3.37</v>
       </c>
       <c r="F24" t="n">
-        <v>1.763186444900285</v>
+        <v>0.2333689929831098</v>
       </c>
       <c r="G24" t="n">
         <v>27</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.412123415474208</v>
+        <v>-2.574600353879908</v>
       </c>
       <c r="I24" t="n">
-        <v>2.412123415474208</v>
+        <v>2.574600353879908</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2376757827179046</v>
+        <v>0.2068580366193958</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>GMXUSDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LINKUSDT</t>
+          <t>KNCUSDT</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.42</v>
+        <v>-4.15</v>
       </c>
       <c r="E25" t="n">
         <v>-3.37</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01113807054030064</v>
+        <v>51.56907015702841</v>
       </c>
       <c r="G25" t="n">
         <v>31</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.228179453806423</v>
+        <v>2.298578670038463</v>
       </c>
       <c r="I25" t="n">
-        <v>2.228179453806423</v>
+        <v>2.298578670038463</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2200378240142274</v>
+        <v>0.1983698374747954</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MYRIAUSDT</t>
+          <t>JOEUSDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.43</v>
+        <v>-5.52</v>
       </c>
       <c r="E26" t="n">
         <v>-3.37</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01007495573331125</v>
+        <v>0.5931450976063579</v>
       </c>
       <c r="G26" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.436443110283474</v>
+        <v>2.058396601635645</v>
       </c>
       <c r="I26" t="n">
-        <v>2.436443110283474</v>
+        <v>2.058396601635645</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2129076116293552</v>
+        <v>0.1821301371674879</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>MYRIAUSDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>WUSDT</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.81</v>
+        <v>-4.55</v>
       </c>
       <c r="E27" t="n">
         <v>-3.37</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2389189148086019</v>
+        <v>0.01004678055823599</v>
       </c>
       <c r="G27" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.139548064042987</v>
+        <v>-2.605215949641676</v>
       </c>
       <c r="I27" t="n">
-        <v>2.139548064042987</v>
+        <v>2.605215949641676</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2128773390228365</v>
+        <v>0.1791302778896076</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DODOUSDT</t>
+          <t>MEMEUSDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>XVGUSDT</t>
+          <t>TNSRUSDT</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.85</v>
+        <v>-4.07</v>
       </c>
       <c r="E28" t="n">
         <v>-3.37</v>
       </c>
       <c r="F28" t="n">
-        <v>31.58057318732713</v>
+        <v>0.02787238075183156</v>
       </c>
       <c r="G28" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.138674569091808</v>
+        <v>-2.352285952114594</v>
       </c>
       <c r="I28" t="n">
-        <v>2.138674569091808</v>
+        <v>2.352285952114594</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2124436773085304</v>
+        <v>0.1590954842408054</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>OXTUSDT</t>
+          <t>FLMUSDT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>QIUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.13</v>
+        <v>-3.92</v>
       </c>
       <c r="E29" t="n">
         <v>-3.37</v>
       </c>
       <c r="F29" t="n">
-        <v>5.344692807484243</v>
+        <v>13.01884096698324</v>
       </c>
       <c r="G29" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.190315652074439</v>
+        <v>2.103760468707926</v>
       </c>
       <c r="I29" t="n">
-        <v>2.190315652074439</v>
+        <v>2.103760468707926</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2012396831124664</v>
+        <v>0.1587929791151504</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>QIUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BATUSDT</t>
+          <t>STORJUSDT</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.26</v>
+        <v>-3.99</v>
       </c>
       <c r="E30" t="n">
         <v>-3.37</v>
       </c>
       <c r="F30" t="n">
-        <v>0.07685048714218094</v>
+        <v>0.2641511554247762</v>
       </c>
       <c r="G30" t="n">
         <v>29</v>
       </c>
       <c r="H30" t="n">
-        <v>2.227042564523181</v>
+        <v>2.23989401658041</v>
       </c>
       <c r="I30" t="n">
-        <v>2.227042564523181</v>
+        <v>2.23989401658041</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1826312903535368</v>
+        <v>0.1440571504869027</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SHIB1000USDT</t>
+          <t>DENTUSDT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SXPUSDT</t>
+          <t>STEEMUSDT</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-5.04</v>
+        <v>-4.55</v>
       </c>
       <c r="E31" t="n">
         <v>-3.37</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06981182718229891</v>
+        <v>0.00482064070202317</v>
       </c>
       <c r="G31" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.150313655953856</v>
+        <v>2.474983683871076</v>
       </c>
       <c r="I31" t="n">
-        <v>2.150313655953856</v>
+        <v>2.474983683871076</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1813799985316858</v>
+        <v>0.1403597764335677</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ZBCNUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>JTOUSDT</t>
+          <t>ARBUSDT</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.47</v>
+        <v>-5.8</v>
       </c>
       <c r="E32" t="n">
         <v>-3.37</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0005105852177922801</v>
+        <v>1.757978941272598</v>
       </c>
       <c r="G32" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.368207633694627</v>
+        <v>-2.22229047095944</v>
       </c>
       <c r="I32" t="n">
-        <v>2.368207633694627</v>
+        <v>2.22229047095944</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1790309261212425</v>
+        <v>0.1388165268435155</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FILUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MNTUSDT</t>
+          <t>JOEUSDT</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-4.36</v>
+        <v>-4.47</v>
       </c>
       <c r="E33" t="n">
         <v>-3.37</v>
       </c>
       <c r="F33" t="n">
-        <v>5.840581254192453</v>
+        <v>4.793009809093248</v>
       </c>
       <c r="G33" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.097391120872709</v>
+        <v>-2.339251335464523</v>
       </c>
       <c r="I33" t="n">
-        <v>2.097391120872709</v>
+        <v>2.339251335464523</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1735267409823769</v>
+        <v>0.136793990607757</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PYTHUSDT</t>
+          <t>1000BTTUSDT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>OPUSDT</t>
+          <t>JOEUSDT</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-5</v>
+        <v>-4.71</v>
       </c>
       <c r="E34" t="n">
         <v>-3.37</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1926502502723956</v>
+        <v>0.002549370007024298</v>
       </c>
       <c r="G34" t="n">
         <v>26</v>
       </c>
       <c r="H34" t="n">
-        <v>2.284537859396141</v>
+        <v>-2.371657717605065</v>
       </c>
       <c r="I34" t="n">
-        <v>2.284537859396141</v>
+        <v>2.371657717605065</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1559126685267994</v>
+        <v>0.1280204065088842</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BANDUSDT</t>
+          <t>PYTHUSDT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>JTOUSDT</t>
+          <t>LTCUSDT</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.9</v>
+        <v>-4.22</v>
       </c>
       <c r="E35" t="n">
         <v>-3.37</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4623772763227969</v>
+        <v>0.005036937524442823</v>
       </c>
       <c r="G35" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H35" t="n">
-        <v>-2.166804528309172</v>
+        <v>2.24325730593357</v>
       </c>
       <c r="I35" t="n">
-        <v>2.166804528309172</v>
+        <v>2.24325730593357</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1527250727895513</v>
+        <v>0.1266373582879224</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>LINKUSDT</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.36</v>
+        <v>-4.5</v>
       </c>
       <c r="E36" t="n">
         <v>-3.37</v>
       </c>
       <c r="F36" t="n">
-        <v>3.411232095534148</v>
+        <v>0.01111382236177409</v>
       </c>
       <c r="G36" t="n">
         <v>31</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.082132546370505</v>
+        <v>-2.0500060198635</v>
       </c>
       <c r="I36" t="n">
-        <v>2.082132546370505</v>
+        <v>2.0500060198635</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1475303044661375</v>
+        <v>0.1243690801469922</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>SCAUSDT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>XTZUSDT</t>
+          <t>BLURUSDT</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.38</v>
+        <v>-4.01</v>
       </c>
       <c r="E37" t="n">
         <v>-3.37</v>
       </c>
       <c r="F37" t="n">
-        <v>63.93420574860568</v>
+        <v>1.619196138826722</v>
       </c>
       <c r="G37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H37" t="n">
-        <v>2.136472622291297</v>
+        <v>2.32256643582663</v>
       </c>
       <c r="I37" t="n">
-        <v>2.136472622291297</v>
+        <v>2.32256643582663</v>
       </c>
       <c r="J37" t="n">
-        <v>0.137666272112879</v>
+        <v>0.1134057977526925</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MEMEUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SKLUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.96</v>
+        <v>-4.73</v>
       </c>
       <c r="E38" t="n">
         <v>-3.37</v>
       </c>
       <c r="F38" t="n">
-        <v>0.3307831296923617</v>
+        <v>0.06467190906430965</v>
       </c>
       <c r="G38" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.148638048387864</v>
+        <v>2.105060530028827</v>
       </c>
       <c r="I38" t="n">
-        <v>2.148638048387864</v>
+        <v>2.105060530028827</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1252849562069457</v>
+        <v>0.1039168530288266</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HFTUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LEVERUSDT</t>
+          <t>LRCUSDT</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.79</v>
+        <v>-5.07</v>
       </c>
       <c r="E39" t="n">
         <v>-3.37</v>
       </c>
       <c r="F39" t="n">
-        <v>80.94858155659512</v>
+        <v>7.608142219676354</v>
       </c>
       <c r="G39" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.167022882333734</v>
+        <v>-2.350023562950043</v>
       </c>
       <c r="I39" t="n">
-        <v>2.167022882333734</v>
+        <v>2.350023562950043</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1159913731679936</v>
+        <v>0.1031588069084751</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>BEAMUSDT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>STORJUSDT</t>
+          <t>RADUSDT</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.02</v>
+        <v>-4.6</v>
       </c>
       <c r="E40" t="n">
         <v>-3.37</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2644564979439213</v>
+        <v>0.01434187182813051</v>
       </c>
       <c r="G40" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H40" t="n">
-        <v>2.148540105266537</v>
+        <v>2.024051879499644</v>
       </c>
       <c r="I40" t="n">
-        <v>2.148540105266537</v>
+        <v>2.024051879499644</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1068152780145185</v>
+        <v>0.09822140899416572</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>AVAXUSDT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SCUSDT</t>
+          <t>UMAUSDT</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-4.37</v>
+        <v>-4.39</v>
       </c>
       <c r="E41" t="n">
         <v>-3.37</v>
       </c>
       <c r="F41" t="n">
-        <v>70.73909757603148</v>
+        <v>10.75606344525626</v>
       </c>
       <c r="G41" t="n">
         <v>30</v>
       </c>
       <c r="H41" t="n">
-        <v>2.007597958196707</v>
+        <v>2.003507406249946</v>
       </c>
       <c r="I41" t="n">
-        <v>2.007597958196707</v>
+        <v>2.003507406249946</v>
       </c>
       <c r="J41" t="n">
         <v>0.09210526315789479</v>
@@ -1928,181 +1928,289 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>RSS3USDT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HFTUSDT</t>
+          <t>ETHFIUSDT</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0.01</v>
       </c>
       <c r="D42" t="n">
-        <v>-3.99</v>
+        <v>-3.96</v>
       </c>
       <c r="E42" t="n">
         <v>-3.37</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9974562046950891</v>
+        <v>0.07859451618934725</v>
       </c>
       <c r="G42" t="n">
         <v>29</v>
       </c>
       <c r="H42" t="n">
-        <v>2.023481078491823</v>
+        <v>-2.049560682203899</v>
       </c>
       <c r="I42" t="n">
-        <v>2.023481078491823</v>
+        <v>2.049560682203899</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0815696609990559</v>
+        <v>0.08739439664542449</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>10000LADYSUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RENUSDT</t>
+          <t>ZETAUSDT</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.05</v>
+        <v>-5.15</v>
       </c>
       <c r="E43" t="n">
         <v>-3.37</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02699992383634908</v>
+        <v>0.225962067765022</v>
       </c>
       <c r="G43" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.134179064829965</v>
+        <v>-2.096377129590396</v>
       </c>
       <c r="I43" t="n">
-        <v>2.134179064829965</v>
+        <v>2.096377129590396</v>
       </c>
       <c r="J43" t="n">
-        <v>0.06284338521619802</v>
+        <v>0.06448967572265771</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>FLMUSDT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SCRTUSDT</t>
+          <t>STEEMUSDT</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.35</v>
+        <v>-4.01</v>
       </c>
       <c r="E44" t="n">
         <v>-3.37</v>
       </c>
       <c r="F44" t="n">
-        <v>6.873886899238487</v>
+        <v>0.3340069939602548</v>
       </c>
       <c r="G44" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H44" t="n">
-        <v>2.021904697128551</v>
+        <v>2.138345819804146</v>
       </c>
       <c r="I44" t="n">
-        <v>2.021904697128551</v>
+        <v>2.138345819804146</v>
       </c>
       <c r="J44" t="n">
-        <v>0.04394493387474814</v>
+        <v>0.05856281687180008</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10000COQUSDT</t>
+          <t>BNTUSDT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>KNCUSDT</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D45" t="n">
-        <v>-4.2</v>
+        <v>-4</v>
       </c>
       <c r="E45" t="n">
         <v>-3.37</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0313257473293931</v>
+        <v>1.128512510573112</v>
       </c>
       <c r="G45" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H45" t="n">
-        <v>2.064300338831044</v>
+        <v>2.105504841318787</v>
       </c>
       <c r="I45" t="n">
-        <v>2.064300338831044</v>
+        <v>2.105504841318787</v>
       </c>
       <c r="J45" t="n">
-        <v>0.02815088004565514</v>
+        <v>0.04878596781945226</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>GLMUSDT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>QNTUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-4.61</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.701067739887386</v>
+      </c>
+      <c r="G46" t="n">
+        <v>26</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-2.095495904690642</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.095495904690642</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.04580628002995742</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>ONGUSDT</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CFXUSDT</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>0.01</v>
       </c>
-      <c r="D46" t="n">
-        <v>-3.92</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.6375575156892503</v>
-      </c>
-      <c r="G46" t="n">
+      <c r="D47" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.125195500108473</v>
+      </c>
+      <c r="G47" t="n">
         <v>25</v>
       </c>
-      <c r="H46" t="n">
-        <v>2.041972603538868</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.041972603538868</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.01706588871249475</v>
+      <c r="H47" t="n">
+        <v>-2.105910264099863</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2.105910264099863</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.0304856106578555</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>COREUSDT</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FLMUSDT</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-5.16</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F48" t="n">
+        <v>19.26834169308508</v>
+      </c>
+      <c r="G48" t="n">
+        <v>25</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-2.068351152575218</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2.068351152575218</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.01930416050464355</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MDTUSDT</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AVAXUSDT</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-3.93</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.001751048674241915</v>
+      </c>
+      <c r="G49" t="n">
+        <v>25</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-2.013062558211939</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.013062558211939</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.002844594854148408</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,295 +488,295 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1000FLOKIUSDT</t>
+          <t>MERLUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPELLUSDT</t>
+          <t>ZEUSUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.34</v>
+        <v>-3.92</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>243.0108713927903</v>
+        <v>1.11514201603034</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.013277411757492</v>
+        <v>-3.321219914685941</v>
       </c>
       <c r="I2" t="n">
-        <v>4.013277411757492</v>
+        <v>3.321219914685941</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6904192866740734</v>
+        <v>0.7605263157894737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DUSKUSDT</t>
+          <t>ASTRUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>STGUSDT</t>
+          <t>EOSUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.39</v>
+        <v>-4.38</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6853517786969319</v>
+        <v>0.1210671612125358</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.974705008853494</v>
+        <v>-3.167443290774605</v>
       </c>
       <c r="I3" t="n">
-        <v>3.974705008853494</v>
+        <v>3.167443290774605</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6789361769078145</v>
+        <v>0.647864017006472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>STGUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IOTAUSDT</t>
+          <t>VETUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.97</v>
+        <v>-5.26</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>2.382000362803653</v>
+        <v>0.193026415914258</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" t="n">
-        <v>4.186893474827663</v>
+        <v>-3.131416063496055</v>
       </c>
       <c r="I4" t="n">
-        <v>4.186893474827663</v>
+        <v>3.131416063496055</v>
       </c>
       <c r="J4" t="n">
-        <v>0.65</v>
+        <v>0.6116795925777727</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CTSIUSDT</t>
+          <t>BOBAUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPELLUSDT</t>
+          <t>EOSUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.32</v>
+        <v>-4.74</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>230.9416831390591</v>
+        <v>0.4356261921209176</v>
       </c>
       <c r="G5" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.456636937151816</v>
+        <v>-2.603876965714394</v>
       </c>
       <c r="I5" t="n">
-        <v>3.456636937151816</v>
+        <v>2.603876965714394</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6352322118265076</v>
+        <v>0.5910479664639466</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>API3USDT</t>
+          <t>QIUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPELLUSDT</t>
+          <t>REQUSDT</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-5.06</v>
+        <v>-6.06</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>2882.623215414867</v>
+        <v>0.1368937204114977</v>
       </c>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.553155131669018</v>
+        <v>2.680499329002445</v>
       </c>
       <c r="I6" t="n">
-        <v>3.553155131669018</v>
+        <v>2.680499329002445</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5902817316006003</v>
+        <v>0.5551427256189877</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>API3USDT</t>
+          <t>FORTHUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>STGUSDT</t>
+          <t>ALGOUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.24</v>
+        <v>-4.07</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>5.044523901417803</v>
+        <v>22.68766437556834</v>
       </c>
       <c r="G7" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.697077481688166</v>
+        <v>-2.593991747837903</v>
       </c>
       <c r="I7" t="n">
-        <v>3.697077481688166</v>
+        <v>2.593991747837903</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5594435980273107</v>
+        <v>0.5124898088231884</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RONUSDT</t>
+          <t>MBLUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>STGUSDT</t>
+          <t>QTUMUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.08</v>
+        <v>-4.21</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>5.331543161542152</v>
+        <v>0.00113239069796455</v>
       </c>
       <c r="G8" t="n">
         <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.777862866453108</v>
+        <v>-2.99164489849289</v>
       </c>
       <c r="I8" t="n">
-        <v>3.777862866453108</v>
+        <v>2.99164489849289</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5282304699705942</v>
+        <v>0.4875016899742155</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ADAUSDT</t>
+          <t>ICXUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>NEOUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0.01</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.92</v>
+        <v>-3.94</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007970467589367349</v>
+        <v>0.01391072134578836</v>
       </c>
       <c r="G9" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H9" t="n">
-        <v>2.474163129701007</v>
+        <v>-2.952097595675255</v>
       </c>
       <c r="I9" t="n">
-        <v>2.474163129701007</v>
+        <v>2.952097595675255</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4901154952144922</v>
+        <v>0.4864237831634948</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AVAXUSDT</t>
+          <t>XVSUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -788,1429 +788,1825 @@
         <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.04</v>
+        <v>-3.92</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>121.5257861627679</v>
+        <v>32.83112513361831</v>
       </c>
       <c r="G10" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H10" t="n">
-        <v>2.872575268195136</v>
+        <v>2.263803653655229</v>
       </c>
       <c r="I10" t="n">
-        <v>2.872575268195136</v>
+        <v>2.263803653655229</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4060922987919232</v>
+        <v>0.4786365866075701</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>AXSUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>QTUMUSDT</t>
+          <t>MNTUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.26</v>
+        <v>-4.08</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1354210304825134</v>
+        <v>7.607351294714669</v>
       </c>
       <c r="G11" t="n">
         <v>36</v>
       </c>
       <c r="H11" t="n">
-        <v>2.61664422431802</v>
+        <v>-2.547058692147541</v>
       </c>
       <c r="I11" t="n">
-        <v>2.61664422431802</v>
+        <v>2.547058692147541</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3851640854425945</v>
+        <v>0.4709282210802873</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ZENUSDT</t>
+          <t>LQTYUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CVXUSDT</t>
+          <t>1000LUNCUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.01</v>
+        <v>-4.3</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>3.47653336574189</v>
+        <v>9.844507672896254</v>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.225179311826089</v>
+        <v>2.509028387026531</v>
       </c>
       <c r="I12" t="n">
-        <v>3.225179311826089</v>
+        <v>2.509028387026531</v>
       </c>
       <c r="J12" t="n">
-        <v>0.363695065225808</v>
+        <v>0.4521772235583479</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KNCUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LINKUSDT</t>
+          <t>LTCUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.1</v>
+        <v>-4.34</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04003851788817427</v>
+        <v>0.3057607619507716</v>
       </c>
       <c r="G13" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.244482803428212</v>
+        <v>2.260748278338115</v>
       </c>
       <c r="I13" t="n">
-        <v>2.244482803428212</v>
+        <v>2.260748278338115</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3296337711888371</v>
+        <v>0.4402880160447651</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10000LADYSUSDT</t>
+          <t>CTSIUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOKENUSDT</t>
+          <t>SPELLUSDT</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.95</v>
+        <v>-4.41</v>
       </c>
       <c r="E14" t="n">
         <v>-3.37</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01629442863058271</v>
+        <v>230.9076882865446</v>
       </c>
       <c r="G14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.30094969976688</v>
+        <v>-2.480636905023682</v>
       </c>
       <c r="I14" t="n">
-        <v>2.30094969976688</v>
+        <v>2.480636905023682</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3280230679262288</v>
+        <v>0.438178687207255</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PYTHUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1000LUNCUSDT</t>
+          <t>1000PEPEUSDT</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0.01</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.98</v>
+        <v>-3.99</v>
       </c>
       <c r="E15" t="n">
         <v>-3.37</v>
       </c>
       <c r="F15" t="n">
-        <v>3.983833367396363</v>
+        <v>2141.049786001008</v>
       </c>
       <c r="G15" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>2.263767861788461</v>
+        <v>2.642816997536917</v>
       </c>
       <c r="I15" t="n">
-        <v>2.263767861788461</v>
+        <v>2.642816997536917</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3169539331388497</v>
+        <v>0.4076159295103917</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>ANKRUSDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>ONGUSDT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.82</v>
+        <v>-3.97</v>
       </c>
       <c r="E16" t="n">
         <v>-3.37</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2386708873180121</v>
+        <v>0.08934908399583262</v>
       </c>
       <c r="G16" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.546332127486517</v>
+        <v>2.653690529156419</v>
       </c>
       <c r="I16" t="n">
-        <v>2.546332127486517</v>
+        <v>2.653690529156419</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3089688241520306</v>
+        <v>0.3945561161274396</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ACHUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LINKUSDT</t>
+          <t>GMXUSDT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.74</v>
+        <v>-4.02</v>
       </c>
       <c r="E17" t="n">
         <v>-3.37</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001772492528843748</v>
+        <v>0.005308381294109108</v>
       </c>
       <c r="G17" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.32263765264665</v>
+        <v>-2.198346910261673</v>
       </c>
       <c r="I17" t="n">
-        <v>2.32263765264665</v>
+        <v>2.198346910261673</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2792164728788648</v>
+        <v>0.3910997135990221</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ANKRUSDT</t>
+          <t>NTRNUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ONGUSDT</t>
+          <t>WAXPUSDT</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.71</v>
+        <v>-5.08</v>
       </c>
       <c r="E18" t="n">
         <v>-3.37</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08909492659503729</v>
+        <v>11.47431824923876</v>
       </c>
       <c r="G18" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H18" t="n">
-        <v>2.686435503288784</v>
+        <v>2.172057776150996</v>
       </c>
       <c r="I18" t="n">
-        <v>2.686435503288784</v>
+        <v>2.172057776150996</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2769937715167862</v>
+        <v>0.3412956432137145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BEAMUSDT</t>
+          <t>BOBAUSDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ZEUSUSDT</t>
+          <t>KSMUSDT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.03</v>
+        <v>-4.34</v>
       </c>
       <c r="E19" t="n">
         <v>-3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06092039570749939</v>
+        <v>0.01133188116300268</v>
       </c>
       <c r="G19" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.807979471742634</v>
+        <v>-2.224328251972585</v>
       </c>
       <c r="I19" t="n">
-        <v>2.807979471742634</v>
+        <v>2.224328251972585</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2579145852210191</v>
+        <v>0.3302257098929725</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IOTXUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BADGERUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0.01</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.93</v>
+        <v>-4.11</v>
       </c>
       <c r="E20" t="n">
         <v>-3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01296046215098582</v>
+        <v>150.815118577586</v>
       </c>
       <c r="G20" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.351444179171144</v>
+        <v>2.567242018195217</v>
       </c>
       <c r="I20" t="n">
-        <v>2.351444179171144</v>
+        <v>2.567242018195217</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2509501492927962</v>
+        <v>0.3150902188738955</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CFXUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>MNTUSDT</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.23</v>
+        <v>-4.52</v>
       </c>
       <c r="E21" t="n">
         <v>-3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09452375400152629</v>
+        <v>1.737820477961452</v>
       </c>
       <c r="G21" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>2.22713229271927</v>
+        <v>-2.613543015625978</v>
       </c>
       <c r="I21" t="n">
-        <v>2.22713229271927</v>
+        <v>2.613543015625978</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2507842662040115</v>
+        <v>0.3010770098114121</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10000LADYSUSDT</t>
+          <t>OXTUSDT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>RENUSDT</t>
+          <t>QIUSDT</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.03</v>
+        <v>-4.25</v>
       </c>
       <c r="E22" t="n">
         <v>-3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>0.02693241187638273</v>
+        <v>5.326597685258897</v>
       </c>
       <c r="G22" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.802293524501184</v>
+        <v>-2.388467327966326</v>
       </c>
       <c r="I22" t="n">
-        <v>2.802293524501184</v>
+        <v>2.388467327966326</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2378008105554712</v>
+        <v>0.3006288370153767</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>MERLUSDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SCUSDT</t>
+          <t>APTUSDT</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.23</v>
+        <v>-4.81</v>
       </c>
       <c r="E23" t="n">
         <v>-3.37</v>
       </c>
       <c r="F23" t="n">
-        <v>70.72595296308248</v>
+        <v>0.04234988270922905</v>
       </c>
       <c r="G23" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H23" t="n">
-        <v>2.449189620817553</v>
+        <v>-2.534787878394246</v>
       </c>
       <c r="I23" t="n">
-        <v>2.449189620817553</v>
+        <v>2.534787878394246</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2247860765230063</v>
+        <v>0.2990885724751005</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>BATUSDT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>XVSUSDT</t>
+          <t>QIUSDT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.2</v>
+        <v>-4.05</v>
       </c>
       <c r="E24" t="n">
         <v>-3.37</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2333689929831098</v>
+        <v>12.88414298994175</v>
       </c>
       <c r="G24" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.574600353879908</v>
+        <v>-2.377660507325074</v>
       </c>
       <c r="I24" t="n">
-        <v>2.574600353879908</v>
+        <v>2.377660507325074</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2068580366193958</v>
+        <v>0.2953004898874909</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GMXUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KNCUSDT</t>
+          <t>COMPUSDT</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.15</v>
+        <v>-3.95</v>
       </c>
       <c r="E25" t="n">
         <v>-3.37</v>
       </c>
       <c r="F25" t="n">
-        <v>51.56907015702841</v>
+        <v>0.4465383944680086</v>
       </c>
       <c r="G25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" t="n">
-        <v>2.298578670038463</v>
+        <v>2.406027197773244</v>
       </c>
       <c r="I25" t="n">
-        <v>2.298578670038463</v>
+        <v>2.406027197773244</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1983698374747954</v>
+        <v>0.2908657500295478</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>MERLUSDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>SCAUSDT</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-5.52</v>
+        <v>-4.69</v>
       </c>
       <c r="E26" t="n">
         <v>-3.37</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5931450976063579</v>
+        <v>0.7944057313723655</v>
       </c>
       <c r="G26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H26" t="n">
-        <v>2.058396601635645</v>
+        <v>-2.430809858244938</v>
       </c>
       <c r="I26" t="n">
-        <v>2.058396601635645</v>
+        <v>2.430809858244938</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1821301371674879</v>
+        <v>0.2846638895294323</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MYRIAUSDT</t>
+          <t>EOSUSDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WUSDT</t>
+          <t>LPTUSDT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.55</v>
+        <v>-4.06</v>
       </c>
       <c r="E27" t="n">
         <v>-3.37</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01004678055823599</v>
+        <v>0.0386535693640053</v>
       </c>
       <c r="G27" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.605215949641676</v>
+        <v>2.456779259858719</v>
       </c>
       <c r="I27" t="n">
-        <v>2.605215949641676</v>
+        <v>2.456779259858719</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1791302778896076</v>
+        <v>0.2790471566043824</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MEMEUSDT</t>
+          <t>KNCUSDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>TNSRUSDT</t>
+          <t>LINKUSDT</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0.01</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.07</v>
+        <v>-4.04</v>
       </c>
       <c r="E28" t="n">
         <v>-3.37</v>
       </c>
       <c r="F28" t="n">
-        <v>0.02787238075183156</v>
+        <v>0.03999827824828275</v>
       </c>
       <c r="G28" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.352285952114594</v>
+        <v>-2.034037413859676</v>
       </c>
       <c r="I28" t="n">
-        <v>2.352285952114594</v>
+        <v>2.034037413859676</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1590954842408054</v>
+        <v>0.2732441389445054</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FLMUSDT</t>
+          <t>HOTUSDT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>XNOUSDT</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.92</v>
+        <v>-4.2</v>
       </c>
       <c r="E29" t="n">
         <v>-3.37</v>
       </c>
       <c r="F29" t="n">
-        <v>13.01884096698324</v>
+        <v>0.001915080579526029</v>
       </c>
       <c r="G29" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H29" t="n">
-        <v>2.103760468707926</v>
+        <v>2.440780429976856</v>
       </c>
       <c r="I29" t="n">
-        <v>2.103760468707926</v>
+        <v>2.440780429976856</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1587929791151504</v>
+        <v>0.271158868079897</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>STORJUSDT</t>
+          <t>LINKUSDT</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.99</v>
+        <v>-4.29</v>
       </c>
       <c r="E30" t="n">
         <v>-3.37</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2641511554247762</v>
+        <v>0.01109177593755821</v>
       </c>
       <c r="G30" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H30" t="n">
-        <v>2.23989401658041</v>
+        <v>-2.236402855710234</v>
       </c>
       <c r="I30" t="n">
-        <v>2.23989401658041</v>
+        <v>2.236402855710234</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1440571504869027</v>
+        <v>0.2624949321367234</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DENTUSDT</t>
+          <t>1000FLOKIUSDT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>STEEMUSDT</t>
+          <t>SPELLUSDT</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.55</v>
+        <v>-4.58</v>
       </c>
       <c r="E31" t="n">
         <v>-3.37</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00482064070202317</v>
+        <v>243.3002397328625</v>
       </c>
       <c r="G31" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>2.474983683871076</v>
+        <v>-2.307342980807476</v>
       </c>
       <c r="I31" t="n">
-        <v>2.474983683871076</v>
+        <v>2.307342980807476</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1403597764335677</v>
+        <v>0.2422090931373217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>QTUMUSDT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ARBUSDT</t>
+          <t>POWRUSDT</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D32" t="n">
-        <v>-5.8</v>
+        <v>-4.04</v>
       </c>
       <c r="E32" t="n">
         <v>-3.37</v>
       </c>
       <c r="F32" t="n">
-        <v>1.757978941272598</v>
+        <v>11.79537990882733</v>
       </c>
       <c r="G32" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.22229047095944</v>
+        <v>2.361360809442514</v>
       </c>
       <c r="I32" t="n">
-        <v>2.22229047095944</v>
+        <v>2.361360809442514</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1388165268435155</v>
+        <v>0.2320006992696733</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>XNOUSDT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>XVGUSDT</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-4.47</v>
+        <v>-4.25</v>
       </c>
       <c r="E33" t="n">
         <v>-3.37</v>
       </c>
       <c r="F33" t="n">
-        <v>4.793009809093248</v>
+        <v>221.1020426543003</v>
       </c>
       <c r="G33" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.339251335464523</v>
+        <v>-2.284809004896565</v>
       </c>
       <c r="I33" t="n">
-        <v>2.339251335464523</v>
+        <v>2.284809004896565</v>
       </c>
       <c r="J33" t="n">
-        <v>0.136793990607757</v>
+        <v>0.2310986241279238</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1000BTTUSDT</t>
+          <t>BNBUSDT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>ORDIUSDT</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.71</v>
+        <v>-4.34</v>
       </c>
       <c r="E34" t="n">
         <v>-3.37</v>
       </c>
       <c r="F34" t="n">
-        <v>0.002549370007024298</v>
+        <v>15.39373856641698</v>
       </c>
       <c r="G34" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.371657717605065</v>
+        <v>-2.462714736134971</v>
       </c>
       <c r="I34" t="n">
-        <v>2.371657717605065</v>
+        <v>2.462714736134971</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1280204065088842</v>
+        <v>0.2267105095696924</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>PYTHUSDT</t>
+          <t>GALAUSDT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>LTCUSDT</t>
+          <t>CHZUSDT</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.22</v>
+        <v>-4.31</v>
       </c>
       <c r="E35" t="n">
         <v>-3.37</v>
       </c>
       <c r="F35" t="n">
-        <v>0.005036937524442823</v>
+        <v>0.3374871477172369</v>
       </c>
       <c r="G35" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H35" t="n">
-        <v>2.24325730593357</v>
+        <v>2.410903009375776</v>
       </c>
       <c r="I35" t="n">
-        <v>2.24325730593357</v>
+        <v>2.410903009375776</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1266373582879224</v>
+        <v>0.2195855783608117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>BOBAUSDT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>LINKUSDT</t>
+          <t>THETAUSDT</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.5</v>
+        <v>-4.29</v>
       </c>
       <c r="E36" t="n">
         <v>-3.37</v>
       </c>
       <c r="F36" t="n">
-        <v>0.01111382236177409</v>
+        <v>0.1646282252317428</v>
       </c>
       <c r="G36" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.0500060198635</v>
+        <v>-2.106796954305528</v>
       </c>
       <c r="I36" t="n">
-        <v>2.0500060198635</v>
+        <v>2.106796954305528</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1243690801469922</v>
+        <v>0.2170132648628085</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SCAUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BLURUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.01</v>
+        <v>-4.36</v>
       </c>
       <c r="E37" t="n">
         <v>-3.37</v>
       </c>
       <c r="F37" t="n">
-        <v>1.619196138826722</v>
+        <v>0.08150201562334428</v>
       </c>
       <c r="G37" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H37" t="n">
-        <v>2.32256643582663</v>
+        <v>-2.431572113798951</v>
       </c>
       <c r="I37" t="n">
-        <v>2.32256643582663</v>
+        <v>2.431572113798951</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1134057977526925</v>
+        <v>0.2113555122224113</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>10000LADYSUSDT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>RENUSDT</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.73</v>
+        <v>-3.99</v>
       </c>
       <c r="E38" t="n">
         <v>-3.37</v>
       </c>
       <c r="F38" t="n">
-        <v>0.06467190906430965</v>
+        <v>0.02688209815212448</v>
       </c>
       <c r="G38" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H38" t="n">
-        <v>2.105060530028827</v>
+        <v>-2.403018500212958</v>
       </c>
       <c r="I38" t="n">
-        <v>2.105060530028827</v>
+        <v>2.403018500212958</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1039168530288266</v>
+        <v>0.1972770362309686</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LRCUSDT</t>
+          <t>SEIUSDT</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-5.07</v>
+        <v>-4.47</v>
       </c>
       <c r="E39" t="n">
         <v>-3.37</v>
       </c>
       <c r="F39" t="n">
-        <v>7.608142219676354</v>
+        <v>9.898651497287693</v>
       </c>
       <c r="G39" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.350023562950043</v>
+        <v>-2.269042460007236</v>
       </c>
       <c r="I39" t="n">
-        <v>2.350023562950043</v>
+        <v>2.269042460007236</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1031588069084751</v>
+        <v>0.1864827594061275</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BEAMUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RADUSDT</t>
+          <t>CTCUSDT</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.6</v>
+        <v>-4.16</v>
       </c>
       <c r="E40" t="n">
         <v>-3.37</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01434187182813051</v>
+        <v>0.0103561743942208</v>
       </c>
       <c r="G40" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H40" t="n">
-        <v>2.024051879499644</v>
+        <v>-2.002906139659658</v>
       </c>
       <c r="I40" t="n">
-        <v>2.024051879499644</v>
+        <v>2.002906139659658</v>
       </c>
       <c r="J40" t="n">
-        <v>0.09822140899416572</v>
+        <v>0.1842105263157895</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AVAXUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>UMAUSDT</t>
+          <t>QIUSDT</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D41" t="n">
-        <v>-4.39</v>
+        <v>-3.9</v>
       </c>
       <c r="E41" t="n">
         <v>-3.37</v>
       </c>
       <c r="F41" t="n">
-        <v>10.75606344525626</v>
+        <v>9.590697549087023</v>
       </c>
       <c r="G41" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H41" t="n">
-        <v>2.003507406249946</v>
+        <v>-2.326027736341619</v>
       </c>
       <c r="I41" t="n">
-        <v>2.003507406249946</v>
+        <v>2.326027736341619</v>
       </c>
       <c r="J41" t="n">
-        <v>0.09210526315789479</v>
+        <v>0.1593164251348944</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RSS3USDT</t>
+          <t>COMPUSDT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ETHFIUSDT</t>
+          <t>XNOUSDT</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-3.96</v>
+        <v>-4.49</v>
       </c>
       <c r="E42" t="n">
         <v>-3.37</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07859451618934725</v>
+        <v>50.49692228831982</v>
       </c>
       <c r="G42" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.049560682203899</v>
+        <v>2.227398329372638</v>
       </c>
       <c r="I42" t="n">
-        <v>2.049560682203899</v>
+        <v>2.227398329372638</v>
       </c>
       <c r="J42" t="n">
-        <v>0.08739439664542449</v>
+        <v>0.1475288977989698</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ZETAUSDT</t>
+          <t>RSRUSDT</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-5.15</v>
+        <v>-4.28</v>
       </c>
       <c r="E43" t="n">
         <v>-3.37</v>
       </c>
       <c r="F43" t="n">
-        <v>0.225962067765022</v>
+        <v>18.87345385402193</v>
       </c>
       <c r="G43" t="n">
         <v>27</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.096377129590396</v>
+        <v>-2.214711731900967</v>
       </c>
       <c r="I43" t="n">
-        <v>2.096377129590396</v>
+        <v>2.214711731900967</v>
       </c>
       <c r="J43" t="n">
-        <v>0.06448967572265771</v>
+        <v>0.1412737190146763</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FLMUSDT</t>
+          <t>FOXYUSDT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>STEEMUSDT</t>
+          <t>LDOUSDT</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.01</v>
+        <v>-4.79</v>
       </c>
       <c r="E44" t="n">
         <v>-3.37</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3340069939602548</v>
+        <v>0.007743851073112778</v>
       </c>
       <c r="G44" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H44" t="n">
-        <v>2.138345819804146</v>
+        <v>2.167519808386836</v>
       </c>
       <c r="I44" t="n">
-        <v>2.138345819804146</v>
+        <v>2.167519808386836</v>
       </c>
       <c r="J44" t="n">
-        <v>0.05856281687180008</v>
+        <v>0.1364266006953953</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BNTUSDT</t>
+          <t>ACHUSDT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>KNCUSDT</t>
+          <t>LINKUSDT</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-4</v>
+        <v>-4.48</v>
       </c>
       <c r="E45" t="n">
         <v>-3.37</v>
       </c>
       <c r="F45" t="n">
-        <v>1.128512510573112</v>
+        <v>0.001767380294425211</v>
       </c>
       <c r="G45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H45" t="n">
-        <v>2.105504841318787</v>
+        <v>-2.087139030848317</v>
       </c>
       <c r="I45" t="n">
-        <v>2.105504841318787</v>
+        <v>2.087139030848317</v>
       </c>
       <c r="J45" t="n">
-        <v>0.04878596781945226</v>
+        <v>0.1152155821237466</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GLMUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>WOOUSDT</t>
+          <t>NTRNUSDT</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-4.61</v>
+        <v>-5.09</v>
       </c>
       <c r="E46" t="n">
         <v>-3.37</v>
       </c>
       <c r="F46" t="n">
-        <v>1.701067739887386</v>
+        <v>1.167785633354419</v>
       </c>
       <c r="G46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H46" t="n">
-        <v>-2.095495904690642</v>
+        <v>-2.083423685005918</v>
       </c>
       <c r="I46" t="n">
-        <v>2.095495904690642</v>
+        <v>2.083423685005918</v>
       </c>
       <c r="J46" t="n">
-        <v>0.04580628002995742</v>
+        <v>0.1133837156566674</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ONGUSDT</t>
+          <t>GMXUSDT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CFXUSDT</t>
+          <t>KNCUSDT</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.07</v>
+        <v>-4.16</v>
       </c>
       <c r="E47" t="n">
         <v>-3.37</v>
       </c>
       <c r="F47" t="n">
-        <v>2.125195500108473</v>
+        <v>51.63961184185069</v>
       </c>
       <c r="G47" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.105910264099863</v>
+        <v>2.060979243931408</v>
       </c>
       <c r="I47" t="n">
-        <v>2.105910264099863</v>
+        <v>2.060979243931408</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0304856106578555</v>
+        <v>0.102317392164644</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>XVGUSDT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FLMUSDT</t>
+          <t>ZRXUSDT</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-5.16</v>
+        <v>-4.22</v>
       </c>
       <c r="E48" t="n">
         <v>-3.37</v>
       </c>
       <c r="F48" t="n">
-        <v>19.26834169308508</v>
+        <v>0.0115239370463706</v>
       </c>
       <c r="G48" t="n">
         <v>25</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.068351152575218</v>
+        <v>2.207371241504431</v>
       </c>
       <c r="I48" t="n">
-        <v>2.068351152575218</v>
+        <v>2.207371241504431</v>
       </c>
       <c r="J48" t="n">
-        <v>0.01930416050464355</v>
+        <v>0.100812354931551</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>ONEUSDT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AVAXUSDT</t>
+          <t>ZRXUSDT</t>
         </is>
       </c>
       <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.04012959779682119</v>
+      </c>
+      <c r="G49" t="n">
+        <v>30</v>
+      </c>
+      <c r="H49" t="n">
+        <v>2.010516793289166</v>
+      </c>
+      <c r="I49" t="n">
+        <v>2.010516793289166</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.09585772706511719</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>AKROUSDT</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FORTHUSDT</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
         <v>0.01</v>
       </c>
-      <c r="D49" t="n">
-        <v>-3.93</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.001751048674241915</v>
-      </c>
-      <c r="G49" t="n">
+      <c r="D50" t="n">
+        <v>-4.01</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.001592291070858941</v>
+      </c>
+      <c r="G50" t="n">
+        <v>26</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-2.146398937892341</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2.146398937892341</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.08917076382941924</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BCHUSDT</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>COMPUSDT</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7.824379983825934</v>
+      </c>
+      <c r="G51" t="n">
+        <v>26</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2.118399591226627</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.118399591226627</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.07536557141052683</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BOBAUSDT</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>GRTUSDT</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-3.96</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.24899174362745</v>
+      </c>
+      <c r="G52" t="n">
         <v>25</v>
       </c>
-      <c r="H49" t="n">
-        <v>-2.013062558211939</v>
-      </c>
-      <c r="I49" t="n">
-        <v>2.013062558211939</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.002844594854148408</v>
+      <c r="H52" t="n">
+        <v>-2.143281435811194</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.143281435811194</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.06921261404302569</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>STXUSDT</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ORDIUSDT</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-4.06</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.04851858195491491</v>
+      </c>
+      <c r="G53" t="n">
+        <v>25</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-2.138733193242284</v>
+      </c>
+      <c r="I53" t="n">
+        <v>2.138733193242284</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.06697008443755889</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>COREUSDT</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>LRCUSDT</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F54" t="n">
+        <v>7.586350311209675</v>
+      </c>
+      <c r="G54" t="n">
+        <v>27</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-2.046821640852166</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2.046821640852166</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.05849482278449393</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>AXSUSDT</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ETCUSDT</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-5.12</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2586848441025114</v>
+      </c>
+      <c r="G55" t="n">
+        <v>25</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-2.097219196643654</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.097219196643654</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.04650143858079262</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1000LUNCUSDT</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>BSVUSDT</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.001800142723807265</v>
+      </c>
+      <c r="G56" t="n">
+        <v>26</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-2.052751492314264</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2.052751492314264</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.04299750767533198</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>PERPUSDT</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>POLYXUSDT</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.54274859548133</v>
+      </c>
+      <c r="G57" t="n">
+        <v>26</v>
+      </c>
+      <c r="H57" t="n">
+        <v>2.045763586096073</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.045763586096073</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.03955209192691996</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CTKUSDT</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>FOXYUSDT</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-6.16</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F58" t="n">
+        <v>49.85291999912057</v>
+      </c>
+      <c r="G58" t="n">
+        <v>26</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-2.023793073373275</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.023793073373275</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.02871944074754956</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>COMPUSDT</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>QIUSDT</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-4.62</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F59" t="n">
+        <v>3253.250233602977</v>
+      </c>
+      <c r="G59" t="n">
+        <v>25</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-2.048309478130077</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2.048309478130077</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.02238630177795419</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ALGOUSDT</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MERLUSDT</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-4.13</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.4128325240583505</v>
+      </c>
+      <c r="G60" t="n">
+        <v>25</v>
+      </c>
+      <c r="H60" t="n">
+        <v>2.012441259999655</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.012441259999655</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.004701330091824785</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,2125 +488,2233 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MERLUSDT</t>
+          <t>ACEUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZEUSUSDT</t>
+          <t>AIUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.92</v>
+        <v>-5.09</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>1.11514201603034</v>
+        <v>5.040442943614029</v>
       </c>
       <c r="G2" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.321219914685941</v>
+        <v>-3.942313596374185</v>
       </c>
       <c r="I2" t="n">
-        <v>3.321219914685941</v>
+        <v>3.942313596374185</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7605263157894737</v>
+        <v>0.7108695652173912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASTRUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>EOSUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.38</v>
+        <v>-4.55</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1210671612125358</v>
+        <v>0.001503863540757917</v>
       </c>
       <c r="G3" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.167443290774605</v>
+        <v>-2.491844753132586</v>
       </c>
       <c r="I3" t="n">
-        <v>3.167443290774605</v>
+        <v>2.491844753132586</v>
       </c>
       <c r="J3" t="n">
-        <v>0.647864017006472</v>
+        <v>0.5129935500129376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>ACEUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VETUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.26</v>
+        <v>-6.88</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>0.193026415914258</v>
+        <v>10.77032005410811</v>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.131416063496055</v>
+        <v>-2.901541348853751</v>
       </c>
       <c r="I4" t="n">
-        <v>3.131416063496055</v>
+        <v>2.901541348853751</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6116795925777727</v>
+        <v>0.4831611360774272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BOBAUSDT</t>
+          <t>BNBUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EOSUSDT</t>
+          <t>ORDIUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.74</v>
+        <v>-4.58</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4356261921209176</v>
+        <v>15.39482107402605</v>
       </c>
       <c r="G5" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.603876965714394</v>
+        <v>-3.38859367248395</v>
       </c>
       <c r="I5" t="n">
-        <v>2.603876965714394</v>
+        <v>3.38859367248395</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5910479664639466</v>
+        <v>0.4793015230129442</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>QIUSDT</t>
+          <t>ALICEUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>REQUSDT</t>
+          <t>ORDIUSDT</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.06</v>
+        <v>-4.29</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1368937204114977</v>
+        <v>0.03123184421663058</v>
       </c>
       <c r="G6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>2.680499329002445</v>
+        <v>-2.624546573823709</v>
       </c>
       <c r="I6" t="n">
-        <v>2.680499329002445</v>
+        <v>2.624546573823709</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5551427256189877</v>
+        <v>0.4053753286706142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ALGOUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0.01</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.07</v>
+        <v>-4.01</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>22.68766437556834</v>
+        <v>1.720046580560548</v>
       </c>
       <c r="G7" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.593991747837903</v>
+        <v>-2.917315816213542</v>
       </c>
       <c r="I7" t="n">
-        <v>2.593991747837903</v>
+        <v>2.917315816213542</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5124898088231884</v>
+        <v>0.366718408516187</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MBLUSDT</t>
+          <t>NEOUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>QTUMUSDT</t>
+          <t>TWTUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.21</v>
+        <v>-4.69</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00113239069796455</v>
+        <v>11.44463061603511</v>
       </c>
       <c r="G8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.99164489849289</v>
+        <v>2.978935076252498</v>
       </c>
       <c r="I8" t="n">
-        <v>2.99164489849289</v>
+        <v>2.978935076252498</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4875016899742155</v>
+        <v>0.3569727825358651</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ICXUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>TWTUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.94</v>
+        <v>-4.86</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01391072134578836</v>
+        <v>1.758753129146029</v>
       </c>
       <c r="G9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.952097595675255</v>
+        <v>2.860538791340059</v>
       </c>
       <c r="I9" t="n">
-        <v>2.952097595675255</v>
+        <v>2.860538791340059</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4864237831634948</v>
+        <v>0.3324376795515372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>XVSUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>CTCUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.92</v>
+        <v>-3.97</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>32.83112513361831</v>
+        <v>0.01035028687913321</v>
       </c>
       <c r="G10" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H10" t="n">
-        <v>2.263803653655229</v>
+        <v>-2.58731991713531</v>
       </c>
       <c r="I10" t="n">
-        <v>2.263803653655229</v>
+        <v>2.58731991713531</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4786365866075701</v>
+        <v>0.3320066173990498</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AXSUSDT</t>
+          <t>STORJUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MNTUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.08</v>
+        <v>-4.24</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>7.607351294714669</v>
+        <v>0.1873474181466355</v>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.547058692147541</v>
+        <v>-2.995067530734628</v>
       </c>
       <c r="I11" t="n">
-        <v>2.547058692147541</v>
+        <v>2.995067530734628</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4709282210802873</v>
+        <v>0.3319545998241804</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>LQTYUSDT</t>
+          <t>AUCTIONUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1000LUNCUSDT</t>
+          <t>KNCUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.3</v>
+        <v>-4.34</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>9.844507672896254</v>
+        <v>30.22728338086631</v>
       </c>
       <c r="G12" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>2.509028387026531</v>
+        <v>-2.711956921024847</v>
       </c>
       <c r="I12" t="n">
-        <v>2.509028387026531</v>
+        <v>2.711956921024847</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4521772235583479</v>
+        <v>0.3129849175005806</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>LAIUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LTCUSDT</t>
+          <t>OMGUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.34</v>
+        <v>-4.64</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3057607619507716</v>
+        <v>0.05161124209036402</v>
       </c>
       <c r="G13" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H13" t="n">
-        <v>2.260748278338115</v>
+        <v>2.302728765709225</v>
       </c>
       <c r="I13" t="n">
-        <v>2.260748278338115</v>
+        <v>2.302728765709225</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4402880160447651</v>
+        <v>0.3125398314191566</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CTSIUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPELLUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.41</v>
+        <v>-3.91</v>
       </c>
       <c r="E14" t="n">
         <v>-3.37</v>
       </c>
       <c r="F14" t="n">
-        <v>230.9076882865446</v>
+        <v>12.59106088170434</v>
       </c>
       <c r="G14" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.480636905023682</v>
+        <v>2.570311914762477</v>
       </c>
       <c r="I14" t="n">
-        <v>2.480636905023682</v>
+        <v>2.570311914762477</v>
       </c>
       <c r="J14" t="n">
-        <v>0.438178687207255</v>
+        <v>0.3110786540299801</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>MYRIAUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1000PEPEUSDT</t>
+          <t>AIUSDT</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.99</v>
+        <v>-4.16</v>
       </c>
       <c r="E15" t="n">
         <v>-3.37</v>
       </c>
       <c r="F15" t="n">
-        <v>2141.049786001008</v>
+        <v>0.005657923460111542</v>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H15" t="n">
-        <v>2.642816997536917</v>
+        <v>-2.382719091920623</v>
       </c>
       <c r="I15" t="n">
-        <v>2.642816997536917</v>
+        <v>2.382719091920623</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4076159295103917</v>
+        <v>0.3089624370149944</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ANKRUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ONGUSDT</t>
+          <t>LTCUSDT</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0.01</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.97</v>
+        <v>-4.08</v>
       </c>
       <c r="E16" t="n">
         <v>-3.37</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08934908399583262</v>
+        <v>0.3059054045373949</v>
       </c>
       <c r="G16" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H16" t="n">
-        <v>2.653690529156419</v>
+        <v>2.176196912024432</v>
       </c>
       <c r="I16" t="n">
-        <v>2.653690529156419</v>
+        <v>2.176196912024432</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3945561161274396</v>
+        <v>0.3004905378200537</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>1000FLOKIUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GMXUSDT</t>
+          <t>AXSUSDT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.02</v>
+        <v>-4.34</v>
       </c>
       <c r="E17" t="n">
         <v>-3.37</v>
       </c>
       <c r="F17" t="n">
-        <v>0.005308381294109108</v>
+        <v>0.02885040345898637</v>
       </c>
       <c r="G17" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.198346910261673</v>
+        <v>2.502992219163174</v>
       </c>
       <c r="I17" t="n">
-        <v>2.198346910261673</v>
+        <v>2.502992219163174</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3910997135990221</v>
+        <v>0.2884755308255162</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NTRNUSDT</t>
+          <t>HOTUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WAXPUSDT</t>
+          <t>FORTHUSDT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D18" t="n">
-        <v>-5.08</v>
+        <v>-3.93</v>
       </c>
       <c r="E18" t="n">
         <v>-3.37</v>
       </c>
       <c r="F18" t="n">
-        <v>11.47431824923876</v>
+        <v>0.000562454575143355</v>
       </c>
       <c r="G18" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H18" t="n">
-        <v>2.172057776150996</v>
+        <v>2.545790013943727</v>
       </c>
       <c r="I18" t="n">
-        <v>2.172057776150996</v>
+        <v>2.545790013943727</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3412956432137145</v>
+        <v>0.2876278394981571</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BOBAUSDT</t>
+          <t>ETHWUSDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KSMUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.34</v>
+        <v>-4.38</v>
       </c>
       <c r="E19" t="n">
         <v>-3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01133188116300268</v>
+        <v>1.213670033402487</v>
       </c>
       <c r="G19" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.224328251972585</v>
+        <v>-2.655909065432235</v>
       </c>
       <c r="I19" t="n">
-        <v>2.224328251972585</v>
+        <v>2.655909065432235</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3302257098929725</v>
+        <v>0.2789490129212123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>CFXUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>NEOUSDT</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0.01</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.11</v>
+        <v>-4.06</v>
       </c>
       <c r="E20" t="n">
         <v>-3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>150.815118577586</v>
+        <v>0.01445150468998834</v>
       </c>
       <c r="G20" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H20" t="n">
-        <v>2.567242018195217</v>
+        <v>-2.424539171500095</v>
       </c>
       <c r="I20" t="n">
-        <v>2.567242018195217</v>
+        <v>2.424539171500095</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3150902188738955</v>
+        <v>0.2773516874242123</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MNTUSDT</t>
+          <t>CELOUSDT</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.52</v>
+        <v>-3.94</v>
       </c>
       <c r="E21" t="n">
         <v>-3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>1.737820477961452</v>
+        <v>3.600154545259878</v>
       </c>
       <c r="G21" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.613543015625978</v>
+        <v>2.549715403975413</v>
       </c>
       <c r="I21" t="n">
-        <v>2.613543015625978</v>
+        <v>2.549715403975413</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3010770098114121</v>
+        <v>0.2737284291163596</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OXTUSDT</t>
+          <t>1000FLOKIUSDT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>QIUSDT</t>
+          <t>LPTUSDT</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.25</v>
+        <v>-4.16</v>
       </c>
       <c r="E22" t="n">
         <v>-3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>5.326597685258897</v>
+        <v>0.01103522758516496</v>
       </c>
       <c r="G22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.388467327966326</v>
+        <v>2.591805081850993</v>
       </c>
       <c r="I22" t="n">
-        <v>2.388467327966326</v>
+        <v>2.591805081850993</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3006288370153767</v>
+        <v>0.2726429819063608</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MERLUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>APTUSDT</t>
+          <t>VETUSDT</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.81</v>
+        <v>-5.24</v>
       </c>
       <c r="E23" t="n">
         <v>-3.37</v>
       </c>
       <c r="F23" t="n">
-        <v>0.04234988270922905</v>
+        <v>0.1930084877226925</v>
       </c>
       <c r="G23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.534787878394246</v>
+        <v>-2.654789505087852</v>
       </c>
       <c r="I23" t="n">
-        <v>2.534787878394246</v>
+        <v>2.654789505087852</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2990885724751005</v>
+        <v>0.2633557203271508</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BATUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>QIUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.05</v>
+        <v>-5.36</v>
       </c>
       <c r="E24" t="n">
         <v>-3.37</v>
       </c>
       <c r="F24" t="n">
-        <v>12.88414298994175</v>
+        <v>0.0234134379784819</v>
       </c>
       <c r="G24" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.377660507325074</v>
+        <v>-2.14383857515958</v>
       </c>
       <c r="I24" t="n">
-        <v>2.377660507325074</v>
+        <v>2.14383857515958</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2953004898874909</v>
+        <v>0.2591911862566618</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>WUSDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>GALAUSDT</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.95</v>
+        <v>-4.18</v>
       </c>
       <c r="E25" t="n">
         <v>-3.37</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4465383944680086</v>
+        <v>13.40432833559802</v>
       </c>
       <c r="G25" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H25" t="n">
-        <v>2.406027197773244</v>
+        <v>-2.699419974258091</v>
       </c>
       <c r="I25" t="n">
-        <v>2.406027197773244</v>
+        <v>2.699419974258091</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2908657500295478</v>
+        <v>0.2479059726974068</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MERLUSDT</t>
+          <t>ICXUSDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SCAUSDT</t>
+          <t>NEOUSDT</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.69</v>
+        <v>-4.37</v>
       </c>
       <c r="E26" t="n">
         <v>-3.37</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7944057313723655</v>
+        <v>0.0139077799421169</v>
       </c>
       <c r="G26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.430809858244938</v>
+        <v>-2.697087534451311</v>
       </c>
       <c r="I26" t="n">
-        <v>2.430809858244938</v>
+        <v>2.697087534451311</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2846638895294323</v>
+        <v>0.2471228374819203</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EOSUSDT</t>
+          <t>MANTAUSDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LPTUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0.01</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.06</v>
+        <v>-4.1</v>
       </c>
       <c r="E27" t="n">
         <v>-3.37</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0386535693640053</v>
+        <v>3.419215533269187</v>
       </c>
       <c r="G27" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H27" t="n">
-        <v>2.456779259858719</v>
+        <v>2.232230546742085</v>
       </c>
       <c r="I27" t="n">
-        <v>2.456779259858719</v>
+        <v>2.232230546742085</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2790471566043824</v>
+        <v>0.243217319801466</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KNCUSDT</t>
+          <t>GRTUSDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LINKUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.04</v>
+        <v>-5.04</v>
       </c>
       <c r="E28" t="n">
         <v>-3.37</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03999827824828275</v>
+        <v>0.1076554148674426</v>
       </c>
       <c r="G28" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.034037413859676</v>
+        <v>2.431210235897812</v>
       </c>
       <c r="I28" t="n">
-        <v>2.034037413859676</v>
+        <v>2.431210235897812</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2732441389445054</v>
+        <v>0.2339393764390112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HOTUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>VTHOUSDT</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.2</v>
+        <v>-4.68</v>
       </c>
       <c r="E29" t="n">
         <v>-3.37</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001915080579526029</v>
+        <v>2.185245694106227</v>
       </c>
       <c r="G29" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H29" t="n">
-        <v>2.440780429976856</v>
+        <v>-2.353668173714663</v>
       </c>
       <c r="I29" t="n">
-        <v>2.440780429976856</v>
+        <v>2.353668173714663</v>
       </c>
       <c r="J29" t="n">
-        <v>0.271158868079897</v>
+        <v>0.2231214036578437</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>LQTYUSDT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LINKUSDT</t>
+          <t>SHIB1000USDT</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.29</v>
+        <v>-4.15</v>
       </c>
       <c r="E30" t="n">
         <v>-3.37</v>
       </c>
       <c r="F30" t="n">
-        <v>0.01109177593755821</v>
+        <v>47.69020957347787</v>
       </c>
       <c r="G30" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.236402855710234</v>
+        <v>-2.582605919221679</v>
       </c>
       <c r="I30" t="n">
-        <v>2.236402855710234</v>
+        <v>2.582605919221679</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2624949321367234</v>
+        <v>0.2086847246733977</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1000FLOKIUSDT</t>
+          <t>DENTUSDT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SPELLUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.58</v>
+        <v>-3.94</v>
       </c>
       <c r="E31" t="n">
         <v>-3.37</v>
       </c>
       <c r="F31" t="n">
-        <v>243.3002397328625</v>
+        <v>0.007124373628657019</v>
       </c>
       <c r="G31" t="n">
         <v>30</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.307342980807476</v>
+        <v>2.361422638822915</v>
       </c>
       <c r="I31" t="n">
-        <v>2.307342980807476</v>
+        <v>2.361422638822915</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2422090931373217</v>
+        <v>0.1952902443820549</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>QTUMUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.04</v>
+        <v>-4.38</v>
       </c>
       <c r="E32" t="n">
         <v>-3.37</v>
       </c>
       <c r="F32" t="n">
-        <v>11.79537990882733</v>
+        <v>0.3506593054769799</v>
       </c>
       <c r="G32" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H32" t="n">
-        <v>2.361360809442514</v>
+        <v>2.263770084208456</v>
       </c>
       <c r="I32" t="n">
-        <v>2.361360809442514</v>
+        <v>2.263770084208456</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2320006992696733</v>
+        <v>0.1929374051286559</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>BELUSDT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>XVGUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-4.25</v>
+        <v>-4.92</v>
       </c>
       <c r="E33" t="n">
         <v>-3.37</v>
       </c>
       <c r="F33" t="n">
-        <v>221.1020426543003</v>
+        <v>4.495454519771369</v>
       </c>
       <c r="G33" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.284809004896565</v>
+        <v>2.080828070678615</v>
       </c>
       <c r="I33" t="n">
-        <v>2.284809004896565</v>
+        <v>2.080828070678615</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2310986241279238</v>
+        <v>0.1923827343289946</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>NEOUSDT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ORDIUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.34</v>
+        <v>-4.31</v>
       </c>
       <c r="E34" t="n">
         <v>-3.37</v>
       </c>
       <c r="F34" t="n">
-        <v>15.39373856641698</v>
+        <v>2.633800689224909</v>
       </c>
       <c r="G34" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.462714736134971</v>
+        <v>2.252744976074796</v>
       </c>
       <c r="I34" t="n">
-        <v>2.462714736134971</v>
+        <v>2.252744976074796</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2267105095696924</v>
+        <v>0.1892356373878903</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GALAUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHZUSDT</t>
+          <t>ONEUSDT</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.31</v>
+        <v>-4.22</v>
       </c>
       <c r="E35" t="n">
         <v>-3.37</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3374871477172369</v>
+        <v>29.06125749054847</v>
       </c>
       <c r="G35" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H35" t="n">
-        <v>2.410903009375776</v>
+        <v>-2.204038775835542</v>
       </c>
       <c r="I35" t="n">
-        <v>2.410903009375776</v>
+        <v>2.204038775835542</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2195855783608117</v>
+        <v>0.1880995345917606</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BOBAUSDT</t>
+          <t>CVCUSDT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>THETAUSDT</t>
+          <t>SEIUSDT</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.29</v>
+        <v>-4.4</v>
       </c>
       <c r="E36" t="n">
         <v>-3.37</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1646282252317428</v>
+        <v>0.3110192656001718</v>
       </c>
       <c r="G36" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.106796954305528</v>
+        <v>-2.053399465195669</v>
       </c>
       <c r="I36" t="n">
-        <v>2.106796954305528</v>
+        <v>2.053399465195669</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2170132648628085</v>
+        <v>0.1831733618929125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>DARUSDT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>10000SATSUSDT</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.36</v>
+        <v>-4.29</v>
       </c>
       <c r="E37" t="n">
         <v>-3.37</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08150201562334428</v>
+        <v>55.41099357823314</v>
       </c>
       <c r="G37" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.431572113798951</v>
+        <v>-2.455585334875039</v>
       </c>
       <c r="I37" t="n">
-        <v>2.431572113798951</v>
+        <v>2.455585334875039</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2113555122224113</v>
+        <v>0.1812539445632592</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>10000LADYSUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RENUSDT</t>
+          <t>XVSUSDT</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>0.01</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.99</v>
+        <v>-4.1</v>
       </c>
       <c r="E38" t="n">
         <v>-3.37</v>
       </c>
       <c r="F38" t="n">
-        <v>0.02688209815212448</v>
+        <v>0.2331963732670651</v>
       </c>
       <c r="G38" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.403018500212958</v>
+        <v>2.409836071983917</v>
       </c>
       <c r="I38" t="n">
-        <v>2.403018500212958</v>
+        <v>2.409836071983917</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1972770362309686</v>
+        <v>0.1811106569988786</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GASUSDT</t>
+          <t>FORTHUSDT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SEIUSDT</t>
+          <t>CTCUSDT</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.47</v>
+        <v>-4.1</v>
       </c>
       <c r="E39" t="n">
         <v>-3.37</v>
       </c>
       <c r="F39" t="n">
-        <v>9.898651497287693</v>
+        <v>6.46708863067761</v>
       </c>
       <c r="G39" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.269042460007236</v>
+        <v>-2.348970029193343</v>
       </c>
       <c r="I39" t="n">
-        <v>2.269042460007236</v>
+        <v>2.348970029193343</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1864827594061275</v>
+        <v>0.1758917903564843</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>CELRUSDT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CTCUSDT</t>
+          <t>GALAUSDT</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.16</v>
+        <v>-4.56</v>
       </c>
       <c r="E40" t="n">
         <v>-3.37</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0103561743942208</v>
+        <v>0.5877190478014667</v>
       </c>
       <c r="G40" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.002906139659658</v>
+        <v>-2.070906249118292</v>
       </c>
       <c r="I40" t="n">
-        <v>2.002906139659658</v>
+        <v>2.070906249118292</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1842105263157895</v>
+        <v>0.1586166212211903</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>MANTAUSDT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>QIUSDT</t>
+          <t>LOOKSUSDT</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>0.01</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.9</v>
+        <v>-3.97</v>
       </c>
       <c r="E41" t="n">
         <v>-3.37</v>
       </c>
       <c r="F41" t="n">
-        <v>9.590697549087023</v>
+        <v>18.64210037728597</v>
       </c>
       <c r="G41" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.326027736341619</v>
+        <v>2.365328230800334</v>
       </c>
       <c r="I41" t="n">
-        <v>2.326027736341619</v>
+        <v>2.365328230800334</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1593164251348944</v>
+        <v>0.1509494040373836</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.49</v>
+        <v>-5.55</v>
       </c>
       <c r="E42" t="n">
         <v>-3.37</v>
       </c>
       <c r="F42" t="n">
-        <v>50.49692228831982</v>
+        <v>2.254843884300318</v>
       </c>
       <c r="G42" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H42" t="n">
-        <v>2.227398329372638</v>
+        <v>2.042184661631287</v>
       </c>
       <c r="I42" t="n">
-        <v>2.227398329372638</v>
+        <v>2.042184661631287</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1475288977989698</v>
+        <v>0.1489731197939008</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RSRUSDT</t>
+          <t>RONUSDT</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.28</v>
+        <v>-5.79</v>
       </c>
       <c r="E43" t="n">
         <v>-3.37</v>
       </c>
       <c r="F43" t="n">
-        <v>18.87345385402193</v>
+        <v>0.6299298346813085</v>
       </c>
       <c r="G43" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.214711731900967</v>
+        <v>2.302331700289035</v>
       </c>
       <c r="I43" t="n">
-        <v>2.214711731900967</v>
+        <v>2.302331700289035</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1412737190146763</v>
+        <v>0.1450152091985611</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>FOXYUSDT</t>
+          <t>DODOUSDT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>LDOUSDT</t>
+          <t>XVGUSDT</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.79</v>
+        <v>-4.86</v>
       </c>
       <c r="E44" t="n">
         <v>-3.37</v>
       </c>
       <c r="F44" t="n">
-        <v>0.007743851073112778</v>
+        <v>31.52470848156282</v>
       </c>
       <c r="G44" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H44" t="n">
-        <v>2.167519808386836</v>
+        <v>-2.048694767533974</v>
       </c>
       <c r="I44" t="n">
-        <v>2.167519808386836</v>
+        <v>2.048694767533974</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1364266006953953</v>
+        <v>0.1359415483225538</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ACHUSDT</t>
+          <t>RENUSDT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>LINKUSDT</t>
+          <t>RONUSDT</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D45" t="n">
-        <v>-4.48</v>
+        <v>-4.01</v>
       </c>
       <c r="E45" t="n">
         <v>-3.37</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001767380294425211</v>
+        <v>0.02272949932808616</v>
       </c>
       <c r="G45" t="n">
         <v>29</v>
       </c>
       <c r="H45" t="n">
-        <v>-2.087139030848317</v>
+        <v>2.22563873942562</v>
       </c>
       <c r="I45" t="n">
-        <v>2.087139030848317</v>
+        <v>2.22563873942562</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1152155821237466</v>
+        <v>0.1344823289385668</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>CHRUSDT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NTRNUSDT</t>
+          <t>RONUSDT</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-5.09</v>
+        <v>-4.12</v>
       </c>
       <c r="E46" t="n">
         <v>-3.37</v>
       </c>
       <c r="F46" t="n">
-        <v>1.167785633354419</v>
+        <v>0.1120991726127626</v>
       </c>
       <c r="G46" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H46" t="n">
-        <v>-2.083423685005918</v>
+        <v>2.027628539351987</v>
       </c>
       <c r="I46" t="n">
-        <v>2.083423685005918</v>
+        <v>2.027628539351987</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1133837156566674</v>
+        <v>0.1288683946665274</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GMXUSDT</t>
+          <t>ALICEUSDT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>KNCUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.16</v>
+        <v>-4.14</v>
       </c>
       <c r="E47" t="n">
         <v>-3.37</v>
       </c>
       <c r="F47" t="n">
-        <v>51.63961184185069</v>
+        <v>0.6366593166696926</v>
       </c>
       <c r="G47" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H47" t="n">
-        <v>2.060979243931408</v>
+        <v>-2.231834456300784</v>
       </c>
       <c r="I47" t="n">
-        <v>2.060979243931408</v>
+        <v>2.231834456300784</v>
       </c>
       <c r="J47" t="n">
-        <v>0.102317392164644</v>
+        <v>0.1213451988508302</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>XVGUSDT</t>
+          <t>HOTUSDT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ZRXUSDT</t>
+          <t>NKNUSDT</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-4.22</v>
+        <v>-4.65</v>
       </c>
       <c r="E48" t="n">
         <v>-3.37</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0115239370463706</v>
+        <v>0.02176071853420602</v>
       </c>
       <c r="G48" t="n">
         <v>25</v>
       </c>
       <c r="H48" t="n">
-        <v>2.207371241504431</v>
+        <v>2.304998467292758</v>
       </c>
       <c r="I48" t="n">
-        <v>2.207371241504431</v>
+        <v>2.304998467292758</v>
       </c>
       <c r="J48" t="n">
-        <v>0.100812354931551</v>
+        <v>0.1002584235163488</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ONEUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ZRXUSDT</t>
+          <t>STORJUSDT</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.23</v>
+        <v>-4.42</v>
       </c>
       <c r="E49" t="n">
         <v>-3.37</v>
       </c>
       <c r="F49" t="n">
-        <v>0.04012959779682119</v>
+        <v>9.132313262344152</v>
       </c>
       <c r="G49" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49" t="n">
-        <v>2.010516793289166</v>
+        <v>2.121180185686643</v>
       </c>
       <c r="I49" t="n">
-        <v>2.010516793289166</v>
+        <v>2.121180185686643</v>
       </c>
       <c r="J49" t="n">
-        <v>0.09585772706511719</v>
+        <v>0.09940953874094349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>BATUSDT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-4.01</v>
+        <v>-4.56</v>
       </c>
       <c r="E50" t="n">
         <v>-3.37</v>
       </c>
       <c r="F50" t="n">
-        <v>0.001592291070858941</v>
+        <v>3.892944470779423</v>
       </c>
       <c r="G50" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.146398937892341</v>
+        <v>2.20863426901046</v>
       </c>
       <c r="I50" t="n">
-        <v>2.146398937892341</v>
+        <v>2.20863426901046</v>
       </c>
       <c r="J50" t="n">
-        <v>0.08917076382941924</v>
+        <v>0.09833816014802836</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCHUSDT</t>
+          <t>CHRUSDT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>IOTAUSDT</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.9</v>
+        <v>-4.53</v>
       </c>
       <c r="E51" t="n">
         <v>-3.37</v>
       </c>
       <c r="F51" t="n">
-        <v>7.824379983825934</v>
+        <v>1.437663188741878</v>
       </c>
       <c r="G51" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H51" t="n">
-        <v>2.118399591226627</v>
+        <v>-2.130787596726968</v>
       </c>
       <c r="I51" t="n">
-        <v>2.118399591226627</v>
+        <v>2.130787596726968</v>
       </c>
       <c r="J51" t="n">
-        <v>0.07536557141052683</v>
+        <v>0.08741791210304564</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BOBAUSDT</t>
+          <t>GTCUSDT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>TOKENUSDT</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-3.96</v>
+        <v>-4.87</v>
       </c>
       <c r="E52" t="n">
         <v>-3.37</v>
       </c>
       <c r="F52" t="n">
-        <v>1.24899174362745</v>
+        <v>11.44038214282381</v>
       </c>
       <c r="G52" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.143281435811194</v>
+        <v>-2.174330651895278</v>
       </c>
       <c r="I52" t="n">
-        <v>2.143281435811194</v>
+        <v>2.174330651895278</v>
       </c>
       <c r="J52" t="n">
-        <v>0.06921261404302569</v>
+        <v>0.08682044787808083</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>ORDIUSDT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ORDIUSDT</t>
+          <t>CTKUSDT</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.06</v>
+        <v>-4.23</v>
       </c>
       <c r="E53" t="n">
         <v>-3.37</v>
       </c>
       <c r="F53" t="n">
-        <v>0.04851858195491491</v>
+        <v>56.59276210865889</v>
       </c>
       <c r="G53" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.138733193242284</v>
+        <v>2.028082166938243</v>
       </c>
       <c r="I53" t="n">
-        <v>2.138733193242284</v>
+        <v>2.028082166938243</v>
       </c>
       <c r="J53" t="n">
-        <v>0.06697008443755889</v>
+        <v>0.08336852982336036</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>FLOWUSDT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LRCUSDT</t>
+          <t>FORTHUSDT</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0.01</v>
       </c>
       <c r="D54" t="n">
-        <v>-3.95</v>
+        <v>-4</v>
       </c>
       <c r="E54" t="n">
         <v>-3.37</v>
       </c>
       <c r="F54" t="n">
-        <v>7.586350311209675</v>
+        <v>0.1997482564273778</v>
       </c>
       <c r="G54" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.046821640852166</v>
+        <v>2.226222268230315</v>
       </c>
       <c r="I54" t="n">
-        <v>2.046821640852166</v>
+        <v>2.226222268230315</v>
       </c>
       <c r="J54" t="n">
-        <v>0.05849482278449393</v>
+        <v>0.0738086881582731</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>AXSUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ETCUSDT</t>
+          <t>NTRNUSDT</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-5.12</v>
+        <v>-4.96</v>
       </c>
       <c r="E55" t="n">
         <v>-3.37</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2586848441025114</v>
+        <v>1.166326070500789</v>
       </c>
       <c r="G55" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H55" t="n">
-        <v>-2.097219196643654</v>
+        <v>-2.123553604866236</v>
       </c>
       <c r="I55" t="n">
-        <v>2.097219196643654</v>
+        <v>2.123553604866236</v>
       </c>
       <c r="J55" t="n">
-        <v>0.04650143858079262</v>
+        <v>0.06977165049807338</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1000LUNCUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BSVUSDT</t>
+          <t>GRTUSDT</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.28</v>
+        <v>-3.91</v>
       </c>
       <c r="E56" t="n">
         <v>-3.37</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001800142723807265</v>
+        <v>2.133013545349167</v>
       </c>
       <c r="G56" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.052751492314264</v>
+        <v>-2.120175926857625</v>
       </c>
       <c r="I56" t="n">
-        <v>2.052751492314264</v>
+        <v>2.120175926857625</v>
       </c>
       <c r="J56" t="n">
-        <v>0.04299750767533198</v>
+        <v>0.06863756824333375</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>PERPUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>POLYXUSDT</t>
+          <t>SHIB1000USDT</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-4.15</v>
+        <v>-4.25</v>
       </c>
       <c r="E57" t="n">
         <v>-3.37</v>
       </c>
       <c r="F57" t="n">
-        <v>2.54274859548133</v>
+        <v>0.1875346668951786</v>
       </c>
       <c r="G57" t="n">
         <v>26</v>
       </c>
       <c r="H57" t="n">
-        <v>2.045763586096073</v>
+        <v>-2.147253998589704</v>
       </c>
       <c r="I57" t="n">
-        <v>2.045763586096073</v>
+        <v>2.147253998589704</v>
       </c>
       <c r="J57" t="n">
-        <v>0.03955209192691996</v>
+        <v>0.06251185488034953</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CTKUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FOXYUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D58" t="n">
-        <v>-6.16</v>
+        <v>-4.05</v>
       </c>
       <c r="E58" t="n">
         <v>-3.37</v>
       </c>
       <c r="F58" t="n">
-        <v>49.85291999912057</v>
+        <v>151.0821846362398</v>
       </c>
       <c r="G58" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.023793073373275</v>
+        <v>2.189325950356589</v>
       </c>
       <c r="I58" t="n">
-        <v>2.023793073373275</v>
+        <v>2.189325950356589</v>
       </c>
       <c r="J58" t="n">
-        <v>0.02871944074754956</v>
+        <v>0.06142045598837702</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>QIUSDT</t>
+          <t>POWRUSDT</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-4.62</v>
+        <v>-4.54</v>
       </c>
       <c r="E59" t="n">
         <v>-3.37</v>
       </c>
       <c r="F59" t="n">
-        <v>3253.250233602977</v>
+        <v>0.2125506050225543</v>
       </c>
       <c r="G59" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H59" t="n">
-        <v>-2.048309478130077</v>
+        <v>-2.094789150169297</v>
       </c>
       <c r="I59" t="n">
-        <v>2.048309478130077</v>
+        <v>2.094789150169297</v>
       </c>
       <c r="J59" t="n">
-        <v>0.02238630177795419</v>
+        <v>0.06011375606411712</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ALGOUSDT</t>
+          <t>LTCUSDT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MERLUSDT</t>
+          <t>1000LUNCUSDT</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D60" t="n">
-        <v>-4.13</v>
+        <v>-4.01</v>
       </c>
       <c r="E60" t="n">
         <v>-3.37</v>
       </c>
       <c r="F60" t="n">
-        <v>0.4128325240583505</v>
+        <v>787.1771530819168</v>
       </c>
       <c r="G60" t="n">
+        <v>27</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-2.087937216607719</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.087937216607719</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.05781316487601988</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>STXUSDT</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SLPUSDT</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F61" t="n">
+        <v>589.5641662855638</v>
+      </c>
+      <c r="G61" t="n">
+        <v>28</v>
+      </c>
+      <c r="H61" t="n">
+        <v>2.018236247361776</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.018236247361776</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.04962790141029901</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>FOXYUSDT</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>LDOUSDT</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>-4.73</v>
+      </c>
+      <c r="E62" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.007747996943227644</v>
+      </c>
+      <c r="G62" t="n">
+        <v>26</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2.006395195022241</v>
+      </c>
+      <c r="I62" t="n">
+        <v>2.006395195022241</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.01521739130434781</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MYRIAUSDT</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>WUSDT</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.009995594427489311</v>
+      </c>
+      <c r="G63" t="n">
         <v>25</v>
       </c>
-      <c r="H60" t="n">
-        <v>2.012441259999655</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.012441259999655</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.004701330091824785</v>
+      <c r="H63" t="n">
+        <v>-2.035925421367643</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.035925421367643</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.0099150083552628</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,73 +488,73 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACEUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AIUSDT</t>
+          <t>1000PEPEUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.09</v>
+        <v>-4.24</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>5.040442943614029</v>
+        <v>2129.102469655952</v>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.942313596374185</v>
+        <v>-4.031816243298134</v>
       </c>
       <c r="I2" t="n">
-        <v>3.942313596374185</v>
+        <v>4.031816243298134</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7108695652173912</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10000000AIDOGEUSDT</t>
+          <t>ALICEUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>1000BONKUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.55</v>
+        <v>-4.16</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001503863540757917</v>
+        <v>48.13010663317328</v>
       </c>
       <c r="G3" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.491844753132586</v>
+        <v>-3.91720869838427</v>
       </c>
       <c r="I3" t="n">
-        <v>2.491844753132586</v>
+        <v>3.91720869838427</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5129935500129376</v>
+        <v>0.6482388667446727</v>
       </c>
     </row>
     <row r="4">
@@ -572,391 +572,391 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.88</v>
+        <v>-6.56</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>10.77032005410811</v>
+        <v>10.74393253020992</v>
       </c>
       <c r="G4" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.901541348853751</v>
+        <v>-3.098297504067518</v>
       </c>
       <c r="I4" t="n">
-        <v>2.901541348853751</v>
+        <v>3.098297504067518</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4831611360774272</v>
+        <v>0.5955676476623433</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>GRTUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORDIUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.58</v>
+        <v>-4.57</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>15.39482107402605</v>
+        <v>0.1079227870297817</v>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.38859367248395</v>
+        <v>3.285308813492013</v>
       </c>
       <c r="I5" t="n">
-        <v>3.38859367248395</v>
+        <v>3.285308813492013</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4793015230129442</v>
+        <v>0.5505527705543311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALICEUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORDIUSDT</t>
+          <t>LITUSDT</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.29</v>
+        <v>-4.56</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03123184421663058</v>
+        <v>5.587979439402464</v>
       </c>
       <c r="G6" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.624546573823709</v>
+        <v>3.202381687097145</v>
       </c>
       <c r="I6" t="n">
-        <v>2.624546573823709</v>
+        <v>3.202381687097145</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4053753286706142</v>
+        <v>0.5239533425134085</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GASUSDT</t>
+          <t>IOTXUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0.01</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.01</v>
+        <v>-4.05</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>1.720046580560548</v>
+        <v>0.1268192526638089</v>
       </c>
       <c r="G7" t="n">
         <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.917315816213542</v>
+        <v>-3.382026132097125</v>
       </c>
       <c r="I7" t="n">
-        <v>2.917315816213542</v>
+        <v>3.382026132097125</v>
       </c>
       <c r="J7" t="n">
-        <v>0.366718408516187</v>
+        <v>0.5115754945819042</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>ATAUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TWTUSDT</t>
+          <t>GALAUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.69</v>
+        <v>-5.72</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>11.44463061603511</v>
+        <v>4.069974999866883</v>
       </c>
       <c r="G8" t="n">
         <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>2.978935076252498</v>
+        <v>-3.473076954871775</v>
       </c>
       <c r="I8" t="n">
-        <v>2.978935076252498</v>
+        <v>3.473076954871775</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3569727825358651</v>
+        <v>0.5057806523360617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>BATUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TWTUSDT</t>
+          <t>XNOUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.86</v>
+        <v>-4.08</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>1.758753129146029</v>
+        <v>0.2001370609482598</v>
       </c>
       <c r="G9" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>2.860538791340059</v>
+        <v>2.959969915955974</v>
       </c>
       <c r="I9" t="n">
-        <v>2.860538791340059</v>
+        <v>2.959969915955974</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3324376795515372</v>
+        <v>0.4986981525887132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CTCUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.97</v>
+        <v>-4.51</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>0.01035028687913321</v>
+        <v>0.001502789096214756</v>
       </c>
       <c r="G10" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.58731991713531</v>
+        <v>-2.424569561720145</v>
       </c>
       <c r="I10" t="n">
-        <v>2.58731991713531</v>
+        <v>2.424569561720145</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3320066173990498</v>
+        <v>0.4844649234910544</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>STORJUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>KEYUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.24</v>
+        <v>-4.16</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1873474181466355</v>
+        <v>26.47780579414655</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.995067530734628</v>
+        <v>2.406399387020956</v>
       </c>
       <c r="I11" t="n">
-        <v>2.995067530734628</v>
+        <v>2.406399387020956</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3319545998241804</v>
+        <v>0.4786367189527626</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AUCTIONUSDT</t>
+          <t>PYTHUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>KNCUSDT</t>
+          <t>SXPUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.34</v>
+        <v>-4.69</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>30.22728338086631</v>
+        <v>1.350479976627153</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.711956921024847</v>
+        <v>-2.787345521535123</v>
       </c>
       <c r="I12" t="n">
-        <v>2.711956921024847</v>
+        <v>2.787345521535123</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3129849175005806</v>
+        <v>0.4608277284932098</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LAIUSDT</t>
+          <t>DARUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OMGUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.64</v>
+        <v>-4.14</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05161124209036402</v>
+        <v>0.2809118759247824</v>
       </c>
       <c r="G13" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H13" t="n">
-        <v>2.302728765709225</v>
+        <v>-3.035695905020946</v>
       </c>
       <c r="I13" t="n">
-        <v>2.302728765709225</v>
+        <v>3.035695905020946</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3125398314191566</v>
+        <v>0.4354877678753956</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>ACHUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.91</v>
+        <v>-4.91</v>
       </c>
       <c r="E14" t="n">
         <v>-3.37</v>
       </c>
       <c r="F14" t="n">
-        <v>12.59106088170434</v>
+        <v>0.06735699499327676</v>
       </c>
       <c r="G14" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H14" t="n">
-        <v>2.570311914762477</v>
+        <v>-2.570054190170298</v>
       </c>
       <c r="I14" t="n">
-        <v>2.570311914762477</v>
+        <v>2.570054190170298</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3110786540299801</v>
+        <v>0.4261300869153075</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MYRIAUSDT</t>
+          <t>ACEUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -968,313 +968,313 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.16</v>
+        <v>-4.86</v>
       </c>
       <c r="E15" t="n">
         <v>-3.37</v>
       </c>
       <c r="F15" t="n">
-        <v>0.005657923460111542</v>
+        <v>5.031358214635775</v>
       </c>
       <c r="G15" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.382719091920623</v>
+        <v>-3.102915594461297</v>
       </c>
       <c r="I15" t="n">
-        <v>2.382719091920623</v>
+        <v>3.102915594461297</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3089624370149944</v>
+        <v>0.4220489309101299</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>ARPAUSDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LTCUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.08</v>
+        <v>-5</v>
       </c>
       <c r="E16" t="n">
         <v>-3.37</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3059054045373949</v>
+        <v>0.2296024444883444</v>
       </c>
       <c r="G16" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
-        <v>2.176196912024432</v>
+        <v>-2.47721771066918</v>
       </c>
       <c r="I16" t="n">
-        <v>2.176196912024432</v>
+        <v>2.47721771066918</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3004905378200537</v>
+        <v>0.4138521678746279</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1000FLOKIUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AXSUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.34</v>
+        <v>-4.38</v>
       </c>
       <c r="E17" t="n">
         <v>-3.37</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02885040345898637</v>
+        <v>1.278773422173429</v>
       </c>
       <c r="G17" t="n">
         <v>33</v>
       </c>
       <c r="H17" t="n">
-        <v>2.502992219163174</v>
+        <v>-2.855583417645658</v>
       </c>
       <c r="I17" t="n">
-        <v>2.502992219163174</v>
+        <v>2.855583417645658</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2884755308255162</v>
+        <v>0.4127154880981109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HOTUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>STORJUSDT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.93</v>
+        <v>-4.37</v>
       </c>
       <c r="E18" t="n">
         <v>-3.37</v>
       </c>
       <c r="F18" t="n">
-        <v>0.000562454575143355</v>
+        <v>9.126708800714392</v>
       </c>
       <c r="G18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>2.545790013943727</v>
+        <v>3.014786558661678</v>
       </c>
       <c r="I18" t="n">
-        <v>2.545790013943727</v>
+        <v>3.014786558661678</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2876278394981571</v>
+        <v>0.411280955785733</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ETHWUSDT</t>
+          <t>WAXPUSDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.38</v>
+        <v>-3.92</v>
       </c>
       <c r="E19" t="n">
         <v>-3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>1.213670033402487</v>
+        <v>0.09519496609295983</v>
       </c>
       <c r="G19" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.655909065432235</v>
+        <v>-3.263783119501987</v>
       </c>
       <c r="I19" t="n">
-        <v>2.655909065432235</v>
+        <v>3.263783119501987</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2789490129212123</v>
+        <v>0.4036482608575613</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CFXUSDT</t>
+          <t>BOBAUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>IOSTUSDT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.06</v>
+        <v>-4.56</v>
       </c>
       <c r="E20" t="n">
         <v>-3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01445150468998834</v>
+        <v>40.06823166145888</v>
       </c>
       <c r="G20" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.424539171500095</v>
+        <v>-2.490587917635405</v>
       </c>
       <c r="I20" t="n">
-        <v>2.424539171500095</v>
+        <v>2.490587917635405</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2773516874242123</v>
+        <v>0.400640750797385</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>GMTUSDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CELOUSDT</t>
+          <t>ONEUSDT</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0.01</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.94</v>
+        <v>-3.99</v>
       </c>
       <c r="E21" t="n">
         <v>-3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>3.600154545259878</v>
+        <v>10.6600950247315</v>
       </c>
       <c r="G21" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H21" t="n">
-        <v>2.549715403975413</v>
+        <v>-2.208839723409922</v>
       </c>
       <c r="I21" t="n">
-        <v>2.549715403975413</v>
+        <v>2.208839723409922</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2737284291163596</v>
+        <v>0.3802681412091139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1000FLOKIUSDT</t>
+          <t>LITUSDT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LPTUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.16</v>
+        <v>-4.22</v>
       </c>
       <c r="E22" t="n">
         <v>-3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01103522758516496</v>
+        <v>1.79948371112495</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22" t="n">
-        <v>2.591805081850993</v>
+        <v>-2.862887043259738</v>
       </c>
       <c r="I22" t="n">
-        <v>2.591805081850993</v>
+        <v>2.862887043259738</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2726429819063608</v>
+        <v>0.38005817465202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>COMPUSDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>VETUSDT</t>
+          <t>REQUSDT</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-5.24</v>
+        <v>-4.17</v>
       </c>
       <c r="E23" t="n">
         <v>-3.37</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1930084877226925</v>
+        <v>447.9384251957547</v>
       </c>
       <c r="G23" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.654789505087852</v>
+        <v>2.748432703631504</v>
       </c>
       <c r="I23" t="n">
-        <v>2.654789505087852</v>
+        <v>2.748432703631504</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2633557203271508</v>
+        <v>0.3783461830123225</v>
       </c>
     </row>
     <row r="24">
@@ -1285,727 +1285,727 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CAKEUSDT</t>
+          <t>AGIUSDT</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-5.36</v>
+        <v>-4.13</v>
       </c>
       <c r="E24" t="n">
         <v>-3.37</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0234134379784819</v>
+        <v>0.2387697547020922</v>
       </c>
       <c r="G24" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.14383857515958</v>
+        <v>-2.633379207389088</v>
       </c>
       <c r="I24" t="n">
-        <v>2.14383857515958</v>
+        <v>2.633379207389088</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2591911862566618</v>
+        <v>0.3764420078985675</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>WUSDT</t>
+          <t>BOBAUSDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GALAUSDT</t>
+          <t>KSMUSDT</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.18</v>
+        <v>-4.19</v>
       </c>
       <c r="E25" t="n">
         <v>-3.37</v>
       </c>
       <c r="F25" t="n">
-        <v>13.40432833559802</v>
+        <v>0.01127655122531836</v>
       </c>
       <c r="G25" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.699419974258091</v>
+        <v>-2.512964119761261</v>
       </c>
       <c r="I25" t="n">
-        <v>2.699419974258091</v>
+        <v>2.512964119761261</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2479059726974068</v>
+        <v>0.3728180666426461</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ICXUSDT</t>
+          <t>DGBUSDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>EOSUSDT</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.37</v>
+        <v>-5.61</v>
       </c>
       <c r="E26" t="n">
         <v>-3.37</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0139077799421169</v>
+        <v>0.01392193745121001</v>
       </c>
       <c r="G26" t="n">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.697087534451311</v>
+        <v>-2.171082262851258</v>
       </c>
       <c r="I26" t="n">
-        <v>2.697087534451311</v>
+        <v>2.171082262851258</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2471228374819203</v>
+        <v>0.3681571842906753</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MANTAUSDT</t>
+          <t>JOEUSDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>ICPUSDT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.1</v>
+        <v>-4.45</v>
       </c>
       <c r="E27" t="n">
         <v>-3.37</v>
       </c>
       <c r="F27" t="n">
-        <v>3.419215533269187</v>
+        <v>0.03986172911349152</v>
       </c>
       <c r="G27" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H27" t="n">
-        <v>2.232230546742085</v>
+        <v>2.728824639972926</v>
       </c>
       <c r="I27" t="n">
-        <v>2.232230546742085</v>
+        <v>2.728824639972926</v>
       </c>
       <c r="J27" t="n">
-        <v>0.243217319801466</v>
+        <v>0.3545567660147446</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>COMPUSDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>XNOUSDT</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-5.04</v>
+        <v>-4.13</v>
       </c>
       <c r="E28" t="n">
         <v>-3.37</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1076554148674426</v>
+        <v>50.61219445661477</v>
       </c>
       <c r="G28" t="n">
         <v>31</v>
       </c>
       <c r="H28" t="n">
-        <v>2.431210235897812</v>
+        <v>2.78108150460739</v>
       </c>
       <c r="I28" t="n">
-        <v>2.431210235897812</v>
+        <v>2.78108150460739</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2339393764390112</v>
+        <v>0.3538185033486778</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>ONGUSDT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>VTHOUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.68</v>
+        <v>-4.46</v>
       </c>
       <c r="E29" t="n">
         <v>-3.37</v>
       </c>
       <c r="F29" t="n">
-        <v>2.185245694106227</v>
+        <v>1.049425283787437</v>
       </c>
       <c r="G29" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.353668173714663</v>
+        <v>-2.99862717019251</v>
       </c>
       <c r="I29" t="n">
-        <v>2.353668173714663</v>
+        <v>2.99862717019251</v>
       </c>
       <c r="J29" t="n">
-        <v>0.2231214036578437</v>
+        <v>0.353597724321468</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LQTYUSDT</t>
+          <t>DENTUSDT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SHIB1000USDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.15</v>
+        <v>-3.99</v>
       </c>
       <c r="E30" t="n">
         <v>-3.37</v>
       </c>
       <c r="F30" t="n">
-        <v>47.69020957347787</v>
+        <v>0.002918579922264187</v>
       </c>
       <c r="G30" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.582605919221679</v>
+        <v>-2.062325507206985</v>
       </c>
       <c r="I30" t="n">
-        <v>2.582605919221679</v>
+        <v>2.062325507206985</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2086847246733977</v>
+        <v>0.3507727306566585</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DENTUSDT</t>
+          <t>ACEUSDT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LTOUSDT</t>
+          <t>TOKENUSDT</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0.01</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.94</v>
+        <v>-3.91</v>
       </c>
       <c r="E31" t="n">
         <v>-3.37</v>
       </c>
       <c r="F31" t="n">
-        <v>0.007124373628657019</v>
+        <v>42.89120226510649</v>
       </c>
       <c r="G31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H31" t="n">
-        <v>2.361422638822915</v>
+        <v>-2.874521095749661</v>
       </c>
       <c r="I31" t="n">
-        <v>2.361422638822915</v>
+        <v>2.874521095749661</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1952902443820549</v>
+        <v>0.3487898744646543</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>GALAUSDT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>RLCUSDT</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.38</v>
+        <v>-4.1</v>
       </c>
       <c r="E32" t="n">
         <v>-3.37</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3506593054769799</v>
+        <v>0.0134986806345598</v>
       </c>
       <c r="G32" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H32" t="n">
-        <v>2.263770084208456</v>
+        <v>3.034561985735737</v>
       </c>
       <c r="I32" t="n">
-        <v>2.263770084208456</v>
+        <v>3.034561985735737</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1929374051286559</v>
+        <v>0.3476240557133761</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BELUSDT</t>
+          <t>BOBAUSDT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LTOUSDT</t>
+          <t>EOSUSDT</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D33" t="n">
-        <v>-4.92</v>
+        <v>-3.96</v>
       </c>
       <c r="E33" t="n">
         <v>-3.37</v>
       </c>
       <c r="F33" t="n">
-        <v>4.495454519771369</v>
+        <v>0.4335027810161081</v>
       </c>
       <c r="G33" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H33" t="n">
-        <v>2.080828070678615</v>
+        <v>-2.316006904157391</v>
       </c>
       <c r="I33" t="n">
-        <v>2.080828070678615</v>
+        <v>2.316006904157391</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1923827343289946</v>
+        <v>0.3446427281092729</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FILUSDT</t>
+          <t>VETUSDT</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.31</v>
+        <v>-4.68</v>
       </c>
       <c r="E34" t="n">
         <v>-3.37</v>
       </c>
       <c r="F34" t="n">
-        <v>2.633800689224909</v>
+        <v>0.1927875448721393</v>
       </c>
       <c r="G34" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H34" t="n">
-        <v>2.252744976074796</v>
+        <v>-2.899427071782189</v>
       </c>
       <c r="I34" t="n">
-        <v>2.252744976074796</v>
+        <v>2.899427071782189</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1892356373878903</v>
+        <v>0.3392786321374047</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>ALPHAUSDT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ONEUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.22</v>
+        <v>-4.58</v>
       </c>
       <c r="E35" t="n">
         <v>-3.37</v>
       </c>
       <c r="F35" t="n">
-        <v>29.06125749054847</v>
+        <v>0.3682652053086499</v>
       </c>
       <c r="G35" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H35" t="n">
-        <v>-2.204038775835542</v>
+        <v>-2.177247013215104</v>
       </c>
       <c r="I35" t="n">
-        <v>2.204038775835542</v>
+        <v>2.177247013215104</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1880995345917606</v>
+        <v>0.3351345690237792</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CVCUSDT</t>
+          <t>POWRUSDT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SEIUSDT</t>
+          <t>SCUSDT</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.4</v>
+        <v>-4.1</v>
       </c>
       <c r="E36" t="n">
         <v>-3.37</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3110192656001718</v>
+        <v>44.34024374275585</v>
       </c>
       <c r="G36" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H36" t="n">
-        <v>-2.053399465195669</v>
+        <v>2.390672498925782</v>
       </c>
       <c r="I36" t="n">
-        <v>2.053399465195669</v>
+        <v>2.390672498925782</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1831733618929125</v>
+        <v>0.3335922148636747</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DARUSDT</t>
+          <t>AUCTIONUSDT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>10000SATSUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.29</v>
+        <v>-4.06</v>
       </c>
       <c r="E37" t="n">
         <v>-3.37</v>
       </c>
       <c r="F37" t="n">
-        <v>55.41099357823314</v>
+        <v>109.1018657646289</v>
       </c>
       <c r="G37" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.455585334875039</v>
+        <v>-2.438486818737815</v>
       </c>
       <c r="I37" t="n">
-        <v>2.455585334875039</v>
+        <v>2.438486818737815</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1812539445632592</v>
+        <v>0.3314289763608696</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>XVSUSDT</t>
+          <t>AVAXUSDT</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.1</v>
+        <v>-4.65</v>
       </c>
       <c r="E38" t="n">
         <v>-3.37</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2331963732670651</v>
+        <v>0.004081623185315257</v>
       </c>
       <c r="G38" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H38" t="n">
-        <v>2.409836071983917</v>
+        <v>-2.983606831355444</v>
       </c>
       <c r="I38" t="n">
-        <v>2.409836071983917</v>
+        <v>2.983606831355444</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1811106569988786</v>
+        <v>0.3312798506121538</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>BLZUSDT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CTCUSDT</t>
+          <t>TOKENUSDT</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.1</v>
+        <v>-4.83</v>
       </c>
       <c r="E39" t="n">
         <v>-3.37</v>
       </c>
       <c r="F39" t="n">
-        <v>6.46708863067761</v>
+        <v>2.519697577193889</v>
       </c>
       <c r="G39" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.348970029193343</v>
+        <v>-2.927119094927604</v>
       </c>
       <c r="I39" t="n">
-        <v>2.348970029193343</v>
+        <v>2.927119094927604</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1758917903564843</v>
+        <v>0.3306610329751795</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CELRUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GALAUSDT</t>
+          <t>SHIB1000USDT</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.56</v>
+        <v>-4.01</v>
       </c>
       <c r="E40" t="n">
         <v>-3.37</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5877190478014667</v>
+        <v>1165.792550319965</v>
       </c>
       <c r="G40" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.070906249118292</v>
+        <v>-2.965026339153666</v>
       </c>
       <c r="I40" t="n">
-        <v>2.070906249118292</v>
+        <v>2.965026339153666</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1586166212211903</v>
+        <v>0.3253200340024141</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MANTAUSDT</t>
+          <t>FLMUSDT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LOOKSUSDT</t>
+          <t>LITUSDT</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>0.01</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.97</v>
+        <v>-4.08</v>
       </c>
       <c r="E41" t="n">
         <v>-3.37</v>
       </c>
       <c r="F41" t="n">
-        <v>18.64210037728597</v>
+        <v>0.08636003463826826</v>
       </c>
       <c r="G41" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H41" t="n">
-        <v>2.365328230800334</v>
+        <v>2.309585722230667</v>
       </c>
       <c r="I41" t="n">
-        <v>2.365328230800334</v>
+        <v>2.309585722230667</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1509494040373836</v>
+        <v>0.3250830912446807</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>NKNUSDT</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-5.55</v>
+        <v>-4.74</v>
       </c>
       <c r="E42" t="n">
         <v>-3.37</v>
       </c>
       <c r="F42" t="n">
-        <v>2.254843884300318</v>
+        <v>5.186045416227467</v>
       </c>
       <c r="G42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H42" t="n">
-        <v>2.042184661631287</v>
+        <v>2.799160564637537</v>
       </c>
       <c r="I42" t="n">
-        <v>2.042184661631287</v>
+        <v>2.799160564637537</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1489731197939008</v>
+        <v>0.3246174822501001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>QTUMUSDT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RONUSDT</t>
+          <t>XNOUSDT</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D43" t="n">
-        <v>-5.79</v>
+        <v>-4.07</v>
       </c>
       <c r="E43" t="n">
         <v>-3.37</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6299298346813085</v>
+        <v>2.827221015040424</v>
       </c>
       <c r="G43" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H43" t="n">
-        <v>2.302331700289035</v>
+        <v>2.486010117275977</v>
       </c>
       <c r="I43" t="n">
-        <v>2.302331700289035</v>
+        <v>2.486010117275977</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1450152091985611</v>
+        <v>0.3116723908464265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DODOUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>XVGUSDT</t>
+          <t>REQUSDT</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2018,703 +2018,2611 @@
         <v>-3.37</v>
       </c>
       <c r="F44" t="n">
-        <v>31.52470848156282</v>
+        <v>1.318418126298564</v>
       </c>
       <c r="G44" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.048694767533974</v>
+        <v>2.340281836684677</v>
       </c>
       <c r="I44" t="n">
-        <v>2.048694767533974</v>
+        <v>2.340281836684677</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1359415483225538</v>
+        <v>0.2999290743753091</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RENUSDT</t>
+          <t>ATOMUSDT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RONUSDT</t>
+          <t>SCRTUSDT</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-4.01</v>
+        <v>-4.36</v>
       </c>
       <c r="E45" t="n">
         <v>-3.37</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02272949932808616</v>
+        <v>22.24913241178069</v>
       </c>
       <c r="G45" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H45" t="n">
-        <v>2.22563873942562</v>
+        <v>2.26624574254839</v>
       </c>
       <c r="I45" t="n">
-        <v>2.22563873942562</v>
+        <v>2.26624574254839</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1344823289385668</v>
+        <v>0.293681504140788</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHRUSDT</t>
+          <t>AIUSDT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>RONUSDT</t>
+          <t>MYRIAUSDT</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D46" t="n">
-        <v>-4.12</v>
+        <v>-4.02</v>
       </c>
       <c r="E46" t="n">
         <v>-3.37</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1120991726127626</v>
+        <v>175.0785687042252</v>
       </c>
       <c r="G46" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H46" t="n">
-        <v>2.027628539351987</v>
+        <v>2.14688785222504</v>
       </c>
       <c r="I46" t="n">
-        <v>2.027628539351987</v>
+        <v>2.14688785222504</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1288683946665274</v>
+        <v>0.2903966659606391</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ALICEUSDT</t>
+          <t>DODOUSDT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.14</v>
+        <v>-5.08</v>
       </c>
       <c r="E47" t="n">
         <v>-3.37</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6366593166696926</v>
+        <v>0.3116637325541491</v>
       </c>
       <c r="G47" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.231834456300784</v>
+        <v>-2.834167660894604</v>
       </c>
       <c r="I47" t="n">
-        <v>2.231834456300784</v>
+        <v>2.834167660894604</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1213451988508302</v>
+        <v>0.283346241502864</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HOTUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NKNUSDT</t>
+          <t>VTHOUSDT</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-4.65</v>
+        <v>-4.72</v>
       </c>
       <c r="E48" t="n">
         <v>-3.37</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02176071853420602</v>
+        <v>2.185693218064648</v>
       </c>
       <c r="G48" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H48" t="n">
-        <v>2.304998467292758</v>
+        <v>-2.485351030433937</v>
       </c>
       <c r="I48" t="n">
-        <v>2.304998467292758</v>
+        <v>2.485351030433937</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1002584235163488</v>
+        <v>0.2764609843526803</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GASUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>STORJUSDT</t>
+          <t>FLMUSDT</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.42</v>
+        <v>-4.17</v>
       </c>
       <c r="E49" t="n">
         <v>-3.37</v>
       </c>
       <c r="F49" t="n">
-        <v>9.132313262344152</v>
+        <v>64.62006039502057</v>
       </c>
       <c r="G49" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H49" t="n">
-        <v>2.121180185686643</v>
+        <v>2.533104820573314</v>
       </c>
       <c r="I49" t="n">
-        <v>2.121180185686643</v>
+        <v>2.533104820573314</v>
       </c>
       <c r="J49" t="n">
-        <v>0.09940953874094349</v>
+        <v>0.274278330554276</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BATUSDT</t>
+          <t>MERLUSDT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-4.56</v>
+        <v>-4.21</v>
       </c>
       <c r="E50" t="n">
         <v>-3.37</v>
       </c>
       <c r="F50" t="n">
-        <v>3.892944470779423</v>
+        <v>2.406001785831369</v>
       </c>
       <c r="G50" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H50" t="n">
-        <v>2.20863426901046</v>
+        <v>2.243044974775501</v>
       </c>
       <c r="I50" t="n">
-        <v>2.20863426901046</v>
+        <v>2.243044974775501</v>
       </c>
       <c r="J50" t="n">
-        <v>0.09833816014802836</v>
+        <v>0.2687397033730804</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHRUSDT</t>
+          <t>KSMUSDT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>IOTAUSDT</t>
+          <t>LPTUSDT</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-4.53</v>
+        <v>-4.97</v>
       </c>
       <c r="E51" t="n">
         <v>-3.37</v>
       </c>
       <c r="F51" t="n">
-        <v>1.437663188741878</v>
+        <v>1.486677790773595</v>
       </c>
       <c r="G51" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.130787596726968</v>
+        <v>2.560844553053921</v>
       </c>
       <c r="I51" t="n">
-        <v>2.130787596726968</v>
+        <v>2.560844553053921</v>
       </c>
       <c r="J51" t="n">
-        <v>0.08741791210304564</v>
+        <v>0.2656760344790319</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GTCUSDT</t>
+          <t>CHRUSDT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>TOKENUSDT</t>
+          <t>IOTAUSDT</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.87</v>
+        <v>-4.64</v>
       </c>
       <c r="E52" t="n">
         <v>-3.37</v>
       </c>
       <c r="F52" t="n">
-        <v>11.44038214282381</v>
+        <v>1.438048341963144</v>
       </c>
       <c r="G52" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.174330651895278</v>
+        <v>-2.540407561176127</v>
       </c>
       <c r="I52" t="n">
-        <v>2.174330651895278</v>
+        <v>2.540407561176127</v>
       </c>
       <c r="J52" t="n">
-        <v>0.08682044787808083</v>
+        <v>0.2591207332349274</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ORDIUSDT</t>
+          <t>SLERFUSDT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CTKUSDT</t>
+          <t>BOMEUSDT</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.23</v>
+        <v>-4.03</v>
       </c>
       <c r="E53" t="n">
         <v>-3.37</v>
       </c>
       <c r="F53" t="n">
-        <v>56.59276210865889</v>
+        <v>25.36080628339085</v>
       </c>
       <c r="G53" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H53" t="n">
-        <v>2.028082166938243</v>
+        <v>-2.783552732039908</v>
       </c>
       <c r="I53" t="n">
-        <v>2.028082166938243</v>
+        <v>2.783552732039908</v>
       </c>
       <c r="J53" t="n">
-        <v>0.08336852982336036</v>
+        <v>0.2496111660046949</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FLOWUSDT</t>
+          <t>STORJUSDT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-4</v>
+        <v>-4.31</v>
       </c>
       <c r="E54" t="n">
         <v>-3.37</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1997482564273778</v>
+        <v>0.1870542047066457</v>
       </c>
       <c r="G54" t="n">
         <v>25</v>
       </c>
       <c r="H54" t="n">
-        <v>2.226222268230315</v>
+        <v>-2.761493575794383</v>
       </c>
       <c r="I54" t="n">
-        <v>2.226222268230315</v>
+        <v>2.761493575794383</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0738086881582731</v>
+        <v>0.242535544736904</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NTRNUSDT</t>
+          <t>PHBUSDT</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D55" t="n">
-        <v>-4.96</v>
+        <v>-3.91</v>
       </c>
       <c r="E55" t="n">
         <v>-3.37</v>
       </c>
       <c r="F55" t="n">
-        <v>1.166326070500789</v>
+        <v>0.1184622500165372</v>
       </c>
       <c r="G55" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H55" t="n">
-        <v>-2.123553604866236</v>
+        <v>2.121565249982038</v>
       </c>
       <c r="I55" t="n">
-        <v>2.123553604866236</v>
+        <v>2.121565249982038</v>
       </c>
       <c r="J55" t="n">
-        <v>0.06977165049807338</v>
+        <v>0.2297742726563738</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>LQTYUSDT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>SHIB1000USDT</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-3.91</v>
+        <v>-4.12</v>
       </c>
       <c r="E56" t="n">
         <v>-3.37</v>
       </c>
       <c r="F56" t="n">
-        <v>2.133013545349167</v>
+        <v>47.60246850258071</v>
       </c>
       <c r="G56" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.120175926857625</v>
+        <v>-2.662348934883844</v>
       </c>
       <c r="I56" t="n">
-        <v>2.120175926857625</v>
+        <v>2.662348934883844</v>
       </c>
       <c r="J56" t="n">
-        <v>0.06863756824333375</v>
+        <v>0.2282342409152127</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10000000AIDOGEUSDT</t>
+          <t>10000COQUSDT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SHIB1000USDT</t>
+          <t>LEVERUSDT</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-4.25</v>
+        <v>-5.05</v>
       </c>
       <c r="E57" t="n">
         <v>-3.37</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1875346668951786</v>
+        <v>7.253414424785132</v>
       </c>
       <c r="G57" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H57" t="n">
-        <v>-2.147253998589704</v>
+        <v>2.10418322310342</v>
       </c>
       <c r="I57" t="n">
-        <v>2.147253998589704</v>
+        <v>2.10418322310342</v>
       </c>
       <c r="J57" t="n">
-        <v>0.06251185488034953</v>
+        <v>0.224198871780168</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>JOEUSDT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-4.05</v>
+        <v>-4.81</v>
       </c>
       <c r="E58" t="n">
         <v>-3.37</v>
       </c>
       <c r="F58" t="n">
-        <v>151.0821846362398</v>
+        <v>0.5942569904696583</v>
       </c>
       <c r="G58" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H58" t="n">
-        <v>2.189325950356589</v>
+        <v>2.364240032672695</v>
       </c>
       <c r="I58" t="n">
-        <v>2.189325950356589</v>
+        <v>2.364240032672695</v>
       </c>
       <c r="J58" t="n">
-        <v>0.06142045598837702</v>
+        <v>0.2201138252870811</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>GTCUSDT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>TOKENUSDT</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-4.54</v>
+        <v>-4.88</v>
       </c>
       <c r="E59" t="n">
         <v>-3.37</v>
       </c>
       <c r="F59" t="n">
-        <v>0.2125506050225543</v>
+        <v>11.44596966513078</v>
       </c>
       <c r="G59" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H59" t="n">
-        <v>-2.094789150169297</v>
+        <v>-2.689283099988877</v>
       </c>
       <c r="I59" t="n">
-        <v>2.094789150169297</v>
+        <v>2.689283099988877</v>
       </c>
       <c r="J59" t="n">
-        <v>0.06011375606411712</v>
+        <v>0.2193735537396106</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LTCUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1000LUNCUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-4.01</v>
+        <v>-4.29</v>
       </c>
       <c r="E60" t="n">
         <v>-3.37</v>
       </c>
       <c r="F60" t="n">
-        <v>787.1771530819168</v>
+        <v>0.3506951483699878</v>
       </c>
       <c r="G60" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H60" t="n">
-        <v>-2.087937216607719</v>
+        <v>2.361386142699433</v>
       </c>
       <c r="I60" t="n">
-        <v>2.087937216607719</v>
+        <v>2.361386142699433</v>
       </c>
       <c r="J60" t="n">
-        <v>0.05781316487601988</v>
+        <v>0.2191984210727952</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>CFXUSDT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SLPUSDT</t>
+          <t>NEOUSDT</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>0.01</v>
       </c>
       <c r="D61" t="n">
-        <v>-4.09</v>
+        <v>-4</v>
       </c>
       <c r="E61" t="n">
         <v>-3.37</v>
       </c>
       <c r="F61" t="n">
-        <v>589.5641662855638</v>
+        <v>0.01446395172362901</v>
       </c>
       <c r="G61" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H61" t="n">
-        <v>2.018236247361776</v>
+        <v>-2.192960314019339</v>
       </c>
       <c r="I61" t="n">
-        <v>2.018236247361776</v>
+        <v>2.192960314019339</v>
       </c>
       <c r="J61" t="n">
-        <v>0.04962790141029901</v>
+        <v>0.2176747148988145</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FOXYUSDT</t>
+          <t>1000BTTUSDT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>LDOUSDT</t>
+          <t>CFXUSDT</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D62" t="n">
-        <v>-4.73</v>
+        <v>-3.98</v>
       </c>
       <c r="E62" t="n">
         <v>-3.37</v>
       </c>
       <c r="F62" t="n">
-        <v>0.007747996943227644</v>
+        <v>0.005600378421762048</v>
       </c>
       <c r="G62" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="H62" t="n">
-        <v>2.006395195022241</v>
+        <v>2.134932636814807</v>
       </c>
       <c r="I62" t="n">
-        <v>2.006395195022241</v>
+        <v>2.134932636814807</v>
       </c>
       <c r="J62" t="n">
-        <v>0.01521739130434781</v>
+        <v>0.2165619510025444</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MYRIAUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>WUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-4.6</v>
+        <v>-4.83</v>
       </c>
       <c r="E63" t="n">
         <v>-3.37</v>
       </c>
       <c r="F63" t="n">
-        <v>0.009995594427489311</v>
+        <v>0.2383541469790152</v>
       </c>
       <c r="G63" t="n">
+        <v>31</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.352050357097695</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.352050357097695</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.2162039056697596</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NKNUSDT</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ZRXUSDT</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>-4.21</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.2245826534656767</v>
+      </c>
+      <c r="G64" t="n">
         <v>25</v>
       </c>
-      <c r="H63" t="n">
-        <v>-2.035925421367643</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2.035925421367643</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.0099150083552628</v>
+      <c r="H64" t="n">
+        <v>-2.677594279587379</v>
+      </c>
+      <c r="I64" t="n">
+        <v>2.677594279587379</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.2156242867546142</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>BOBAUSDT</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DGBUSDT</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-5.14</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F65" t="n">
+        <v>31.09833801910147</v>
+      </c>
+      <c r="G65" t="n">
+        <v>37</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-2.018944114295145</v>
+      </c>
+      <c r="I65" t="n">
+        <v>2.018944114295145</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.2143578599835939</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>WOOUSDT</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>10000WENUSDT</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="E66" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1631313847239717</v>
+      </c>
+      <c r="G66" t="n">
+        <v>35</v>
+      </c>
+      <c r="H66" t="n">
+        <v>2.124155391405907</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.124155391405907</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.2131050777670195</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1000RATSUSDT</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>WIFUSDT</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D67" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="E67" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.04960211362353498</v>
+      </c>
+      <c r="G67" t="n">
+        <v>29</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-2.443107326616234</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.443107326616234</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.2104110350329537</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>ETHWUSDT</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>WIFUSDT</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-4.52</v>
+      </c>
+      <c r="E68" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.212204352017652</v>
+      </c>
+      <c r="G68" t="n">
+        <v>29</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-2.412423148097021</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.412423148097021</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.2005688804328982</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>IOTXUSDT</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ONEUSDT</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-3.93</v>
+      </c>
+      <c r="E69" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F69" t="n">
+        <v>2.840582103129242</v>
+      </c>
+      <c r="G69" t="n">
+        <v>25</v>
+      </c>
+      <c r="H69" t="n">
+        <v>-2.630013888648745</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.630013888648745</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.2003625595014016</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CHRUSDT</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>LPTUSDT</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="E70" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.01537717076049578</v>
+      </c>
+      <c r="G70" t="n">
+        <v>34</v>
+      </c>
+      <c r="H70" t="n">
+        <v>2.135530217186909</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2.135530217186909</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.1992536288864578</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>ALGOUSDT</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>XCNUSDT</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="E71" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F71" t="n">
+        <v>92.44057435609852</v>
+      </c>
+      <c r="G71" t="n">
+        <v>30</v>
+      </c>
+      <c r="H71" t="n">
+        <v>2.353068411714344</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.353068411714344</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.1990304534677422</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ICXUSDT</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>NEARUSDT</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-4.06</v>
+      </c>
+      <c r="E72" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.02994729986168114</v>
+      </c>
+      <c r="G72" t="n">
+        <v>31</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-2.274926328822505</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.274926328822505</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.1914658599962156</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>IOSTUSDT</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>LEVERUSDT</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-4.61</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F73" t="n">
+        <v>2.525900817699737</v>
+      </c>
+      <c r="G73" t="n">
+        <v>27</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.486044065315358</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.486044065315358</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.1891832799061334</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>JOEUSDT</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>POWRUSDT</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.596838485603404</v>
+      </c>
+      <c r="G74" t="n">
+        <v>28</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.429001724717052</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.429001724717052</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.1883865692881186</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>AUCTIONUSDT</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>KNCUSDT</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-4.34</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F75" t="n">
+        <v>30.2268248172584</v>
+      </c>
+      <c r="G75" t="n">
+        <v>30</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-2.31803733418356</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.31803733418356</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.1877940020617312</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>GLMRUSDT</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>GRTUSDT</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-5.77</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.031618065122283</v>
+      </c>
+      <c r="G76" t="n">
+        <v>27</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-2.480189537822863</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.480189537822863</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.1873054012249319</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>BNBUSDT</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ORDIUSDT</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F77" t="n">
+        <v>15.3970028495757</v>
+      </c>
+      <c r="G77" t="n">
+        <v>26</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-2.534573455260079</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.534573455260079</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.1872494049103679</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1000RATSUSDT</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>SXPUSDT</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-4.32</v>
+      </c>
+      <c r="E78" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.4359240049899816</v>
+      </c>
+      <c r="G78" t="n">
+        <v>26</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-2.525435415375286</v>
+      </c>
+      <c r="I78" t="n">
+        <v>2.525435415375286</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.1843183177629219</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>GASUSDT</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>WIFUSDT</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-4.28</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.716342084352203</v>
+      </c>
+      <c r="G79" t="n">
+        <v>31</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-2.228126533784343</v>
+      </c>
+      <c r="I79" t="n">
+        <v>2.228126533784343</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.1764545140764257</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MBOXUSDT</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>NFPUSDT</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-3.94</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.7170879448294482</v>
+      </c>
+      <c r="G80" t="n">
+        <v>27</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-2.439253744260218</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2.439253744260218</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.1741749728294891</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MDTUSDT</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>KDAUSDT</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.0789706615361008</v>
+      </c>
+      <c r="G81" t="n">
+        <v>33</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-2.109893532484772</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2.109893532484772</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.1735304915418058</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CHRUSDT</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>RONUSDT</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-4.14</v>
+      </c>
+      <c r="E82" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1121452193000779</v>
+      </c>
+      <c r="G82" t="n">
+        <v>33</v>
+      </c>
+      <c r="H82" t="n">
+        <v>2.10947204669221</v>
+      </c>
+      <c r="I82" t="n">
+        <v>2.10947204669221</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.1733952971669744</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>SANDUSDT</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>GRTUSDT</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-3.94</v>
+      </c>
+      <c r="E83" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.577580354588884</v>
+      </c>
+      <c r="G83" t="n">
+        <v>27</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-2.424846239284712</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2.424846239284712</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.1695536696624122</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ASTRUSDT</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>VTHOUSDT</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-4.49</v>
+      </c>
+      <c r="E84" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F84" t="n">
+        <v>29.82987088402473</v>
+      </c>
+      <c r="G84" t="n">
+        <v>25</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-2.531046023360254</v>
+      </c>
+      <c r="I84" t="n">
+        <v>2.531046023360254</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.1686179576377123</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>ENJUSDT</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>KAVAUSDT</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-5.02</v>
+      </c>
+      <c r="E85" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.4489155921279122</v>
+      </c>
+      <c r="G85" t="n">
+        <v>27</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-2.399202634237557</v>
+      </c>
+      <c r="I85" t="n">
+        <v>2.399202634237557</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.1613283125710099</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>GMTUSDT</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>LITUSDT</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="E86" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.2034486003943183</v>
+      </c>
+      <c r="G86" t="n">
+        <v>30</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2.233111171685131</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.233111171685131</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.1605533698780933</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>COREUSDT</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>HOOKUSDT</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-5.57</v>
+      </c>
+      <c r="E87" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F87" t="n">
+        <v>2.252751911600593</v>
+      </c>
+      <c r="G87" t="n">
+        <v>32</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2.122054010051426</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2.122054010051426</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.1599310457035075</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BOBAUSDT</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>NTRNUSDT</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-3.91</v>
+      </c>
+      <c r="E88" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.5135603085660878</v>
+      </c>
+      <c r="G88" t="n">
+        <v>33</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-2.056508075594192</v>
+      </c>
+      <c r="I88" t="n">
+        <v>2.056508075594192</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.15640675072591</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>HOOKUSDT</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>VANRYUSDT</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.97</v>
+      </c>
+      <c r="E89" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F89" t="n">
+        <v>4.500674667395747</v>
+      </c>
+      <c r="G89" t="n">
+        <v>31</v>
+      </c>
+      <c r="H89" t="n">
+        <v>-2.162406462662701</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2.162406462662701</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.1553743636040632</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>FILUSDT</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>DODOUSDT</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="E90" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F90" t="n">
+        <v>32.1845590817134</v>
+      </c>
+      <c r="G90" t="n">
+        <v>32</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2.101863291721745</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.101863291721745</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.1534547383400085</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>KDAUSDT</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ONTUSDT</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-3.93</v>
+      </c>
+      <c r="E91" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F91" t="n">
+        <v>2.781533161939703</v>
+      </c>
+      <c r="G91" t="n">
+        <v>33</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2.018321734011926</v>
+      </c>
+      <c r="I91" t="n">
+        <v>2.018321734011926</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.1441582273630356</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>QIUSDT</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>REQUSDT</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-4.21</v>
+      </c>
+      <c r="E92" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.1372454564266312</v>
+      </c>
+      <c r="G92" t="n">
+        <v>33</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.012795807765315</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2.012795807765315</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.1423857497197579</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>COREUSDT</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>GRTUSDT</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-4.71</v>
+      </c>
+      <c r="E93" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F93" t="n">
+        <v>6.35350481740398</v>
+      </c>
+      <c r="G93" t="n">
+        <v>25</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-2.442034604414734</v>
+      </c>
+      <c r="I93" t="n">
+        <v>2.442034604414734</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.1400669522430734</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ONTUSDT</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>LTOUSDT</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-4.02</v>
+      </c>
+      <c r="E94" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.59963549293853</v>
+      </c>
+      <c r="G94" t="n">
+        <v>26</v>
+      </c>
+      <c r="H94" t="n">
+        <v>2.378089656517258</v>
+      </c>
+      <c r="I94" t="n">
+        <v>2.378089656517258</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.1370561843662221</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>COMPUSDT</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>HOTUSDT</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-4.08</v>
+      </c>
+      <c r="E95" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F95" t="n">
+        <v>26296.95149233988</v>
+      </c>
+      <c r="G95" t="n">
+        <v>26</v>
+      </c>
+      <c r="H95" t="n">
+        <v>-2.352555106573398</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2.352555106573398</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.1288658074254495</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>LTOUSDT</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SUSHIUSDT</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-4.32</v>
+      </c>
+      <c r="E96" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.1708748019400592</v>
+      </c>
+      <c r="G96" t="n">
+        <v>27</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-2.260502682865682</v>
+      </c>
+      <c r="I96" t="n">
+        <v>2.260502682865682</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.1168393795018909</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>FXSUSDT</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>VANRYUSDT</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="E97" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F97" t="n">
+        <v>22.50205075118175</v>
+      </c>
+      <c r="G97" t="n">
+        <v>27</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-2.254191153975082</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2.254191153975082</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.1148149145788655</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>IOTXUSDT</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>COMPUSDT</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="E98" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.0008790394540680536</v>
+      </c>
+      <c r="G98" t="n">
+        <v>25</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-2.35095073146752</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2.35095073146752</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.1108511934259696</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>STEEMUSDT</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>MBLUSDT</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="E99" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F99" t="n">
+        <v>66.07137173176565</v>
+      </c>
+      <c r="G99" t="n">
+        <v>29</v>
+      </c>
+      <c r="H99" t="n">
+        <v>2.120180018767091</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2.120180018767091</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.1068299505192896</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>SCAUSDT</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TRBUSDT</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-4.91</v>
+      </c>
+      <c r="E100" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.005109243969359506</v>
+      </c>
+      <c r="G100" t="n">
+        <v>26</v>
+      </c>
+      <c r="H100" t="n">
+        <v>2.277611536084843</v>
+      </c>
+      <c r="I100" t="n">
+        <v>2.277611536084843</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.1048271581076373</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1000BTTUSDT</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>POWRUSDT</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="E101" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.004088884300645773</v>
+      </c>
+      <c r="G101" t="n">
+        <v>30</v>
+      </c>
+      <c r="H101" t="n">
+        <v>2.010147819924462</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2.010147819924462</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.08903638998563869</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>IOTXUSDT</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>BCHUSDT</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="E102" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.0001121739979560852</v>
+      </c>
+      <c r="G102" t="n">
+        <v>25</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-2.274841011555133</v>
+      </c>
+      <c r="I102" t="n">
+        <v>2.274841011555133</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.08643849391453938</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>JOEUSDT</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>UMAUSDT</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="E103" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1404769831430557</v>
+      </c>
+      <c r="G103" t="n">
+        <v>28</v>
+      </c>
+      <c r="H103" t="n">
+        <v>2.100461181475668</v>
+      </c>
+      <c r="I103" t="n">
+        <v>2.100461181475668</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.08300500214128417</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>BELUSDT</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SUSHIUSDT</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-4.13</v>
+      </c>
+      <c r="E104" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.768439957231368</v>
+      </c>
+      <c r="G104" t="n">
+        <v>25</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-2.261881966271739</v>
+      </c>
+      <c r="I104" t="n">
+        <v>2.261881966271739</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.0822817938396645</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MANTAUSDT</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>LOOKSUSDT</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="E105" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F105" t="n">
+        <v>18.66548852421094</v>
+      </c>
+      <c r="G105" t="n">
+        <v>29</v>
+      </c>
+      <c r="H105" t="n">
+        <v>2.029255541660921</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2.029255541660921</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.07766531897969067</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DGBUSDT</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>FILUSDT</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-3.97</v>
+      </c>
+      <c r="E106" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.001852707071785219</v>
+      </c>
+      <c r="G106" t="n">
+        <v>29</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-2.015778231873793</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2.015778231873793</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.07334238211388219</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ARBUSDT</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SNXUSDT</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="E107" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.3948529705329849</v>
+      </c>
+      <c r="G107" t="n">
+        <v>25</v>
+      </c>
+      <c r="H107" t="n">
+        <v>2.229253173268478</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2.229253173268478</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.07181589119377101</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>TIAUSDT</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>ZILUSDT</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="E108" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F108" t="n">
+        <v>387.2424221990726</v>
+      </c>
+      <c r="G108" t="n">
+        <v>25</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-2.228183589119352</v>
+      </c>
+      <c r="I108" t="n">
+        <v>2.228183589119352</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.07147281495508738</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>LTOUSDT</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>PERPUSDT</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="E109" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.1829086110309466</v>
+      </c>
+      <c r="G109" t="n">
+        <v>28</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-2.038905535914123</v>
+      </c>
+      <c r="I109" t="n">
+        <v>2.038905535914123</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.06326061890014281</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>DODOUSDT</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>LTOUSDT</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D110" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="E110" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.9867137184402952</v>
+      </c>
+      <c r="G110" t="n">
+        <v>27</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2.080542830251189</v>
+      </c>
+      <c r="I110" t="n">
+        <v>2.080542830251189</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.05911605834059643</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ACHUSDT</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>VETUSDT</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-4.58</v>
+      </c>
+      <c r="E111" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.8438191235095192</v>
+      </c>
+      <c r="G111" t="n">
+        <v>27</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-2.075200309255836</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2.075200309255836</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.0574024091530394</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>MBLUSDT</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>QTUMUSDT</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-4.17</v>
+      </c>
+      <c r="E112" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.0011309854722365</v>
+      </c>
+      <c r="G112" t="n">
+        <v>25</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-2.174138762545553</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2.174138762545553</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.0541375769222539</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BATUSDT</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>MDTUSDT</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-4.57</v>
+      </c>
+      <c r="E113" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3.89976374517615</v>
+      </c>
+      <c r="G113" t="n">
+        <v>27</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.006452001338699</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2.006452001338699</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.03535093156210415</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>GASUSDT</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>UMAUSDT</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D114" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="E114" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.523670147283381</v>
+      </c>
+      <c r="G114" t="n">
+        <v>26</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2.049930500750561</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2.049930500750561</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.03179694979172761</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MERLUSDT</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>DATAUSDT</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F115" t="n">
+        <v>7.694444601372312</v>
+      </c>
+      <c r="G115" t="n">
+        <v>26</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2.005357927211925</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2.005357927211925</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.01750000000000002</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>MTLUSDT</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TIAUSDT</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-4.52</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.1772990831984001</v>
+      </c>
+      <c r="G116" t="n">
+        <v>25</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2.011102442925343</v>
+      </c>
+      <c r="I116" t="n">
+        <v>2.011102442925343</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.001842591670443555</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J116"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,619 +488,619 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>ALICEUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1000PEPEUSDT</t>
+          <t>1000BONKUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.24</v>
+        <v>-4.13</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>2129.102469655952</v>
+        <v>48.15642983281758</v>
       </c>
       <c r="G2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>-4.031816243298134</v>
+        <v>-3.809804204331718</v>
       </c>
       <c r="I2" t="n">
-        <v>4.031816243298134</v>
+        <v>3.809804204331718</v>
       </c>
       <c r="J2" t="n">
-        <v>0.65</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALICEUSDT</t>
+          <t>ACEUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1000BONKUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.16</v>
+        <v>-6.58</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>48.13010663317328</v>
+        <v>10.74436837261801</v>
       </c>
       <c r="G3" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.91720869838427</v>
+        <v>-3.084324681633843</v>
       </c>
       <c r="I3" t="n">
-        <v>3.91720869838427</v>
+        <v>3.084324681633843</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6482388667446727</v>
+        <v>0.6343241760330265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ACEUSDT</t>
+          <t>IOTXUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.56</v>
+        <v>-4.01</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>10.74393253020992</v>
+        <v>0.1268159839636433</v>
       </c>
       <c r="G4" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.098297504067518</v>
+        <v>-3.501014912357446</v>
       </c>
       <c r="I4" t="n">
-        <v>3.098297504067518</v>
+        <v>3.501014912357446</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5955676476623433</v>
+        <v>0.6090473120202826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.57</v>
+        <v>-4.47</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1079227870297817</v>
+        <v>0.001502800723893578</v>
       </c>
       <c r="G5" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>3.285308813492013</v>
+        <v>-2.684055933227038</v>
       </c>
       <c r="I5" t="n">
-        <v>3.285308813492013</v>
+        <v>2.684055933227038</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5505527705543311</v>
+        <v>0.5955015283431818</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FILUSDT</t>
+          <t>DARUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LITUSDT</t>
+          <t>XRPUSDT</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.56</v>
+        <v>-4.11</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>5.587979439402464</v>
+        <v>0.2808634432323521</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
-        <v>3.202381687097145</v>
+        <v>-3.359570619199592</v>
       </c>
       <c r="I6" t="n">
-        <v>3.202381687097145</v>
+        <v>3.359570619199592</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5239533425134085</v>
+        <v>0.5932242267218369</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IOTXUSDT</t>
+          <t>PYTHUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MANAUSDT</t>
+          <t>SXPUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.05</v>
+        <v>-4.56</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1268192526638089</v>
+        <v>1.350175053714016</v>
       </c>
       <c r="G7" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.382026132097125</v>
+        <v>-3.054397680910067</v>
       </c>
       <c r="I7" t="n">
-        <v>3.382026132097125</v>
+        <v>3.054397680910067</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5115754945819042</v>
+        <v>0.5885709496104258</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ATAUSDT</t>
+          <t>BATUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GALAUSDT</t>
+          <t>XNOUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.72</v>
+        <v>-4.07</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>4.069974999866883</v>
+        <v>0.2001359467355536</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>-3.473076954871775</v>
+        <v>3.05892767372031</v>
       </c>
       <c r="I8" t="n">
-        <v>3.473076954871775</v>
+        <v>3.05892767372031</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5057806523360617</v>
+        <v>0.5726986449090928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BATUSDT</t>
+          <t>GRTUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.08</v>
+        <v>-4.61</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2001370609482598</v>
+        <v>0.1079145489173733</v>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>2.959969915955974</v>
+        <v>3.195981060651731</v>
       </c>
       <c r="I9" t="n">
-        <v>2.959969915955974</v>
+        <v>3.195981060651731</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4986981525887132</v>
+        <v>0.5694440108333505</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>10000000AIDOGEUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.51</v>
+        <v>-4.21</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001502789096214756</v>
+        <v>1.278690007540407</v>
       </c>
       <c r="G10" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.424569561720145</v>
+        <v>-3.188746737198672</v>
       </c>
       <c r="I10" t="n">
-        <v>2.424569561720145</v>
+        <v>3.188746737198672</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4844649234910544</v>
+        <v>0.5668446084133387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>KEYUSDT</t>
+          <t>1000PEPEUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.16</v>
+        <v>-4.24</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>26.47780579414655</v>
+        <v>2130.67740083961</v>
       </c>
       <c r="G11" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
-        <v>2.406399387020956</v>
+        <v>-3.550812974172639</v>
       </c>
       <c r="I11" t="n">
-        <v>2.406399387020956</v>
+        <v>3.550812974172639</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4786367189527626</v>
+        <v>0.5569405128474541</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PYTHUSDT</t>
+          <t>IOSTUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SXPUSDT</t>
+          <t>LEVERUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.69</v>
+        <v>-4.6</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>1.350479976627153</v>
+        <v>2.526176436825002</v>
       </c>
       <c r="G12" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.787345521535123</v>
+        <v>3.427728080130531</v>
       </c>
       <c r="I12" t="n">
-        <v>2.787345521535123</v>
+        <v>3.427728080130531</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4608277284932098</v>
+        <v>0.547714238819764</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DARUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>LITUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.14</v>
+        <v>-4.66</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2809118759247824</v>
+        <v>5.587561667001621</v>
       </c>
       <c r="G13" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.035695905020946</v>
+        <v>3.103824844688748</v>
       </c>
       <c r="I13" t="n">
-        <v>3.035695905020946</v>
+        <v>3.103824844688748</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4354877678753956</v>
+        <v>0.5363308811332953</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ACHUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MANAUSDT</t>
+          <t>AVAXUSDT</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.91</v>
+        <v>-4.6</v>
       </c>
       <c r="E14" t="n">
         <v>-3.37</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06735699499327676</v>
+        <v>0.004080578859820439</v>
       </c>
       <c r="G14" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.570054190170298</v>
+        <v>-3.426115103464021</v>
       </c>
       <c r="I14" t="n">
-        <v>2.570054190170298</v>
+        <v>3.426115103464021</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4261300869153075</v>
+        <v>0.5296346717769638</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ACEUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AIUSDT</t>
+          <t>STORJUSDT</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.86</v>
+        <v>-4.37</v>
       </c>
       <c r="E15" t="n">
         <v>-3.37</v>
       </c>
       <c r="F15" t="n">
-        <v>5.031358214635775</v>
+        <v>9.127233017528082</v>
       </c>
       <c r="G15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.102915594461297</v>
+        <v>3.218065042611543</v>
       </c>
       <c r="I15" t="n">
-        <v>3.102915594461297</v>
+        <v>3.218065042611543</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4220489309101299</v>
+        <v>0.5248791213550613</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ARPAUSDT</t>
+          <t>ACEUSDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WOOUSDT</t>
+          <t>AIUSDT</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-5</v>
+        <v>-4.83</v>
       </c>
       <c r="E16" t="n">
         <v>-3.37</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2296024444883444</v>
+        <v>5.031287424826314</v>
       </c>
       <c r="G16" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.47721771066918</v>
+        <v>-3.255114731189012</v>
       </c>
       <c r="I16" t="n">
-        <v>2.47721771066918</v>
+        <v>3.255114731189012</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4138521678746279</v>
+        <v>0.5206916378293183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>GODSUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>STMXUSDT</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.38</v>
+        <v>-4.63</v>
       </c>
       <c r="E17" t="n">
         <v>-3.37</v>
       </c>
       <c r="F17" t="n">
-        <v>1.278773422173429</v>
+        <v>32.31980474696913</v>
       </c>
       <c r="G17" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.855583417645658</v>
+        <v>-3.301150506860146</v>
       </c>
       <c r="I17" t="n">
-        <v>2.855583417645658</v>
+        <v>3.301150506860146</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4127154880981109</v>
+        <v>0.5197329920365401</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GASUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>STORJUSDT</t>
+          <t>KEYUSDT</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.37</v>
+        <v>-4.29</v>
       </c>
       <c r="E18" t="n">
         <v>-3.37</v>
       </c>
       <c r="F18" t="n">
-        <v>9.126708800714392</v>
+        <v>26.47442601976854</v>
       </c>
       <c r="G18" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H18" t="n">
-        <v>3.014786558661678</v>
+        <v>2.428594976781421</v>
       </c>
       <c r="I18" t="n">
-        <v>3.014786558661678</v>
+        <v>2.428594976781421</v>
       </c>
       <c r="J18" t="n">
-        <v>0.411280955785733</v>
+        <v>0.503710522216349</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WAXPUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1109,1792 +1109,1792 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.92</v>
+        <v>-4.96</v>
       </c>
       <c r="E19" t="n">
         <v>-3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09519496609295983</v>
+        <v>0.4488629635777515</v>
       </c>
       <c r="G19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.263783119501987</v>
+        <v>-3.289562081350947</v>
       </c>
       <c r="I19" t="n">
-        <v>3.263783119501987</v>
+        <v>3.289562081350947</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4036482608575613</v>
+        <v>0.4980690945403616</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BOBAUSDT</t>
+          <t>ZBCNUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IOSTUSDT</t>
+          <t>WAXPUSDT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.56</v>
+        <v>-4.01</v>
       </c>
       <c r="E20" t="n">
         <v>-3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>40.06823166145888</v>
+        <v>0.03176293691165055</v>
       </c>
       <c r="G20" t="n">
         <v>39</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.490587917635405</v>
+        <v>-2.703645540719478</v>
       </c>
       <c r="I20" t="n">
-        <v>2.490587917635405</v>
+        <v>2.703645540719478</v>
       </c>
       <c r="J20" t="n">
-        <v>0.400640750797385</v>
+        <v>0.4975403721899267</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GMTUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ONEUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.99</v>
+        <v>-4.73</v>
       </c>
       <c r="E21" t="n">
         <v>-3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>10.6600950247315</v>
+        <v>0.2383798223608722</v>
       </c>
       <c r="G21" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.208839723409922</v>
+        <v>3.083380454619319</v>
       </c>
       <c r="I21" t="n">
-        <v>2.208839723409922</v>
+        <v>3.083380454619319</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3802681412091139</v>
+        <v>0.4939849009090262</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LITUSDT</t>
+          <t>KSMUSDT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>LPTUSDT</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.22</v>
+        <v>-4.97</v>
       </c>
       <c r="E22" t="n">
         <v>-3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>1.79948371112495</v>
+        <v>1.486736096208409</v>
       </c>
       <c r="G22" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.862887043259738</v>
+        <v>3.11389975624413</v>
       </c>
       <c r="I22" t="n">
-        <v>2.862887043259738</v>
+        <v>3.11389975624413</v>
       </c>
       <c r="J22" t="n">
-        <v>0.38005817465202</v>
+        <v>0.4874509500517493</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>DENTUSDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>REQUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.17</v>
+        <v>-3.99</v>
       </c>
       <c r="E23" t="n">
         <v>-3.37</v>
       </c>
       <c r="F23" t="n">
-        <v>447.9384251957547</v>
+        <v>0.002918486450242369</v>
       </c>
       <c r="G23" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H23" t="n">
-        <v>2.748432703631504</v>
+        <v>-2.430741514979426</v>
       </c>
       <c r="I23" t="n">
-        <v>2.748432703631504</v>
+        <v>2.430741514979426</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3783461830123225</v>
+        <v>0.4869818060306195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>BADGERUSDT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AGIUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.13</v>
+        <v>-3.92</v>
       </c>
       <c r="E24" t="n">
         <v>-3.37</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2387697547020922</v>
+        <v>9.786166940122254</v>
       </c>
       <c r="G24" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.633379207389088</v>
+        <v>-3.285704483339328</v>
       </c>
       <c r="I24" t="n">
-        <v>2.633379207389088</v>
+        <v>3.285704483339328</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3764420078985675</v>
+        <v>0.4791830009171087</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BOBAUSDT</t>
+          <t>CELRUSDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KSMUSDT</t>
+          <t>GALAUSDT</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.19</v>
+        <v>-4.05</v>
       </c>
       <c r="E25" t="n">
         <v>-3.37</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01127655122531836</v>
+        <v>0.5876036001074225</v>
       </c>
       <c r="G25" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.512964119761261</v>
+        <v>-2.874932616155624</v>
       </c>
       <c r="I25" t="n">
-        <v>2.512964119761261</v>
+        <v>2.874932616155624</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3728180666426461</v>
+        <v>0.471586422942906</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>DGBUSDT</t>
+          <t>BOBAUSDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EOSUSDT</t>
+          <t>IOSTUSDT</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-5.61</v>
+        <v>-4.45</v>
       </c>
       <c r="E26" t="n">
         <v>-3.37</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01392193745121001</v>
+        <v>40.06776637490797</v>
       </c>
       <c r="G26" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.171082262851258</v>
+        <v>-2.605854113224119</v>
       </c>
       <c r="I26" t="n">
-        <v>2.171082262851258</v>
+        <v>2.605854113224119</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3681571842906753</v>
+        <v>0.4624024252986604</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>ATAUSDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ICPUSDT</t>
+          <t>GALAUSDT</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.45</v>
+        <v>-5.98</v>
       </c>
       <c r="E27" t="n">
         <v>-3.37</v>
       </c>
       <c r="F27" t="n">
-        <v>0.03986172911349152</v>
+        <v>4.071436290855416</v>
       </c>
       <c r="G27" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H27" t="n">
-        <v>2.728824639972926</v>
+        <v>-3.110860694592643</v>
       </c>
       <c r="I27" t="n">
-        <v>2.728824639972926</v>
+        <v>3.110860694592643</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3545567660147446</v>
+        <v>0.4338589689891528</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>DGBUSDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>EOSUSDT</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.13</v>
+        <v>-5.64</v>
       </c>
       <c r="E28" t="n">
         <v>-3.37</v>
       </c>
       <c r="F28" t="n">
-        <v>50.61219445661477</v>
+        <v>0.01392231248763023</v>
       </c>
       <c r="G28" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H28" t="n">
-        <v>2.78108150460739</v>
+        <v>-2.266479427984488</v>
       </c>
       <c r="I28" t="n">
-        <v>2.78108150460739</v>
+        <v>2.266479427984488</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3538185033486778</v>
+        <v>0.4104599404447977</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ONGUSDT</t>
+          <t>DYMUSDT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MANAUSDT</t>
+          <t>MTLUSDT</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.46</v>
+        <v>-3.99</v>
       </c>
       <c r="E29" t="n">
         <v>-3.37</v>
       </c>
       <c r="F29" t="n">
-        <v>1.049425283787437</v>
+        <v>1.60895520444324</v>
       </c>
       <c r="G29" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.99862717019251</v>
+        <v>-2.835810407582457</v>
       </c>
       <c r="I29" t="n">
-        <v>2.99862717019251</v>
+        <v>2.835810407582457</v>
       </c>
       <c r="J29" t="n">
-        <v>0.353597724321468</v>
+        <v>0.4050292185199699</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DENTUSDT</t>
+          <t>FLMUSDT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MANAUSDT</t>
+          <t>LITUSDT</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0.01</v>
       </c>
       <c r="D30" t="n">
-        <v>-3.99</v>
+        <v>-4.08</v>
       </c>
       <c r="E30" t="n">
         <v>-3.37</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002918579922264187</v>
+        <v>0.08635926259180014</v>
       </c>
       <c r="G30" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.062325507206985</v>
+        <v>2.446253003405696</v>
       </c>
       <c r="I30" t="n">
-        <v>2.062325507206985</v>
+        <v>2.446253003405696</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3507727306566585</v>
+        <v>0.387555319686023</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ACEUSDT</t>
+          <t>LQTYUSDT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>TOKENUSDT</t>
+          <t>1000LUNCUSDT</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.91</v>
+        <v>-4.25</v>
       </c>
       <c r="E31" t="n">
         <v>-3.37</v>
       </c>
       <c r="F31" t="n">
-        <v>42.89120226510649</v>
+        <v>9.848982300011553</v>
       </c>
       <c r="G31" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.874521095749661</v>
+        <v>2.483194024962132</v>
       </c>
       <c r="I31" t="n">
-        <v>2.874521095749661</v>
+        <v>2.483194024962132</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3487898744646543</v>
+        <v>0.3658287904472588</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GALAUSDT</t>
+          <t>DGBUSDT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RLCUSDT</t>
+          <t>IOSTUSDT</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.1</v>
+        <v>-4.93</v>
       </c>
       <c r="E32" t="n">
         <v>-3.37</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0134986806345598</v>
+        <v>1.286081661791931</v>
       </c>
       <c r="G32" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H32" t="n">
-        <v>3.034561985735737</v>
+        <v>-2.832660245538297</v>
       </c>
       <c r="I32" t="n">
-        <v>3.034561985735737</v>
+        <v>2.832660245538297</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3476240557133761</v>
+        <v>0.3513973173969208</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BOBAUSDT</t>
+          <t>BATUSDT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>EOSUSDT</t>
+          <t>FORTHUSDT</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-3.96</v>
+        <v>-4.34</v>
       </c>
       <c r="E33" t="n">
         <v>-3.37</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4335027810161081</v>
+        <v>0.05879739355952294</v>
       </c>
       <c r="G33" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.316006904157391</v>
+        <v>2.436329398334658</v>
       </c>
       <c r="I33" t="n">
-        <v>2.316006904157391</v>
+        <v>2.436329398334658</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3446427281092729</v>
+        <v>0.3489896174881222</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>HFTUSDT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>VETUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.68</v>
+        <v>-4.44</v>
       </c>
       <c r="E34" t="n">
         <v>-3.37</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1927875448721393</v>
+        <v>0.3501713068416157</v>
       </c>
       <c r="G34" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.899427071782189</v>
+        <v>2.182031123642682</v>
       </c>
       <c r="I34" t="n">
-        <v>2.899427071782189</v>
+        <v>2.182031123642682</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3392786321374047</v>
+        <v>0.3451163805948231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ALPHAUSDT</t>
+          <t>NTRNUSDT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WOOUSDT</t>
+          <t>WAXPUSDT</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.58</v>
+        <v>-5.09</v>
       </c>
       <c r="E35" t="n">
         <v>-3.37</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3682652053086499</v>
+        <v>11.48576420843481</v>
       </c>
       <c r="G35" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H35" t="n">
-        <v>-2.177247013215104</v>
+        <v>-2.308976285382422</v>
       </c>
       <c r="I35" t="n">
-        <v>2.177247013215104</v>
+        <v>2.308976285382422</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3351345690237792</v>
+        <v>0.3382297075045452</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>QTUMUSDT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SCUSDT</t>
+          <t>XNOUSDT</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0.01</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.1</v>
+        <v>-4.01</v>
       </c>
       <c r="E36" t="n">
         <v>-3.37</v>
       </c>
       <c r="F36" t="n">
-        <v>44.34024374275585</v>
+        <v>2.827152375376286</v>
       </c>
       <c r="G36" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H36" t="n">
-        <v>2.390672498925782</v>
+        <v>2.500792340338649</v>
       </c>
       <c r="I36" t="n">
-        <v>2.390672498925782</v>
+        <v>2.500792340338649</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3335922148636747</v>
+        <v>0.3371521327576588</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>AUCTIONUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>COTIUSDT</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.06</v>
+        <v>-4.39</v>
       </c>
       <c r="E37" t="n">
         <v>-3.37</v>
       </c>
       <c r="F37" t="n">
-        <v>109.1018657646289</v>
+        <v>1.119631195365903</v>
       </c>
       <c r="G37" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.438486818737815</v>
+        <v>-2.33766552518237</v>
       </c>
       <c r="I37" t="n">
-        <v>2.438486818737815</v>
+        <v>2.33766552518237</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3314289763608696</v>
+        <v>0.331038187606129</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>ACEUSDT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AVAXUSDT</t>
+          <t>TOKENUSDT</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.65</v>
+        <v>-3.91</v>
       </c>
       <c r="E38" t="n">
         <v>-3.37</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004081623185315257</v>
+        <v>42.89258888192229</v>
       </c>
       <c r="G38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.983606831355444</v>
+        <v>-2.717120082859167</v>
       </c>
       <c r="I38" t="n">
-        <v>2.983606831355444</v>
+        <v>2.717120082859167</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3312798506121538</v>
+        <v>0.3273819800712618</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLZUSDT</t>
+          <t>CHRUSDT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>TOKENUSDT</t>
+          <t>LPTUSDT</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.83</v>
+        <v>-3.99</v>
       </c>
       <c r="E39" t="n">
         <v>-3.37</v>
       </c>
       <c r="F39" t="n">
-        <v>2.519697577193889</v>
+        <v>0.01537743529376771</v>
       </c>
       <c r="G39" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.927119094927604</v>
+        <v>2.467889524837381</v>
       </c>
       <c r="I39" t="n">
-        <v>2.927119094927604</v>
+        <v>2.467889524837381</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3306610329751795</v>
+        <v>0.3253296508360041</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>BOBAUSDT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SHIB1000USDT</t>
+          <t>KSMUSDT</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.01</v>
+        <v>-4.25</v>
       </c>
       <c r="E40" t="n">
         <v>-3.37</v>
       </c>
       <c r="F40" t="n">
-        <v>1165.792550319965</v>
+        <v>0.01127773376715869</v>
       </c>
       <c r="G40" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.965026339153666</v>
+        <v>-2.321715397741604</v>
       </c>
       <c r="I40" t="n">
-        <v>2.965026339153666</v>
+        <v>2.321715397741604</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3253200340024141</v>
+        <v>0.3253070642829811</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>FLMUSDT</t>
+          <t>CHRUSDT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>LITUSDT</t>
+          <t>IOTAUSDT</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-4.08</v>
+        <v>-4.64</v>
       </c>
       <c r="E41" t="n">
         <v>-3.37</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08636003463826826</v>
+        <v>1.438064954684124</v>
       </c>
       <c r="G41" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H41" t="n">
-        <v>2.309585722230667</v>
+        <v>-2.599019178480826</v>
       </c>
       <c r="I41" t="n">
-        <v>2.309585722230667</v>
+        <v>2.599019178480826</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3250830912446807</v>
+        <v>0.302446529315073</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>ATAUSDT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NKNUSDT</t>
+          <t>LSKUSDT</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.74</v>
+        <v>-4.18</v>
       </c>
       <c r="E42" t="n">
         <v>-3.37</v>
       </c>
       <c r="F42" t="n">
-        <v>5.186045416227467</v>
+        <v>0.10198805699169</v>
       </c>
       <c r="G42" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H42" t="n">
-        <v>2.799160564637537</v>
+        <v>-2.809228258588806</v>
       </c>
       <c r="I42" t="n">
-        <v>2.799160564637537</v>
+        <v>2.809228258588806</v>
       </c>
       <c r="J42" t="n">
-        <v>0.3246174822501001</v>
+        <v>0.2904778481849887</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>QTUMUSDT</t>
+          <t>MTLUSDT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>NTRNUSDT</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.07</v>
+        <v>-4.88</v>
       </c>
       <c r="E43" t="n">
         <v>-3.37</v>
       </c>
       <c r="F43" t="n">
-        <v>2.827221015040424</v>
+        <v>2.419754838051026</v>
       </c>
       <c r="G43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H43" t="n">
-        <v>2.486010117275977</v>
+        <v>2.611152678293523</v>
       </c>
       <c r="I43" t="n">
-        <v>2.486010117275977</v>
+        <v>2.611152678293523</v>
       </c>
       <c r="J43" t="n">
-        <v>0.3116723908464265</v>
+        <v>0.289306280296763</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>AUCTIONUSDT</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>AUDIOUSDT</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>REQUSDT</t>
-        </is>
-      </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.86</v>
+        <v>-4.04</v>
       </c>
       <c r="E44" t="n">
         <v>-3.37</v>
       </c>
       <c r="F44" t="n">
-        <v>1.318418126298564</v>
+        <v>109.1087276365942</v>
       </c>
       <c r="G44" t="n">
         <v>36</v>
       </c>
       <c r="H44" t="n">
-        <v>2.340281836684677</v>
+        <v>-2.262244063820108</v>
       </c>
       <c r="I44" t="n">
-        <v>2.340281836684677</v>
+        <v>2.262244063820108</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2999290743753091</v>
+        <v>0.2864381096986391</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ATOMUSDT</t>
+          <t>AIUSDT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SCRTUSDT</t>
+          <t>MYRIAUSDT</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D45" t="n">
-        <v>-4.36</v>
+        <v>-4.04</v>
       </c>
       <c r="E45" t="n">
         <v>-3.37</v>
       </c>
       <c r="F45" t="n">
-        <v>22.24913241178069</v>
+        <v>175.0624019769826</v>
       </c>
       <c r="G45" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H45" t="n">
-        <v>2.26624574254839</v>
+        <v>2.09981889784923</v>
       </c>
       <c r="I45" t="n">
-        <v>2.26624574254839</v>
+        <v>2.09981889784923</v>
       </c>
       <c r="J45" t="n">
-        <v>0.293681504140788</v>
+        <v>0.2805762777685276</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AIUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MYRIAUSDT</t>
+          <t>TUSDT</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>0.01</v>
       </c>
       <c r="D46" t="n">
-        <v>-4.02</v>
+        <v>-3.93</v>
       </c>
       <c r="E46" t="n">
         <v>-3.37</v>
       </c>
       <c r="F46" t="n">
-        <v>175.0785687042252</v>
+        <v>1.876860046488097</v>
       </c>
       <c r="G46" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H46" t="n">
-        <v>2.14688785222504</v>
+        <v>-2.178994079415109</v>
       </c>
       <c r="I46" t="n">
-        <v>2.14688785222504</v>
+        <v>2.178994079415109</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2903966659606391</v>
+        <v>0.274025124423315</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DODOUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>PHBUSDT</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D47" t="n">
-        <v>-5.08</v>
+        <v>-3.91</v>
       </c>
       <c r="E47" t="n">
         <v>-3.37</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3116637325541491</v>
+        <v>0.1184622081318593</v>
       </c>
       <c r="G47" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.834167660894604</v>
+        <v>2.213778318466596</v>
       </c>
       <c r="I47" t="n">
-        <v>2.834167660894604</v>
+        <v>2.213778318466596</v>
       </c>
       <c r="J47" t="n">
-        <v>0.283346241502864</v>
+        <v>0.2690236304350231</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AKROUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VTHOUSDT</t>
+          <t>AERGOUSDT</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-4.72</v>
+        <v>-4.53</v>
       </c>
       <c r="E48" t="n">
         <v>-3.37</v>
       </c>
       <c r="F48" t="n">
-        <v>2.185693218064648</v>
+        <v>1.135599589632689</v>
       </c>
       <c r="G48" t="n">
         <v>32</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.485351030433937</v>
+        <v>-2.392017281552048</v>
       </c>
       <c r="I48" t="n">
-        <v>2.485351030433937</v>
+        <v>2.392017281552048</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2764609843526803</v>
+        <v>0.2630676001290767</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FILUSDT</t>
+          <t>BLZUSDT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FLMUSDT</t>
+          <t>TOKENUSDT</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.17</v>
+        <v>-4.84</v>
       </c>
       <c r="E49" t="n">
         <v>-3.37</v>
       </c>
       <c r="F49" t="n">
-        <v>64.62006039502057</v>
+        <v>2.519968871577178</v>
       </c>
       <c r="G49" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H49" t="n">
-        <v>2.533104820573314</v>
+        <v>-2.622592869992093</v>
       </c>
       <c r="I49" t="n">
-        <v>2.533104820573314</v>
+        <v>2.622592869992093</v>
       </c>
       <c r="J49" t="n">
-        <v>0.274278330554276</v>
+        <v>0.2584169151307759</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MERLUSDT</t>
+          <t>PERPUSDT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LTOUSDT</t>
+          <t>POLYXUSDT</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-4.21</v>
+        <v>-4.46</v>
       </c>
       <c r="E50" t="n">
         <v>-3.37</v>
       </c>
       <c r="F50" t="n">
-        <v>2.406001785831369</v>
+        <v>2.541530188704239</v>
       </c>
       <c r="G50" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H50" t="n">
-        <v>2.243044974775501</v>
+        <v>-2.64618637736564</v>
       </c>
       <c r="I50" t="n">
-        <v>2.243044974775501</v>
+        <v>2.64618637736564</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2687397033730804</v>
+        <v>0.2493944210871108</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>KSMUSDT</t>
+          <t>IOTXUSDT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LPTUSDT</t>
+          <t>BADGERUSDT</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D51" t="n">
-        <v>-4.97</v>
+        <v>-4.02</v>
       </c>
       <c r="E51" t="n">
         <v>-3.37</v>
       </c>
       <c r="F51" t="n">
-        <v>1.486677790773595</v>
+        <v>0.01293389157755475</v>
       </c>
       <c r="G51" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H51" t="n">
-        <v>2.560844553053921</v>
+        <v>-2.297691371489714</v>
       </c>
       <c r="I51" t="n">
-        <v>2.560844553053921</v>
+        <v>2.297691371489714</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2656760344790319</v>
+        <v>0.2466748663472946</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHRUSDT</t>
+          <t>MTLUSDT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IOTAUSDT</t>
+          <t>ONTUSDT</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.64</v>
+        <v>-4.42</v>
       </c>
       <c r="E52" t="n">
         <v>-3.37</v>
       </c>
       <c r="F52" t="n">
-        <v>1.438048341963144</v>
+        <v>5.394031905652881</v>
       </c>
       <c r="G52" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.540407561176127</v>
+        <v>2.678107657586154</v>
       </c>
       <c r="I52" t="n">
-        <v>2.540407561176127</v>
+        <v>2.678107657586154</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2591207332349274</v>
+        <v>0.2433642224574086</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SLERFUSDT</t>
+          <t>ONGUSDT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BOMEUSDT</t>
+          <t>MANAUSDT</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.03</v>
+        <v>-4.62</v>
       </c>
       <c r="E53" t="n">
         <v>-3.37</v>
       </c>
       <c r="F53" t="n">
-        <v>25.36080628339085</v>
+        <v>1.049678194295377</v>
       </c>
       <c r="G53" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.783552732039908</v>
+        <v>-2.567021074356011</v>
       </c>
       <c r="I53" t="n">
-        <v>2.783552732039908</v>
+        <v>2.567021074356011</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2496111660046949</v>
+        <v>0.2384491239477947</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>STORJUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.31</v>
+        <v>-4.64</v>
       </c>
       <c r="E54" t="n">
         <v>-3.37</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1870542047066457</v>
+        <v>0.06481667700796889</v>
       </c>
       <c r="G54" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.761493575794383</v>
+        <v>-2.414497740401967</v>
       </c>
       <c r="I54" t="n">
-        <v>2.761493575794383</v>
+        <v>2.414497740401967</v>
       </c>
       <c r="J54" t="n">
-        <v>0.242535544736904</v>
+        <v>0.2361451708261324</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>WOOUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>PHBUSDT</t>
+          <t>IOSTUSDT</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-3.91</v>
+        <v>-5.11</v>
       </c>
       <c r="E55" t="n">
         <v>-3.37</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1184622500165372</v>
+        <v>204.8231778304853</v>
       </c>
       <c r="G55" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H55" t="n">
-        <v>2.121565249982038</v>
+        <v>-2.646637921743955</v>
       </c>
       <c r="I55" t="n">
-        <v>2.121565249982038</v>
+        <v>2.646637921743955</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2297742726563738</v>
+        <v>0.2320566678483111</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LQTYUSDT</t>
+          <t>ATOMUSDT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SHIB1000USDT</t>
+          <t>SCRTUSDT</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.12</v>
+        <v>-4.43</v>
       </c>
       <c r="E56" t="n">
         <v>-3.37</v>
       </c>
       <c r="F56" t="n">
-        <v>47.60246850258071</v>
+        <v>22.24744941386159</v>
       </c>
       <c r="G56" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.662348934883844</v>
+        <v>2.038209845028189</v>
       </c>
       <c r="I56" t="n">
-        <v>2.662348934883844</v>
+        <v>2.038209845028189</v>
       </c>
       <c r="J56" t="n">
-        <v>0.2282342409152127</v>
+        <v>0.2234392082779558</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10000COQUSDT</t>
+          <t>DATAUSDT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>LEVERUSDT</t>
+          <t>KSMUSDT</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-5.05</v>
+        <v>-4.47</v>
       </c>
       <c r="E57" t="n">
         <v>-3.37</v>
       </c>
       <c r="F57" t="n">
-        <v>7.253414424785132</v>
+        <v>0.001905081617367782</v>
       </c>
       <c r="G57" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H57" t="n">
-        <v>2.10418322310342</v>
+        <v>-2.406238862989297</v>
       </c>
       <c r="I57" t="n">
-        <v>2.10418322310342</v>
+        <v>2.406238862989297</v>
       </c>
       <c r="J57" t="n">
-        <v>0.224198871780168</v>
+        <v>0.2156776305893192</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>ALICEUSDT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D58" t="n">
-        <v>-4.81</v>
+        <v>-4</v>
       </c>
       <c r="E58" t="n">
         <v>-3.37</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5942569904696583</v>
+        <v>0.6375156103080805</v>
       </c>
       <c r="G58" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H58" t="n">
-        <v>2.364240032672695</v>
+        <v>-2.447692646015516</v>
       </c>
       <c r="I58" t="n">
-        <v>2.364240032672695</v>
+        <v>2.447692646015516</v>
       </c>
       <c r="J58" t="n">
-        <v>0.2201138252870811</v>
+        <v>0.2130726051665796</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GTCUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>TOKENUSDT</t>
+          <t>CELOUSDT</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D59" t="n">
-        <v>-4.88</v>
+        <v>-4.04</v>
       </c>
       <c r="E59" t="n">
         <v>-3.37</v>
       </c>
       <c r="F59" t="n">
-        <v>11.44596966513078</v>
+        <v>3.604484530154417</v>
       </c>
       <c r="G59" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H59" t="n">
-        <v>-2.689283099988877</v>
+        <v>2.20130692337224</v>
       </c>
       <c r="I59" t="n">
-        <v>2.689283099988877</v>
+        <v>2.20130692337224</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2193735537396106</v>
+        <v>0.2120424685406815</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>METISUSDT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>SILLYUSDT</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-4.29</v>
+        <v>-4.74</v>
       </c>
       <c r="E60" t="n">
         <v>-3.37</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3506951483699878</v>
+        <v>2983.989176068255</v>
       </c>
       <c r="G60" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H60" t="n">
-        <v>2.361386142699433</v>
+        <v>2.053007276931161</v>
       </c>
       <c r="I60" t="n">
-        <v>2.361386142699433</v>
+        <v>2.053007276931161</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2191984210727952</v>
+        <v>0.2112561505667719</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CFXUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>10000WENUSDT</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-4</v>
+        <v>-4.13</v>
       </c>
       <c r="E61" t="n">
         <v>-3.37</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01446395172362901</v>
+        <v>0.1631097806816727</v>
       </c>
       <c r="G61" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H61" t="n">
-        <v>-2.192960314019339</v>
+        <v>2.086073507588937</v>
       </c>
       <c r="I61" t="n">
-        <v>2.192960314019339</v>
+        <v>2.086073507588937</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2176747148988145</v>
+        <v>0.2056373500390101</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1000BTTUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CFXUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-3.98</v>
+        <v>-4.29</v>
       </c>
       <c r="E62" t="n">
         <v>-3.37</v>
       </c>
       <c r="F62" t="n">
-        <v>0.005600378421762048</v>
+        <v>0.3506724568510029</v>
       </c>
       <c r="G62" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H62" t="n">
-        <v>2.134932636814807</v>
+        <v>2.264605335457998</v>
       </c>
       <c r="I62" t="n">
-        <v>2.134932636814807</v>
+        <v>2.264605335457998</v>
       </c>
       <c r="J62" t="n">
-        <v>0.2165619510025444</v>
+        <v>0.1997865505030437</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>IDUSDT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>WAXPUSDT</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-4.83</v>
+        <v>-4.51</v>
       </c>
       <c r="E63" t="n">
         <v>-3.37</v>
       </c>
       <c r="F63" t="n">
-        <v>0.2383541469790152</v>
+        <v>11.39247512347628</v>
       </c>
       <c r="G63" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H63" t="n">
-        <v>2.352050357097695</v>
+        <v>-2.355962593866122</v>
       </c>
       <c r="I63" t="n">
-        <v>2.352050357097695</v>
+        <v>2.355962593866122</v>
       </c>
       <c r="J63" t="n">
-        <v>0.2162039056697596</v>
+        <v>0.197612602604888</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NKNUSDT</t>
+          <t>DYMUSDT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ZRXUSDT</t>
+          <t>HIFIUSDT</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-4.21</v>
+        <v>-4.85</v>
       </c>
       <c r="E64" t="n">
         <v>-3.37</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2245826534656767</v>
+        <v>3.470576748962793</v>
       </c>
       <c r="G64" t="n">
         <v>25</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.677594279587379</v>
+        <v>-2.541542294605053</v>
       </c>
       <c r="I64" t="n">
-        <v>2.677594279587379</v>
+        <v>2.541542294605053</v>
       </c>
       <c r="J64" t="n">
-        <v>0.2156242867546142</v>
+        <v>0.194294210959272</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BOBAUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DGBUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-5.14</v>
+        <v>-5.58</v>
       </c>
       <c r="E65" t="n">
         <v>-3.37</v>
       </c>
       <c r="F65" t="n">
-        <v>31.09833801910147</v>
+        <v>2.252692696997433</v>
       </c>
       <c r="G65" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H65" t="n">
-        <v>-2.018944114295145</v>
+        <v>2.173211448591987</v>
       </c>
       <c r="I65" t="n">
-        <v>2.018944114295145</v>
+        <v>2.173211448591987</v>
       </c>
       <c r="J65" t="n">
-        <v>0.2143578599835939</v>
+        <v>0.1844473372393177</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>WOOUSDT</t>
+          <t>FLOWUSDT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>10000WENUSDT</t>
+          <t>FORTHUSDT</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>0.01</v>
       </c>
       <c r="D66" t="n">
-        <v>-4.1</v>
+        <v>-4.01</v>
       </c>
       <c r="E66" t="n">
         <v>-3.37</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1631313847239717</v>
+        <v>0.1996265361215969</v>
       </c>
       <c r="G66" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H66" t="n">
-        <v>2.124155391405907</v>
+        <v>2.415701933952203</v>
       </c>
       <c r="I66" t="n">
-        <v>2.124155391405907</v>
+        <v>2.415701933952203</v>
       </c>
       <c r="J66" t="n">
-        <v>0.2131050777670195</v>
+        <v>0.1840778558794006</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>ALICEUSDT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>BANDUSDT</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>0.01</v>
       </c>
       <c r="D67" t="n">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
       <c r="E67" t="n">
         <v>-3.37</v>
       </c>
       <c r="F67" t="n">
-        <v>0.04960211362353498</v>
+        <v>0.8991479170990806</v>
       </c>
       <c r="G67" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H67" t="n">
-        <v>-2.443107326616234</v>
+        <v>-2.356449460612929</v>
       </c>
       <c r="I67" t="n">
-        <v>2.443107326616234</v>
+        <v>2.356449460612929</v>
       </c>
       <c r="J67" t="n">
-        <v>0.2104110350329537</v>
+        <v>0.1802875412301907</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ETHWUSDT</t>
+          <t>ICPUSDT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>JOEUSDT</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-4.52</v>
+        <v>-4.27</v>
       </c>
       <c r="E68" t="n">
         <v>-3.37</v>
       </c>
       <c r="F68" t="n">
-        <v>1.212204352017652</v>
+        <v>25.00995561007262</v>
       </c>
       <c r="G68" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H68" t="n">
-        <v>-2.412423148097021</v>
+        <v>-2.108702411977391</v>
       </c>
       <c r="I68" t="n">
-        <v>2.412423148097021</v>
+        <v>2.108702411977391</v>
       </c>
       <c r="J68" t="n">
-        <v>0.2005688804328982</v>
+        <v>0.1787682594752875</v>
       </c>
     </row>
     <row r="69">
@@ -2912,1717 +2912,1321 @@
         <v>0.01</v>
       </c>
       <c r="D69" t="n">
-        <v>-3.93</v>
+        <v>-3.95</v>
       </c>
       <c r="E69" t="n">
         <v>-3.37</v>
       </c>
       <c r="F69" t="n">
-        <v>2.840582103129242</v>
+        <v>2.840776952723291</v>
       </c>
       <c r="G69" t="n">
         <v>25</v>
       </c>
       <c r="H69" t="n">
-        <v>-2.630013888648745</v>
+        <v>-2.483110351657948</v>
       </c>
       <c r="I69" t="n">
-        <v>2.630013888648745</v>
+        <v>2.483110351657948</v>
       </c>
       <c r="J69" t="n">
-        <v>0.2003625595014016</v>
+        <v>0.1732987253567499</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CHRUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LPTUSDT</t>
+          <t>FLMUSDT</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-3.99</v>
+        <v>-4.21</v>
       </c>
       <c r="E70" t="n">
         <v>-3.37</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01537717076049578</v>
+        <v>64.61561752726678</v>
       </c>
       <c r="G70" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H70" t="n">
-        <v>2.135530217186909</v>
+        <v>2.183795121906465</v>
       </c>
       <c r="I70" t="n">
-        <v>2.135530217186909</v>
+        <v>2.183795121906465</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1992536288864578</v>
+        <v>0.1707502119939202</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ALGOUSDT</t>
+          <t>NKNUSDT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>XCNUSDT</t>
+          <t>ZRXUSDT</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-3.92</v>
+        <v>-4.23</v>
       </c>
       <c r="E71" t="n">
         <v>-3.37</v>
       </c>
       <c r="F71" t="n">
-        <v>92.44057435609852</v>
+        <v>0.2245990333352254</v>
       </c>
       <c r="G71" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H71" t="n">
-        <v>2.353068411714344</v>
+        <v>-2.475211534383836</v>
       </c>
       <c r="I71" t="n">
-        <v>2.353068411714344</v>
+        <v>2.475211534383836</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1990304534677422</v>
+        <v>0.1704605602027058</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ICXUSDT</t>
+          <t>GTCUSDT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NEARUSDT</t>
+          <t>TOKENUSDT</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-4.06</v>
+        <v>-4.88</v>
       </c>
       <c r="E72" t="n">
         <v>-3.37</v>
       </c>
       <c r="F72" t="n">
-        <v>0.02994729986168114</v>
+        <v>11.44622382857633</v>
       </c>
       <c r="G72" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H72" t="n">
-        <v>-2.274926328822505</v>
+        <v>-2.47448045995671</v>
       </c>
       <c r="I72" t="n">
-        <v>2.274926328822505</v>
+        <v>2.47448045995671</v>
       </c>
       <c r="J72" t="n">
-        <v>0.1914658599962156</v>
+        <v>0.170197874044503</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IOSTUSDT</t>
+          <t>AKROUSDT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>LEVERUSDT</t>
+          <t>VETUSDT</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-4.61</v>
+        <v>-4.97</v>
       </c>
       <c r="E73" t="n">
         <v>-3.37</v>
       </c>
       <c r="F73" t="n">
-        <v>2.525900817699737</v>
+        <v>0.1928739903390305</v>
       </c>
       <c r="G73" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H73" t="n">
-        <v>2.486044065315358</v>
+        <v>-2.306711568581624</v>
       </c>
       <c r="I73" t="n">
-        <v>2.486044065315358</v>
+        <v>2.306711568581624</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1891832799061334</v>
+        <v>0.1624159603212968</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>LSKUSDT</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-4.09</v>
+        <v>-4.48</v>
       </c>
       <c r="E74" t="n">
         <v>-3.37</v>
       </c>
       <c r="F74" t="n">
-        <v>1.596838485603404</v>
+        <v>0.1805742746639089</v>
       </c>
       <c r="G74" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H74" t="n">
-        <v>2.429001724717052</v>
+        <v>-2.341525635254785</v>
       </c>
       <c r="I74" t="n">
-        <v>2.429001724717052</v>
+        <v>2.341525635254785</v>
       </c>
       <c r="J74" t="n">
-        <v>0.1883865692881186</v>
+        <v>0.1574251838510238</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AUCTIONUSDT</t>
+          <t>MBOXUSDT</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>KNCUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D75" t="n">
-        <v>-4.34</v>
+        <v>-3.94</v>
       </c>
       <c r="E75" t="n">
         <v>-3.37</v>
       </c>
       <c r="F75" t="n">
-        <v>30.2268248172584</v>
+        <v>0.7171095772374558</v>
       </c>
       <c r="G75" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H75" t="n">
-        <v>-2.31803733418356</v>
+        <v>-2.329995276658899</v>
       </c>
       <c r="I75" t="n">
-        <v>2.31803733418356</v>
+        <v>2.329995276658899</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1877940020617312</v>
+        <v>0.1532821506797499</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GLMRUSDT</t>
+          <t>BOBAUSDT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>CTCUSDT</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-5.77</v>
+        <v>-4.42</v>
       </c>
       <c r="E76" t="n">
         <v>-3.37</v>
       </c>
       <c r="F76" t="n">
-        <v>1.031618065122283</v>
+        <v>0.5063395382169628</v>
       </c>
       <c r="G76" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H76" t="n">
-        <v>-2.480189537822863</v>
+        <v>-2.018881782845943</v>
       </c>
       <c r="I76" t="n">
-        <v>2.480189537822863</v>
+        <v>2.018881782845943</v>
       </c>
       <c r="J76" t="n">
-        <v>0.1873054012249319</v>
+        <v>0.1464943416381567</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BNBUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ORDIUSDT</t>
+          <t>SHIB1000USDT</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>0.01</v>
       </c>
       <c r="D77" t="n">
-        <v>-4.1</v>
+        <v>-3.96</v>
       </c>
       <c r="E77" t="n">
         <v>-3.37</v>
       </c>
       <c r="F77" t="n">
-        <v>15.3970028495757</v>
+        <v>0.1872322714842536</v>
       </c>
       <c r="G77" t="n">
         <v>26</v>
       </c>
       <c r="H77" t="n">
-        <v>-2.534573455260079</v>
+        <v>-2.359720620255608</v>
       </c>
       <c r="I77" t="n">
-        <v>2.534573455260079</v>
+        <v>2.359720620255608</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1872494049103679</v>
+        <v>0.1464629186302472</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>CHRUSDT</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SXPUSDT</t>
+          <t>RONUSDT</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-4.32</v>
+        <v>-4.15</v>
       </c>
       <c r="E78" t="n">
         <v>-3.37</v>
       </c>
       <c r="F78" t="n">
-        <v>0.4359240049899816</v>
+        <v>0.1121398389795143</v>
       </c>
       <c r="G78" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H78" t="n">
-        <v>-2.525435415375286</v>
+        <v>2.007908174119276</v>
       </c>
       <c r="I78" t="n">
-        <v>2.525435415375286</v>
+        <v>2.007908174119276</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1843183177629219</v>
+        <v>0.1425513571606935</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GASUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>OPUSDT</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-4.28</v>
+        <v>-5.59</v>
       </c>
       <c r="E79" t="n">
         <v>-3.37</v>
       </c>
       <c r="F79" t="n">
-        <v>1.716342084352203</v>
+        <v>0.333396514425066</v>
       </c>
       <c r="G79" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79" t="n">
-        <v>-2.228126533784343</v>
+        <v>2.137059378249409</v>
       </c>
       <c r="I79" t="n">
-        <v>2.228126533784343</v>
+        <v>2.137059378249409</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1764545140764257</v>
+        <v>0.1364573486458172</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MBOXUSDT</t>
+          <t>AUCTIONUSDT</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>KNCUSDT</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-3.94</v>
+        <v>-4.33</v>
       </c>
       <c r="E80" t="n">
         <v>-3.37</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7170879448294482</v>
+        <v>30.22902378483882</v>
       </c>
       <c r="G80" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H80" t="n">
-        <v>-2.439253744260218</v>
+        <v>-2.122851356896158</v>
       </c>
       <c r="I80" t="n">
-        <v>2.439253744260218</v>
+        <v>2.122851356896158</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1741749728294891</v>
+        <v>0.1313521905299465</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>FORTHUSDT</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>CTCUSDT</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-4.07</v>
+        <v>-4.12</v>
       </c>
       <c r="E81" t="n">
         <v>-3.37</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0789706615361008</v>
+        <v>6.471923481435571</v>
       </c>
       <c r="G81" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H81" t="n">
-        <v>-2.109893532484772</v>
+        <v>-2.167769726012443</v>
       </c>
       <c r="I81" t="n">
-        <v>2.109893532484772</v>
+        <v>2.167769726012443</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1735304915418058</v>
+        <v>0.129992043571004</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CHRUSDT</t>
+          <t>LITUSDT</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>RONUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-4.14</v>
+        <v>-4.22</v>
       </c>
       <c r="E82" t="n">
         <v>-3.37</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1121452193000779</v>
+        <v>1.799785396651138</v>
       </c>
       <c r="G82" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H82" t="n">
-        <v>2.10947204669221</v>
+        <v>-2.068963767006849</v>
       </c>
       <c r="I82" t="n">
-        <v>2.10947204669221</v>
+        <v>2.068963767006849</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1733952971669744</v>
+        <v>0.1294895600813957</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SANDUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>0.01</v>
       </c>
       <c r="D83" t="n">
-        <v>-3.94</v>
+        <v>-3.96</v>
       </c>
       <c r="E83" t="n">
         <v>-3.37</v>
       </c>
       <c r="F83" t="n">
-        <v>1.577580354588884</v>
+        <v>4.476903005314433</v>
       </c>
       <c r="G83" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H83" t="n">
-        <v>-2.424846239284712</v>
+        <v>2.106821156570377</v>
       </c>
       <c r="I83" t="n">
-        <v>2.424846239284712</v>
+        <v>2.106821156570377</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1695536696624122</v>
+        <v>0.1255922958016445</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ASTRUSDT</t>
+          <t>POLYXUSDT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>VTHOUSDT</t>
+          <t>YGGUSDT</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-4.49</v>
+        <v>-4.66</v>
       </c>
       <c r="E84" t="n">
         <v>-3.37</v>
       </c>
       <c r="F84" t="n">
-        <v>29.82987088402473</v>
+        <v>0.4932284866987542</v>
       </c>
       <c r="G84" t="n">
         <v>25</v>
       </c>
       <c r="H84" t="n">
-        <v>-2.531046023360254</v>
+        <v>2.337640830995049</v>
       </c>
       <c r="I84" t="n">
-        <v>2.531046023360254</v>
+        <v>2.337640830995049</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1686179576377123</v>
+        <v>0.1210293146091309</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>DGBUSDT</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D85" t="n">
-        <v>-5.02</v>
+        <v>-4.01</v>
       </c>
       <c r="E85" t="n">
         <v>-3.37</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4489155921279122</v>
+        <v>0.00185277871037157</v>
       </c>
       <c r="G85" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H85" t="n">
-        <v>-2.399202634237557</v>
+        <v>-2.132958653656508</v>
       </c>
       <c r="I85" t="n">
-        <v>2.399202634237557</v>
+        <v>2.132958653656508</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1613283125710099</v>
+        <v>0.1174838959449871</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GMTUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>LITUSDT</t>
+          <t>UMAUSDT</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>0.01</v>
       </c>
       <c r="D86" t="n">
-        <v>-3.91</v>
+        <v>-4.06</v>
       </c>
       <c r="E86" t="n">
         <v>-3.37</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2034486003943183</v>
+        <v>1.523670914443293</v>
       </c>
       <c r="G86" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H86" t="n">
-        <v>2.233111171685131</v>
+        <v>2.270966452669318</v>
       </c>
       <c r="I86" t="n">
-        <v>2.233111171685131</v>
+        <v>2.270966452669318</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1605533698780933</v>
+        <v>0.1145721966426411</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>BELUSDT</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>SUSHIUSDT</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-5.57</v>
+        <v>-4.13</v>
       </c>
       <c r="E87" t="n">
         <v>-3.37</v>
       </c>
       <c r="F87" t="n">
-        <v>2.252751911600593</v>
+        <v>0.7684684503364809</v>
       </c>
       <c r="G87" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="H87" t="n">
-        <v>2.122054010051426</v>
+        <v>-2.306713509304668</v>
       </c>
       <c r="I87" t="n">
-        <v>2.122054010051426</v>
+        <v>2.306713509304668</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1599310457035075</v>
+        <v>0.1099166576525966</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BOBAUSDT</t>
+          <t>ARBUSDT</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NTRNUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>0.01</v>
       </c>
       <c r="D88" t="n">
-        <v>-3.91</v>
+        <v>-4.07</v>
       </c>
       <c r="E88" t="n">
         <v>-3.37</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5135603085660878</v>
+        <v>0.3948553465058069</v>
       </c>
       <c r="G88" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H88" t="n">
-        <v>-2.056508075594192</v>
+        <v>2.301468131283332</v>
       </c>
       <c r="I88" t="n">
-        <v>2.056508075594192</v>
+        <v>2.301468131283332</v>
       </c>
       <c r="J88" t="n">
-        <v>0.15640675072591</v>
+        <v>0.1080319135696138</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>GMTUSDT</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>VANRYUSDT</t>
+          <t>LITUSDT</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>0.01</v>
       </c>
       <c r="D89" t="n">
-        <v>-3.97</v>
+        <v>-3.91</v>
       </c>
       <c r="E89" t="n">
         <v>-3.37</v>
       </c>
       <c r="F89" t="n">
-        <v>4.500674667395747</v>
+        <v>0.2034364061737755</v>
       </c>
       <c r="G89" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H89" t="n">
-        <v>-2.162406462662701</v>
+        <v>2.019772077642625</v>
       </c>
       <c r="I89" t="n">
-        <v>2.162406462662701</v>
+        <v>2.019772077642625</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1553743636040632</v>
+        <v>0.0943142380962063</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FILUSDT</t>
+          <t>BATUSDT</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DODOUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-3.92</v>
+        <v>-4.54</v>
       </c>
       <c r="E90" t="n">
         <v>-3.37</v>
       </c>
       <c r="F90" t="n">
-        <v>32.1845590817134</v>
+        <v>3.899801895247429</v>
       </c>
       <c r="G90" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H90" t="n">
-        <v>2.101863291721745</v>
+        <v>2.163219831190275</v>
       </c>
       <c r="I90" t="n">
-        <v>2.101863291721745</v>
+        <v>2.163219831190275</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1534547383400085</v>
+        <v>0.09335719717682731</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>ONTUSDT</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ONTUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>0.01</v>
       </c>
       <c r="D91" t="n">
-        <v>-3.93</v>
+        <v>-4.03</v>
       </c>
       <c r="E91" t="n">
         <v>-3.37</v>
       </c>
       <c r="F91" t="n">
-        <v>2.781533161939703</v>
+        <v>1.599547760116622</v>
       </c>
       <c r="G91" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H91" t="n">
-        <v>2.018321734011926</v>
+        <v>2.207606196255573</v>
       </c>
       <c r="I91" t="n">
-        <v>2.018321734011926</v>
+        <v>2.207606196255573</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1441582273630356</v>
+        <v>0.09180589307284349</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>QIUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>REQUSDT</t>
+          <t>SHIB1000USDT</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D92" t="n">
-        <v>-4.21</v>
+        <v>-4.01</v>
       </c>
       <c r="E92" t="n">
         <v>-3.37</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1372454564266312</v>
+        <v>1167.098410216444</v>
       </c>
       <c r="G92" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H92" t="n">
-        <v>2.012795807765315</v>
+        <v>-2.205434297078861</v>
       </c>
       <c r="I92" t="n">
-        <v>2.012795807765315</v>
+        <v>2.205434297078861</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1423857497197579</v>
+        <v>0.09102549667329089</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>1000BTTUSDT</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>POWRUSDT</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-4.71</v>
+        <v>-4.58</v>
       </c>
       <c r="E93" t="n">
         <v>-3.37</v>
       </c>
       <c r="F93" t="n">
-        <v>6.35350481740398</v>
+        <v>0.004088628206294911</v>
       </c>
       <c r="G93" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H93" t="n">
-        <v>-2.442034604414734</v>
+        <v>2.000807564070351</v>
       </c>
       <c r="I93" t="n">
-        <v>2.442034604414734</v>
+        <v>2.000807564070351</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1400669522430734</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ONTUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LTOUSDT</t>
+          <t>NKNUSDT</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-4.02</v>
+        <v>-4.7</v>
       </c>
       <c r="E94" t="n">
         <v>-3.37</v>
       </c>
       <c r="F94" t="n">
-        <v>1.59963549293853</v>
+        <v>5.185634981264943</v>
       </c>
       <c r="G94" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H94" t="n">
-        <v>2.378089656517258</v>
+        <v>2.07986919783723</v>
       </c>
       <c r="I94" t="n">
-        <v>2.378089656517258</v>
+        <v>2.07986919783723</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1370561843662221</v>
+        <v>0.08090804720402729</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>DATAUSDT</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HOTUSDT</t>
+          <t>POLYXUSDT</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-4.08</v>
+        <v>-4.43</v>
       </c>
       <c r="E95" t="n">
         <v>-3.37</v>
       </c>
       <c r="F95" t="n">
-        <v>26296.95149233988</v>
+        <v>0.1449928821180678</v>
       </c>
       <c r="G95" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H95" t="n">
-        <v>-2.352555106573398</v>
+        <v>-2.116853852424175</v>
       </c>
       <c r="I95" t="n">
-        <v>2.352555106573398</v>
+        <v>2.116853852424175</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1288658074254495</v>
+        <v>0.07669719597659815</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LTOUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SUSHIUSDT</t>
+          <t>SLPUSDT</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D96" t="n">
-        <v>-4.32</v>
+        <v>-4.05</v>
       </c>
       <c r="E96" t="n">
         <v>-3.37</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1708748019400592</v>
+        <v>589.7554763347996</v>
       </c>
       <c r="G96" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H96" t="n">
-        <v>-2.260502682865682</v>
+        <v>2.067852120965164</v>
       </c>
       <c r="I96" t="n">
-        <v>2.260502682865682</v>
+        <v>2.067852120965164</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1168393795018909</v>
+        <v>0.07659012875520442</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FXSUSDT</t>
+          <t>BEAMUSDT</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>VANRYUSDT</t>
+          <t>SXPUSDT</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>-4.25</v>
+        <v>-4.22</v>
       </c>
       <c r="E97" t="n">
         <v>-3.37</v>
       </c>
       <c r="F97" t="n">
-        <v>22.50205075118175</v>
+        <v>0.07053204545025914</v>
       </c>
       <c r="G97" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H97" t="n">
-        <v>-2.254191153975082</v>
+        <v>-2.205533971466005</v>
       </c>
       <c r="I97" t="n">
-        <v>2.254191153975082</v>
+        <v>2.205533971466005</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1148149145788655</v>
+        <v>0.0735613111962157</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IOTXUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>GRTUSDT</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>-3.98</v>
+        <v>-4.73</v>
       </c>
       <c r="E98" t="n">
         <v>-3.37</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0008790394540680536</v>
+        <v>6.354393511219429</v>
       </c>
       <c r="G98" t="n">
         <v>25</v>
       </c>
       <c r="H98" t="n">
-        <v>-2.35095073146752</v>
+        <v>-2.20533192542313</v>
       </c>
       <c r="I98" t="n">
-        <v>2.35095073146752</v>
+        <v>2.20533192542313</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1108511934259696</v>
+        <v>0.07348871298074876</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>STEEMUSDT</t>
+          <t>1000BTTUSDT</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MBLUSDT</t>
+          <t>1000LUNCUSDT</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>-4.2</v>
+        <v>-4.24</v>
       </c>
       <c r="E99" t="n">
         <v>-3.37</v>
       </c>
       <c r="F99" t="n">
-        <v>66.07137173176565</v>
+        <v>0.01049045348477766</v>
       </c>
       <c r="G99" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H99" t="n">
-        <v>2.120180018767091</v>
+        <v>2.03754422722941</v>
       </c>
       <c r="I99" t="n">
-        <v>2.120180018767091</v>
+        <v>2.03754422722941</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1068299505192896</v>
+        <v>0.06570004168163543</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SCAUSDT</t>
+          <t>STORJUSDT</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TRBUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>-4.91</v>
+        <v>-4.31</v>
       </c>
       <c r="E100" t="n">
         <v>-3.37</v>
       </c>
       <c r="F100" t="n">
-        <v>0.005109243969359506</v>
+        <v>0.1871633485774444</v>
       </c>
       <c r="G100" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H100" t="n">
-        <v>2.277611536084843</v>
+        <v>-2.171451797519006</v>
       </c>
       <c r="I100" t="n">
-        <v>2.277611536084843</v>
+        <v>2.171451797519006</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1048271581076373</v>
+        <v>0.06131506785197796</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1000BTTUSDT</t>
+          <t>IOTXUSDT</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>BCHUSDT</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>-4.4</v>
+        <v>-4.32</v>
       </c>
       <c r="E101" t="n">
         <v>-3.37</v>
       </c>
       <c r="F101" t="n">
-        <v>0.004088884300645773</v>
+        <v>0.0001121904755217509</v>
       </c>
       <c r="G101" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H101" t="n">
-        <v>2.010147819924462</v>
+        <v>-2.151262179812067</v>
       </c>
       <c r="I101" t="n">
-        <v>2.010147819924462</v>
+        <v>2.151262179812067</v>
       </c>
       <c r="J101" t="n">
-        <v>0.08903638998563869</v>
+        <v>0.05406063121155709</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IOTXUSDT</t>
+          <t>GLMRUSDT</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BCHUSDT</t>
+          <t>GRTUSDT</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>-4.26</v>
+        <v>-5.81</v>
       </c>
       <c r="E102" t="n">
         <v>-3.37</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0001121739979560852</v>
+        <v>1.031759401588809</v>
       </c>
       <c r="G102" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H102" t="n">
-        <v>-2.274841011555133</v>
+        <v>-2.05115214076156</v>
       </c>
       <c r="I102" t="n">
-        <v>2.274841011555133</v>
+        <v>2.05115214076156</v>
       </c>
       <c r="J102" t="n">
-        <v>0.08643849391453938</v>
+        <v>0.05308957193229381</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>UMAUSDT</t>
+          <t>LSKUSDT</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>-4.04</v>
+        <v>-4.28</v>
       </c>
       <c r="E103" t="n">
         <v>-3.37</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1404769831430557</v>
+        <v>1.157576925214247</v>
       </c>
       <c r="G103" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H103" t="n">
-        <v>2.100461181475668</v>
+        <v>-2.115385587420575</v>
       </c>
       <c r="I103" t="n">
-        <v>2.100461181475668</v>
+        <v>2.115385587420575</v>
       </c>
       <c r="J103" t="n">
-        <v>0.08300500214128417</v>
+        <v>0.04116962603473127</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BELUSDT</t>
+          <t>ZBCNUSDT</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SUSHIUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D104" t="n">
-        <v>-4.13</v>
+        <v>-3.96</v>
       </c>
       <c r="E104" t="n">
         <v>-3.37</v>
       </c>
       <c r="F104" t="n">
-        <v>0.768439957231368</v>
+        <v>0.006287330527691548</v>
       </c>
       <c r="G104" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H104" t="n">
-        <v>-2.261881966271739</v>
+        <v>-2.009407528470983</v>
       </c>
       <c r="I104" t="n">
-        <v>2.261881966271739</v>
+        <v>2.009407528470983</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0822817938396645</v>
+        <v>0.03809009797807217</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MANTAUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>LOOKSUSDT</t>
+          <t>NTRNUSDT</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>-3.95</v>
+        <v>-4.88</v>
       </c>
       <c r="E105" t="n">
         <v>-3.37</v>
       </c>
       <c r="F105" t="n">
-        <v>18.66548852421094</v>
+        <v>1.165045838376354</v>
       </c>
       <c r="G105" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H105" t="n">
-        <v>2.029255541660921</v>
+        <v>-2.008163738442247</v>
       </c>
       <c r="I105" t="n">
-        <v>2.029255541660921</v>
+        <v>2.008163738442247</v>
       </c>
       <c r="J105" t="n">
-        <v>0.07766531897969067</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>DGBUSDT</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>FILUSDT</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D106" t="n">
-        <v>-3.97</v>
-      </c>
-      <c r="E106" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.001852707071785219</v>
-      </c>
-      <c r="G106" t="n">
-        <v>29</v>
-      </c>
-      <c r="H106" t="n">
-        <v>-2.015778231873793</v>
-      </c>
-      <c r="I106" t="n">
-        <v>2.015778231873793</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.07334238211388219</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>ARBUSDT</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>SNXUSDT</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D107" t="n">
-        <v>-4.07</v>
-      </c>
-      <c r="E107" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0.3948529705329849</v>
-      </c>
-      <c r="G107" t="n">
-        <v>25</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2.229253173268478</v>
-      </c>
-      <c r="I107" t="n">
-        <v>2.229253173268478</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.07181589119377101</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>TIAUSDT</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>ZILUSDT</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D108" t="n">
-        <v>-3.92</v>
-      </c>
-      <c r="E108" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F108" t="n">
-        <v>387.2424221990726</v>
-      </c>
-      <c r="G108" t="n">
-        <v>25</v>
-      </c>
-      <c r="H108" t="n">
-        <v>-2.228183589119352</v>
-      </c>
-      <c r="I108" t="n">
-        <v>2.228183589119352</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.07147281495508738</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>LTOUSDT</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>PERPUSDT</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D109" t="n">
-        <v>-4.1</v>
-      </c>
-      <c r="E109" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0.1829086110309466</v>
-      </c>
-      <c r="G109" t="n">
-        <v>28</v>
-      </c>
-      <c r="H109" t="n">
-        <v>-2.038905535914123</v>
-      </c>
-      <c r="I109" t="n">
-        <v>2.038905535914123</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.06326061890014281</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>DODOUSDT</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>LTOUSDT</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D110" t="n">
-        <v>-4.09</v>
-      </c>
-      <c r="E110" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0.9867137184402952</v>
-      </c>
-      <c r="G110" t="n">
-        <v>27</v>
-      </c>
-      <c r="H110" t="n">
-        <v>2.080542830251189</v>
-      </c>
-      <c r="I110" t="n">
-        <v>2.080542830251189</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.05911605834059643</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>ACHUSDT</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>VETUSDT</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>-4.58</v>
-      </c>
-      <c r="E111" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.8438191235095192</v>
-      </c>
-      <c r="G111" t="n">
-        <v>27</v>
-      </c>
-      <c r="H111" t="n">
-        <v>-2.075200309255836</v>
-      </c>
-      <c r="I111" t="n">
-        <v>2.075200309255836</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.0574024091530394</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>MBLUSDT</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>QTUMUSDT</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>-4.17</v>
-      </c>
-      <c r="E112" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0.0011309854722365</v>
-      </c>
-      <c r="G112" t="n">
-        <v>25</v>
-      </c>
-      <c r="H112" t="n">
-        <v>-2.174138762545553</v>
-      </c>
-      <c r="I112" t="n">
-        <v>2.174138762545553</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.0541375769222539</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>BATUSDT</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>MDTUSDT</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>-4.57</v>
-      </c>
-      <c r="E113" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F113" t="n">
-        <v>3.89976374517615</v>
-      </c>
-      <c r="G113" t="n">
-        <v>27</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2.006452001338699</v>
-      </c>
-      <c r="I113" t="n">
-        <v>2.006452001338699</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.03535093156210415</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>GASUSDT</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>UMAUSDT</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D114" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="E114" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F114" t="n">
-        <v>1.523670147283381</v>
-      </c>
-      <c r="G114" t="n">
-        <v>26</v>
-      </c>
-      <c r="H114" t="n">
-        <v>2.049930500750561</v>
-      </c>
-      <c r="I114" t="n">
-        <v>2.049930500750561</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.03179694979172761</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>MERLUSDT</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>DATAUSDT</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>-4.37</v>
-      </c>
-      <c r="E115" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F115" t="n">
-        <v>7.694444601372312</v>
-      </c>
-      <c r="G115" t="n">
-        <v>26</v>
-      </c>
-      <c r="H115" t="n">
-        <v>2.005357927211925</v>
-      </c>
-      <c r="I115" t="n">
-        <v>2.005357927211925</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.01750000000000002</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>MTLUSDT</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>TIAUSDT</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>-4.52</v>
-      </c>
-      <c r="E116" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0.1772990831984001</v>
-      </c>
-      <c r="G116" t="n">
-        <v>25</v>
-      </c>
-      <c r="H116" t="n">
-        <v>2.011102442925343</v>
-      </c>
-      <c r="I116" t="n">
-        <v>2.011102442925343</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.001842591670443555</v>
+        <v>0.002643185307984697</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,43 +488,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ALICEUSDT</t>
+          <t>ACEUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1000BONKUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.13</v>
+        <v>-6.5</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>48.15642983281758</v>
+        <v>10.72165958316446</v>
       </c>
       <c r="G2" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.809804204331718</v>
+        <v>-3.051524820070185</v>
       </c>
       <c r="I2" t="n">
-        <v>3.809804204331718</v>
+        <v>3.051524820070185</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ACEUSDT</t>
+          <t>MANTAUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -536,97 +536,97 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.58</v>
+        <v>-4.65</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>10.74436837261801</v>
+        <v>3.407425172599767</v>
       </c>
       <c r="G3" t="n">
         <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.084324681633843</v>
+        <v>-2.829965820371802</v>
       </c>
       <c r="I3" t="n">
-        <v>3.084324681633843</v>
+        <v>2.829965820371802</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6343241760330265</v>
+        <v>0.7580176266800751</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IOTXUSDT</t>
+          <t>LQTYUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MANAUSDT</t>
+          <t>1000LUNCUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0.01</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.01</v>
+        <v>-4.05</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1268159839636433</v>
+        <v>9.856039467563075</v>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.501014912357446</v>
+        <v>2.763883988184</v>
       </c>
       <c r="I4" t="n">
-        <v>3.501014912357446</v>
+        <v>2.763883988184</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6090473120202826</v>
+        <v>0.6646614835365464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>10000000AIDOGEUSDT</t>
+          <t>CHRUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>RENUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.47</v>
+        <v>-4.1</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001502800723893578</v>
+        <v>4.922696216735948</v>
       </c>
       <c r="G5" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.684055933227038</v>
+        <v>2.590507046694927</v>
       </c>
       <c r="I5" t="n">
-        <v>2.684055933227038</v>
+        <v>2.590507046694927</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5955015283431818</v>
+        <v>0.662468433574892</v>
       </c>
     </row>
     <row r="6">
@@ -644,1609 +644,1609 @@
         <v>0.01</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.11</v>
+        <v>-3.94</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2808634432323521</v>
+        <v>0.2801205294874974</v>
       </c>
       <c r="G6" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.359570619199592</v>
+        <v>-2.84258585526843</v>
       </c>
       <c r="I6" t="n">
-        <v>3.359570619199592</v>
+        <v>2.84258585526843</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5932242267218369</v>
+        <v>0.6608201638547044</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PYTHUSDT</t>
+          <t>GLMUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SXPUSDT</t>
+          <t>OPUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.56</v>
+        <v>-5.46</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>1.350175053714016</v>
+        <v>0.2000392388233442</v>
       </c>
       <c r="G7" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.054397680910067</v>
+        <v>2.523889656587079</v>
       </c>
       <c r="I7" t="n">
-        <v>3.054397680910067</v>
+        <v>2.523889656587079</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5885709496104258</v>
+        <v>0.6562811732344183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BATUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.07</v>
+        <v>-4.25</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2001359467355536</v>
+        <v>0.001498663482193511</v>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.05892767372031</v>
+        <v>-2.470601733128344</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05892767372031</v>
+        <v>2.470601733128344</v>
       </c>
       <c r="J8" t="n">
-        <v>0.5726986449090928</v>
+        <v>0.6408350675262089</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>ZBCNUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>DGBUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.61</v>
+        <v>-3.92</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1079145489173733</v>
+        <v>0.165532745026077</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
-        <v>3.195981060651731</v>
+        <v>-2.806435971795952</v>
       </c>
       <c r="I9" t="n">
-        <v>3.195981060651731</v>
+        <v>2.806435971795952</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5694440108333505</v>
+        <v>0.603469923783031</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>MINAUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>PHBUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.21</v>
+        <v>-4.04</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>1.278690007540407</v>
+        <v>0.3204424181832763</v>
       </c>
       <c r="G10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.188746737198672</v>
+        <v>2.880905344361812</v>
       </c>
       <c r="I10" t="n">
-        <v>3.188746737198672</v>
+        <v>2.880905344361812</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5668446084133387</v>
+        <v>0.5970117970881288</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1000PEPEUSDT</t>
+          <t>AVAXUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.24</v>
+        <v>-4.56</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>2130.67740083961</v>
+        <v>0.004076278030137838</v>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.550812974172639</v>
+        <v>-2.7803862802387</v>
       </c>
       <c r="I11" t="n">
-        <v>3.550812974172639</v>
+        <v>2.7803862802387</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5569405128474541</v>
+        <v>0.5348642879089651</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IOSTUSDT</t>
+          <t>DODOUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LEVERUSDT</t>
+          <t>GLMUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.6</v>
+        <v>-4.1</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>2.526176436825002</v>
+        <v>0.3656293914921585</v>
       </c>
       <c r="G12" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H12" t="n">
-        <v>3.427728080130531</v>
+        <v>-2.540151030442758</v>
       </c>
       <c r="I12" t="n">
-        <v>3.427728080130531</v>
+        <v>2.540151030442758</v>
       </c>
       <c r="J12" t="n">
-        <v>0.547714238819764</v>
+        <v>0.4913350261008145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FILUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LITUSDT</t>
+          <t>OPUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.66</v>
+        <v>-5.23</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>5.587561667001621</v>
+        <v>0.3334452438881956</v>
       </c>
       <c r="G13" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>3.103824844688748</v>
+        <v>2.652882007795025</v>
       </c>
       <c r="I13" t="n">
-        <v>3.103824844688748</v>
+        <v>2.652882007795025</v>
       </c>
       <c r="J13" t="n">
-        <v>0.5363308811332953</v>
+        <v>0.4910327447464585</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>ACEUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AVAXUSDT</t>
+          <t>AIUSDT</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.6</v>
+        <v>-4.83</v>
       </c>
       <c r="E14" t="n">
         <v>-3.37</v>
       </c>
       <c r="F14" t="n">
-        <v>0.004080578859820439</v>
+        <v>5.024456537728534</v>
       </c>
       <c r="G14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.426115103464021</v>
+        <v>-2.751874484207044</v>
       </c>
       <c r="I14" t="n">
-        <v>3.426115103464021</v>
+        <v>2.751874484207044</v>
       </c>
       <c r="J14" t="n">
-        <v>0.5296346717769638</v>
+        <v>0.4647364168076029</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GASUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>STORJUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.37</v>
+        <v>-4.98</v>
       </c>
       <c r="E15" t="n">
         <v>-3.37</v>
       </c>
       <c r="F15" t="n">
-        <v>9.127233017528082</v>
+        <v>0.4486444336571229</v>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" t="n">
-        <v>3.218065042611543</v>
+        <v>-2.661637849488891</v>
       </c>
       <c r="I15" t="n">
-        <v>3.218065042611543</v>
+        <v>2.661637849488891</v>
       </c>
       <c r="J15" t="n">
-        <v>0.5248791213550613</v>
+        <v>0.4264461830508021</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ACEUSDT</t>
+          <t>IOTXUSDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AIUSDT</t>
+          <t>BADGERUSDT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.83</v>
+        <v>-3.95</v>
       </c>
       <c r="E16" t="n">
         <v>-3.37</v>
       </c>
       <c r="F16" t="n">
-        <v>5.031287424826314</v>
+        <v>0.01292357482317803</v>
       </c>
       <c r="G16" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H16" t="n">
-        <v>-3.255114731189012</v>
+        <v>-2.461616457302021</v>
       </c>
       <c r="I16" t="n">
-        <v>3.255114731189012</v>
+        <v>2.461616457302021</v>
       </c>
       <c r="J16" t="n">
-        <v>0.5206916378293183</v>
+        <v>0.4252797779225391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GODSUSDT</t>
+          <t>LQTYUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>STMXUSDT</t>
+          <t>RSRUSDT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.63</v>
+        <v>-4.03</v>
       </c>
       <c r="E17" t="n">
         <v>-3.37</v>
       </c>
       <c r="F17" t="n">
-        <v>32.31980474696913</v>
+        <v>143.9285048667924</v>
       </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.301150506860146</v>
+        <v>2.487690721214389</v>
       </c>
       <c r="I17" t="n">
-        <v>3.301150506860146</v>
+        <v>2.487690721214389</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5197329920365401</v>
+        <v>0.4239006060457412</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KEYUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.29</v>
+        <v>-4.73</v>
       </c>
       <c r="E18" t="n">
         <v>-3.37</v>
       </c>
       <c r="F18" t="n">
-        <v>26.47442601976854</v>
+        <v>0.2384527875550544</v>
       </c>
       <c r="G18" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H18" t="n">
-        <v>2.428594976781421</v>
+        <v>2.450946331820127</v>
       </c>
       <c r="I18" t="n">
-        <v>2.428594976781421</v>
+        <v>2.450946331820127</v>
       </c>
       <c r="J18" t="n">
-        <v>0.503710522216349</v>
+        <v>0.4186828032380491</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>NEARUSDT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.96</v>
+        <v>-4</v>
       </c>
       <c r="E19" t="n">
         <v>-3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4488629635777515</v>
+        <v>0.009034450572942991</v>
       </c>
       <c r="G19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.289562081350947</v>
+        <v>-2.671784379196338</v>
       </c>
       <c r="I19" t="n">
-        <v>3.289562081350947</v>
+        <v>2.671784379196338</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4980690945403616</v>
+        <v>0.4152194363250061</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ZBCNUSDT</t>
+          <t>OPUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WAXPUSDT</t>
+          <t>POWRUSDT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.01</v>
+        <v>-4.16</v>
       </c>
       <c r="E20" t="n">
         <v>-3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.03176293691165055</v>
+        <v>8.013779256379275</v>
       </c>
       <c r="G20" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.703645540719478</v>
+        <v>-2.594434307266812</v>
       </c>
       <c r="I20" t="n">
-        <v>2.703645540719478</v>
+        <v>2.594434307266812</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4975403721899267</v>
+        <v>0.4023965248486159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>COTIUSDT</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.73</v>
+        <v>-4.36</v>
       </c>
       <c r="E21" t="n">
         <v>-3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2383798223608722</v>
+        <v>1.118969891772783</v>
       </c>
       <c r="G21" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H21" t="n">
-        <v>3.083380454619319</v>
+        <v>-2.30929523090409</v>
       </c>
       <c r="I21" t="n">
-        <v>3.083380454619319</v>
+        <v>2.30929523090409</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4939849009090262</v>
+        <v>0.4011047585038068</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KSMUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LPTUSDT</t>
+          <t>TLMUSDT</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.97</v>
+        <v>-4.28</v>
       </c>
       <c r="E22" t="n">
         <v>-3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>1.486736096208409</v>
+        <v>34.25149389055601</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H22" t="n">
-        <v>3.11389975624413</v>
+        <v>-2.326239747373017</v>
       </c>
       <c r="I22" t="n">
-        <v>3.11389975624413</v>
+        <v>2.326239747373017</v>
       </c>
       <c r="J22" t="n">
-        <v>0.4874509500517493</v>
+        <v>0.3415809751496301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DENTUSDT</t>
+          <t>INJUSDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MANAUSDT</t>
+          <t>1000PEPEUSDT</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0.01</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.99</v>
+        <v>-4.03</v>
       </c>
       <c r="E23" t="n">
         <v>-3.37</v>
       </c>
       <c r="F23" t="n">
-        <v>0.002918486450242369</v>
+        <v>2122.265860399246</v>
       </c>
       <c r="G23" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.430741514979426</v>
+        <v>-2.494180173227054</v>
       </c>
       <c r="I23" t="n">
-        <v>2.430741514979426</v>
+        <v>2.494180173227054</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4869818060306195</v>
+        <v>0.3404128129046404</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BADGERUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MANAUSDT</t>
+          <t>AERGOUSDT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.92</v>
+        <v>-4.43</v>
       </c>
       <c r="E24" t="n">
         <v>-3.37</v>
       </c>
       <c r="F24" t="n">
-        <v>9.786166940122254</v>
+        <v>1.135906678493401</v>
       </c>
       <c r="G24" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H24" t="n">
-        <v>-3.285704483339328</v>
+        <v>-2.330928368042741</v>
       </c>
       <c r="I24" t="n">
-        <v>3.285704483339328</v>
+        <v>2.330928368042741</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4791830009171087</v>
+        <v>0.326979789405923</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CELRUSDT</t>
+          <t>NKNUSDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GALAUSDT</t>
+          <t>TLMUSDT</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0.01</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.05</v>
+        <v>-3.99</v>
       </c>
       <c r="E25" t="n">
         <v>-3.37</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5876036001074225</v>
+        <v>6.600127187925215</v>
       </c>
       <c r="G25" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.874932616155624</v>
+        <v>-2.378993846751103</v>
       </c>
       <c r="I25" t="n">
-        <v>2.874932616155624</v>
+        <v>2.378993846751103</v>
       </c>
       <c r="J25" t="n">
-        <v>0.471586422942906</v>
+        <v>0.3216970356346608</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BOBAUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IOSTUSDT</t>
+          <t>STORJUSDT</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.45</v>
+        <v>-4.52</v>
       </c>
       <c r="E26" t="n">
         <v>-3.37</v>
       </c>
       <c r="F26" t="n">
-        <v>40.06776637490797</v>
+        <v>9.120786525258026</v>
       </c>
       <c r="G26" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.605854113224119</v>
+        <v>2.362894994056557</v>
       </c>
       <c r="I26" t="n">
-        <v>2.605854113224119</v>
+        <v>2.362894994056557</v>
       </c>
       <c r="J26" t="n">
-        <v>0.4624024252986604</v>
+        <v>0.3117436640594647</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ATAUSDT</t>
+          <t>1CATUSDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GALAUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-5.98</v>
+        <v>-4.81</v>
       </c>
       <c r="E27" t="n">
         <v>-3.37</v>
       </c>
       <c r="F27" t="n">
-        <v>4.071436290855416</v>
+        <v>0.009141840425967478</v>
       </c>
       <c r="G27" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H27" t="n">
-        <v>-3.110860694592643</v>
+        <v>-2.372499808091561</v>
       </c>
       <c r="I27" t="n">
-        <v>3.110860694592643</v>
+        <v>2.372499808091561</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4338589689891528</v>
+        <v>0.3001819930084242</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DGBUSDT</t>
+          <t>GODSUSDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>EOSUSDT</t>
+          <t>DASHUSDT</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-5.64</v>
+        <v>-4.15</v>
       </c>
       <c r="E28" t="n">
         <v>-3.37</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01392231248763023</v>
+        <v>0.007972613587465502</v>
       </c>
       <c r="G28" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.266479427984488</v>
+        <v>-2.342887136942732</v>
       </c>
       <c r="I28" t="n">
-        <v>2.266479427984488</v>
+        <v>2.342887136942732</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4104599404447977</v>
+        <v>0.2993734883670814</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DYMUSDT</t>
+          <t>IDUSDT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MTLUSDT</t>
+          <t>WAXPUSDT</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-3.99</v>
+        <v>-4.7</v>
       </c>
       <c r="E29" t="n">
         <v>-3.37</v>
       </c>
       <c r="F29" t="n">
-        <v>1.60895520444324</v>
+        <v>11.39350149839245</v>
       </c>
       <c r="G29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.835810407582457</v>
+        <v>-2.332733005732616</v>
       </c>
       <c r="I29" t="n">
-        <v>2.835810407582457</v>
+        <v>2.332733005732616</v>
       </c>
       <c r="J29" t="n">
-        <v>0.4050292185199699</v>
+        <v>0.293095535343024</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FLMUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LITUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.08</v>
+        <v>-4.28</v>
       </c>
       <c r="E30" t="n">
         <v>-3.37</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08635926259180014</v>
+        <v>1.277286502196212</v>
       </c>
       <c r="G30" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H30" t="n">
-        <v>2.446253003405696</v>
+        <v>-2.299971312686971</v>
       </c>
       <c r="I30" t="n">
-        <v>2.446253003405696</v>
+        <v>2.299971312686971</v>
       </c>
       <c r="J30" t="n">
-        <v>0.387555319686023</v>
+        <v>0.2903400978591906</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LQTYUSDT</t>
+          <t>ONGUSDT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1000LUNCUSDT</t>
+          <t>QNTUSDT</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.25</v>
+        <v>-3.91</v>
       </c>
       <c r="E31" t="n">
         <v>-3.37</v>
       </c>
       <c r="F31" t="n">
-        <v>9.848982300011553</v>
+        <v>0.00470880715920403</v>
       </c>
       <c r="G31" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H31" t="n">
-        <v>2.483194024962132</v>
+        <v>2.263464377170324</v>
       </c>
       <c r="I31" t="n">
-        <v>2.483194024962132</v>
+        <v>2.263464377170324</v>
       </c>
       <c r="J31" t="n">
-        <v>0.3658287904472588</v>
+        <v>0.2852691046857441</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DGBUSDT</t>
+          <t>STORJUSDT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>IOSTUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.93</v>
+        <v>-4.22</v>
       </c>
       <c r="E32" t="n">
         <v>-3.37</v>
       </c>
       <c r="F32" t="n">
-        <v>1.286081661791931</v>
+        <v>0.1865986217917893</v>
       </c>
       <c r="G32" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.832660245538297</v>
+        <v>-2.447001048274621</v>
       </c>
       <c r="I32" t="n">
-        <v>2.832660245538297</v>
+        <v>2.447001048274621</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3513973173969208</v>
+        <v>0.2762435689744027</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BATUSDT</t>
+          <t>ARPAUSDT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>MINAUSDT</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D33" t="n">
-        <v>-4.34</v>
+        <v>-4.09</v>
       </c>
       <c r="E33" t="n">
         <v>-3.37</v>
       </c>
       <c r="F33" t="n">
-        <v>0.05879739355952294</v>
+        <v>0.08483014120007482</v>
       </c>
       <c r="G33" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H33" t="n">
-        <v>2.436329398334658</v>
+        <v>-2.170385106380858</v>
       </c>
       <c r="I33" t="n">
-        <v>2.436329398334658</v>
+        <v>2.170385106380858</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3489896174881222</v>
+        <v>0.2627213659931775</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HFTUSDT</t>
+          <t>10000WENUSDT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.44</v>
+        <v>-4.25</v>
       </c>
       <c r="E34" t="n">
         <v>-3.37</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3501713068416157</v>
+        <v>6.049605560158485</v>
       </c>
       <c r="G34" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H34" t="n">
-        <v>2.182031123642682</v>
+        <v>-2.117121030331596</v>
       </c>
       <c r="I34" t="n">
-        <v>2.182031123642682</v>
+        <v>2.117121030331596</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3451163805948231</v>
+        <v>0.2472900043249379</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NTRNUSDT</t>
+          <t>MBOXUSDT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WAXPUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-5.09</v>
+        <v>-4.25</v>
       </c>
       <c r="E35" t="n">
         <v>-3.37</v>
       </c>
       <c r="F35" t="n">
-        <v>11.48576420843481</v>
+        <v>0.7158522626910775</v>
       </c>
       <c r="G35" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H35" t="n">
-        <v>-2.308976285382422</v>
+        <v>-2.333771346855443</v>
       </c>
       <c r="I35" t="n">
-        <v>2.308976285382422</v>
+        <v>2.333771346855443</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3382297075045452</v>
+        <v>0.2412375062470007</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>QTUMUSDT</t>
+          <t>BATUSDT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.01</v>
+        <v>-4.22</v>
       </c>
       <c r="E36" t="n">
         <v>-3.37</v>
       </c>
       <c r="F36" t="n">
-        <v>2.827152375376286</v>
+        <v>3.908684546766704</v>
       </c>
       <c r="G36" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H36" t="n">
-        <v>2.500792340338649</v>
+        <v>2.388768768758288</v>
       </c>
       <c r="I36" t="n">
-        <v>2.500792340338649</v>
+        <v>2.388768768758288</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3371521327576588</v>
+        <v>0.2402405365413458</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>GODSUSDT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>COTIUSDT</t>
+          <t>STMXUSDT</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.39</v>
+        <v>-4.64</v>
       </c>
       <c r="E37" t="n">
         <v>-3.37</v>
       </c>
       <c r="F37" t="n">
-        <v>1.119631195365903</v>
+        <v>32.33442559458765</v>
       </c>
       <c r="G37" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.33766552518237</v>
+        <v>-2.301042756854161</v>
       </c>
       <c r="I37" t="n">
-        <v>2.33766552518237</v>
+        <v>2.301042756854161</v>
       </c>
       <c r="J37" t="n">
-        <v>0.331038187606129</v>
+        <v>0.2385025352465288</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ACEUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>TOKENUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-3.91</v>
+        <v>-4.42</v>
       </c>
       <c r="E38" t="n">
         <v>-3.37</v>
       </c>
       <c r="F38" t="n">
-        <v>42.89258888192229</v>
+        <v>1.711091625823256</v>
       </c>
       <c r="G38" t="n">
         <v>29</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.717120082859167</v>
+        <v>-2.269452560197488</v>
       </c>
       <c r="I38" t="n">
-        <v>2.717120082859167</v>
+        <v>2.269452560197488</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3273819800712618</v>
+        <v>0.2364713940265147</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHRUSDT</t>
+          <t>BATUSDT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LPTUSDT</t>
+          <t>NEARUSDT</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>0.01</v>
       </c>
       <c r="D39" t="n">
-        <v>-3.99</v>
+        <v>-4.09</v>
       </c>
       <c r="E39" t="n">
         <v>-3.37</v>
       </c>
       <c r="F39" t="n">
-        <v>0.01537743529376771</v>
+        <v>0.03547512394428236</v>
       </c>
       <c r="G39" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H39" t="n">
-        <v>2.467889524837381</v>
+        <v>-2.377392875789699</v>
       </c>
       <c r="I39" t="n">
-        <v>2.467889524837381</v>
+        <v>2.377392875789699</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3253296508360041</v>
+        <v>0.2332072098897895</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BOBAUSDT</t>
+          <t>HIFIUSDT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KSMUSDT</t>
+          <t>UMAUSDT</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D40" t="n">
-        <v>-4.25</v>
+        <v>-3.95</v>
       </c>
       <c r="E40" t="n">
         <v>-3.37</v>
       </c>
       <c r="F40" t="n">
-        <v>0.01127773376715869</v>
+        <v>0.2124707778012213</v>
       </c>
       <c r="G40" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.321715397741604</v>
+        <v>2.235013995598116</v>
       </c>
       <c r="I40" t="n">
-        <v>2.321715397741604</v>
+        <v>2.235013995598116</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3253070642829811</v>
+        <v>0.2326792040501396</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHRUSDT</t>
+          <t>DYMUSDT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>IOTAUSDT</t>
+          <t>WAXPUSDT</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D41" t="n">
-        <v>-4.64</v>
+        <v>-3.98</v>
       </c>
       <c r="E41" t="n">
         <v>-3.37</v>
       </c>
       <c r="F41" t="n">
-        <v>1.438064954684124</v>
+        <v>45.13339472483445</v>
       </c>
       <c r="G41" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.599019178480826</v>
+        <v>-2.297136518778384</v>
       </c>
       <c r="I41" t="n">
-        <v>2.599019178480826</v>
+        <v>2.297136518778384</v>
       </c>
       <c r="J41" t="n">
-        <v>0.302446529315073</v>
+        <v>0.2185874414651835</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ATAUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>LSKUSDT</t>
+          <t>STEEMUSDT</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.18</v>
+        <v>-4.69</v>
       </c>
       <c r="E42" t="n">
         <v>-3.37</v>
       </c>
       <c r="F42" t="n">
-        <v>0.10198805699169</v>
+        <v>0.240062564022435</v>
       </c>
       <c r="G42" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.809228258588806</v>
+        <v>-2.293059345596011</v>
       </c>
       <c r="I42" t="n">
-        <v>2.809228258588806</v>
+        <v>2.293059345596011</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2904778481849887</v>
+        <v>0.2160666643371133</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MTLUSDT</t>
+          <t>DYMUSDT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NTRNUSDT</t>
+          <t>TLMUSDT</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.88</v>
+        <v>-4.21</v>
       </c>
       <c r="E43" t="n">
         <v>-3.37</v>
       </c>
       <c r="F43" t="n">
-        <v>2.419754838051026</v>
+        <v>151.4068545971433</v>
       </c>
       <c r="G43" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H43" t="n">
-        <v>2.611152678293523</v>
+        <v>-2.344822129617198</v>
       </c>
       <c r="I43" t="n">
-        <v>2.611152678293523</v>
+        <v>2.344822129617198</v>
       </c>
       <c r="J43" t="n">
-        <v>0.289306280296763</v>
+        <v>0.2130698283454434</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AUCTIONUSDT</t>
+          <t>BOBAUSDT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>DGBUSDT</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-4.04</v>
+        <v>-5.21</v>
       </c>
       <c r="E44" t="n">
         <v>-3.37</v>
       </c>
       <c r="F44" t="n">
-        <v>109.1087276365942</v>
+        <v>31.05911652070101</v>
       </c>
       <c r="G44" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.262244063820108</v>
+        <v>-2.055917606919792</v>
       </c>
       <c r="I44" t="n">
-        <v>2.262244063820108</v>
+        <v>2.055917606919792</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2864381096986391</v>
+        <v>0.2094500149511532</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AIUSDT</t>
+          <t>ETHWUSDT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MYRIAUSDT</t>
+          <t>WIFUSDT</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-4.04</v>
+        <v>-4.38</v>
       </c>
       <c r="E45" t="n">
         <v>-3.37</v>
       </c>
       <c r="F45" t="n">
-        <v>175.0624019769826</v>
+        <v>1.209240269974101</v>
       </c>
       <c r="G45" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H45" t="n">
-        <v>2.09981889784923</v>
+        <v>-2.22515643016591</v>
       </c>
       <c r="I45" t="n">
-        <v>2.09981889784923</v>
+        <v>2.22515643016591</v>
       </c>
       <c r="J45" t="n">
-        <v>0.2805762777685276</v>
+        <v>0.20908460753229</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>MAVIAUSDT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.93</v>
+        <v>-4.8</v>
       </c>
       <c r="E46" t="n">
         <v>-3.37</v>
       </c>
       <c r="F46" t="n">
-        <v>1.876860046488097</v>
+        <v>10.25082606934868</v>
       </c>
       <c r="G46" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H46" t="n">
-        <v>-2.178994079415109</v>
+        <v>-2.107763347129039</v>
       </c>
       <c r="I46" t="n">
-        <v>2.178994079415109</v>
+        <v>2.107763347129039</v>
       </c>
       <c r="J46" t="n">
-        <v>0.274025124423315</v>
+        <v>0.2065044679413683</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>WOOUSDT</t>
+          <t>FUNUSDT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>PHBUSDT</t>
+          <t>XCNUSDT</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>0.01</v>
       </c>
       <c r="D47" t="n">
-        <v>-3.91</v>
+        <v>-3.92</v>
       </c>
       <c r="E47" t="n">
         <v>-3.37</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1184622081318593</v>
+        <v>2.484631893326187</v>
       </c>
       <c r="G47" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H47" t="n">
-        <v>2.213778318466596</v>
+        <v>-2.0469049882671</v>
       </c>
       <c r="I47" t="n">
-        <v>2.213778318466596</v>
+        <v>2.0469049882671</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2690236304350231</v>
+        <v>0.2038778202104573</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>DGBUSDT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AERGOUSDT</t>
+          <t>TIAUSDT</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D48" t="n">
-        <v>-4.53</v>
+        <v>-4.01</v>
       </c>
       <c r="E48" t="n">
         <v>-3.37</v>
       </c>
       <c r="F48" t="n">
-        <v>1.135599589632689</v>
+        <v>0.00120893672361021</v>
       </c>
       <c r="G48" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.392017281552048</v>
+        <v>2.15175298328764</v>
       </c>
       <c r="I48" t="n">
-        <v>2.392017281552048</v>
+        <v>2.15175298328764</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2630676001290767</v>
+        <v>0.1987017597267993</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BLZUSDT</t>
+          <t>NEARUSDT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TOKENUSDT</t>
+          <t>ONGUSDT</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.84</v>
+        <v>-4.01</v>
       </c>
       <c r="E49" t="n">
         <v>-3.37</v>
       </c>
       <c r="F49" t="n">
-        <v>2.519968871577178</v>
+        <v>15.03480062148268</v>
       </c>
       <c r="G49" t="n">
         <v>27</v>
       </c>
       <c r="H49" t="n">
-        <v>-2.622592869992093</v>
+        <v>2.251943625159164</v>
       </c>
       <c r="I49" t="n">
-        <v>2.622592869992093</v>
+        <v>2.251943625159164</v>
       </c>
       <c r="J49" t="n">
-        <v>0.2584169151307759</v>
+        <v>0.1906462166285341</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PERPUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>POLYXUSDT</t>
+          <t>LSKUSDT</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-4.46</v>
+        <v>-4.39</v>
       </c>
       <c r="E50" t="n">
         <v>-3.37</v>
       </c>
       <c r="F50" t="n">
-        <v>2.541530188704239</v>
+        <v>0.1804291037454961</v>
       </c>
       <c r="G50" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.64618637736564</v>
+        <v>-2.249645983420458</v>
       </c>
       <c r="I50" t="n">
-        <v>2.64618637736564</v>
+        <v>2.249645983420458</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2493944210871108</v>
+        <v>0.1892256631017747</v>
       </c>
     </row>
     <row r="51">
@@ -2257,259 +2257,259 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BADGERUSDT</t>
+          <t>XCNUSDT</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>0.01</v>
       </c>
       <c r="D51" t="n">
-        <v>-4.02</v>
+        <v>-3.96</v>
       </c>
       <c r="E51" t="n">
         <v>-3.37</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01293389157755475</v>
+        <v>27.5022622603507</v>
       </c>
       <c r="G51" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.297691371489714</v>
+        <v>-2.300916550356282</v>
       </c>
       <c r="I51" t="n">
-        <v>2.297691371489714</v>
+        <v>2.300916550356282</v>
       </c>
       <c r="J51" t="n">
-        <v>0.2466748663472946</v>
+        <v>0.1859245060731192</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MTLUSDT</t>
+          <t>OMGUSDT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ONTUSDT</t>
+          <t>WUSDT</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.42</v>
+        <v>-4.17</v>
       </c>
       <c r="E52" t="n">
         <v>-3.37</v>
       </c>
       <c r="F52" t="n">
-        <v>5.394031905652881</v>
+        <v>0.9944608672356742</v>
       </c>
       <c r="G52" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H52" t="n">
-        <v>2.678107657586154</v>
+        <v>2.268956679087716</v>
       </c>
       <c r="I52" t="n">
-        <v>2.678107657586154</v>
+        <v>2.268956679087716</v>
       </c>
       <c r="J52" t="n">
-        <v>0.2433642224574086</v>
+        <v>0.1836648076481973</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ONGUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MANAUSDT</t>
+          <t>XCNUSDT</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.62</v>
+        <v>-4.18</v>
       </c>
       <c r="E53" t="n">
         <v>-3.37</v>
       </c>
       <c r="F53" t="n">
-        <v>1.049678194295377</v>
+        <v>31.45093142138841</v>
       </c>
       <c r="G53" t="n">
         <v>27</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.567021074356011</v>
+        <v>-2.240451184326953</v>
       </c>
       <c r="I53" t="n">
-        <v>2.567021074356011</v>
+        <v>2.240451184326953</v>
       </c>
       <c r="J53" t="n">
-        <v>0.2384491239477947</v>
+        <v>0.1835408324077256</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>FXSUSDT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.64</v>
+        <v>-4.24</v>
       </c>
       <c r="E54" t="n">
         <v>-3.37</v>
       </c>
       <c r="F54" t="n">
-        <v>0.06481667700796889</v>
+        <v>9.164437188935171</v>
       </c>
       <c r="G54" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.414497740401967</v>
+        <v>-2.126712440300973</v>
       </c>
       <c r="I54" t="n">
-        <v>2.414497740401967</v>
+        <v>2.126712440300973</v>
       </c>
       <c r="J54" t="n">
-        <v>0.2361451708261324</v>
+        <v>0.1832200459972609</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>IOSTUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-5.11</v>
+        <v>-4.67</v>
       </c>
       <c r="E55" t="n">
         <v>-3.37</v>
       </c>
       <c r="F55" t="n">
-        <v>204.8231778304853</v>
+        <v>0.06486629303372225</v>
       </c>
       <c r="G55" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H55" t="n">
-        <v>-2.646637921743955</v>
+        <v>-2.148533121638848</v>
       </c>
       <c r="I55" t="n">
-        <v>2.646637921743955</v>
+        <v>2.148533121638848</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2320566678483111</v>
+        <v>0.1792110290816267</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ATOMUSDT</t>
+          <t>OPUSDT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SCRTUSDT</t>
+          <t>STEEMUSDT</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.43</v>
+        <v>-5</v>
       </c>
       <c r="E56" t="n">
         <v>-3.37</v>
       </c>
       <c r="F56" t="n">
-        <v>22.24744941386159</v>
+        <v>9.094085313812274</v>
       </c>
       <c r="G56" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H56" t="n">
-        <v>2.038209845028189</v>
+        <v>-2.107551408016602</v>
       </c>
       <c r="I56" t="n">
-        <v>2.038209845028189</v>
+        <v>2.107551408016602</v>
       </c>
       <c r="J56" t="n">
-        <v>0.2234392082779558</v>
+        <v>0.171373433216259</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DATAUSDT</t>
+          <t>GRTUSDT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>KSMUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-4.47</v>
+        <v>-4.8</v>
       </c>
       <c r="E57" t="n">
         <v>-3.37</v>
       </c>
       <c r="F57" t="n">
-        <v>0.001905081617367782</v>
+        <v>0.1081514517954269</v>
       </c>
       <c r="G57" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H57" t="n">
-        <v>-2.406238862989297</v>
+        <v>2.012670309353095</v>
       </c>
       <c r="I57" t="n">
-        <v>2.406238862989297</v>
+        <v>2.012670309353095</v>
       </c>
       <c r="J57" t="n">
-        <v>0.2156776305893192</v>
+        <v>0.1477116857998938</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ALICEUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2522,1711 +2522,523 @@
         <v>-3.37</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6375156103080805</v>
+        <v>4.475198656634004</v>
       </c>
       <c r="G58" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H58" t="n">
-        <v>-2.447692646015516</v>
+        <v>2.08567809882044</v>
       </c>
       <c r="I58" t="n">
-        <v>2.447692646015516</v>
+        <v>2.08567809882044</v>
       </c>
       <c r="J58" t="n">
-        <v>0.2130726051665796</v>
+        <v>0.1403499121219695</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>GRTUSDT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CELOUSDT</t>
+          <t>API3USDT</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>0.01</v>
       </c>
       <c r="D59" t="n">
-        <v>-4.04</v>
+        <v>-4</v>
       </c>
       <c r="E59" t="n">
         <v>-3.37</v>
       </c>
       <c r="F59" t="n">
-        <v>3.604484530154417</v>
+        <v>0.1029889676624894</v>
       </c>
       <c r="G59" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H59" t="n">
-        <v>2.20130692337224</v>
+        <v>2.079909654117948</v>
       </c>
       <c r="I59" t="n">
-        <v>2.20130692337224</v>
+        <v>2.079909654117948</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2120424685406815</v>
+        <v>0.136783479493244</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>METISUSDT</t>
+          <t>ICPUSDT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SILLYUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-4.74</v>
+        <v>-4.44</v>
       </c>
       <c r="E60" t="n">
         <v>-3.37</v>
       </c>
       <c r="F60" t="n">
-        <v>2983.989176068255</v>
+        <v>14.87802609831048</v>
       </c>
       <c r="G60" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H60" t="n">
-        <v>2.053007276931161</v>
+        <v>-2.103817890056315</v>
       </c>
       <c r="I60" t="n">
-        <v>2.053007276931161</v>
+        <v>2.103817890056315</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2112561505667719</v>
+        <v>0.1340651263917614</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WOOUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>10000WENUSDT</t>
+          <t>RADUSDT</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-4.13</v>
+        <v>-4.27</v>
       </c>
       <c r="E61" t="n">
         <v>-3.37</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1631097806816727</v>
+        <v>0.03769388188107719</v>
       </c>
       <c r="G61" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H61" t="n">
-        <v>2.086073507588937</v>
+        <v>-2.031566060524905</v>
       </c>
       <c r="I61" t="n">
-        <v>2.086073507588937</v>
+        <v>2.031566060524905</v>
       </c>
       <c r="J61" t="n">
-        <v>0.2056373500390101</v>
+        <v>0.1243942843163202</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>LITUSDT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>XCNUSDT</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-4.29</v>
+        <v>-4.2</v>
       </c>
       <c r="E62" t="n">
         <v>-3.37</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3506724568510029</v>
+        <v>505.1298860163694</v>
       </c>
       <c r="G62" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H62" t="n">
-        <v>2.264605335457998</v>
+        <v>-2.192419059118839</v>
       </c>
       <c r="I62" t="n">
-        <v>2.264605335457998</v>
+        <v>2.192419059118839</v>
       </c>
       <c r="J62" t="n">
-        <v>0.1997865505030437</v>
+        <v>0.118844207510681</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IDUSDT</t>
+          <t>PYTHUSDT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>WAXPUSDT</t>
+          <t>USTCUSDT</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-4.51</v>
+        <v>-4.46</v>
       </c>
       <c r="E63" t="n">
         <v>-3.37</v>
       </c>
       <c r="F63" t="n">
-        <v>11.39247512347628</v>
+        <v>18.13587560787809</v>
       </c>
       <c r="G63" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H63" t="n">
-        <v>-2.355962593866122</v>
+        <v>2.095911313568684</v>
       </c>
       <c r="I63" t="n">
-        <v>2.355962593866122</v>
+        <v>2.095911313568684</v>
       </c>
       <c r="J63" t="n">
-        <v>0.197612602604888</v>
+        <v>0.1116767598005346</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DYMUSDT</t>
+          <t>AEVOUSDT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>HIFIUSDT</t>
+          <t>PORTALUSDT</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-4.85</v>
+        <v>-5.23</v>
       </c>
       <c r="E64" t="n">
         <v>-3.37</v>
       </c>
       <c r="F64" t="n">
-        <v>3.470576748962793</v>
+        <v>1.212899708267024</v>
       </c>
       <c r="G64" t="n">
         <v>25</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.541542294605053</v>
+        <v>-2.168299259230033</v>
       </c>
       <c r="I64" t="n">
-        <v>2.541542294605053</v>
+        <v>2.168299259230033</v>
       </c>
       <c r="J64" t="n">
-        <v>0.194294210959272</v>
+        <v>0.1039317578369231</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>IOTAUSDT</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>CHRUSDT</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-5.58</v>
+        <v>-4.6</v>
       </c>
       <c r="E65" t="n">
         <v>-3.37</v>
       </c>
       <c r="F65" t="n">
-        <v>2.252692696997433</v>
+        <v>0.689706753184843</v>
       </c>
       <c r="G65" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H65" t="n">
-        <v>2.173211448591987</v>
+        <v>2.111248503496946</v>
       </c>
       <c r="I65" t="n">
-        <v>2.173211448591987</v>
+        <v>2.111248503496946</v>
       </c>
       <c r="J65" t="n">
-        <v>0.1844473372393177</v>
+        <v>0.08615922126358458</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>FLOWUSDT</t>
+          <t>PERPUSDT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>POLYXUSDT</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-4.01</v>
+        <v>-4.27</v>
       </c>
       <c r="E66" t="n">
         <v>-3.37</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1996265361215969</v>
+        <v>2.540717486669356</v>
       </c>
       <c r="G66" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H66" t="n">
-        <v>2.415701933952203</v>
+        <v>-2.09298969141862</v>
       </c>
       <c r="I66" t="n">
-        <v>2.415701933952203</v>
+        <v>2.09298969141862</v>
       </c>
       <c r="J66" t="n">
-        <v>0.1840778558794006</v>
+        <v>0.07487042046606993</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ALICEUSDT</t>
+          <t>ONTUSDT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BANDUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>0.01</v>
       </c>
       <c r="D67" t="n">
-        <v>-4</v>
+        <v>-3.96</v>
       </c>
       <c r="E67" t="n">
         <v>-3.37</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8991479170990806</v>
+        <v>1.597085141672557</v>
       </c>
       <c r="G67" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H67" t="n">
-        <v>-2.356449460612929</v>
+        <v>2.043062301772984</v>
       </c>
       <c r="I67" t="n">
-        <v>2.356449460612929</v>
+        <v>2.043062301772984</v>
       </c>
       <c r="J67" t="n">
-        <v>0.1802875412301907</v>
+        <v>0.04400201820464832</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ICPUSDT</t>
+          <t>NEARUSDT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>JOEUSDT</t>
+          <t>QIUSDT</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-4.27</v>
+        <v>-4.22</v>
       </c>
       <c r="E68" t="n">
         <v>-3.37</v>
       </c>
       <c r="F68" t="n">
-        <v>25.00995561007262</v>
+        <v>358.4020761931496</v>
       </c>
       <c r="G68" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="H68" t="n">
-        <v>-2.108702411977391</v>
+        <v>2.020396706121377</v>
       </c>
       <c r="I68" t="n">
-        <v>2.108702411977391</v>
+        <v>2.020396706121377</v>
       </c>
       <c r="J68" t="n">
-        <v>0.1787682594752875</v>
+        <v>0.0299886534156144</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IOTXUSDT</t>
+          <t>ATAUSDT</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ONEUSDT</t>
+          <t>LSKUSDT</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-3.95</v>
+        <v>-4.16</v>
       </c>
       <c r="E69" t="n">
         <v>-3.37</v>
       </c>
       <c r="F69" t="n">
-        <v>2.840776952723291</v>
+        <v>0.1017644596025455</v>
       </c>
       <c r="G69" t="n">
         <v>25</v>
       </c>
       <c r="H69" t="n">
-        <v>-2.483110351657948</v>
+        <v>-2.029809772327</v>
       </c>
       <c r="I69" t="n">
-        <v>2.483110351657948</v>
+        <v>2.029809772327</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1732987253567499</v>
+        <v>0.01830843122116135</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FILUSDT</t>
+          <t>1000PEPEUSDT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>FLMUSDT</t>
+          <t>CTKUSDT</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-4.21</v>
+        <v>-4.38</v>
       </c>
       <c r="E70" t="n">
         <v>-3.37</v>
       </c>
       <c r="F70" t="n">
-        <v>64.61561752726678</v>
+        <v>0.01566619514247803</v>
       </c>
       <c r="G70" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H70" t="n">
-        <v>2.183795121906465</v>
+        <v>2.012247758875979</v>
       </c>
       <c r="I70" t="n">
-        <v>2.183795121906465</v>
+        <v>2.012247758875979</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1707502119939202</v>
+        <v>0.007450437250831699</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NKNUSDT</t>
+          <t>IOTXUSDT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ZRXUSDT</t>
+          <t>BCHUSDT</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-4.23</v>
+        <v>-4.43</v>
       </c>
       <c r="E71" t="n">
         <v>-3.37</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2245990333352254</v>
+        <v>0.0001119702710941688</v>
       </c>
       <c r="G71" t="n">
         <v>25</v>
       </c>
       <c r="H71" t="n">
-        <v>-2.475211534383836</v>
+        <v>-2.007859653944431</v>
       </c>
       <c r="I71" t="n">
-        <v>2.475211534383836</v>
+        <v>2.007859653944431</v>
       </c>
       <c r="J71" t="n">
-        <v>0.1704605602027058</v>
+        <v>0.004737421626466998</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GTCUSDT</t>
+          <t>GRTUSDT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TOKENUSDT</t>
+          <t>ZBCNUSDT</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D72" t="n">
-        <v>-4.88</v>
+        <v>-3.99</v>
       </c>
       <c r="E72" t="n">
         <v>-3.37</v>
       </c>
       <c r="F72" t="n">
-        <v>11.44622382857633</v>
+        <v>148.7637276664798</v>
       </c>
       <c r="G72" t="n">
         <v>25</v>
       </c>
       <c r="H72" t="n">
-        <v>-2.47448045995671</v>
+        <v>2.00019721992996</v>
       </c>
       <c r="I72" t="n">
-        <v>2.47448045995671</v>
+        <v>2.00019721992996</v>
       </c>
       <c r="J72" t="n">
-        <v>0.170197874044503</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>AKROUSDT</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>VETUSDT</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-4.97</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.1928739903390305</v>
-      </c>
-      <c r="G73" t="n">
-        <v>28</v>
-      </c>
-      <c r="H73" t="n">
-        <v>-2.306711568581624</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2.306711568581624</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.1624159603212968</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>ENJUSDT</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>LSKUSDT</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-4.48</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.1805742746639089</v>
-      </c>
-      <c r="G74" t="n">
-        <v>27</v>
-      </c>
-      <c r="H74" t="n">
-        <v>-2.341525635254785</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2.341525635254785</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.1574251838510238</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>MBOXUSDT</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>NFPUSDT</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-3.94</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.7171095772374558</v>
-      </c>
-      <c r="G75" t="n">
-        <v>27</v>
-      </c>
-      <c r="H75" t="n">
-        <v>-2.329995276658899</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2.329995276658899</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.1532821506797499</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>BOBAUSDT</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>CTCUSDT</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-4.42</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.5063395382169628</v>
-      </c>
-      <c r="G76" t="n">
-        <v>33</v>
-      </c>
-      <c r="H76" t="n">
-        <v>-2.018881782845943</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2.018881782845943</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.1464943416381567</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>10000000AIDOGEUSDT</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>SHIB1000USDT</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-3.96</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.1872322714842536</v>
-      </c>
-      <c r="G77" t="n">
-        <v>26</v>
-      </c>
-      <c r="H77" t="n">
-        <v>-2.359720620255608</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.359720620255608</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.1464629186302472</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>CHRUSDT</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>RONUSDT</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-4.15</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.1121398389795143</v>
-      </c>
-      <c r="G78" t="n">
-        <v>33</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2.007908174119276</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2.007908174119276</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.1425513571606935</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>KDAUSDT</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>OPUSDT</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-5.59</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.333396514425066</v>
-      </c>
-      <c r="G79" t="n">
-        <v>30</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2.137059378249409</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2.137059378249409</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.1364573486458172</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>AUCTIONUSDT</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>KNCUSDT</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>0</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-4.33</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F80" t="n">
-        <v>30.22902378483882</v>
-      </c>
-      <c r="G80" t="n">
-        <v>30</v>
-      </c>
-      <c r="H80" t="n">
-        <v>-2.122851356896158</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2.122851356896158</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.1313521905299465</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>FORTHUSDT</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>CTCUSDT</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F81" t="n">
-        <v>6.471923481435571</v>
-      </c>
-      <c r="G81" t="n">
-        <v>29</v>
-      </c>
-      <c r="H81" t="n">
-        <v>-2.167769726012443</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2.167769726012443</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.129992043571004</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>LITUSDT</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>LUNA2USDT</t>
-        </is>
-      </c>
-      <c r="C82" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-4.22</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1.799785396651138</v>
-      </c>
-      <c r="G82" t="n">
-        <v>31</v>
-      </c>
-      <c r="H82" t="n">
-        <v>-2.068963767006849</v>
-      </c>
-      <c r="I82" t="n">
-        <v>2.068963767006849</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.1294895600813957</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>KDAUSDT</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>LTOUSDT</t>
-        </is>
-      </c>
-      <c r="C83" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-3.96</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F83" t="n">
-        <v>4.476903005314433</v>
-      </c>
-      <c r="G83" t="n">
-        <v>30</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2.106821156570377</v>
-      </c>
-      <c r="I83" t="n">
-        <v>2.106821156570377</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.1255922958016445</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>POLYXUSDT</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>YGGUSDT</t>
-        </is>
-      </c>
-      <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-4.66</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F84" t="n">
-        <v>0.4932284866987542</v>
-      </c>
-      <c r="G84" t="n">
-        <v>25</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2.337640830995049</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2.337640830995049</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.1210293146091309</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>DGBUSDT</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>FILUSDT</t>
-        </is>
-      </c>
-      <c r="C85" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-4.01</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F85" t="n">
-        <v>0.00185277871037157</v>
-      </c>
-      <c r="G85" t="n">
-        <v>29</v>
-      </c>
-      <c r="H85" t="n">
-        <v>-2.132958653656508</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2.132958653656508</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.1174838959449871</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>GASUSDT</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>UMAUSDT</t>
-        </is>
-      </c>
-      <c r="C86" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-4.06</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F86" t="n">
-        <v>1.523670914443293</v>
-      </c>
-      <c r="G86" t="n">
-        <v>26</v>
-      </c>
-      <c r="H86" t="n">
-        <v>2.270966452669318</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2.270966452669318</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.1145721966426411</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>BELUSDT</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>SUSHIUSDT</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
-        <v>0</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-4.13</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F87" t="n">
-        <v>0.7684684503364809</v>
-      </c>
-      <c r="G87" t="n">
-        <v>25</v>
-      </c>
-      <c r="H87" t="n">
-        <v>-2.306713509304668</v>
-      </c>
-      <c r="I87" t="n">
-        <v>2.306713509304668</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.1099166576525966</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>ARBUSDT</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>SNXUSDT</t>
-        </is>
-      </c>
-      <c r="C88" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-4.07</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.3948553465058069</v>
-      </c>
-      <c r="G88" t="n">
-        <v>25</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2.301468131283332</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2.301468131283332</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.1080319135696138</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>GMTUSDT</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>LITUSDT</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-3.91</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F89" t="n">
-        <v>0.2034364061737755</v>
-      </c>
-      <c r="G89" t="n">
-        <v>30</v>
-      </c>
-      <c r="H89" t="n">
-        <v>2.019772077642625</v>
-      </c>
-      <c r="I89" t="n">
-        <v>2.019772077642625</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.0943142380962063</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>BATUSDT</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>MDTUSDT</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-4.54</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3.899801895247429</v>
-      </c>
-      <c r="G90" t="n">
-        <v>27</v>
-      </c>
-      <c r="H90" t="n">
-        <v>2.163219831190275</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2.163219831190275</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.09335719717682731</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>ONTUSDT</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>LTOUSDT</t>
-        </is>
-      </c>
-      <c r="C91" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-4.03</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1.599547760116622</v>
-      </c>
-      <c r="G91" t="n">
-        <v>26</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2.207606196255573</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2.207606196255573</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.09180589307284349</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>INJUSDT</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>SHIB1000USDT</t>
-        </is>
-      </c>
-      <c r="C92" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-4.01</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F92" t="n">
-        <v>1167.098410216444</v>
-      </c>
-      <c r="G92" t="n">
-        <v>26</v>
-      </c>
-      <c r="H92" t="n">
-        <v>-2.205434297078861</v>
-      </c>
-      <c r="I92" t="n">
-        <v>2.205434297078861</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.09102549667329089</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>1000BTTUSDT</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>POWRUSDT</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-4.58</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F93" t="n">
-        <v>0.004088628206294911</v>
-      </c>
-      <c r="G93" t="n">
-        <v>30</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2.000807564070351</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2.000807564070351</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>LUNA2USDT</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>NKNUSDT</t>
-        </is>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-4.7</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F94" t="n">
-        <v>5.185634981264943</v>
-      </c>
-      <c r="G94" t="n">
-        <v>28</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2.07986919783723</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2.07986919783723</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.08090804720402729</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>DATAUSDT</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>POLYXUSDT</t>
-        </is>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-4.43</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F95" t="n">
-        <v>0.1449928821180678</v>
-      </c>
-      <c r="G95" t="n">
-        <v>27</v>
-      </c>
-      <c r="H95" t="n">
-        <v>-2.116853852424175</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2.116853852424175</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.07669719597659815</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>STXUSDT</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>SLPUSDT</t>
-        </is>
-      </c>
-      <c r="C96" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-4.05</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F96" t="n">
-        <v>589.7554763347996</v>
-      </c>
-      <c r="G96" t="n">
-        <v>28</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2.067852120965164</v>
-      </c>
-      <c r="I96" t="n">
-        <v>2.067852120965164</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.07659012875520442</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>BEAMUSDT</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>SXPUSDT</t>
-        </is>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="n">
-        <v>-4.22</v>
-      </c>
-      <c r="E97" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F97" t="n">
-        <v>0.07053204545025914</v>
-      </c>
-      <c r="G97" t="n">
-        <v>25</v>
-      </c>
-      <c r="H97" t="n">
-        <v>-2.205533971466005</v>
-      </c>
-      <c r="I97" t="n">
-        <v>2.205533971466005</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.0735613111962157</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>COREUSDT</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>GRTUSDT</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="n">
-        <v>-4.73</v>
-      </c>
-      <c r="E98" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F98" t="n">
-        <v>6.354393511219429</v>
-      </c>
-      <c r="G98" t="n">
-        <v>25</v>
-      </c>
-      <c r="H98" t="n">
-        <v>-2.20533192542313</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2.20533192542313</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.07348871298074876</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>1000BTTUSDT</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>1000LUNCUSDT</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="n">
-        <v>-4.24</v>
-      </c>
-      <c r="E99" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F99" t="n">
-        <v>0.01049045348477766</v>
-      </c>
-      <c r="G99" t="n">
-        <v>28</v>
-      </c>
-      <c r="H99" t="n">
-        <v>2.03754422722941</v>
-      </c>
-      <c r="I99" t="n">
-        <v>2.03754422722941</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.06570004168163543</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>STORJUSDT</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>WIFUSDT</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="n">
-        <v>-4.31</v>
-      </c>
-      <c r="E100" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F100" t="n">
-        <v>0.1871633485774444</v>
-      </c>
-      <c r="G100" t="n">
-        <v>25</v>
-      </c>
-      <c r="H100" t="n">
-        <v>-2.171451797519006</v>
-      </c>
-      <c r="I100" t="n">
-        <v>2.171451797519006</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.06131506785197796</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>IOTXUSDT</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>BCHUSDT</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="n">
-        <v>-4.32</v>
-      </c>
-      <c r="E101" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F101" t="n">
-        <v>0.0001121904755217509</v>
-      </c>
-      <c r="G101" t="n">
-        <v>25</v>
-      </c>
-      <c r="H101" t="n">
-        <v>-2.151262179812067</v>
-      </c>
-      <c r="I101" t="n">
-        <v>2.151262179812067</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.05406063121155709</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>GLMRUSDT</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>GRTUSDT</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-5.81</v>
-      </c>
-      <c r="E102" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F102" t="n">
-        <v>1.031759401588809</v>
-      </c>
-      <c r="G102" t="n">
-        <v>27</v>
-      </c>
-      <c r="H102" t="n">
-        <v>-2.05115214076156</v>
-      </c>
-      <c r="I102" t="n">
-        <v>2.05115214076156</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.05308957193229381</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>COREUSDT</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>LSKUSDT</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" t="n">
-        <v>-4.28</v>
-      </c>
-      <c r="E103" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1.157576925214247</v>
-      </c>
-      <c r="G103" t="n">
-        <v>25</v>
-      </c>
-      <c r="H103" t="n">
-        <v>-2.115385587420575</v>
-      </c>
-      <c r="I103" t="n">
-        <v>2.115385587420575</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.04116962603473127</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>ZBCNUSDT</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>WOOUSDT</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D104" t="n">
-        <v>-3.96</v>
-      </c>
-      <c r="E104" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F104" t="n">
-        <v>0.006287330527691548</v>
-      </c>
-      <c r="G104" t="n">
-        <v>27</v>
-      </c>
-      <c r="H104" t="n">
-        <v>-2.009407528470983</v>
-      </c>
-      <c r="I104" t="n">
-        <v>2.009407528470983</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.03809009797807217</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>HOOKUSDT</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>NTRNUSDT</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>-4.88</v>
-      </c>
-      <c r="E105" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1.165045838376354</v>
-      </c>
-      <c r="G105" t="n">
-        <v>25</v>
-      </c>
-      <c r="H105" t="n">
-        <v>-2.008163738442247</v>
-      </c>
-      <c r="I105" t="n">
-        <v>2.008163738442247</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.002643185307984697</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,156 +488,156 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACEUSDT</t>
+          <t>10000WENUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>PHBUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.5</v>
+        <v>-3.95</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>10.72165958316446</v>
+        <v>0.7150640723670286</v>
       </c>
       <c r="G2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.051524820070185</v>
+        <v>3.475999071637775</v>
       </c>
       <c r="I2" t="n">
-        <v>3.051524820070185</v>
+        <v>3.475999071637775</v>
       </c>
       <c r="J2" t="n">
-        <v>0.825</v>
+        <v>0.7869565217391306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MANTAUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>PHBUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.65</v>
+        <v>-5.14</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>3.407425172599767</v>
+        <v>0.001917443053091605</v>
       </c>
       <c r="G3" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.829965820371802</v>
+        <v>2.623284684751198</v>
       </c>
       <c r="I3" t="n">
-        <v>2.829965820371802</v>
+        <v>2.623284684751198</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7580176266800751</v>
+        <v>0.6229311172865231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LQTYUSDT</t>
+          <t>APEUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1000LUNCUSDT</t>
+          <t>10000WENUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0.01</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.05</v>
+        <v>-4</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>9.856039467563075</v>
+        <v>0.6960755626094258</v>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>2.763883988184</v>
+        <v>-3.058939793217119</v>
       </c>
       <c r="I4" t="n">
-        <v>2.763883988184</v>
+        <v>3.058939793217119</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6646614835365464</v>
+        <v>0.6025336029309323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHRUSDT</t>
+          <t>ALICEUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>RENUSDT</t>
+          <t>ORDIUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.1</v>
+        <v>-4.12</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>4.922696216735948</v>
+        <v>0.0311642221231152</v>
       </c>
       <c r="G5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H5" t="n">
-        <v>2.590507046694927</v>
+        <v>-2.417223475387952</v>
       </c>
       <c r="I5" t="n">
-        <v>2.590507046694927</v>
+        <v>2.417223475387952</v>
       </c>
       <c r="J5" t="n">
-        <v>0.662468433574892</v>
+        <v>0.4100720630178272</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DARUSDT</t>
+          <t>ALICEUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>XRPUSDT</t>
+          <t>BOMEUSDT</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -650,1033 +650,1033 @@
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2801205294874974</v>
+        <v>126.7173786828693</v>
       </c>
       <c r="G6" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.84258585526843</v>
+        <v>-2.848353688568157</v>
       </c>
       <c r="I6" t="n">
-        <v>2.84258585526843</v>
+        <v>2.848353688568157</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6608201638547044</v>
+        <v>0.4028910388019984</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GLMUSDT</t>
+          <t>MANTAUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OPUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.46</v>
+        <v>-5.25</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2000392388233442</v>
+        <v>3.401563983947193</v>
       </c>
       <c r="G7" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H7" t="n">
-        <v>2.523889656587079</v>
+        <v>-2.406287176980143</v>
       </c>
       <c r="I7" t="n">
-        <v>2.523889656587079</v>
+        <v>2.406287176980143</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6562811732344183</v>
+        <v>0.3900186587587662</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10000000AIDOGEUSDT</t>
+          <t>ALPHAUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>BOMEUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.25</v>
+        <v>-4.03</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001498663482193511</v>
+        <v>8.866650815231553</v>
       </c>
       <c r="G8" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.470601733128344</v>
+        <v>-2.76703154434595</v>
       </c>
       <c r="I8" t="n">
-        <v>2.470601733128344</v>
+        <v>2.76703154434595</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6408350675262089</v>
+        <v>0.3669305219709265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ZBCNUSDT</t>
+          <t>CFXUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DGBUSDT</t>
+          <t>NEOUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.92</v>
+        <v>-4.78</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>0.165532745026077</v>
+        <v>0.01448678199192825</v>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.806435971795952</v>
+        <v>-2.525433221258916</v>
       </c>
       <c r="I9" t="n">
-        <v>2.806435971795952</v>
+        <v>2.525433221258916</v>
       </c>
       <c r="J9" t="n">
-        <v>0.603469923783031</v>
+        <v>0.3666178847230078</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MINAUSDT</t>
+          <t>RVNUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHBUSDT</t>
+          <t>ZRXUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.04</v>
+        <v>-4.05</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3204424181832763</v>
+        <v>0.05525290918430281</v>
       </c>
       <c r="G10" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
-        <v>2.880905344361812</v>
+        <v>2.41896427759029</v>
       </c>
       <c r="I10" t="n">
-        <v>2.880905344361812</v>
+        <v>2.41896427759029</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5970117970881288</v>
+        <v>0.3499722776371025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>10000WENUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AVAXUSDT</t>
+          <t>BEAMUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.56</v>
+        <v>-5.32</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>0.004076278030137838</v>
+        <v>70.02843639923168</v>
       </c>
       <c r="G11" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.7803862802387</v>
+        <v>2.472523833882079</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7803862802387</v>
+        <v>2.472523833882079</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5348642879089651</v>
+        <v>0.3432214416817669</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DODOUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GLMUSDT</t>
+          <t>DATAUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.1</v>
+        <v>-4.13</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3656293914921585</v>
+        <v>48.65385912995888</v>
       </c>
       <c r="G12" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.540151030442758</v>
+        <v>2.206760464723713</v>
       </c>
       <c r="I12" t="n">
-        <v>2.540151030442758</v>
+        <v>2.206760464723713</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4913350261008145</v>
+        <v>0.3322230612788556</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OPUSDT</t>
+          <t>STORJUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.23</v>
+        <v>-4.57</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3334452438881956</v>
+        <v>9.115104253869516</v>
       </c>
       <c r="G13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" t="n">
-        <v>2.652882007795025</v>
+        <v>2.638979072882513</v>
       </c>
       <c r="I13" t="n">
-        <v>2.652882007795025</v>
+        <v>2.638979072882513</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4910327447464585</v>
+        <v>0.325523323511152</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ACEUSDT</t>
+          <t>ARPAUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AIUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.83</v>
+        <v>-4.88</v>
       </c>
       <c r="E14" t="n">
         <v>-3.37</v>
       </c>
       <c r="F14" t="n">
-        <v>5.024456537728534</v>
+        <v>0.2294252977041584</v>
       </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.751874484207044</v>
+        <v>-2.184398178224026</v>
       </c>
       <c r="I14" t="n">
-        <v>2.751874484207044</v>
+        <v>2.184398178224026</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4647364168076029</v>
+        <v>0.3071171041017742</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.98</v>
+        <v>-4.51</v>
       </c>
       <c r="E15" t="n">
         <v>-3.37</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4486444336571229</v>
+        <v>0.02329748425077246</v>
       </c>
       <c r="G15" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.661637849488891</v>
+        <v>-2.119464247500825</v>
       </c>
       <c r="I15" t="n">
-        <v>2.661637849488891</v>
+        <v>2.119464247500825</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4264461830508021</v>
+        <v>0.2936208193094988</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IOTXUSDT</t>
+          <t>FLMUSDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BADGERUSDT</t>
+          <t>LITUSDT</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0.01</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.95</v>
+        <v>-4.07</v>
       </c>
       <c r="E16" t="n">
         <v>-3.37</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01292357482317803</v>
+        <v>0.08637567455468034</v>
       </c>
       <c r="G16" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.461616457302021</v>
+        <v>2.213591426358027</v>
       </c>
       <c r="I16" t="n">
-        <v>2.461616457302021</v>
+        <v>2.213591426358027</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4252797779225391</v>
+        <v>0.2895915272317749</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LQTYUSDT</t>
+          <t>ATAUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RSRUSDT</t>
+          <t>LOOKSUSDT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.03</v>
+        <v>-5.71</v>
       </c>
       <c r="E17" t="n">
         <v>-3.37</v>
       </c>
       <c r="F17" t="n">
-        <v>143.9285048667924</v>
+        <v>1.987959842245205</v>
       </c>
       <c r="G17" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H17" t="n">
-        <v>2.487690721214389</v>
+        <v>2.275514333384116</v>
       </c>
       <c r="I17" t="n">
-        <v>2.487690721214389</v>
+        <v>2.275514333384116</v>
       </c>
       <c r="J17" t="n">
-        <v>0.4239006060457412</v>
+        <v>0.2865389510520692</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>ANKRUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>1000FLOKIUSDT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.73</v>
+        <v>-3.94</v>
       </c>
       <c r="E18" t="n">
         <v>-3.37</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2384527875550544</v>
+        <v>0.1861462883489125</v>
       </c>
       <c r="G18" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H18" t="n">
-        <v>2.450946331820127</v>
+        <v>-2.573977035619227</v>
       </c>
       <c r="I18" t="n">
-        <v>2.450946331820127</v>
+        <v>2.573977035619227</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4186828032380491</v>
+        <v>0.2815621395115048</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NEARUSDT</t>
+          <t>NEOUSDT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-4</v>
+        <v>-6.18</v>
       </c>
       <c r="E19" t="n">
         <v>-3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>0.009034450572942991</v>
+        <v>0.3798584089438048</v>
       </c>
       <c r="G19" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.671784379196338</v>
+        <v>-2.370768978320381</v>
       </c>
       <c r="I19" t="n">
-        <v>2.671784379196338</v>
+        <v>2.370768978320381</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4152194363250061</v>
+        <v>0.2677908312937234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OPUSDT</t>
+          <t>ACEUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.16</v>
+        <v>-6.79</v>
       </c>
       <c r="E20" t="n">
         <v>-3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>8.013779256379275</v>
+        <v>10.7035087069934</v>
       </c>
       <c r="G20" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.594434307266812</v>
+        <v>-2.232162480637069</v>
       </c>
       <c r="I20" t="n">
-        <v>2.594434307266812</v>
+        <v>2.232162480637069</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4023965248486159</v>
+        <v>0.2521514426132223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>10000WENUSDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>COTIUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.36</v>
+        <v>-4.55</v>
       </c>
       <c r="E21" t="n">
         <v>-3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>1.118969891772783</v>
+        <v>6.064814974963296</v>
       </c>
       <c r="G21" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.30929523090409</v>
+        <v>2.185059523475754</v>
       </c>
       <c r="I21" t="n">
-        <v>2.30929523090409</v>
+        <v>2.185059523475754</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4011047585038068</v>
+        <v>0.2465399846540238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>ALICEUSDT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TLMUSDT</t>
+          <t>1000FLOKIUSDT</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.28</v>
+        <v>-5.15</v>
       </c>
       <c r="E22" t="n">
         <v>-3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>34.25149389055601</v>
+        <v>6.733464674211234</v>
       </c>
       <c r="G22" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.326239747373017</v>
+        <v>-2.493999704253226</v>
       </c>
       <c r="I22" t="n">
-        <v>2.326239747373017</v>
+        <v>2.493999704253226</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3415809751496301</v>
+        <v>0.2461962966872828</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>1000FLOKIUSDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1000PEPEUSDT</t>
+          <t>BNTUSDT</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0.01</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.03</v>
+        <v>-3.95</v>
       </c>
       <c r="E23" t="n">
         <v>-3.37</v>
       </c>
       <c r="F23" t="n">
-        <v>2122.265860399246</v>
+        <v>0.2858316136569251</v>
       </c>
       <c r="G23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.494180173227054</v>
+        <v>2.548099919183296</v>
       </c>
       <c r="I23" t="n">
-        <v>2.494180173227054</v>
+        <v>2.548099919183296</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3404128129046404</v>
+        <v>0.23968453908198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>GMTUSDT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AERGOUSDT</t>
+          <t>NKNUSDT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.43</v>
+        <v>-4.07</v>
       </c>
       <c r="E24" t="n">
         <v>-3.37</v>
       </c>
       <c r="F24" t="n">
-        <v>1.135906678493401</v>
+        <v>1.903783712974208</v>
       </c>
       <c r="G24" t="n">
         <v>32</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.330928368042741</v>
+        <v>2.301708061191388</v>
       </c>
       <c r="I24" t="n">
-        <v>2.330928368042741</v>
+        <v>2.301708061191388</v>
       </c>
       <c r="J24" t="n">
-        <v>0.326979789405923</v>
+        <v>0.2372522086769793</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NKNUSDT</t>
+          <t>CFXUSDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TLMUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-3.99</v>
+        <v>-4.27</v>
       </c>
       <c r="E25" t="n">
         <v>-3.37</v>
       </c>
       <c r="F25" t="n">
-        <v>6.600127187925215</v>
+        <v>0.2707224537746473</v>
       </c>
       <c r="G25" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.378993846751103</v>
+        <v>-2.222779997710459</v>
       </c>
       <c r="I25" t="n">
-        <v>2.378993846751103</v>
+        <v>2.222779997710459</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3216970356346608</v>
+        <v>0.2327851329739413</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GASUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>STORJUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.52</v>
+        <v>-5.22</v>
       </c>
       <c r="E26" t="n">
         <v>-3.37</v>
       </c>
       <c r="F26" t="n">
-        <v>9.120786525258026</v>
+        <v>32.75415495711579</v>
       </c>
       <c r="G26" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>2.362894994056557</v>
+        <v>-2.509961355127396</v>
       </c>
       <c r="I26" t="n">
-        <v>2.362894994056557</v>
+        <v>2.509961355127396</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3117436640594647</v>
+        <v>0.2228197295302592</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1CATUSDT</t>
+          <t>ALPHAUSDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.81</v>
+        <v>-4.04</v>
       </c>
       <c r="E27" t="n">
         <v>-3.37</v>
       </c>
       <c r="F27" t="n">
-        <v>0.009141840425967478</v>
+        <v>0.367415428297219</v>
       </c>
       <c r="G27" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.372499808091561</v>
+        <v>-2.02301185443725</v>
       </c>
       <c r="I27" t="n">
-        <v>2.372499808091561</v>
+        <v>2.02301185443725</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3001819930084242</v>
+        <v>0.2205349490132668</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GODSUSDT</t>
+          <t>HBARUSDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DASHUSDT</t>
+          <t>SCRTUSDT</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.15</v>
+        <v>-4.65</v>
       </c>
       <c r="E28" t="n">
         <v>-3.37</v>
       </c>
       <c r="F28" t="n">
-        <v>0.007972613587465502</v>
+        <v>0.2643749589707426</v>
       </c>
       <c r="G28" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.342887136942732</v>
+        <v>2.296699045818769</v>
       </c>
       <c r="I28" t="n">
-        <v>2.342887136942732</v>
+        <v>2.296699045818769</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2993734883670814</v>
+        <v>0.2198198391113356</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IDUSDT</t>
+          <t>GTCUSDT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WAXPUSDT</t>
+          <t>RONUSDT</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.7</v>
+        <v>-5.06</v>
       </c>
       <c r="E29" t="n">
         <v>-3.37</v>
       </c>
       <c r="F29" t="n">
-        <v>11.39350149839245</v>
+        <v>0.4337949974109304</v>
       </c>
       <c r="G29" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H29" t="n">
-        <v>-2.332733005732616</v>
+        <v>2.416128009236761</v>
       </c>
       <c r="I29" t="n">
-        <v>2.332733005732616</v>
+        <v>2.416128009236761</v>
       </c>
       <c r="J29" t="n">
-        <v>0.293095535343024</v>
+        <v>0.211761562752427</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>1000FLOKIUSDT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>KNCUSDT</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.28</v>
+        <v>-4.12</v>
       </c>
       <c r="E30" t="n">
         <v>-3.37</v>
       </c>
       <c r="F30" t="n">
-        <v>1.277286502196212</v>
+        <v>0.3224103980630224</v>
       </c>
       <c r="G30" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.299971312686971</v>
+        <v>2.472858814725195</v>
       </c>
       <c r="I30" t="n">
-        <v>2.299971312686971</v>
+        <v>2.472858814725195</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2903400978591906</v>
+        <v>0.2064130479139556</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ONGUSDT</t>
+          <t>FUNUSDT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>QNTUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.91</v>
+        <v>-4.53</v>
       </c>
       <c r="E31" t="n">
         <v>-3.37</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00470880715920403</v>
+        <v>0.008837644374454098</v>
       </c>
       <c r="G31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31" t="n">
-        <v>2.263464377170324</v>
+        <v>-2.237808578820255</v>
       </c>
       <c r="I31" t="n">
-        <v>2.263464377170324</v>
+        <v>2.237808578820255</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2852691046857441</v>
+        <v>0.1937785726156664</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>STORJUSDT</t>
+          <t>HFTUSDT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>RONUSDT</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.22</v>
+        <v>-4.15</v>
       </c>
       <c r="E32" t="n">
         <v>-3.37</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1865986217917893</v>
+        <v>0.09743551383286107</v>
       </c>
       <c r="G32" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H32" t="n">
-        <v>-2.447001048274621</v>
+        <v>2.319274742706484</v>
       </c>
       <c r="I32" t="n">
-        <v>2.447001048274621</v>
+        <v>2.319274742706484</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2762435689744027</v>
+        <v>0.1841506007894341</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ARPAUSDT</t>
+          <t>API3USDT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MINAUSDT</t>
+          <t>SPELLUSDT</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-4.09</v>
+        <v>-4.33</v>
       </c>
       <c r="E33" t="n">
         <v>-3.37</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08483014120007482</v>
+        <v>2876.081779100446</v>
       </c>
       <c r="G33" t="n">
         <v>34</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.170385106380858</v>
+        <v>-2.098714629912229</v>
       </c>
       <c r="I33" t="n">
-        <v>2.170385106380858</v>
+        <v>2.098714629912229</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2627213659931775</v>
+        <v>0.177923633814859</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10000WENUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WOOUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.25</v>
+        <v>-4.98</v>
       </c>
       <c r="E34" t="n">
         <v>-3.37</v>
       </c>
       <c r="F34" t="n">
-        <v>6.049605560158485</v>
+        <v>0.448567956030548</v>
       </c>
       <c r="G34" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.117121030331596</v>
+        <v>-2.372458319892113</v>
       </c>
       <c r="I34" t="n">
-        <v>2.117121030331596</v>
+        <v>2.372458319892113</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2472900043249379</v>
+        <v>0.1772335074990947</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MBOXUSDT</t>
+          <t>C98USDT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1688,180 +1688,180 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.25</v>
+        <v>-4.86</v>
       </c>
       <c r="E35" t="n">
         <v>-3.37</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7158522626910775</v>
+        <v>0.5526491072766455</v>
       </c>
       <c r="G35" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H35" t="n">
-        <v>-2.333771346855443</v>
+        <v>-2.402087090356334</v>
       </c>
       <c r="I35" t="n">
-        <v>2.333771346855443</v>
+        <v>2.402087090356334</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2412375062470007</v>
+        <v>0.1751179091830289</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BATUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.22</v>
+        <v>-4.73</v>
       </c>
       <c r="E36" t="n">
         <v>-3.37</v>
       </c>
       <c r="F36" t="n">
-        <v>3.908684546766704</v>
+        <v>0.2385860506025419</v>
       </c>
       <c r="G36" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>2.388768768758288</v>
+        <v>2.125959756394326</v>
       </c>
       <c r="I36" t="n">
-        <v>2.388768768758288</v>
+        <v>2.125959756394326</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2402405365413458</v>
+        <v>0.1747539920969836</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>GODSUSDT</t>
+          <t>BEAMUSDT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>STMXUSDT</t>
+          <t>BOMEUSDT</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.64</v>
+        <v>-4.33</v>
       </c>
       <c r="E37" t="n">
         <v>-3.37</v>
       </c>
       <c r="F37" t="n">
-        <v>32.33442559458765</v>
+        <v>2.086152803150734</v>
       </c>
       <c r="G37" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.301042756854161</v>
+        <v>-2.11993844386029</v>
       </c>
       <c r="I37" t="n">
-        <v>2.301042756854161</v>
+        <v>2.11993844386029</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2385025352465288</v>
+        <v>0.1720913777156695</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GASUSDT</t>
+          <t>DATAUSDT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>KSMUSDT</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.42</v>
+        <v>-4.08</v>
       </c>
       <c r="E38" t="n">
         <v>-3.37</v>
       </c>
       <c r="F38" t="n">
-        <v>1.711091625823256</v>
+        <v>0.001902786590773597</v>
       </c>
       <c r="G38" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.269452560197488</v>
+        <v>-2.325676368269135</v>
       </c>
       <c r="I38" t="n">
-        <v>2.269452560197488</v>
+        <v>2.325676368269135</v>
       </c>
       <c r="J38" t="n">
-        <v>0.2364713940265147</v>
+        <v>0.171763997654701</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BATUSDT</t>
+          <t>DENTUSDT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NEARUSDT</t>
+          <t>PHBUSDT</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.09</v>
+        <v>-4.36</v>
       </c>
       <c r="E39" t="n">
         <v>-3.37</v>
       </c>
       <c r="F39" t="n">
-        <v>0.03547512394428236</v>
+        <v>0.0005391440654888445</v>
       </c>
       <c r="G39" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H39" t="n">
-        <v>-2.377392875789699</v>
+        <v>2.136070410640899</v>
       </c>
       <c r="I39" t="n">
-        <v>2.377392875789699</v>
+        <v>2.136070410640899</v>
       </c>
       <c r="J39" t="n">
-        <v>0.2332072098897895</v>
+        <v>0.1640075152733652</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HIFIUSDT</t>
+          <t>NMRUSDT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>UMAUSDT</t>
+          <t>RIFUSDT</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1874,1171 +1874,1351 @@
         <v>-3.37</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2124707778012213</v>
+        <v>164.9610079290388</v>
       </c>
       <c r="G40" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H40" t="n">
-        <v>2.235013995598116</v>
+        <v>-2.335495585604007</v>
       </c>
       <c r="I40" t="n">
-        <v>2.235013995598116</v>
+        <v>2.335495585604007</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2326792040501396</v>
+        <v>0.1608886479137653</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DYMUSDT</t>
+          <t>NKNUSDT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WAXPUSDT</t>
+          <t>FUNUSDT</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>0.01</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.98</v>
+        <v>-3.94</v>
       </c>
       <c r="E41" t="n">
         <v>-3.37</v>
       </c>
       <c r="F41" t="n">
-        <v>45.13339472483445</v>
+        <v>21.71427419898444</v>
       </c>
       <c r="G41" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H41" t="n">
-        <v>-2.297136518778384</v>
+        <v>2.26644435046042</v>
       </c>
       <c r="I41" t="n">
-        <v>2.297136518778384</v>
+        <v>2.26644435046042</v>
       </c>
       <c r="J41" t="n">
-        <v>0.2185874414651835</v>
+        <v>0.1607890892635499</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>STEEMUSDT</t>
+          <t>DODOUSDT</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.69</v>
+        <v>-4.12</v>
       </c>
       <c r="E42" t="n">
         <v>-3.37</v>
       </c>
       <c r="F42" t="n">
-        <v>0.240062564022435</v>
+        <v>15.3121755553996</v>
       </c>
       <c r="G42" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H42" t="n">
-        <v>-2.293059345596011</v>
+        <v>2.154894098752168</v>
       </c>
       <c r="I42" t="n">
-        <v>2.293059345596011</v>
+        <v>2.154894098752168</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2160666643371133</v>
+        <v>0.1571139275236619</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DYMUSDT</t>
+          <t>LQTYUSDT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TLMUSDT</t>
+          <t>RSRUSDT</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D43" t="n">
-        <v>-4.21</v>
+        <v>-3.95</v>
       </c>
       <c r="E43" t="n">
         <v>-3.37</v>
       </c>
       <c r="F43" t="n">
-        <v>151.4068545971433</v>
+        <v>143.9143261195007</v>
       </c>
       <c r="G43" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.344822129617198</v>
+        <v>2.116574410224658</v>
       </c>
       <c r="I43" t="n">
-        <v>2.344822129617198</v>
+        <v>2.116574410224658</v>
       </c>
       <c r="J43" t="n">
-        <v>0.2130698283454434</v>
+        <v>0.1553864163363875</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BOBAUSDT</t>
+          <t>NEARUSDT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DGBUSDT</t>
+          <t>ZRXUSDT</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D44" t="n">
-        <v>-5.21</v>
+        <v>-3.92</v>
       </c>
       <c r="E44" t="n">
         <v>-3.37</v>
       </c>
       <c r="F44" t="n">
-        <v>31.05911652070101</v>
+        <v>14.37940348134188</v>
       </c>
       <c r="G44" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H44" t="n">
-        <v>-2.055917606919792</v>
+        <v>2.35406608070797</v>
       </c>
       <c r="I44" t="n">
-        <v>2.055917606919792</v>
+        <v>2.35406608070797</v>
       </c>
       <c r="J44" t="n">
-        <v>0.2094500149511532</v>
+        <v>0.1538830986376192</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ETHWUSDT</t>
+          <t>FLMUSDT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>WIFUSDT</t>
+          <t>NKNUSDT</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D45" t="n">
-        <v>-4.38</v>
+        <v>-4.07</v>
       </c>
       <c r="E45" t="n">
         <v>-3.37</v>
       </c>
       <c r="F45" t="n">
-        <v>1.209240269974101</v>
+        <v>0.8083595725552566</v>
       </c>
       <c r="G45" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H45" t="n">
-        <v>-2.22515643016591</v>
+        <v>2.071107495220086</v>
       </c>
       <c r="I45" t="n">
-        <v>2.22515643016591</v>
+        <v>2.071107495220086</v>
       </c>
       <c r="J45" t="n">
-        <v>0.20908460753229</v>
+        <v>0.1504984134960449</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MAVIAUSDT</t>
+          <t>BONDUSDT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>KEYUSDT</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>-4.8</v>
+        <v>-4.42</v>
       </c>
       <c r="E46" t="n">
         <v>-3.37</v>
       </c>
       <c r="F46" t="n">
-        <v>10.25082606934868</v>
+        <v>405.103189235865</v>
       </c>
       <c r="G46" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H46" t="n">
-        <v>-2.107763347129039</v>
+        <v>2.090323514254496</v>
       </c>
       <c r="I46" t="n">
-        <v>2.107763347129039</v>
+        <v>2.090323514254496</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2065044679413683</v>
+        <v>0.1437783138276006</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FUNUSDT</t>
+          <t>BCHUSDT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>XCNUSDT</t>
+          <t>BOMEUSDT</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>-3.92</v>
+        <v>-4.15</v>
       </c>
       <c r="E47" t="n">
         <v>-3.37</v>
       </c>
       <c r="F47" t="n">
-        <v>2.484631893326187</v>
+        <v>42540.10597386001</v>
       </c>
       <c r="G47" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.0469049882671</v>
+        <v>-2.193031519298066</v>
       </c>
       <c r="I47" t="n">
-        <v>2.0469049882671</v>
+        <v>2.193031519298066</v>
       </c>
       <c r="J47" t="n">
-        <v>0.2038778202104573</v>
+        <v>0.1435434488084675</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DGBUSDT</t>
+          <t>WUSDT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TIAUSDT</t>
+          <t>AIUSDT</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>0.01</v>
       </c>
       <c r="D48" t="n">
-        <v>-4.01</v>
+        <v>-3.91</v>
       </c>
       <c r="E48" t="n">
         <v>-3.37</v>
       </c>
       <c r="F48" t="n">
-        <v>0.00120893672361021</v>
+        <v>0.5600562155154223</v>
       </c>
       <c r="G48" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H48" t="n">
-        <v>2.15175298328764</v>
+        <v>-2.255270021805809</v>
       </c>
       <c r="I48" t="n">
-        <v>2.15175298328764</v>
+        <v>2.255270021805809</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1987017597267993</v>
+        <v>0.1406304284255055</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>NEARUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ONGUSDT</t>
+          <t>RLCUSDT</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.01</v>
+        <v>-4.34</v>
       </c>
       <c r="E49" t="n">
         <v>-3.37</v>
       </c>
       <c r="F49" t="n">
-        <v>15.03480062148268</v>
+        <v>0.2164185224885124</v>
       </c>
       <c r="G49" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H49" t="n">
-        <v>2.251943625159164</v>
+        <v>2.261388895597124</v>
       </c>
       <c r="I49" t="n">
-        <v>2.251943625159164</v>
+        <v>2.261388895597124</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1906462166285341</v>
+        <v>0.1281187929280699</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>ONTUSDT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LSKUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-4.39</v>
+        <v>-4.54</v>
       </c>
       <c r="E50" t="n">
         <v>-3.37</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1804291037454961</v>
+        <v>1.593465072901799</v>
       </c>
       <c r="G50" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.249645983420458</v>
+        <v>2.11310734383782</v>
       </c>
       <c r="I50" t="n">
-        <v>2.249645983420458</v>
+        <v>2.11310734383782</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1892256631017747</v>
+        <v>0.1234185027416511</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IOTXUSDT</t>
+          <t>WLDUSDT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>XCNUSDT</t>
+          <t>PORTALUSDT</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-3.96</v>
+        <v>-4.29</v>
       </c>
       <c r="E51" t="n">
         <v>-3.37</v>
       </c>
       <c r="F51" t="n">
-        <v>27.5022622603507</v>
+        <v>5.893990678145287</v>
       </c>
       <c r="G51" t="n">
         <v>25</v>
       </c>
       <c r="H51" t="n">
-        <v>-2.300916550356282</v>
+        <v>2.284815622335735</v>
       </c>
       <c r="I51" t="n">
-        <v>2.300916550356282</v>
+        <v>2.284815622335735</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1859245060731192</v>
+        <v>0.1232606611985659</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>OMGUSDT</t>
+          <t>ICPUSDT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>WUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.17</v>
+        <v>-4.36</v>
       </c>
       <c r="E52" t="n">
         <v>-3.37</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9944608672356742</v>
+        <v>14.86819919653697</v>
       </c>
       <c r="G52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H52" t="n">
-        <v>2.268956679087716</v>
+        <v>-2.139639417232162</v>
       </c>
       <c r="I52" t="n">
-        <v>2.268956679087716</v>
+        <v>2.139639417232162</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1836648076481973</v>
+        <v>0.1199335501351005</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>10000WENUSDT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>XCNUSDT</t>
+          <t>ARKMUSDT</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.18</v>
+        <v>-4.09</v>
       </c>
       <c r="E53" t="n">
         <v>-3.37</v>
       </c>
       <c r="F53" t="n">
-        <v>31.45093142138841</v>
+        <v>0.7589044755542429</v>
       </c>
       <c r="G53" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.240451184326953</v>
+        <v>2.165445557386193</v>
       </c>
       <c r="I53" t="n">
-        <v>2.240451184326953</v>
+        <v>2.165445557386193</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1835408324077256</v>
+        <v>0.1161275910578509</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FXSUSDT</t>
+          <t>NTRNUSDT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.24</v>
+        <v>-4.27</v>
       </c>
       <c r="E54" t="n">
         <v>-3.37</v>
       </c>
       <c r="F54" t="n">
-        <v>9.164437188935171</v>
+        <v>0.2613674922901816</v>
       </c>
       <c r="G54" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.126712440300973</v>
+        <v>2.127950567164076</v>
       </c>
       <c r="I54" t="n">
-        <v>2.126712440300973</v>
+        <v>2.127950567164076</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1832200459972609</v>
+        <v>0.1147647600886804</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>STXUSDT</t>
+          <t>HBARUSDT</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-4.67</v>
+        <v>-4.76</v>
       </c>
       <c r="E55" t="n">
         <v>-3.37</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06486629303372225</v>
+        <v>17.88652514798022</v>
       </c>
       <c r="G55" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H55" t="n">
-        <v>-2.148533121638848</v>
+        <v>-2.188046809807245</v>
       </c>
       <c r="I55" t="n">
-        <v>2.148533121638848</v>
+        <v>2.188046809807245</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1792110290816267</v>
+        <v>0.1109044359589548</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>OPUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>STEEMUSDT</t>
+          <t>NEARUSDT</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-5</v>
+        <v>-4.38</v>
       </c>
       <c r="E56" t="n">
         <v>-3.37</v>
       </c>
       <c r="F56" t="n">
-        <v>9.094085313812274</v>
+        <v>0.00901889603879916</v>
       </c>
       <c r="G56" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.107551408016602</v>
+        <v>-2.256131189226935</v>
       </c>
       <c r="I56" t="n">
-        <v>2.107551408016602</v>
+        <v>2.256131189226935</v>
       </c>
       <c r="J56" t="n">
-        <v>0.171373433216259</v>
+        <v>0.1105764526171956</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>1000FLOKIUSDT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>ORDIUSDT</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-4.8</v>
+        <v>-4.58</v>
       </c>
       <c r="E57" t="n">
         <v>-3.37</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1081514517954269</v>
+        <v>0.004568827567520525</v>
       </c>
       <c r="G57" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H57" t="n">
-        <v>2.012670309353095</v>
+        <v>2.181162755274184</v>
       </c>
       <c r="I57" t="n">
-        <v>2.012670309353095</v>
+        <v>2.181162755274184</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1477116857998938</v>
+        <v>0.1078603185015286</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>HFTUSDT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>LTOUSDT</t>
+          <t>SCRTUSDT</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-4</v>
+        <v>-4.87</v>
       </c>
       <c r="E58" t="n">
         <v>-3.37</v>
       </c>
       <c r="F58" t="n">
-        <v>4.475198656634004</v>
+        <v>0.7395977389109665</v>
       </c>
       <c r="G58" t="n">
         <v>30</v>
       </c>
       <c r="H58" t="n">
-        <v>2.08567809882044</v>
+        <v>2.073753270116849</v>
       </c>
       <c r="I58" t="n">
-        <v>2.08567809882044</v>
+        <v>2.073753270116849</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1403499121219695</v>
+        <v>0.1060161968390017</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>MAVIAUSDT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>API3USDT</t>
+          <t>SKLUSDT</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-4</v>
+        <v>-4.74</v>
       </c>
       <c r="E59" t="n">
         <v>-3.37</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1029889676624894</v>
+        <v>40.52441826644056</v>
       </c>
       <c r="G59" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H59" t="n">
-        <v>2.079909654117948</v>
+        <v>-2.235056314904708</v>
       </c>
       <c r="I59" t="n">
-        <v>2.079909654117948</v>
+        <v>2.235056314904708</v>
       </c>
       <c r="J59" t="n">
-        <v>0.136783479493244</v>
+        <v>0.1012571782667018</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ICPUSDT</t>
+          <t>ANKRUSDT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>ZRXUSDT</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-4.44</v>
+        <v>-4.8</v>
       </c>
       <c r="E60" t="n">
         <v>-3.37</v>
       </c>
       <c r="F60" t="n">
-        <v>14.87802609831048</v>
+        <v>0.085114884964474</v>
       </c>
       <c r="G60" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H60" t="n">
-        <v>-2.103817890056315</v>
+        <v>2.018030884754464</v>
       </c>
       <c r="I60" t="n">
-        <v>2.103817890056315</v>
+        <v>2.018030884754464</v>
       </c>
       <c r="J60" t="n">
-        <v>0.1340651263917614</v>
+        <v>0.09659324207455609</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>RADUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-4.27</v>
+        <v>-4.21</v>
       </c>
       <c r="E61" t="n">
         <v>-3.37</v>
       </c>
       <c r="F61" t="n">
-        <v>0.03769388188107719</v>
+        <v>1.275978390569042</v>
       </c>
       <c r="G61" t="n">
         <v>31</v>
       </c>
       <c r="H61" t="n">
-        <v>-2.031566060524905</v>
+        <v>-2.009950207623076</v>
       </c>
       <c r="I61" t="n">
-        <v>2.031566060524905</v>
+        <v>2.009950207623076</v>
       </c>
       <c r="J61" t="n">
-        <v>0.1243942843163202</v>
+        <v>0.09301998009568191</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LITUSDT</t>
+          <t>LEVERUSDT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>XCNUSDT</t>
+          <t>DUSKUSDT</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-4.2</v>
+        <v>-4.92</v>
       </c>
       <c r="E62" t="n">
         <v>-3.37</v>
       </c>
       <c r="F62" t="n">
-        <v>505.1298860163694</v>
+        <v>0.009259105637055528</v>
       </c>
       <c r="G62" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H62" t="n">
-        <v>-2.192419059118839</v>
+        <v>2.043021189476363</v>
       </c>
       <c r="I62" t="n">
-        <v>2.192419059118839</v>
+        <v>2.043021189476363</v>
       </c>
       <c r="J62" t="n">
-        <v>0.118844207510681</v>
+        <v>0.09242652192700818</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PYTHUSDT</t>
+          <t>ACEUSDT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>USTCUSDT</t>
+          <t>AIUSDT</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-4.46</v>
+        <v>-4.89</v>
       </c>
       <c r="E63" t="n">
         <v>-3.37</v>
       </c>
       <c r="F63" t="n">
-        <v>18.13587560787809</v>
+        <v>5.018161151679283</v>
       </c>
       <c r="G63" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H63" t="n">
-        <v>2.095911313568684</v>
+        <v>-2.202962373945802</v>
       </c>
       <c r="I63" t="n">
-        <v>2.095911313568684</v>
+        <v>2.202962373945802</v>
       </c>
       <c r="J63" t="n">
-        <v>0.1116767598005346</v>
+        <v>0.08706529098843944</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AEVOUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>PORTALUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D64" t="n">
-        <v>-5.23</v>
+        <v>-4.06</v>
       </c>
       <c r="E64" t="n">
         <v>-3.37</v>
       </c>
       <c r="F64" t="n">
-        <v>1.212899708267024</v>
+        <v>4.474627740236064</v>
       </c>
       <c r="G64" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H64" t="n">
-        <v>-2.168299259230033</v>
+        <v>2.020652969196335</v>
       </c>
       <c r="I64" t="n">
-        <v>2.168299259230033</v>
+        <v>2.020652969196335</v>
       </c>
       <c r="J64" t="n">
-        <v>0.1039317578369231</v>
+        <v>0.08253533214648313</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IOTAUSDT</t>
+          <t>1000LUNCUSDT</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CHRUSDT</t>
+          <t>BSVUSDT</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-4.6</v>
+        <v>-4.41</v>
       </c>
       <c r="E65" t="n">
         <v>-3.37</v>
       </c>
       <c r="F65" t="n">
-        <v>0.689706753184843</v>
+        <v>0.001801269061418015</v>
       </c>
       <c r="G65" t="n">
         <v>26</v>
       </c>
       <c r="H65" t="n">
-        <v>2.111248503496946</v>
+        <v>-2.147453656313931</v>
       </c>
       <c r="I65" t="n">
-        <v>2.111248503496946</v>
+        <v>2.147453656313931</v>
       </c>
       <c r="J65" t="n">
-        <v>0.08615922126358458</v>
+        <v>0.07773681973882091</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>PERPUSDT</t>
+          <t>ANKRUSDT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>POLYXUSDT</t>
+          <t>CFXUSDT</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-4.27</v>
+        <v>-4.46</v>
       </c>
       <c r="E66" t="n">
         <v>-3.37</v>
       </c>
       <c r="F66" t="n">
-        <v>2.540717486669356</v>
+        <v>0.1889488258978569</v>
       </c>
       <c r="G66" t="n">
         <v>26</v>
       </c>
       <c r="H66" t="n">
-        <v>-2.09298969141862</v>
+        <v>2.128833241244824</v>
       </c>
       <c r="I66" t="n">
-        <v>2.09298969141862</v>
+        <v>2.128833241244824</v>
       </c>
       <c r="J66" t="n">
-        <v>0.07487042046606993</v>
+        <v>0.06950290318511414</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ONTUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>LTOUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="C67" t="n">
         <v>0.01</v>
       </c>
       <c r="D67" t="n">
-        <v>-3.96</v>
+        <v>-4.05</v>
       </c>
       <c r="E67" t="n">
         <v>-3.37</v>
       </c>
       <c r="F67" t="n">
-        <v>1.597085141672557</v>
+        <v>499.6212564027131</v>
       </c>
       <c r="G67" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H67" t="n">
-        <v>2.043062301772984</v>
+        <v>-2.080963537045242</v>
       </c>
       <c r="I67" t="n">
-        <v>2.043062301772984</v>
+        <v>2.080963537045242</v>
       </c>
       <c r="J67" t="n">
-        <v>0.04400201820464832</v>
+        <v>0.06355239096168691</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NEARUSDT</t>
+          <t>NKNUSDT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>QIUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D68" t="n">
-        <v>-4.22</v>
+        <v>-4.09</v>
       </c>
       <c r="E68" t="n">
         <v>-3.37</v>
       </c>
       <c r="F68" t="n">
-        <v>358.4020761931496</v>
+        <v>0.1860845971912903</v>
       </c>
       <c r="G68" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H68" t="n">
-        <v>2.020396706121377</v>
+        <v>-2.125353901656526</v>
       </c>
       <c r="I68" t="n">
-        <v>2.020396706121377</v>
+        <v>2.125353901656526</v>
       </c>
       <c r="J68" t="n">
-        <v>0.0299886534156144</v>
+        <v>0.05274695370546627</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ATAUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>LSKUSDT</t>
+          <t>IOSTUSDT</t>
         </is>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-4.16</v>
+        <v>-4.97</v>
       </c>
       <c r="E69" t="n">
         <v>-3.37</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1017644596025455</v>
+        <v>203.9975673054143</v>
       </c>
       <c r="G69" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H69" t="n">
-        <v>-2.029809772327</v>
+        <v>-2.043055360919558</v>
       </c>
       <c r="I69" t="n">
-        <v>2.029809772327</v>
+        <v>2.043055360919558</v>
       </c>
       <c r="J69" t="n">
-        <v>0.01830843122116135</v>
+        <v>0.04678945856927416</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1000PEPEUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CTKUSDT</t>
+          <t>GMTUSDT</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-4.38</v>
+        <v>-5.2</v>
       </c>
       <c r="E70" t="n">
         <v>-3.37</v>
       </c>
       <c r="F70" t="n">
-        <v>0.01566619514247803</v>
+        <v>13.04716106610485</v>
       </c>
       <c r="G70" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H70" t="n">
-        <v>2.012247758875979</v>
+        <v>-2.068784078436489</v>
       </c>
       <c r="I70" t="n">
-        <v>2.012247758875979</v>
+        <v>2.068784078436489</v>
       </c>
       <c r="J70" t="n">
-        <v>0.007450437250831699</v>
+        <v>0.04294926333075287</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IOTXUSDT</t>
+          <t>BADGERUSDT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BCHUSDT</t>
+          <t>DODOUSDT</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D71" t="n">
-        <v>-4.43</v>
+        <v>-3.92</v>
       </c>
       <c r="E71" t="n">
         <v>-3.37</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0001119702710941688</v>
+        <v>24.20956577725132</v>
       </c>
       <c r="G71" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H71" t="n">
-        <v>-2.007859653944431</v>
+        <v>2.060570461297752</v>
       </c>
       <c r="I71" t="n">
-        <v>2.007859653944431</v>
+        <v>2.060570461297752</v>
       </c>
       <c r="J71" t="n">
-        <v>0.004737421626466998</v>
+        <v>0.0393172155018803</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GRTUSDT</t>
+          <t>LEVERUSDT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ZBCNUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-3.99</v>
+        <v>-4.34</v>
       </c>
       <c r="E72" t="n">
         <v>-3.37</v>
       </c>
       <c r="F72" t="n">
-        <v>148.7637276664798</v>
+        <v>0.05061483337223702</v>
       </c>
       <c r="G72" t="n">
+        <v>26</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2.046096097591834</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2.046096097591834</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.03291667596072571</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>GASUSDT</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>UMAUSDT</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-4.61</v>
+      </c>
+      <c r="E73" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.52145896731875</v>
+      </c>
+      <c r="G73" t="n">
+        <v>26</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2.044993151663543</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.044993151663543</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.03242895510686217</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>10000000AIDOGEUSDT</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>GASUSDT</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="E74" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0008686430494025163</v>
+      </c>
+      <c r="G74" t="n">
+        <v>27</v>
+      </c>
+      <c r="H74" t="n">
+        <v>2.006070427598899</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.006070427598899</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.03043478260869563</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>WUSDT</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CELRUSDT</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-4.27</v>
+      </c>
+      <c r="E75" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F75" t="n">
+        <v>22.64003533812096</v>
+      </c>
+      <c r="G75" t="n">
         <v>25</v>
       </c>
-      <c r="H72" t="n">
-        <v>2.00019721992996</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2.00019721992996</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
+      <c r="H75" t="n">
+        <v>-2.066659609256556</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.066659609256556</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.02679243529078086</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1000XECUSDT</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>POWRUSDT</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-4.33</v>
+      </c>
+      <c r="E76" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1594598881557869</v>
+      </c>
+      <c r="G76" t="n">
+        <v>26</v>
+      </c>
+      <c r="H76" t="n">
+        <v>2.032218657793306</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2.032218657793306</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.02678009517796176</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>AEVOUSDT</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TOKENUSDT</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-6.05</v>
+      </c>
+      <c r="E77" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F77" t="n">
+        <v>7.450547287390341</v>
+      </c>
+      <c r="G77" t="n">
+        <v>25</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-2.027076924257188</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.027076924257188</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.009289037861301008</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,691 +488,691 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10000WENUSDT</t>
+          <t>GMTUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHBUSDT</t>
+          <t>NKNUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0.01</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.95</v>
+        <v>-4.02</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7150640723670286</v>
+        <v>1.903874143038498</v>
       </c>
       <c r="G2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" t="n">
-        <v>3.475999071637775</v>
+        <v>2.881742842757892</v>
       </c>
       <c r="I2" t="n">
-        <v>3.475999071637775</v>
+        <v>2.881742842757892</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7869565217391306</v>
+        <v>0.7565217391304349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>10000000AIDOGEUSDT</t>
+          <t>10000WENUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHBUSDT</t>
+          <t>METISUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.14</v>
+        <v>-4.15</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001917443053091605</v>
+        <v>0.0274549701972453</v>
       </c>
       <c r="G3" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
-        <v>2.623284684751198</v>
+        <v>2.777526658165551</v>
       </c>
       <c r="I3" t="n">
-        <v>2.623284684751198</v>
+        <v>2.777526658165551</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6229311172865231</v>
+        <v>0.6796596940615345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>APEUSDT</t>
+          <t>10000WENUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10000WENUSDT</t>
+          <t>PHBUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-4</v>
+        <v>-4.33</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6960755626094258</v>
+        <v>0.7143418204770297</v>
       </c>
       <c r="G4" t="n">
         <v>34</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.058939793217119</v>
+        <v>2.711088012287394</v>
       </c>
       <c r="I4" t="n">
-        <v>3.058939793217119</v>
+        <v>2.711088012287394</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6025336029309323</v>
+        <v>0.6610943121201751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALICEUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORDIUSDT</t>
+          <t>STORJUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.12</v>
+        <v>-4.57</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0311642221231152</v>
+        <v>9.115398651437301</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.417223475387952</v>
+        <v>2.778396238780679</v>
       </c>
       <c r="I5" t="n">
-        <v>2.417223475387952</v>
+        <v>2.778396238780679</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4100720630178272</v>
+        <v>0.6194314663167485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALICEUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOMEUSDT</t>
+          <t>PHBUSDT</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.94</v>
+        <v>-5.21</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>126.7173786828693</v>
+        <v>0.001917055838243141</v>
       </c>
       <c r="G6" t="n">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.848353688568157</v>
+        <v>2.36250232490962</v>
       </c>
       <c r="I6" t="n">
-        <v>2.848353688568157</v>
+        <v>2.36250232490962</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4028910388019984</v>
+        <v>0.6170471194990756</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MANTAUSDT</t>
+          <t>CFXUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>NEOUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.25</v>
+        <v>-4.78</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>3.401563983947193</v>
+        <v>0.01448719674706179</v>
       </c>
       <c r="G7" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.406287176980143</v>
+        <v>-2.486338420660518</v>
       </c>
       <c r="I7" t="n">
-        <v>2.406287176980143</v>
+        <v>2.486338420660518</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3900186587587662</v>
+        <v>0.4953358619484017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ALPHAUSDT</t>
+          <t>BONDUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOMEUSDT</t>
+          <t>KEYUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.03</v>
+        <v>-4.4</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>8.866650815231553</v>
+        <v>405.1142239407179</v>
       </c>
       <c r="G8" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.76703154434595</v>
+        <v>2.50174201869493</v>
       </c>
       <c r="I8" t="n">
-        <v>2.76703154434595</v>
+        <v>2.50174201869493</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3669305219709265</v>
+        <v>0.4762616185014058</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CFXUSDT</t>
+          <t>DYMUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>RIFUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.78</v>
+        <v>-4.61</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>0.01448678199192825</v>
+        <v>17.55344926611665</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.525433221258916</v>
+        <v>-2.476908111022334</v>
       </c>
       <c r="I9" t="n">
-        <v>2.525433221258916</v>
+        <v>2.476908111022334</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3666178847230078</v>
+        <v>0.4731633812089618</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RVNUSDT</t>
+          <t>HBARUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZRXUSDT</t>
+          <t>SCRTUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.05</v>
+        <v>-4.61</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05525290918430281</v>
+        <v>0.264386421209921</v>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H10" t="n">
-        <v>2.41896427759029</v>
+        <v>2.506810394257814</v>
       </c>
       <c r="I10" t="n">
-        <v>2.41896427759029</v>
+        <v>2.506810394257814</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3499722776371025</v>
+        <v>0.4647822810556249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>10000WENUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BEAMUSDT</t>
+          <t>RLCUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.32</v>
+        <v>-4.32</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>70.02843639923168</v>
+        <v>0.2164274142501033</v>
       </c>
       <c r="G11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H11" t="n">
-        <v>2.472523833882079</v>
+        <v>2.579346858904474</v>
       </c>
       <c r="I11" t="n">
-        <v>2.472523833882079</v>
+        <v>2.579346858904474</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3432214416817669</v>
+        <v>0.442192783077575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAKEUSDT</t>
+          <t>API3USDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DATAUSDT</t>
+          <t>OMNIUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.13</v>
+        <v>-4.12</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>48.65385912995888</v>
+        <v>0.1606494884840427</v>
       </c>
       <c r="G12" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H12" t="n">
-        <v>2.206760464723713</v>
+        <v>2.531449126462138</v>
       </c>
       <c r="I12" t="n">
-        <v>2.206760464723713</v>
+        <v>2.531449126462138</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3322230612788556</v>
+        <v>0.4220843976411814</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GASUSDT</t>
+          <t>DODOUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>STORJUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.57</v>
+        <v>-4.12</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>9.115104253869516</v>
+        <v>2.779969281005601</v>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H13" t="n">
-        <v>2.638979072882513</v>
+        <v>2.281691525409432</v>
       </c>
       <c r="I13" t="n">
-        <v>2.638979072882513</v>
+        <v>2.281691525409432</v>
       </c>
       <c r="J13" t="n">
-        <v>0.325523323511152</v>
+        <v>0.4204906101233435</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ARPAUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WOOUSDT</t>
+          <t>HBARUSDT</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.88</v>
+        <v>-4.71</v>
       </c>
       <c r="E14" t="n">
         <v>-3.37</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2294252977041584</v>
+        <v>17.88497414784234</v>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.184398178224026</v>
+        <v>-2.520936051390739</v>
       </c>
       <c r="I14" t="n">
-        <v>2.184398178224026</v>
+        <v>2.520936051390739</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3071171041017742</v>
+        <v>0.4143307415933088</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CAKEUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.51</v>
+        <v>-4.97</v>
       </c>
       <c r="E15" t="n">
         <v>-3.37</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02329748425077246</v>
+        <v>0.448563286610086</v>
       </c>
       <c r="G15" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.119464247500825</v>
+        <v>-2.53544857062236</v>
       </c>
       <c r="I15" t="n">
-        <v>2.119464247500825</v>
+        <v>2.53544857062236</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2936208193094988</v>
+        <v>0.4098166965264716</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FLMUSDT</t>
+          <t>10000WENUSDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LITUSDT</t>
+          <t>ALPHAUSDT</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0.01</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.07</v>
+        <v>-4.03</v>
       </c>
       <c r="E16" t="n">
         <v>-3.37</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08637567455468034</v>
+        <v>16.43362487288431</v>
       </c>
       <c r="G16" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
-        <v>2.213591426358027</v>
+        <v>2.238219076474266</v>
       </c>
       <c r="I16" t="n">
-        <v>2.213591426358027</v>
+        <v>2.238219076474266</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2895915272317749</v>
+        <v>0.4036459820553591</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ATAUSDT</t>
+          <t>10000WENUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LOOKSUSDT</t>
+          <t>AGIUSDT</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.71</v>
+        <v>-4.15</v>
       </c>
       <c r="E17" t="n">
         <v>-3.37</v>
       </c>
       <c r="F17" t="n">
-        <v>1.987959842245205</v>
+        <v>6.435041656971579</v>
       </c>
       <c r="G17" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="H17" t="n">
-        <v>2.275514333384116</v>
+        <v>2.50980691293926</v>
       </c>
       <c r="I17" t="n">
-        <v>2.275514333384116</v>
+        <v>2.50980691293926</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2865389510520692</v>
+        <v>0.3909053320758429</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ANKRUSDT</t>
+          <t>ATAUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1000FLOKIUSDT</t>
+          <t>LOOKSUSDT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.94</v>
+        <v>-5.72</v>
       </c>
       <c r="E18" t="n">
         <v>-3.37</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1861462883489125</v>
+        <v>1.987914809731187</v>
       </c>
       <c r="G18" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.573977035619227</v>
+        <v>2.290649911092719</v>
       </c>
       <c r="I18" t="n">
-        <v>2.573977035619227</v>
+        <v>2.290649911092719</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2815621395115048</v>
+        <v>0.3814454699145834</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>FILUSDT</t>
+          <t>GLMRUSDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>HBARUSDT</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.18</v>
+        <v>-5.09</v>
       </c>
       <c r="E19" t="n">
         <v>-3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3798584089438048</v>
+        <v>2.910321200329913</v>
       </c>
       <c r="G19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.370768978320381</v>
+        <v>-2.404162349731477</v>
       </c>
       <c r="I19" t="n">
-        <v>2.370768978320381</v>
+        <v>2.404162349731477</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2677908312937234</v>
+        <v>0.3738593872376334</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ACEUSDT</t>
+          <t>ZBCNUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>GMTUSDT</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D20" t="n">
-        <v>-6.79</v>
+        <v>-3.98</v>
       </c>
       <c r="E20" t="n">
         <v>-3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>10.7035087069934</v>
+        <v>0.008413290618804303</v>
       </c>
       <c r="G20" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.232162480637069</v>
+        <v>-2.462729762262645</v>
       </c>
       <c r="I20" t="n">
-        <v>2.232162480637069</v>
+        <v>2.462729762262645</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2521514426132223</v>
+        <v>0.3714021462339869</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10000WENUSDT</t>
+          <t>ARPAUSDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1184,2041 +1184,1357 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.55</v>
+        <v>-4.87</v>
       </c>
       <c r="E21" t="n">
         <v>-3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>6.064814974963296</v>
+        <v>0.2294341709736852</v>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H21" t="n">
-        <v>2.185059523475754</v>
+        <v>-2.179612661194359</v>
       </c>
       <c r="I21" t="n">
-        <v>2.185059523475754</v>
+        <v>2.179612661194359</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2465399846540238</v>
+        <v>0.3604222836423781</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ALICEUSDT</t>
+          <t>GLMUSDT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1000FLOKIUSDT</t>
+          <t>RVNUSDT</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-5.15</v>
+        <v>-4.77</v>
       </c>
       <c r="E22" t="n">
         <v>-3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>6.733464674211234</v>
+        <v>17.91163661268256</v>
       </c>
       <c r="G22" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.493999704253226</v>
+        <v>-2.355389313509636</v>
       </c>
       <c r="I22" t="n">
-        <v>2.493999704253226</v>
+        <v>2.355389313509636</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2461962966872828</v>
+        <v>0.3378880520472858</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1000FLOKIUSDT</t>
+          <t>RVNUSDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BNTUSDT</t>
+          <t>ZRXUSDT</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>0.01</v>
       </c>
       <c r="D23" t="n">
-        <v>-3.95</v>
+        <v>-4.05</v>
       </c>
       <c r="E23" t="n">
         <v>-3.37</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2858316136569251</v>
+        <v>0.05525119807752111</v>
       </c>
       <c r="G23" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H23" t="n">
-        <v>2.548099919183296</v>
+        <v>2.202970539306726</v>
       </c>
       <c r="I23" t="n">
-        <v>2.548099919183296</v>
+        <v>2.202970539306726</v>
       </c>
       <c r="J23" t="n">
-        <v>0.23968453908198</v>
+        <v>0.3167797382704108</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GMTUSDT</t>
+          <t>ATAUSDT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NKNUSDT</t>
+          <t>ZBCNUSDT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.07</v>
+        <v>-4.35</v>
       </c>
       <c r="E24" t="n">
         <v>-3.37</v>
       </c>
       <c r="F24" t="n">
-        <v>1.903783712974208</v>
+        <v>83.58006381475259</v>
       </c>
       <c r="G24" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H24" t="n">
-        <v>2.301708061191388</v>
+        <v>2.195752270926054</v>
       </c>
       <c r="I24" t="n">
-        <v>2.301708061191388</v>
+        <v>2.195752270926054</v>
       </c>
       <c r="J24" t="n">
-        <v>0.2372522086769793</v>
+        <v>0.311456084638637</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CFXUSDT</t>
+          <t>1000RATSUSDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.27</v>
+        <v>-5.2</v>
       </c>
       <c r="E25" t="n">
         <v>-3.37</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2707224537746473</v>
+        <v>32.75860200978322</v>
       </c>
       <c r="G25" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.222779997710459</v>
+        <v>-2.391425065835239</v>
       </c>
       <c r="I25" t="n">
-        <v>2.222779997710459</v>
+        <v>2.391425065835239</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2327851329739413</v>
+        <v>0.2883783649791989</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1000RATSUSDT</t>
+          <t>RIFUSDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10000000AIDOGEUSDT</t>
+          <t>BELUSDT</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D26" t="n">
-        <v>-5.22</v>
+        <v>-4.03</v>
       </c>
       <c r="E26" t="n">
         <v>-3.37</v>
       </c>
       <c r="F26" t="n">
-        <v>32.75415495711579</v>
+        <v>0.1765327013825581</v>
       </c>
       <c r="G26" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.509961355127396</v>
+        <v>2.200203878597078</v>
       </c>
       <c r="I26" t="n">
-        <v>2.509961355127396</v>
+        <v>2.200203878597078</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2228197295302592</v>
+        <v>0.2843044741281882</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ALPHAUSDT</t>
+          <t>SWEATUSDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WOOUSDT</t>
+          <t>BSVUSDT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.04</v>
+        <v>-4.21</v>
       </c>
       <c r="E27" t="n">
         <v>-3.37</v>
       </c>
       <c r="F27" t="n">
-        <v>0.367415428297219</v>
+        <v>0.0001452630010898553</v>
       </c>
       <c r="G27" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.02301185443725</v>
+        <v>-2.07607276179067</v>
       </c>
       <c r="I27" t="n">
-        <v>2.02301185443725</v>
+        <v>2.07607276179067</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2205349490132668</v>
+        <v>0.2840590158301288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBARUSDT</t>
+          <t>HFTUSDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SCRTUSDT</t>
+          <t>RONUSDT</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.65</v>
+        <v>-4.14</v>
       </c>
       <c r="E28" t="n">
         <v>-3.37</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2643749589707426</v>
+        <v>0.09743516858981496</v>
       </c>
       <c r="G28" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H28" t="n">
-        <v>2.296699045818769</v>
+        <v>2.320568385903307</v>
       </c>
       <c r="I28" t="n">
-        <v>2.296699045818769</v>
+        <v>2.320568385903307</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2198198391113356</v>
+        <v>0.2817719636271383</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>GTCUSDT</t>
+          <t>TNSRUSDT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RONUSDT</t>
+          <t>YGGUSDT</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.06</v>
+        <v>-4.23</v>
       </c>
       <c r="E29" t="n">
         <v>-3.37</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4337949974109304</v>
+        <v>1.015243620914033</v>
       </c>
       <c r="G29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H29" t="n">
-        <v>2.416128009236761</v>
+        <v>2.316624534879162</v>
       </c>
       <c r="I29" t="n">
-        <v>2.416128009236761</v>
+        <v>2.316624534879162</v>
       </c>
       <c r="J29" t="n">
-        <v>0.211761562752427</v>
+        <v>0.2788632747670672</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1000FLOKIUSDT</t>
+          <t>C98USDT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>KNCUSDT</t>
+          <t>NFPUSDT</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.12</v>
+        <v>-4.86</v>
       </c>
       <c r="E30" t="n">
         <v>-3.37</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3224103980630224</v>
+        <v>0.5526533559139817</v>
       </c>
       <c r="G30" t="n">
         <v>25</v>
       </c>
       <c r="H30" t="n">
-        <v>2.472858814725195</v>
+        <v>-2.377015300280308</v>
       </c>
       <c r="I30" t="n">
-        <v>2.472858814725195</v>
+        <v>2.377015300280308</v>
       </c>
       <c r="J30" t="n">
-        <v>0.2064130479139556</v>
+        <v>0.2777508021505669</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FUNUSDT</t>
+          <t>1CATUSDT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>MAVIAUSDT</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D31" t="n">
-        <v>-4.53</v>
+        <v>-3.96</v>
       </c>
       <c r="E31" t="n">
         <v>-3.37</v>
       </c>
       <c r="F31" t="n">
-        <v>0.008837644374454098</v>
+        <v>0.001362091505185056</v>
       </c>
       <c r="G31" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H31" t="n">
-        <v>-2.237808578820255</v>
+        <v>2.287972694374449</v>
       </c>
       <c r="I31" t="n">
-        <v>2.237808578820255</v>
+        <v>2.287972694374449</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1937785726156664</v>
+        <v>0.2729492164333898</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HFTUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>RONUSDT</t>
+          <t>GMTUSDT</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.15</v>
+        <v>-5.14</v>
       </c>
       <c r="E32" t="n">
         <v>-3.37</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09743551383286107</v>
+        <v>13.04672193744585</v>
       </c>
       <c r="G32" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H32" t="n">
-        <v>2.319274742706484</v>
+        <v>-2.34341947307288</v>
       </c>
       <c r="I32" t="n">
-        <v>2.319274742706484</v>
+        <v>2.34341947307288</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1841506007894341</v>
+        <v>0.2681904298566293</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>API3USDT</t>
+          <t>1000LUNCUSDT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SPELLUSDT</t>
+          <t>BSVUSDT</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>-4.33</v>
+        <v>-4.29</v>
       </c>
       <c r="E33" t="n">
         <v>-3.37</v>
       </c>
       <c r="F33" t="n">
-        <v>2876.081779100446</v>
+        <v>0.001801114008414801</v>
       </c>
       <c r="G33" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="H33" t="n">
-        <v>-2.098714629912229</v>
+        <v>-2.339477811520092</v>
       </c>
       <c r="I33" t="n">
-        <v>2.098714629912229</v>
+        <v>2.339477811520092</v>
       </c>
       <c r="J33" t="n">
-        <v>0.177923633814859</v>
+        <v>0.2652833557864948</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>SPELLUSDT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>CTSIUSDT</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.98</v>
+        <v>-4.22</v>
       </c>
       <c r="E34" t="n">
         <v>-3.37</v>
       </c>
       <c r="F34" t="n">
-        <v>0.448567956030548</v>
+        <v>0.004321136539523302</v>
       </c>
       <c r="G34" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="H34" t="n">
-        <v>-2.372458319892113</v>
+        <v>2.172744094508961</v>
       </c>
       <c r="I34" t="n">
-        <v>2.372458319892113</v>
+        <v>2.172744094508961</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1772335074990947</v>
+        <v>0.2640521959391606</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>C98USDT</t>
+          <t>NMRUSDT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NFPUSDT</t>
+          <t>RIFUSDT</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.86</v>
+        <v>-3.95</v>
       </c>
       <c r="E35" t="n">
         <v>-3.37</v>
       </c>
       <c r="F35" t="n">
-        <v>0.5526491072766455</v>
+        <v>164.9653529408988</v>
       </c>
       <c r="G35" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H35" t="n">
-        <v>-2.402087090356334</v>
+        <v>-2.328364448260831</v>
       </c>
       <c r="I35" t="n">
-        <v>2.402087090356334</v>
+        <v>2.328364448260831</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1751179091830289</v>
+        <v>0.2570869721725514</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>FLMUSDT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>NKNUSDT</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.73</v>
+        <v>-4.07</v>
       </c>
       <c r="E36" t="n">
         <v>-3.37</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2385860506025419</v>
+        <v>0.8083596531816482</v>
       </c>
       <c r="G36" t="n">
         <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>2.125959756394326</v>
+        <v>2.175136546631835</v>
       </c>
       <c r="I36" t="n">
-        <v>2.125959756394326</v>
+        <v>2.175136546631835</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1747539920969836</v>
+        <v>0.2505992979677136</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BEAMUSDT</t>
+          <t>CFXUSDT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BOMEUSDT</t>
+          <t>KDAUSDT</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.33</v>
+        <v>-4.26</v>
       </c>
       <c r="E37" t="n">
         <v>-3.37</v>
       </c>
       <c r="F37" t="n">
-        <v>2.086152803150734</v>
+        <v>0.2707329198852226</v>
       </c>
       <c r="G37" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.11993844386029</v>
+        <v>-2.13591556280264</v>
       </c>
       <c r="I37" t="n">
-        <v>2.11993844386029</v>
+        <v>2.13591556280264</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1720913777156695</v>
+        <v>0.2368902318459107</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DATAUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KSMUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-4.08</v>
+        <v>-4.73</v>
       </c>
       <c r="E38" t="n">
         <v>-3.37</v>
       </c>
       <c r="F38" t="n">
-        <v>0.001902786590773597</v>
+        <v>0.2385844052553632</v>
       </c>
       <c r="G38" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H38" t="n">
-        <v>-2.325676368269135</v>
+        <v>2.148156207118713</v>
       </c>
       <c r="I38" t="n">
-        <v>2.325676368269135</v>
+        <v>2.148156207118713</v>
       </c>
       <c r="J38" t="n">
-        <v>0.171763997654701</v>
+        <v>0.2307006221550871</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DENTUSDT</t>
+          <t>1000XECUSDT</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>PHBUSDT</t>
+          <t>POWRUSDT</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.36</v>
+        <v>-4.2</v>
       </c>
       <c r="E39" t="n">
         <v>-3.37</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0005391440654888445</v>
+        <v>0.1594670997501567</v>
       </c>
       <c r="G39" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H39" t="n">
-        <v>2.136070410640899</v>
+        <v>2.271199588623904</v>
       </c>
       <c r="I39" t="n">
-        <v>2.136070410640899</v>
+        <v>2.271199588623904</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1640075152733652</v>
+        <v>0.2149264571339518</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NMRUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>RIFUSDT</t>
+          <t>VANRYUSDT</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-3.95</v>
+        <v>-5.47</v>
       </c>
       <c r="E40" t="n">
         <v>-3.37</v>
       </c>
       <c r="F40" t="n">
-        <v>164.9610079290388</v>
+        <v>10.10807831275138</v>
       </c>
       <c r="G40" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H40" t="n">
-        <v>-2.335495585604007</v>
+        <v>-2.200008588703377</v>
       </c>
       <c r="I40" t="n">
-        <v>2.335495585604007</v>
+        <v>2.200008588703377</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1608886479137653</v>
+        <v>0.2080734864209871</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NKNUSDT</t>
+          <t>1CATUSDT</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FUNUSDT</t>
+          <t>BLZUSDT</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>0.01</v>
       </c>
       <c r="D41" t="n">
-        <v>-3.94</v>
+        <v>-4.01</v>
       </c>
       <c r="E41" t="n">
         <v>-3.37</v>
       </c>
       <c r="F41" t="n">
-        <v>21.71427419898444</v>
+        <v>0.01398151677433003</v>
       </c>
       <c r="G41" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H41" t="n">
-        <v>2.26644435046042</v>
+        <v>2.227498741678533</v>
       </c>
       <c r="I41" t="n">
-        <v>2.26644435046042</v>
+        <v>2.227498741678533</v>
       </c>
       <c r="J41" t="n">
-        <v>0.1607890892635499</v>
+        <v>0.1826959885114124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CAKEUSDT</t>
+          <t>GTCUSDT</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DODOUSDT</t>
+          <t>RONUSDT</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.12</v>
+        <v>-5.06</v>
       </c>
       <c r="E42" t="n">
         <v>-3.37</v>
       </c>
       <c r="F42" t="n">
-        <v>15.3121755553996</v>
+        <v>0.4337814776098862</v>
       </c>
       <c r="G42" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H42" t="n">
-        <v>2.154894098752168</v>
+        <v>2.193719541258775</v>
       </c>
       <c r="I42" t="n">
-        <v>2.154894098752168</v>
+        <v>2.193719541258775</v>
       </c>
       <c r="J42" t="n">
-        <v>0.1571139275236619</v>
+        <v>0.1730003738828442</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LQTYUSDT</t>
+          <t>DATAUSDT</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>RSRUSDT</t>
+          <t>KSMUSDT</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>0.01</v>
       </c>
       <c r="D43" t="n">
-        <v>-3.95</v>
+        <v>-4.08</v>
       </c>
       <c r="E43" t="n">
         <v>-3.37</v>
       </c>
       <c r="F43" t="n">
-        <v>143.9143261195007</v>
+        <v>0.001902835557334649</v>
       </c>
       <c r="G43" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H43" t="n">
-        <v>2.116574410224658</v>
+        <v>-2.191249478881041</v>
       </c>
       <c r="I43" t="n">
-        <v>2.116574410224658</v>
+        <v>2.191249478881041</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1553864163363875</v>
+        <v>0.1711786410441012</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NEARUSDT</t>
+          <t>KAVAUSDT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ZRXUSDT</t>
+          <t>TIAUSDT</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>-3.92</v>
+        <v>-4.39</v>
       </c>
       <c r="E44" t="n">
         <v>-3.37</v>
       </c>
       <c r="F44" t="n">
-        <v>14.37940348134188</v>
+        <v>0.06675446971197804</v>
       </c>
       <c r="G44" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H44" t="n">
-        <v>2.35406608070797</v>
+        <v>2.208066162018204</v>
       </c>
       <c r="I44" t="n">
-        <v>2.35406608070797</v>
+        <v>2.208066162018204</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1538830986376192</v>
+        <v>0.1683639745396881</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FLMUSDT</t>
+          <t>OMNIUSDT</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NKNUSDT</t>
+          <t>SSVUSDT</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>0.01</v>
       </c>
       <c r="D45" t="n">
-        <v>-4.07</v>
+        <v>-4.03</v>
       </c>
       <c r="E45" t="n">
         <v>-3.37</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8083595725552566</v>
+        <v>0.3973522868564937</v>
       </c>
       <c r="G45" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H45" t="n">
-        <v>2.071107495220086</v>
+        <v>2.000416826460798</v>
       </c>
       <c r="I45" t="n">
-        <v>2.071107495220086</v>
+        <v>2.000416826460798</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1504984134960449</v>
+        <v>0.167391304347826</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BONDUSDT</t>
+          <t>WUSDT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>KEYUSDT</t>
+          <t>AIUSDT</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D46" t="n">
-        <v>-4.42</v>
+        <v>-3.91</v>
       </c>
       <c r="E46" t="n">
         <v>-3.37</v>
       </c>
       <c r="F46" t="n">
-        <v>405.103189235865</v>
+        <v>0.5600709210719336</v>
       </c>
       <c r="G46" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H46" t="n">
-        <v>2.090323514254496</v>
+        <v>-2.185975196152638</v>
       </c>
       <c r="I46" t="n">
-        <v>2.090323514254496</v>
+        <v>2.185975196152638</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1437783138276006</v>
+        <v>0.1672887254963156</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCHUSDT</t>
+          <t>APEUSDT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BOMEUSDT</t>
+          <t>10000WENUSDT</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D47" t="n">
-        <v>-4.15</v>
+        <v>-3.9</v>
       </c>
       <c r="E47" t="n">
         <v>-3.37</v>
       </c>
       <c r="F47" t="n">
-        <v>42540.10597386001</v>
+        <v>0.6969741346114504</v>
       </c>
       <c r="G47" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H47" t="n">
-        <v>-2.193031519298066</v>
+        <v>-2.048445941960516</v>
       </c>
       <c r="I47" t="n">
-        <v>2.193031519298066</v>
+        <v>2.048445941960516</v>
       </c>
       <c r="J47" t="n">
-        <v>0.1435434488084675</v>
+        <v>0.1571618054693668</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>WUSDT</t>
+          <t>FILUSDT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AIUSDT</t>
+          <t>NEOUSDT</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>-3.91</v>
+        <v>-6.22</v>
       </c>
       <c r="E48" t="n">
         <v>-3.37</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5600562155154223</v>
+        <v>0.3798779059752377</v>
       </c>
       <c r="G48" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H48" t="n">
-        <v>-2.255270021805809</v>
+        <v>-2.050067385826005</v>
       </c>
       <c r="I48" t="n">
-        <v>2.255270021805809</v>
+        <v>2.050067385826005</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1406304284255055</v>
+        <v>0.1431402696067953</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>KAVAUSDT</t>
+          <t>GMTUSDT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>RLCUSDT</t>
+          <t>TIAUSDT</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.34</v>
+        <v>-3.94</v>
       </c>
       <c r="E49" t="n">
         <v>-3.37</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2164185224885124</v>
+        <v>0.02373023125850106</v>
       </c>
       <c r="G49" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H49" t="n">
-        <v>2.261388895597124</v>
+        <v>2.177304520730825</v>
       </c>
       <c r="I49" t="n">
-        <v>2.261388895597124</v>
+        <v>2.177304520730825</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1281187929280699</v>
+        <v>0.1304591027036684</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ONTUSDT</t>
+          <t>ATAUSDT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>LTOUSDT</t>
+          <t>TIAUSDT</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-4.54</v>
+        <v>-6.29</v>
       </c>
       <c r="E50" t="n">
         <v>-3.37</v>
       </c>
       <c r="F50" t="n">
-        <v>1.593465072901799</v>
+        <v>0.01680967202599807</v>
       </c>
       <c r="G50" t="n">
         <v>30</v>
       </c>
       <c r="H50" t="n">
-        <v>2.11310734383782</v>
+        <v>2.058780848551847</v>
       </c>
       <c r="I50" t="n">
-        <v>2.11310734383782</v>
+        <v>2.058780848551847</v>
       </c>
       <c r="J50" t="n">
-        <v>0.1234185027416511</v>
+        <v>0.1191318838899034</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>WLDUSDT</t>
+          <t>STXUSDT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>PORTALUSDT</t>
+          <t>1000BTTUSDT</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>-4.29</v>
+        <v>-4.32</v>
       </c>
       <c r="E51" t="n">
         <v>-3.37</v>
       </c>
       <c r="F51" t="n">
-        <v>5.893990678145287</v>
+        <v>1871.847738726693</v>
       </c>
       <c r="G51" t="n">
         <v>25</v>
       </c>
       <c r="H51" t="n">
-        <v>2.284815622335735</v>
+        <v>-2.157397840977734</v>
       </c>
       <c r="I51" t="n">
-        <v>2.284815622335735</v>
+        <v>2.157397840977734</v>
       </c>
       <c r="J51" t="n">
-        <v>0.1232606611985659</v>
+        <v>0.1157774280449832</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ICPUSDT</t>
+          <t>ACEUSDT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KDAUSDT</t>
+          <t>AIUSDT</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.36</v>
+        <v>-4.89</v>
       </c>
       <c r="E52" t="n">
         <v>-3.37</v>
       </c>
       <c r="F52" t="n">
-        <v>14.86819919653697</v>
+        <v>5.018245023576972</v>
       </c>
       <c r="G52" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.139639417232162</v>
+        <v>-2.152878047936907</v>
       </c>
       <c r="I52" t="n">
-        <v>2.139639417232162</v>
+        <v>2.152878047936907</v>
       </c>
       <c r="J52" t="n">
-        <v>0.1199335501351005</v>
+        <v>0.1124439675295646</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>10000WENUSDT</t>
+          <t>ANKRUSDT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ARKMUSDT</t>
+          <t>CFXUSDT</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.09</v>
+        <v>-4.45</v>
       </c>
       <c r="E53" t="n">
         <v>-3.37</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7589044755542429</v>
+        <v>0.1889472444547018</v>
       </c>
       <c r="G53" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H53" t="n">
-        <v>2.165445557386193</v>
+        <v>2.127483915953289</v>
       </c>
       <c r="I53" t="n">
-        <v>2.165445557386193</v>
+        <v>2.127483915953289</v>
       </c>
       <c r="J53" t="n">
-        <v>0.1161275910578509</v>
+        <v>0.1089325507831722</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>NTRNUSDT</t>
+          <t>ONTUSDT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SNXUSDT</t>
+          <t>TIAUSDT</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.27</v>
+        <v>-4.82</v>
       </c>
       <c r="E54" t="n">
         <v>-3.37</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2613674922901816</v>
+        <v>0.03271018429691348</v>
       </c>
       <c r="G54" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H54" t="n">
-        <v>2.127950567164076</v>
+        <v>2.003666613814955</v>
       </c>
       <c r="I54" t="n">
-        <v>2.127950567164076</v>
+        <v>2.003666613814955</v>
       </c>
       <c r="J54" t="n">
-        <v>0.1147647600886804</v>
+        <v>0.1089185386588058</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>COREUSDT</t>
+          <t>GLMUSDT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HBARUSDT</t>
+          <t>ONTUSDT</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-4.76</v>
+        <v>-5.83</v>
       </c>
       <c r="E55" t="n">
         <v>-3.37</v>
       </c>
       <c r="F55" t="n">
-        <v>17.88652514798022</v>
+        <v>1.677972829899595</v>
       </c>
       <c r="G55" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H55" t="n">
-        <v>-2.188046809807245</v>
+        <v>-2.042010480610843</v>
       </c>
       <c r="I55" t="n">
-        <v>2.188046809807245</v>
+        <v>2.042010480610843</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1109044359589548</v>
+        <v>0.1067633177065832</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>IOTXUSDT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NEARUSDT</t>
+          <t>BOMEUSDT</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D56" t="n">
-        <v>-4.38</v>
+        <v>-4</v>
       </c>
       <c r="E56" t="n">
         <v>-3.37</v>
       </c>
       <c r="F56" t="n">
-        <v>0.00901889603879916</v>
+        <v>4.764561182531452</v>
       </c>
       <c r="G56" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.256131189226935</v>
+        <v>-2.022333056679782</v>
       </c>
       <c r="I56" t="n">
-        <v>2.256131189226935</v>
+        <v>2.022333056679782</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1105764526171956</v>
+        <v>0.07703333365145226</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1000FLOKIUSDT</t>
+          <t>AEVOUSDT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ORDIUSDT</t>
+          <t>TOKENUSDT</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-4.58</v>
+        <v>-6.05</v>
       </c>
       <c r="E57" t="n">
         <v>-3.37</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004568827567520525</v>
+        <v>7.450620804127173</v>
       </c>
       <c r="G57" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H57" t="n">
-        <v>2.181162755274184</v>
+        <v>-2.055655819707743</v>
       </c>
       <c r="I57" t="n">
-        <v>2.181162755274184</v>
+        <v>2.055655819707743</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1078603185015286</v>
+        <v>0.04074014036414269</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HFTUSDT</t>
+          <t>MAVIAUSDT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SCRTUSDT</t>
+          <t>SKLUSDT</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-4.87</v>
+        <v>-4.75</v>
       </c>
       <c r="E58" t="n">
         <v>-3.37</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7395977389109665</v>
+        <v>40.52629729394546</v>
       </c>
       <c r="G58" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H58" t="n">
-        <v>2.073753270116849</v>
+        <v>-2.007681853369622</v>
       </c>
       <c r="I58" t="n">
-        <v>2.073753270116849</v>
+        <v>2.007681853369622</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1060161968390017</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>MAVIAUSDT</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>SKLUSDT</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-4.74</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F59" t="n">
-        <v>40.52441826644056</v>
-      </c>
-      <c r="G59" t="n">
-        <v>25</v>
-      </c>
-      <c r="H59" t="n">
-        <v>-2.235056314904708</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2.235056314904708</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.1012571782667018</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>ANKRUSDT</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>ZRXUSDT</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-4.8</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.085114884964474</v>
-      </c>
-      <c r="G60" t="n">
-        <v>31</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2.018030884754464</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2.018030884754464</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.09659324207455609</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>HOOKUSDT</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>KAVAUSDT</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-4.21</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1.275978390569042</v>
-      </c>
-      <c r="G61" t="n">
-        <v>31</v>
-      </c>
-      <c r="H61" t="n">
-        <v>-2.009950207623076</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2.009950207623076</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.09301998009568191</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>LEVERUSDT</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>DUSKUSDT</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-4.92</v>
-      </c>
-      <c r="E62" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.009259105637055528</v>
-      </c>
-      <c r="G62" t="n">
-        <v>30</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2.043021189476363</v>
-      </c>
-      <c r="I62" t="n">
-        <v>2.043021189476363</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.09242652192700818</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>ACEUSDT</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>AIUSDT</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>-4.89</v>
-      </c>
-      <c r="E63" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F63" t="n">
-        <v>5.018161151679283</v>
-      </c>
-      <c r="G63" t="n">
-        <v>25</v>
-      </c>
-      <c r="H63" t="n">
-        <v>-2.202962373945802</v>
-      </c>
-      <c r="I63" t="n">
-        <v>2.202962373945802</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.08706529098843944</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>KDAUSDT</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>LTOUSDT</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D64" t="n">
-        <v>-4.06</v>
-      </c>
-      <c r="E64" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F64" t="n">
-        <v>4.474627740236064</v>
-      </c>
-      <c r="G64" t="n">
-        <v>30</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2.020652969196335</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2.020652969196335</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.08253533214648313</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>1000LUNCUSDT</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>BSVUSDT</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="E65" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.001801269061418015</v>
-      </c>
-      <c r="G65" t="n">
-        <v>26</v>
-      </c>
-      <c r="H65" t="n">
-        <v>-2.147453656313931</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2.147453656313931</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.07773681973882091</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>ANKRUSDT</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>CFXUSDT</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>0</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-4.46</v>
-      </c>
-      <c r="E66" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.1889488258978569</v>
-      </c>
-      <c r="G66" t="n">
-        <v>26</v>
-      </c>
-      <c r="H66" t="n">
-        <v>2.128833241244824</v>
-      </c>
-      <c r="I66" t="n">
-        <v>2.128833241244824</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.06950290318511414</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>STXUSDT</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>10000000AIDOGEUSDT</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D67" t="n">
-        <v>-4.05</v>
-      </c>
-      <c r="E67" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F67" t="n">
-        <v>499.6212564027131</v>
-      </c>
-      <c r="G67" t="n">
-        <v>27</v>
-      </c>
-      <c r="H67" t="n">
-        <v>-2.080963537045242</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2.080963537045242</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.06355239096168691</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>NKNUSDT</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>KAVAUSDT</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-4.09</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.1860845971912903</v>
-      </c>
-      <c r="G68" t="n">
-        <v>25</v>
-      </c>
-      <c r="H68" t="n">
-        <v>-2.125353901656526</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2.125353901656526</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.05274695370546627</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>COREUSDT</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>IOSTUSDT</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-4.97</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F69" t="n">
-        <v>203.9975673054143</v>
-      </c>
-      <c r="G69" t="n">
-        <v>27</v>
-      </c>
-      <c r="H69" t="n">
-        <v>-2.043055360919558</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2.043055360919558</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.04678945856927416</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>CAKEUSDT</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>GMTUSDT</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>0</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-5.2</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F70" t="n">
-        <v>13.04716106610485</v>
-      </c>
-      <c r="G70" t="n">
-        <v>26</v>
-      </c>
-      <c r="H70" t="n">
-        <v>-2.068784078436489</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2.068784078436489</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.04294926333075287</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>BADGERUSDT</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>DODOUSDT</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-3.92</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F71" t="n">
-        <v>24.20956577725132</v>
-      </c>
-      <c r="G71" t="n">
-        <v>26</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2.060570461297752</v>
-      </c>
-      <c r="I71" t="n">
-        <v>2.060570461297752</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.0393172155018803</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>LEVERUSDT</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>MDTUSDT</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
-        <v>0</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-4.34</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.05061483337223702</v>
-      </c>
-      <c r="G72" t="n">
-        <v>26</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2.046096097591834</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2.046096097591834</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.03291667596072571</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>GASUSDT</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>UMAUSDT</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-4.61</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F73" t="n">
-        <v>1.52145896731875</v>
-      </c>
-      <c r="G73" t="n">
-        <v>26</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2.044993151663543</v>
-      </c>
-      <c r="I73" t="n">
-        <v>2.044993151663543</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.03242895510686217</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>10000000AIDOGEUSDT</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>GASUSDT</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>0</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-4.4</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.0008686430494025163</v>
-      </c>
-      <c r="G74" t="n">
-        <v>27</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2.006070427598899</v>
-      </c>
-      <c r="I74" t="n">
-        <v>2.006070427598899</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.03043478260869563</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>WUSDT</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>CELRUSDT</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-4.27</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F75" t="n">
-        <v>22.64003533812096</v>
-      </c>
-      <c r="G75" t="n">
-        <v>25</v>
-      </c>
-      <c r="H75" t="n">
-        <v>-2.066659609256556</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2.066659609256556</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.02679243529078086</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>1000XECUSDT</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>POWRUSDT</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
-        <v>0</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-4.33</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.1594598881557869</v>
-      </c>
-      <c r="G76" t="n">
-        <v>26</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2.032218657793306</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2.032218657793306</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.02678009517796176</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>AEVOUSDT</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>TOKENUSDT</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-6.05</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F77" t="n">
-        <v>7.450547287390341</v>
-      </c>
-      <c r="G77" t="n">
-        <v>25</v>
-      </c>
-      <c r="H77" t="n">
-        <v>-2.027076924257188</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2.027076924257188</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.009289037861301008</v>
+        <v>0.005358139216831747</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,145 +488,145 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OXTUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>OPUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.39</v>
+        <v>-4.22</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08247466140846027</v>
+        <v>0.02630931385315502</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>2.352112130807467</v>
+        <v>-2.344829892748583</v>
       </c>
       <c r="I2" t="n">
-        <v>2.352112130807467</v>
+        <v>2.344829892748583</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7584172316917184</v>
+        <v>0.768272039826176</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>OXTUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OXTUSDT</t>
+          <t>XNOUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.38</v>
+        <v>-5.38</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>41.14526446698932</v>
+        <v>0.08247761341216867</v>
       </c>
       <c r="G3" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.431313987832695</v>
+        <v>2.545851205094876</v>
       </c>
       <c r="I3" t="n">
-        <v>2.431313987832695</v>
+        <v>2.545851205094876</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6062510422563749</v>
+        <v>0.7409023891801644</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BADGERUSDT</t>
+          <t>FORTHUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZRXUSDT</t>
+          <t>OXTUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.28</v>
+        <v>-4.38</v>
       </c>
       <c r="E4" t="n">
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>8.831067654331616</v>
+        <v>41.1443019975694</v>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.061315903208946</v>
+        <v>-2.538145927779023</v>
       </c>
       <c r="I4" t="n">
-        <v>2.061315903208946</v>
+        <v>2.538145927779023</v>
       </c>
       <c r="J4" t="n">
-        <v>0.548054664656434</v>
+        <v>0.5881184207701099</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ACHUSDT</t>
+          <t>CTKUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ETCUSDT</t>
+          <t>ETHUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.69</v>
+        <v>-5.22</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001014502900487396</v>
+        <v>0.0002166167438420248</v>
       </c>
       <c r="G5" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.613317269620882</v>
+        <v>2.210268589079773</v>
       </c>
       <c r="I5" t="n">
-        <v>2.613317269620882</v>
+        <v>2.210268589079773</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5457632283866978</v>
+        <v>0.5196541376698227</v>
       </c>
     </row>
     <row r="6">
@@ -644,817 +644,1141 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.34</v>
+        <v>-4.37</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01819900494190995</v>
+        <v>0.0182005682566838</v>
       </c>
       <c r="G6" t="n">
         <v>36</v>
       </c>
       <c r="H6" t="n">
-        <v>-3.114216567478185</v>
+        <v>-2.92839498038469</v>
       </c>
       <c r="I6" t="n">
-        <v>3.114216567478185</v>
+        <v>2.92839498038469</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5272727272727273</v>
+        <v>0.4791180227276642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DENTUSDT</t>
+          <t>ATAUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ONEUSDT</t>
+          <t>LOOKSUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.42</v>
+        <v>-4.78</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06566581706386979</v>
+        <v>1.976496303427513</v>
       </c>
       <c r="G7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H7" t="n">
-        <v>2.174515730723448</v>
+        <v>2.095450541359168</v>
       </c>
       <c r="I7" t="n">
-        <v>2.174515730723448</v>
+        <v>2.095450541359168</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4657565474309315</v>
+        <v>0.4781696063992048</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10000000AIDOGEUSDT</t>
+          <t>HFTUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SEIUSDT</t>
+          <t>HOOKUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.27</v>
+        <v>-4.15</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00870440655247714</v>
+        <v>0.3518315146183657</v>
       </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.016787714461953</v>
+        <v>2.06548177402872</v>
       </c>
       <c r="I8" t="n">
-        <v>2.016787714461953</v>
+        <v>2.06548177402872</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4157576641089999</v>
+        <v>0.4673416896200664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>MERLUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>REQUSDT</t>
+          <t>RIFUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.64</v>
+        <v>-5.11</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>1.317828317876204</v>
+        <v>2.986320444220953</v>
       </c>
       <c r="G9" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H9" t="n">
-        <v>2.206287388041567</v>
+        <v>-2.036469577317154</v>
       </c>
       <c r="I9" t="n">
-        <v>2.206287388041567</v>
+        <v>2.036469577317154</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3576461637656</v>
+        <v>0.406859388225786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TRBUSDT</t>
+          <t>AUDIOUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>EOSUSDT</t>
+          <t>REQUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.9</v>
+        <v>-4.61</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>134.8896255762771</v>
+        <v>1.317896582246113</v>
       </c>
       <c r="G10" t="n">
         <v>38</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.061668589333078</v>
+        <v>2.446789073733552</v>
       </c>
       <c r="I10" t="n">
-        <v>2.061668589333078</v>
+        <v>2.446789073733552</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3118028277865572</v>
+        <v>0.4051105762398071</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>ARPAUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>REQUSDT</t>
+          <t>BEAMUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.94</v>
+        <v>-4.35</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>449.4889299364784</v>
+        <v>2.642925639851157</v>
       </c>
       <c r="G11" t="n">
         <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>2.683106882323872</v>
+        <v>-2.986190688556371</v>
       </c>
       <c r="I11" t="n">
-        <v>2.683106882323872</v>
+        <v>2.986190688556371</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2724315928965723</v>
+        <v>0.3999999999999998</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DYMUSDT</t>
+          <t>DENTUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NEARUSDT</t>
+          <t>ONEUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.03</v>
+        <v>-4.46</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3503093604670302</v>
+        <v>0.06566508309786598</v>
       </c>
       <c r="G12" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.311196558118358</v>
+        <v>2.136769650146193</v>
       </c>
       <c r="I12" t="n">
-        <v>2.311196558118358</v>
+        <v>2.136769650146193</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2136290462342265</v>
+        <v>0.3930984777271729</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>ACHUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TIAUSDT</t>
+          <t>ETCUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.29</v>
+        <v>-4.91</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06501784029518659</v>
+        <v>0.001014727228474582</v>
       </c>
       <c r="G13" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H13" t="n">
-        <v>2.233341507060626</v>
+        <v>-2.25978949545775</v>
       </c>
       <c r="I13" t="n">
-        <v>2.233341507060626</v>
+        <v>2.25978949545775</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1889494382221345</v>
+        <v>0.3875463735157545</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHRUSDT</t>
+          <t>10000000AIDOGEUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LEVERUSDT</t>
+          <t>SEIUSDT</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.11</v>
+        <v>-4.27</v>
       </c>
       <c r="E14" t="n">
         <v>-3.37</v>
       </c>
       <c r="F14" t="n">
-        <v>92.69752002128155</v>
+        <v>0.008704336526355654</v>
       </c>
       <c r="G14" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>2.227979447545452</v>
+        <v>-2.034647766925575</v>
       </c>
       <c r="I14" t="n">
-        <v>2.227979447545452</v>
+        <v>2.034647766925575</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1872496958782001</v>
+        <v>0.3562011559037863</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DYMUSDT</t>
+          <t>HBARUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RIFUSDT</t>
+          <t>ARBUSDT</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.38</v>
+        <v>-4</v>
       </c>
       <c r="E15" t="n">
         <v>-3.37</v>
       </c>
       <c r="F15" t="n">
-        <v>17.48386417880914</v>
+        <v>0.09714643397153601</v>
       </c>
       <c r="G15" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.543181985092434</v>
+        <v>2.202525561362401</v>
       </c>
       <c r="I15" t="n">
-        <v>2.543181985092434</v>
+        <v>2.202525561362401</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1689852878758162</v>
+        <v>0.3168565297863287</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GLMUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ONTUSDT</t>
+          <t>OGNUSDT</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.59</v>
+        <v>-5.25</v>
       </c>
       <c r="E16" t="n">
         <v>-3.37</v>
       </c>
       <c r="F16" t="n">
-        <v>1.693083194070157</v>
+        <v>4.177173364967423</v>
       </c>
       <c r="G16" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.330245040127218</v>
+        <v>2.052192483910122</v>
       </c>
       <c r="I16" t="n">
-        <v>2.330245040127218</v>
+        <v>2.052192483910122</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1605763975107203</v>
+        <v>0.3125401799059245</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NEARUSDT</t>
+          <t>BELUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>STEEMUSDT</t>
+          <t>RIFUSDT</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.56</v>
+        <v>-4.23</v>
       </c>
       <c r="E17" t="n">
         <v>-3.37</v>
       </c>
       <c r="F17" t="n">
-        <v>26.55673747081071</v>
+        <v>5.6476447195409</v>
       </c>
       <c r="G17" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H17" t="n">
-        <v>2.109646365764002</v>
+        <v>-2.16302462374352</v>
       </c>
       <c r="I17" t="n">
-        <v>2.109646365764002</v>
+        <v>2.16302462374352</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1497387825392129</v>
+        <v>0.3025845759045076</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ARPAUSDT</t>
+          <t>CHRUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BEAMUSDT</t>
+          <t>LEVERUSDT</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.54</v>
+        <v>-4.11</v>
       </c>
       <c r="E18" t="n">
         <v>-3.37</v>
       </c>
       <c r="F18" t="n">
-        <v>2.644250302210794</v>
+        <v>92.70174175140002</v>
       </c>
       <c r="G18" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.268585612763822</v>
+        <v>2.574602305442121</v>
       </c>
       <c r="I18" t="n">
-        <v>2.268585612763822</v>
+        <v>2.574602305442121</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1410307100196126</v>
+        <v>0.3012903547056041</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORDIUSDT</t>
+          <t>TIAUSDT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-4</v>
+        <v>-4.13</v>
       </c>
       <c r="E19" t="n">
         <v>-3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5943555509504028</v>
+        <v>0.06502528128697044</v>
       </c>
       <c r="G19" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" t="n">
-        <v>2.243549227206854</v>
+        <v>2.515033414283935</v>
       </c>
       <c r="I19" t="n">
-        <v>2.243549227206854</v>
+        <v>2.515033414283935</v>
       </c>
       <c r="J19" t="n">
-        <v>0.133094318312318</v>
+        <v>0.2797677145190968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>BEAMUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>QTUMUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.82</v>
+        <v>-4.52</v>
       </c>
       <c r="E20" t="n">
         <v>-3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08516776001284709</v>
+        <v>0.08643983852743688</v>
       </c>
       <c r="G20" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H20" t="n">
-        <v>-2.109264819749422</v>
+        <v>2.366060523959733</v>
       </c>
       <c r="I20" t="n">
-        <v>2.109264819749422</v>
+        <v>2.366060523959733</v>
       </c>
       <c r="J20" t="n">
-        <v>0.09052692553355071</v>
+        <v>0.2759428093772927</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GMTUSDT</t>
+          <t>DYMUSDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NKNUSDT</t>
+          <t>NEARUSDT</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0.01</v>
       </c>
       <c r="D21" t="n">
-        <v>-3.94</v>
+        <v>-4.1</v>
       </c>
       <c r="E21" t="n">
         <v>-3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>1.904352525537662</v>
+        <v>0.3503558817569172</v>
       </c>
       <c r="G21" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H21" t="n">
-        <v>2.096902509463769</v>
+        <v>-2.159106338916366</v>
       </c>
       <c r="I21" t="n">
-        <v>2.096902509463769</v>
+        <v>2.159106338916366</v>
       </c>
       <c r="J21" t="n">
-        <v>0.08660814354280318</v>
+        <v>0.2511688732979382</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>TRBUSDT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>EOSUSDT</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>FLMUSDT</t>
-        </is>
-      </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.38</v>
+        <v>-4.92</v>
       </c>
       <c r="E22" t="n">
         <v>-3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>8.641961079579817</v>
+        <v>134.8958366124664</v>
       </c>
       <c r="G22" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H22" t="n">
-        <v>2.096142117989756</v>
+        <v>-2.018298044409061</v>
       </c>
       <c r="I22" t="n">
-        <v>2.096142117989756</v>
+        <v>2.018298044409061</v>
       </c>
       <c r="J22" t="n">
-        <v>0.08636710377390674</v>
+        <v>0.2502938914234434</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>DYMUSDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAVIAUSDT</t>
+          <t>RIFUSDT</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.1</v>
+        <v>-4.36</v>
       </c>
       <c r="E23" t="n">
         <v>-3.37</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0970315675098504</v>
+        <v>17.48326815406823</v>
       </c>
       <c r="G23" t="n">
         <v>33</v>
       </c>
       <c r="H23" t="n">
-        <v>2.244878050244911</v>
+        <v>-2.645945080670927</v>
       </c>
       <c r="I23" t="n">
-        <v>2.244878050244911</v>
+        <v>2.645945080670927</v>
       </c>
       <c r="J23" t="n">
-        <v>0.07442463856043241</v>
+        <v>0.2270669782301039</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>LPTUSDT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>RENUSDT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.31</v>
+        <v>-3.96</v>
       </c>
       <c r="E24" t="n">
         <v>-3.37</v>
       </c>
       <c r="F24" t="n">
-        <v>49.83218860485215</v>
+        <v>319.1581044388784</v>
       </c>
       <c r="G24" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H24" t="n">
-        <v>2.010095794698683</v>
+        <v>-2.225070822609168</v>
       </c>
       <c r="I24" t="n">
-        <v>2.010095794698683</v>
+        <v>2.225070822609168</v>
       </c>
       <c r="J24" t="n">
-        <v>0.05909090909090904</v>
+        <v>0.225002283992772</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>COMPUSDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IDUSDT</t>
+          <t>REQUSDT</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.77</v>
+        <v>-4.08</v>
       </c>
       <c r="E25" t="n">
         <v>-3.37</v>
       </c>
       <c r="F25" t="n">
-        <v>0.412809243457927</v>
+        <v>449.459748788992</v>
       </c>
       <c r="G25" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H25" t="n">
-        <v>2.190094142565582</v>
+        <v>2.443297367041352</v>
       </c>
       <c r="I25" t="n">
-        <v>2.190094142565582</v>
+        <v>2.443297367041352</v>
       </c>
       <c r="J25" t="n">
-        <v>0.05705845167175023</v>
+        <v>0.2038489991764789</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>FLMUSDT</t>
+          <t>GLMUSDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>ONTUSDT</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.94</v>
+        <v>-7.57</v>
       </c>
       <c r="E26" t="n">
         <v>-3.37</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1554720201513325</v>
+        <v>1.693064634022745</v>
       </c>
       <c r="G26" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.11377515040508</v>
+        <v>-2.391833285302819</v>
       </c>
       <c r="I26" t="n">
-        <v>2.11377515040508</v>
+        <v>2.391833285302819</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03286576558639365</v>
+        <v>0.1852546810306856</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>FLMUSDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.44</v>
+        <v>-4.95</v>
       </c>
       <c r="E27" t="n">
         <v>-3.37</v>
       </c>
       <c r="F27" t="n">
-        <v>14.94345789123698</v>
+        <v>0.1554512568618814</v>
       </c>
       <c r="G27" t="n">
         <v>33</v>
       </c>
       <c r="H27" t="n">
-        <v>2.089254568205717</v>
+        <v>-2.52742805865213</v>
       </c>
       <c r="I27" t="n">
-        <v>2.089254568205717</v>
+        <v>2.52742805865213</v>
       </c>
       <c r="J27" t="n">
-        <v>0.02509288060735984</v>
+        <v>0.1842459827189864</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DYMUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MTLUSDT</t>
+          <t>ONEUSDT</t>
         </is>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-4.64</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F28" t="n">
+        <v>28.95719197278649</v>
+      </c>
+      <c r="G28" t="n">
+        <v>34</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.232760173700457</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.232760173700457</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1277804981509987</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NEOUSDT</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>POWRUSDT</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F29" t="n">
+        <v>49.83295165089129</v>
+      </c>
+      <c r="G29" t="n">
+        <v>34</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.086111205595386</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.086111205595386</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.07479524170453414</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>POWRUSDT</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>QTUMUSDT</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-4.82</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.08516867831297111</v>
+      </c>
+      <c r="G30" t="n">
+        <v>34</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2.083447398750242</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.083447398750242</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.07383279041259831</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GMTUSDT</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NKNUSDT</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>0.01</v>
       </c>
-      <c r="D28" t="n">
-        <v>-3.91</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-3.37</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1.582697495568745</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="D31" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.904353300650658</v>
+      </c>
+      <c r="G31" t="n">
+        <v>34</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.07976065085464</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.07976065085464</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.07250074365341477</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>INJUSDT</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ORDIUSDT</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-4.07</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.5942899718560727</v>
+      </c>
+      <c r="G32" t="n">
+        <v>34</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.02229079965086</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.02229079965086</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.05173650069065015</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CTKUSDT</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>UNIUSDT</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-4.84</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.08090725792080464</v>
+      </c>
+      <c r="G33" t="n">
+        <v>34</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.017598954804572</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.017598954804572</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.05004130565723195</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ENJUSDT</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>IDUSDT</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-4.76</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.4128017742638931</v>
+      </c>
+      <c r="G34" t="n">
         <v>33</v>
       </c>
-      <c r="H28" t="n">
-        <v>-2.049506755257171</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.049506755257171</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.01249305015858582</v>
+      <c r="H34" t="n">
+        <v>2.100721245256864</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.100721245256864</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.03007394709304962</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ENJUSDT</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MAVIAUSDT</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-4.11</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.09702809855422811</v>
+      </c>
+      <c r="G35" t="n">
+        <v>33</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.090054821238027</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.090054821238027</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.02622009650475305</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>LUNA2USDT</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>OPUSDT</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-4.43</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.2355204749764619</v>
+      </c>
+      <c r="G36" t="n">
+        <v>33</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.065850056860297</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.065850056860297</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01747475267893495</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>NTRNUSDT</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>THETAUSDT</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-4.43</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.3171013124325511</v>
+      </c>
+      <c r="G37" t="n">
+        <v>33</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-2.017484631832178</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.017484631832178</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,84 +488,84 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MDTUSDT</t>
+          <t>OXTUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OPUSDT</t>
+          <t>XNOUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.22</v>
+        <v>-5.12</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02630931385315502</v>
+        <v>0.08249976024057572</v>
       </c>
       <c r="G2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.344829892748583</v>
+        <v>2.894972787859954</v>
       </c>
       <c r="I2" t="n">
-        <v>2.344829892748583</v>
+        <v>2.894972787859954</v>
       </c>
       <c r="J2" t="n">
-        <v>0.768272039826176</v>
+        <v>0.7716276254389514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OXTUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>XNOUSDT</t>
+          <t>OPUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.38</v>
+        <v>-4.08</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08247761341216867</v>
+        <v>0.02637724979707725</v>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="n">
-        <v>2.545851205094876</v>
+        <v>2.366976053833013</v>
       </c>
       <c r="I3" t="n">
-        <v>2.545851205094876</v>
+        <v>2.366976053833013</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7409023891801644</v>
+        <v>0.7184096945168142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FORTHUSDT</t>
+          <t>OPUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OXTUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -578,390 +578,390 @@
         <v>-3.37</v>
       </c>
       <c r="F4" t="n">
-        <v>41.1443019975694</v>
+        <v>13.31441555208164</v>
       </c>
       <c r="G4" t="n">
         <v>41</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.538145927779023</v>
+        <v>-3.05723822433926</v>
       </c>
       <c r="I4" t="n">
-        <v>2.538145927779023</v>
+        <v>3.05723822433926</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5881184207701099</v>
+        <v>0.6421293610103171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CTKUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ETHUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.22</v>
+        <v>-4.94</v>
       </c>
       <c r="E5" t="n">
         <v>-3.37</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002166167438420248</v>
+        <v>42.83505903642285</v>
       </c>
       <c r="G5" t="n">
         <v>42</v>
       </c>
       <c r="H5" t="n">
-        <v>2.210268589079773</v>
+        <v>-2.452707007428997</v>
       </c>
       <c r="I5" t="n">
-        <v>2.210268589079773</v>
+        <v>2.452707007428997</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5196541376698227</v>
+        <v>0.5733457568246153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CFXUSDT</t>
+          <t>CTCUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ICPUSDT</t>
+          <t>EOSUSDT</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.37</v>
+        <v>-4.38</v>
       </c>
       <c r="E6" t="n">
         <v>-3.37</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0182005682566838</v>
+        <v>0.8600956968663432</v>
       </c>
       <c r="G6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.92839498038469</v>
+        <v>2.130743587532364</v>
       </c>
       <c r="I6" t="n">
-        <v>2.92839498038469</v>
+        <v>2.130743587532364</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4791180227276642</v>
+        <v>0.562031123975988</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ATAUSDT</t>
+          <t>ACHUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LOOKSUSDT</t>
+          <t>ETCUSDT</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.78</v>
+        <v>-5.09</v>
       </c>
       <c r="E7" t="n">
         <v>-3.37</v>
       </c>
       <c r="F7" t="n">
-        <v>1.976496303427513</v>
+        <v>0.00101308360217519</v>
       </c>
       <c r="G7" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" t="n">
-        <v>2.095450541359168</v>
+        <v>-2.078124618831657</v>
       </c>
       <c r="I7" t="n">
-        <v>2.095450541359168</v>
+        <v>2.078124618831657</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4781696063992048</v>
+        <v>0.5513294161522139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HFTUSDT</t>
+          <t>FORTHUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HOOKUSDT</t>
+          <t>OXTUSDT</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.15</v>
+        <v>-4.24</v>
       </c>
       <c r="E8" t="n">
         <v>-3.37</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3518315146183657</v>
+        <v>41.12740679858597</v>
       </c>
       <c r="G8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H8" t="n">
-        <v>2.06548177402872</v>
+        <v>-2.452174233537456</v>
       </c>
       <c r="I8" t="n">
-        <v>2.06548177402872</v>
+        <v>2.452174233537456</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4673416896200664</v>
+        <v>0.5190707339764384</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MERLUSDT</t>
+          <t>BADGERUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RIFUSDT</t>
+          <t>ZRXUSDT</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.11</v>
+        <v>-5.54</v>
       </c>
       <c r="E9" t="n">
         <v>-3.37</v>
       </c>
       <c r="F9" t="n">
-        <v>2.986320444220953</v>
+        <v>8.82974898510833</v>
       </c>
       <c r="G9" t="n">
         <v>41</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.036469577317154</v>
+        <v>-2.439039740276216</v>
       </c>
       <c r="I9" t="n">
-        <v>2.036469577317154</v>
+        <v>2.439039740276216</v>
       </c>
       <c r="J9" t="n">
-        <v>0.406859388225786</v>
+        <v>0.5163994252684585</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AUDIOUSDT</t>
+          <t>PYTHUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>REQUSDT</t>
+          <t>GASUSDT</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.61</v>
+        <v>-4.08</v>
       </c>
       <c r="E10" t="n">
         <v>-3.37</v>
       </c>
       <c r="F10" t="n">
-        <v>1.317896582246113</v>
+        <v>0.08841694114420751</v>
       </c>
       <c r="G10" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
-        <v>2.446789073733552</v>
+        <v>-2.177974066564916</v>
       </c>
       <c r="I10" t="n">
-        <v>2.446789073733552</v>
+        <v>2.177974066564916</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4051105762398071</v>
+        <v>0.4633035810916885</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ARPAUSDT</t>
+          <t>CTKUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BEAMUSDT</t>
+          <t>ETHUSDT</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.35</v>
+        <v>-4.82</v>
       </c>
       <c r="E11" t="n">
         <v>-3.37</v>
       </c>
       <c r="F11" t="n">
-        <v>2.642925639851157</v>
+        <v>0.0002168737304753813</v>
       </c>
       <c r="G11" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.986190688556371</v>
+        <v>2.309921634752818</v>
       </c>
       <c r="I11" t="n">
-        <v>2.986190688556371</v>
+        <v>2.309921634752818</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3999999999999998</v>
+        <v>0.435972566237891</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DENTUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ONEUSDT</t>
+          <t>OPUSDT</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.46</v>
+        <v>-4.19</v>
       </c>
       <c r="E12" t="n">
         <v>-3.37</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06566508309786598</v>
+        <v>0.2360363582470454</v>
       </c>
       <c r="G12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12" t="n">
-        <v>2.136769650146193</v>
+        <v>2.030614079288308</v>
       </c>
       <c r="I12" t="n">
-        <v>2.136769650146193</v>
+        <v>2.030614079288308</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3930984777271729</v>
+        <v>0.4333333333333332</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ACHUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ETCUSDT</t>
+          <t>DATAUSDT</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.91</v>
+        <v>-4.22</v>
       </c>
       <c r="E13" t="n">
         <v>-3.37</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001014727228474582</v>
+        <v>48.67284211464851</v>
       </c>
       <c r="G13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.25978949545775</v>
+        <v>-2.791550037616357</v>
       </c>
       <c r="I13" t="n">
-        <v>2.25978949545775</v>
+        <v>2.791550037616357</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3875463735157545</v>
+        <v>0.4255933846933082</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10000000AIDOGEUSDT</t>
+          <t>BELUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SEIUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.27</v>
+        <v>-5.44</v>
       </c>
       <c r="E14" t="n">
         <v>-3.37</v>
       </c>
       <c r="F14" t="n">
-        <v>0.008704336526355654</v>
+        <v>4.482871667626338</v>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H14" t="n">
-        <v>-2.034647766925575</v>
+        <v>-2.722603609269409</v>
       </c>
       <c r="I14" t="n">
-        <v>2.034647766925575</v>
+        <v>2.722603609269409</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3562011559037863</v>
+        <v>0.4115709788978122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBARUSDT</t>
+          <t>CTCUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ARBUSDT</t>
+          <t>FLMUSDT</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -974,811 +974,883 @@
         <v>-3.37</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09714643397153601</v>
+        <v>7.430592798443429</v>
       </c>
       <c r="G15" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H15" t="n">
-        <v>2.202525561362401</v>
+        <v>2.328558620475686</v>
       </c>
       <c r="I15" t="n">
-        <v>2.202525561362401</v>
+        <v>2.328558620475686</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3168565297863287</v>
+        <v>0.3855963116763425</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>ZBCNUSDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OGNUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.25</v>
+        <v>-3.96</v>
       </c>
       <c r="E16" t="n">
         <v>-3.37</v>
       </c>
       <c r="F16" t="n">
-        <v>4.177173364967423</v>
+        <v>0.009619363573387394</v>
       </c>
       <c r="G16" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H16" t="n">
-        <v>2.052192483910122</v>
+        <v>-3.751520625095365</v>
       </c>
       <c r="I16" t="n">
-        <v>2.052192483910122</v>
+        <v>3.751520625095365</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3125401799059245</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BELUSDT</t>
+          <t>ZBCNUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>RIFUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D17" t="n">
-        <v>-4.23</v>
+        <v>-3.97</v>
       </c>
       <c r="E17" t="n">
         <v>-3.37</v>
       </c>
       <c r="F17" t="n">
-        <v>5.6476447195409</v>
+        <v>0.006602690492167274</v>
       </c>
       <c r="G17" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.16302462374352</v>
+        <v>-2.667617203507791</v>
       </c>
       <c r="I17" t="n">
-        <v>2.16302462374352</v>
+        <v>2.667617203507791</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3025845759045076</v>
+        <v>0.3462211122697897</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHRUSDT</t>
+          <t>SCRTUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LEVERUSDT</t>
+          <t>PROMUSDT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.11</v>
+        <v>-4</v>
       </c>
       <c r="E18" t="n">
         <v>-3.37</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70174175140002</v>
+        <v>0.03774163389964369</v>
       </c>
       <c r="G18" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H18" t="n">
-        <v>2.574602305442121</v>
+        <v>2.398268175774234</v>
       </c>
       <c r="I18" t="n">
-        <v>2.574602305442121</v>
+        <v>2.398268175774234</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3012903547056041</v>
+        <v>0.3456072564633237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>LEVERUSDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TIAUSDT</t>
+          <t>SNXUSDT</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.13</v>
+        <v>-3.93</v>
       </c>
       <c r="E19" t="n">
         <v>-3.37</v>
       </c>
       <c r="F19" t="n">
-        <v>0.06502528128697044</v>
+        <v>0.001325025796339941</v>
       </c>
       <c r="G19" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" t="n">
-        <v>2.515033414283935</v>
+        <v>-3.711535738444743</v>
       </c>
       <c r="I19" t="n">
-        <v>2.515033414283935</v>
+        <v>3.711535738444743</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2797677145190968</v>
+        <v>0.3418678266627462</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BEAMUSDT</t>
+          <t>CHZUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WOOUSDT</t>
+          <t>YGGUSDT</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.52</v>
+        <v>-4.93</v>
       </c>
       <c r="E20" t="n">
         <v>-3.37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08643983852743688</v>
+        <v>0.1394253844327798</v>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H20" t="n">
-        <v>2.366060523959733</v>
+        <v>2.315343934636994</v>
       </c>
       <c r="I20" t="n">
-        <v>2.366060523959733</v>
+        <v>2.315343934636994</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2759428093772927</v>
+        <v>0.3287420266408507</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DYMUSDT</t>
+          <t>BEAMUSDT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NEARUSDT</t>
+          <t>WOOUSDT</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.1</v>
+        <v>-4.37</v>
       </c>
       <c r="E21" t="n">
         <v>-3.37</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3503558817569172</v>
+        <v>0.08650858911101669</v>
       </c>
       <c r="G21" t="n">
         <v>37</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.159106338916366</v>
+        <v>2.233696827973251</v>
       </c>
       <c r="I21" t="n">
-        <v>2.159106338916366</v>
+        <v>2.233696827973251</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2511688732979382</v>
+        <v>0.2579698752650137</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TRBUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>EOSUSDT</t>
+          <t>IDUSDT</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.92</v>
+        <v>-4.8</v>
       </c>
       <c r="E22" t="n">
         <v>-3.37</v>
       </c>
       <c r="F22" t="n">
-        <v>134.8958366124664</v>
+        <v>0.4127415093069768</v>
       </c>
       <c r="G22" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H22" t="n">
-        <v>-2.018298044409061</v>
+        <v>2.865631117913245</v>
       </c>
       <c r="I22" t="n">
-        <v>2.018298044409061</v>
+        <v>2.865631117913245</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2502938914234434</v>
+        <v>0.223993415382802</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DYMUSDT</t>
+          <t>CHRUSDT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>RIFUSDT</t>
+          <t>LEVERUSDT</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D23" t="n">
-        <v>-4.36</v>
+        <v>-4.08</v>
       </c>
       <c r="E23" t="n">
         <v>-3.37</v>
       </c>
       <c r="F23" t="n">
-        <v>17.48326815406823</v>
+        <v>92.88825369888353</v>
       </c>
       <c r="G23" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.645945080670927</v>
+        <v>2.580447769962092</v>
       </c>
       <c r="I23" t="n">
-        <v>2.645945080670927</v>
+        <v>2.580447769962092</v>
       </c>
       <c r="J23" t="n">
-        <v>0.2270669782301039</v>
+        <v>0.2201591568823828</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>LPTUSDT</t>
+          <t>ARBUSDT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>RENUSDT</t>
+          <t>SCRTUSDT</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.96</v>
+        <v>-6.06</v>
       </c>
       <c r="E24" t="n">
         <v>-3.37</v>
       </c>
       <c r="F24" t="n">
-        <v>319.1581044388784</v>
+        <v>2.717104876868295</v>
       </c>
       <c r="G24" t="n">
         <v>36</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.225070822609168</v>
+        <v>-2.249589433319604</v>
       </c>
       <c r="I24" t="n">
-        <v>2.225070822609168</v>
+        <v>2.249589433319604</v>
       </c>
       <c r="J24" t="n">
-        <v>0.225002283992772</v>
+        <v>0.2070354653904294</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>COMPUSDT</t>
+          <t>BCHUSDT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>REQUSDT</t>
+          <t>XVGUSDT</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.08</v>
+        <v>-4.13</v>
       </c>
       <c r="E25" t="n">
         <v>-3.37</v>
       </c>
       <c r="F25" t="n">
-        <v>449.459748788992</v>
+        <v>86722.42731894749</v>
       </c>
       <c r="G25" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25" t="n">
-        <v>2.443297367041352</v>
+        <v>-2.476836793233484</v>
       </c>
       <c r="I25" t="n">
-        <v>2.443297367041352</v>
+        <v>2.476836793233484</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2038489991764789</v>
+        <v>0.1990866344125435</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GLMUSDT</t>
+          <t>COREUSDT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ONTUSDT</t>
+          <t>HFTUSDT</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.57</v>
+        <v>-5.52</v>
       </c>
       <c r="E26" t="n">
         <v>-3.37</v>
       </c>
       <c r="F26" t="n">
-        <v>1.693064634022745</v>
+        <v>6.37304315959023</v>
       </c>
       <c r="G26" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.391833285302819</v>
+        <v>-2.84515172795709</v>
       </c>
       <c r="I26" t="n">
-        <v>2.391833285302819</v>
+        <v>2.84515172795709</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1852546810306856</v>
+        <v>0.16566162626825</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FLMUSDT</t>
+          <t>ENJUSDT</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>MAVIAUSDT</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.95</v>
+        <v>-4.08</v>
       </c>
       <c r="E27" t="n">
         <v>-3.37</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1554512568618814</v>
+        <v>0.09730767389317389</v>
       </c>
       <c r="G27" t="n">
         <v>33</v>
       </c>
       <c r="H27" t="n">
-        <v>-2.52742805865213</v>
+        <v>2.817906470675211</v>
       </c>
       <c r="I27" t="n">
-        <v>2.52742805865213</v>
+        <v>2.817906470675211</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1842459827189864</v>
+        <v>0.1601204537554883</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>XCNUSDT</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ONEUSDT</t>
+          <t>CTCUSDT</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.64</v>
+        <v>-3.91</v>
       </c>
       <c r="E28" t="n">
         <v>-3.37</v>
       </c>
       <c r="F28" t="n">
-        <v>28.95719197278649</v>
+        <v>0.003065451933507091</v>
       </c>
       <c r="G28" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28" t="n">
-        <v>2.232760173700457</v>
+        <v>-2.215165285058471</v>
       </c>
       <c r="I28" t="n">
-        <v>2.232760173700457</v>
+        <v>2.215165285058471</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1277804981509987</v>
+        <v>0.1458675749090516</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NEOUSDT</t>
+          <t>NKNUSDT</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>LTOUSDT</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.3</v>
+        <v>-4.03</v>
       </c>
       <c r="E29" t="n">
         <v>-3.37</v>
       </c>
       <c r="F29" t="n">
-        <v>49.83295165089129</v>
+        <v>0.6062989462776949</v>
       </c>
       <c r="G29" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29" t="n">
-        <v>2.086111205595386</v>
+        <v>-2.13680258010537</v>
       </c>
       <c r="I29" t="n">
-        <v>2.086111205595386</v>
+        <v>2.13680258010537</v>
       </c>
       <c r="J29" t="n">
-        <v>0.07479524170453414</v>
+        <v>0.1299300756878356</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>MAVIAUSDT</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>QTUMUSDT</t>
+          <t>RLCUSDT</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.82</v>
+        <v>-6.06</v>
       </c>
       <c r="E30" t="n">
         <v>-3.37</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08516867831297111</v>
+        <v>0.9792353672048826</v>
       </c>
       <c r="G30" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H30" t="n">
-        <v>-2.083447398750242</v>
+        <v>-2.135056509003034</v>
       </c>
       <c r="I30" t="n">
-        <v>2.083447398750242</v>
+        <v>2.135056509003034</v>
       </c>
       <c r="J30" t="n">
-        <v>0.07383279041259831</v>
+        <v>0.1295749576906924</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GMTUSDT</t>
+          <t>CHZUSDT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NKNUSDT</t>
+          <t>TIAUSDT</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.95</v>
+        <v>-4.71</v>
       </c>
       <c r="E31" t="n">
         <v>-3.37</v>
       </c>
       <c r="F31" t="n">
-        <v>1.904353300650658</v>
+        <v>0.01235182369500521</v>
       </c>
       <c r="G31" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" t="n">
-        <v>2.07976065085464</v>
+        <v>2.102513625729223</v>
       </c>
       <c r="I31" t="n">
-        <v>2.07976065085464</v>
+        <v>2.102513625729223</v>
       </c>
       <c r="J31" t="n">
-        <v>0.07250074365341477</v>
+        <v>0.1229563477646711</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>INJUSDT</t>
+          <t>LUNA2USDT</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ORDIUSDT</t>
+          <t>TIAUSDT</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.07</v>
+        <v>-4.11</v>
       </c>
       <c r="E32" t="n">
         <v>-3.37</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5942899718560727</v>
+        <v>0.06517106166985009</v>
       </c>
       <c r="G32" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H32" t="n">
-        <v>2.02229079965086</v>
+        <v>2.075463161586497</v>
       </c>
       <c r="I32" t="n">
-        <v>2.02229079965086</v>
+        <v>2.075463161586497</v>
       </c>
       <c r="J32" t="n">
-        <v>0.05173650069065015</v>
+        <v>0.1174547925099585</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CTKUSDT</t>
+          <t>XCNUSDT</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UNIUSDT</t>
+          <t>FLOWUSDT</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D33" t="n">
-        <v>-4.84</v>
+        <v>-4.03</v>
       </c>
       <c r="E33" t="n">
         <v>-3.37</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08090725792080464</v>
+        <v>0.002377896452186487</v>
       </c>
       <c r="G33" t="n">
         <v>34</v>
       </c>
       <c r="H33" t="n">
-        <v>2.017598954804572</v>
+        <v>-2.275355010055855</v>
       </c>
       <c r="I33" t="n">
-        <v>2.017598954804572</v>
+        <v>2.275355010055855</v>
       </c>
       <c r="J33" t="n">
-        <v>0.05004130565723195</v>
+        <v>0.1039423653978662</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>DOTUSDT</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IDUSDT</t>
+          <t>TRBUSDT</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-4.76</v>
+        <v>-4.2</v>
       </c>
       <c r="E34" t="n">
         <v>-3.37</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4128017742638931</v>
+        <v>0.06767757053215299</v>
       </c>
       <c r="G34" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H34" t="n">
-        <v>2.100721245256864</v>
+        <v>2.27214615622746</v>
       </c>
       <c r="I34" t="n">
-        <v>2.100721245256864</v>
+        <v>2.27214615622746</v>
       </c>
       <c r="J34" t="n">
-        <v>0.03007394709304962</v>
+        <v>0.103289744927176</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ENJUSDT</t>
+          <t>SCRTUSDT</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAVIAUSDT</t>
+          <t>VANRYUSDT</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-4.11</v>
+        <v>-4.12</v>
       </c>
       <c r="E35" t="n">
         <v>-3.37</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09702809855422811</v>
+        <v>2.125218456422135</v>
       </c>
       <c r="G35" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H35" t="n">
-        <v>2.090054821238027</v>
+        <v>2.245461958661654</v>
       </c>
       <c r="I35" t="n">
-        <v>2.090054821238027</v>
+        <v>2.245461958661654</v>
       </c>
       <c r="J35" t="n">
-        <v>0.02622009650475305</v>
+        <v>0.09786268140023008</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LUNA2USDT</t>
+          <t>CHRUSDT</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>OPUSDT</t>
+          <t>LPTUSDT</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.43</v>
+        <v>-3.96</v>
       </c>
       <c r="E36" t="n">
         <v>-3.37</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2355204749764619</v>
+        <v>0.01527114716251462</v>
       </c>
       <c r="G36" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H36" t="n">
-        <v>2.065850056860297</v>
+        <v>2.122854124340826</v>
       </c>
       <c r="I36" t="n">
-        <v>2.065850056860297</v>
+        <v>2.122854124340826</v>
       </c>
       <c r="J36" t="n">
-        <v>0.01747475267893495</v>
+        <v>0.07292655566066238</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NTRNUSDT</t>
+          <t>RENUSDT</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>THETAUSDT</t>
+          <t>TIAUSDT</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.43</v>
+        <v>-3.92</v>
       </c>
       <c r="E37" t="n">
         <v>-3.37</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3171013124325511</v>
+        <v>0.007030471198897462</v>
       </c>
       <c r="G37" t="n">
         <v>33</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.017484631832178</v>
+        <v>2.161227860588019</v>
       </c>
       <c r="I37" t="n">
-        <v>2.017484631832178</v>
+        <v>2.161227860588019</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>0.02656438466474651</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NTRNUSDT</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>THETAUSDT</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-4.26</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.3166582505439361</v>
+      </c>
+      <c r="G38" t="n">
+        <v>33</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-2.105034230479057</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2.105034230479057</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.01513565799387838</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GODSUSDT</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>STMXUSDT</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-4.62</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F39" t="n">
+        <v>32.54159047435771</v>
+      </c>
+      <c r="G39" t="n">
+        <v>33</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.058312254652019</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.058312254652019</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.005633287525646801</v>
       </c>
     </row>
   </sheetData>

--- a/2_cointegrated_pairs.xlsx
+++ b/2_cointegrated_pairs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,73 +488,253 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>POWRUSDT</t>
+          <t>MDTUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SCUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-5.71</v>
+        <v>-4.52</v>
       </c>
       <c r="E2" t="n">
         <v>-3.37</v>
       </c>
       <c r="F2" t="n">
-        <v>44.53392460314144</v>
+        <v>0.02315247491838156</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.728880848179268</v>
+        <v>2.456204740582103</v>
       </c>
       <c r="I2" t="n">
-        <v>2.728880848179268</v>
+        <v>2.456204740582103</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.7399924154774947</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CFXUSDT</t>
+          <t>RADUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CAKEUSDT</t>
+          <t>SLPUSDT</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0.01</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.08</v>
+        <v>-3.93</v>
       </c>
       <c r="E3" t="n">
         <v>-3.37</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07983923344334894</v>
+        <v>431.6203056320805</v>
       </c>
       <c r="G3" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.511659156093279</v>
+        <v>-2.802706882828792</v>
       </c>
       <c r="I3" t="n">
-        <v>2.511659156093279</v>
+        <v>2.802706882828792</v>
       </c>
       <c r="J3" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MDTUSDT</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RADUSDT</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-5.57</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.03741065653899991</v>
+      </c>
+      <c r="G4" t="n">
+        <v>34</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.605594580902284</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.605594580902284</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3020912650892226</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CTKUSDT</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>BCHUSDT</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.001680653672749637</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-2.31203658031444</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.31203658031444</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2651451330339672</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CTCUSDT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>XVGUSDT</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F6" t="n">
+        <v>114.2351074441845</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.279652501055378</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.279652501055378</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2408448324051201</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HFTUSDT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>BALUSDT</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07588516995535464</v>
+      </c>
+      <c r="G7" t="n">
+        <v>36</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.203009130559901</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.203009130559901</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.1833333333333337</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DODOUSDT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>NKNUSDT</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3.37</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.627761738959612</v>
+      </c>
+      <c r="G8" t="n">
+        <v>34</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-2.209465009284051</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.209465009284051</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.00484434936578686</v>
       </c>
     </row>
   </sheetData>
